--- a/DFS/DFS Documentation - Jonathan Sarasua.xlsx
+++ b/DFS/DFS Documentation - Jonathan Sarasua.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Guildhall\DFS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE829CD5-19C4-4766-8F30-AADBDF50DC52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9744D6-ABA9-415F-B9C2-C0887F13BFF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{C664E016-CE9A-4FC5-A772-98B630577C19}"/>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{45A633AA-53D9-4A86-8576-B3408263D8D7}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{C664E016-CE9A-4FC5-A772-98B630577C19}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{3D84B222-422C-4254-85C9-E5FC35CCD999}"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="209">
   <si>
     <t>Fields</t>
   </si>
@@ -106,18 +106,6 @@
     <t>Background</t>
   </si>
   <si>
-    <t>Data driven Weapons</t>
-  </si>
-  <si>
-    <t>Data driven Bullets</t>
-  </si>
-  <si>
-    <t>Weapons are data driven with Weapon visual, VFX, and SFX</t>
-  </si>
-  <si>
-    <t>Bullets are data driven with damage, visuals, VFX, and SFX</t>
-  </si>
-  <si>
     <t>Camera</t>
   </si>
   <si>
@@ -289,9 +277,6 @@
     <t>Enemies</t>
   </si>
   <si>
-    <t>Enemies are actors with data driven types. They have on hit and on death effects to drop loot</t>
-  </si>
-  <si>
     <t>Enemy Controller</t>
   </si>
   <si>
@@ -638,6 +623,48 @@
   </si>
   <si>
     <t>I</t>
+  </si>
+  <si>
+    <t>Bullets</t>
+  </si>
+  <si>
+    <t>Weapons may be data driven with Weapon visual, VFX, and SFX</t>
+  </si>
+  <si>
+    <t>Bullets may be data driven with damage, visuals, VFX, and SFX</t>
+  </si>
+  <si>
+    <t>Change documentation to reflect mmoving data driving out of milestone 1</t>
+  </si>
+  <si>
+    <t>Create Prototype player</t>
+  </si>
+  <si>
+    <t>Create prototype gun</t>
+  </si>
+  <si>
+    <t>Create Prototype bullets/firing</t>
+  </si>
+  <si>
+    <t>Enemies are actors that may be data driven. They have on hit and on death effects to drop loot</t>
+  </si>
+  <si>
+    <t>*0</t>
+  </si>
+  <si>
+    <t>Create Protogame as starting place</t>
+  </si>
+  <si>
+    <t>Protogame</t>
+  </si>
+  <si>
+    <t>Create Protogame as starting point</t>
+  </si>
+  <si>
+    <t>Create simple Enemy character with functions to shoot</t>
+  </si>
+  <si>
+    <t>*I</t>
   </si>
 </sst>
 </file>
@@ -693,7 +720,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -799,11 +826,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -820,6 +858,7 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -861,8 +900,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CE8E595B-F667-4157-9489-6674872D5FB0}" name="Table1" displayName="Table1" ref="A12:E48" totalsRowShown="0">
-  <autoFilter ref="A12:E48" xr:uid="{405829D9-14E9-4F75-A8FD-B274F101C96F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CE8E595B-F667-4157-9489-6674872D5FB0}" name="Table1" displayName="Table1" ref="A12:E49" totalsRowShown="0">
+  <autoFilter ref="A12:E49" xr:uid="{405829D9-14E9-4F75-A8FD-B274F101C96F}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{EE2B776A-53E2-4052-8C41-F2866817EAD3}" name="Feature Id"/>
     <tableColumn id="2" xr3:uid="{09B1D195-814B-4452-B5A6-A2BC7F5A99BB}" name="Game State"/>
@@ -923,8 +962,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{3AFC5965-674A-4451-AC25-19E71FAB4844}" name="Table35" displayName="Table35" ref="A11:J72" totalsRowCount="1">
-  <autoFilter ref="A11:J71" xr:uid="{4A443AB6-A518-4003-A068-759E12CFD484}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{3AFC5965-674A-4451-AC25-19E71FAB4844}" name="Table35" displayName="Table35" ref="A11:J77" totalsRowCount="1">
+  <autoFilter ref="A11:J76" xr:uid="{4A443AB6-A518-4003-A068-759E12CFD484}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A12:J71">
     <sortCondition ref="F11:F71"/>
   </sortState>
@@ -957,22 +996,30 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{4151FFFD-B746-4538-A0CE-AB3ABE724425}" name="Table356" displayName="Table356" ref="A17:J43" totalsRowCount="1">
-  <autoFilter ref="A17:J42" xr:uid="{7D17F18C-C430-4F21-9230-429FFCB76917}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A18:J42">
-    <sortCondition ref="F11:F42"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{4151FFFD-B746-4538-A0CE-AB3ABE724425}" name="Table356" displayName="Table356" ref="A17:J38" totalsRowCount="1">
+  <autoFilter ref="A17:J37" xr:uid="{7D17F18C-C430-4F21-9230-429FFCB76917}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A18:J37">
+    <sortCondition ref="F11:F37"/>
   </sortState>
   <tableColumns count="10">
     <tableColumn id="10" xr3:uid="{62B84147-86F3-475B-86AF-B1B525EF17F5}" name="Task ID"/>
-    <tableColumn id="9" xr3:uid="{04DB83DD-6041-463A-91B0-CD2D2B02A51C}" name="Status"/>
+    <tableColumn id="9" xr3:uid="{04DB83DD-6041-463A-91B0-CD2D2B02A51C}" name="Status">
+      <calculatedColumnFormula>VLOOKUP($A18,Table35[#All],2,TRUE)</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="2" xr3:uid="{66E4FD19-F3D8-4D4E-8B75-D158D7160B69}" name="Estimate" totalsRowFunction="custom">
+      <calculatedColumnFormula>VLOOKUP($A18,Table35[#All],3,TRUE)</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table356[Estimate])</totalsRowFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{6736C0BF-FD3D-4FAC-905E-4D3E13CD53DE}" name="Actual" totalsRowFunction="custom">
+      <calculatedColumnFormula>VLOOKUP($A18,Table35[#All],4,TRUE)</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table356[Actual])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{41F6EB5E-2051-4346-B074-A312A593B6CE}" name="Task"/>
-    <tableColumn id="4" xr3:uid="{CF2678FC-CD55-4A5C-BDFF-B2D47422F0AE}" name="Feature ID"/>
+    <tableColumn id="11" xr3:uid="{41F6EB5E-2051-4346-B074-A312A593B6CE}" name="Task">
+      <calculatedColumnFormula>VLOOKUP($A18,Table35[#All],5,TRUE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{CF2678FC-CD55-4A5C-BDFF-B2D47422F0AE}" name="Feature ID">
+      <calculatedColumnFormula>VLOOKUP($A18,Table35[#All],6,TRUE)</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="5" xr3:uid="{0C1DC99C-3562-42F4-872D-D0D85E3C0C2A}" name="Game State">
       <calculatedColumnFormula>VLOOKUP($F18,Table1[],2,TRUE)</calculatedColumnFormula>
     </tableColumn>
@@ -991,10 +1038,10 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{618CE7E4-5ADE-4E98-B2AC-0682EBACB73D}" name="Table3567" displayName="Table3567" ref="A47:J49" insertRow="1" totalsRowCount="1">
-  <autoFilter ref="A47:J48" xr:uid="{DD29A22F-BB19-4ADC-B414-52C64CAC47C4}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A48:J48">
-    <sortCondition ref="F11:F42"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{618CE7E4-5ADE-4E98-B2AC-0682EBACB73D}" name="Table3567" displayName="Table3567" ref="A42:J44" insertRow="1" totalsRowCount="1">
+  <autoFilter ref="A42:J43" xr:uid="{DD29A22F-BB19-4ADC-B414-52C64CAC47C4}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A43:J43">
+    <sortCondition ref="F11:F37"/>
   </sortState>
   <tableColumns count="10">
     <tableColumn id="10" xr3:uid="{C6F19666-4430-4172-9EF5-7BF02339E0BE}" name="Task ID"/>
@@ -1008,16 +1055,16 @@
     <tableColumn id="11" xr3:uid="{49D5F43A-A98B-42E6-ACBC-67D28734B648}" name="Task"/>
     <tableColumn id="4" xr3:uid="{E8FD2575-FD87-4AEC-B082-FC9EF15436ED}" name="Feature ID"/>
     <tableColumn id="5" xr3:uid="{00E2B42D-24A6-4373-8A60-41DF03320438}" name="Game State">
-      <calculatedColumnFormula>VLOOKUP($F48,Table1[],2,TRUE)</calculatedColumnFormula>
+      <calculatedColumnFormula>VLOOKUP($F43,Table1[],2,TRUE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{7CAF72B6-3BE7-4219-8CBF-3144E50061D4}" name="Area">
-      <calculatedColumnFormula>VLOOKUP($F48,Table1[],3,TRUE)</calculatedColumnFormula>
+      <calculatedColumnFormula>VLOOKUP($F43,Table1[],3,TRUE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{006D294A-1C72-4BE8-93FB-F3D69846DA4B}" name="Features">
-      <calculatedColumnFormula>VLOOKUP($F48,Table1[],4,TRUE)</calculatedColumnFormula>
+      <calculatedColumnFormula>VLOOKUP($F43,Table1[],4,TRUE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{34E05C3D-FA28-4EB6-94EB-403D79C130C2}" name="Description">
-      <calculatedColumnFormula>VLOOKUP($F48,Table1[],5,TRUE)</calculatedColumnFormula>
+      <calculatedColumnFormula>VLOOKUP($F43,Table1[],5,TRUE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1025,10 +1072,10 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A50E57C5-0AFB-4BA1-ADB8-B627D629FE7F}" name="Table35678" displayName="Table35678" ref="A52:J54" insertRow="1" totalsRowCount="1">
-  <autoFilter ref="A52:J53" xr:uid="{12F7B163-3DD2-4A1A-B717-142A2F111DBF}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A53:J53">
-    <sortCondition ref="F11:F42"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A50E57C5-0AFB-4BA1-ADB8-B627D629FE7F}" name="Table35678" displayName="Table35678" ref="A47:J49" insertRow="1" totalsRowCount="1">
+  <autoFilter ref="A47:J48" xr:uid="{12F7B163-3DD2-4A1A-B717-142A2F111DBF}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A48:J48">
+    <sortCondition ref="F11:F37"/>
   </sortState>
   <tableColumns count="10">
     <tableColumn id="10" xr3:uid="{F8381028-8A17-4B32-A639-67E8C8144828}" name="Task ID"/>
@@ -1042,16 +1089,16 @@
     <tableColumn id="11" xr3:uid="{91CFC98B-90CD-42BE-9A24-77BC97E0454A}" name="Task"/>
     <tableColumn id="4" xr3:uid="{B7F5769E-B85A-43C1-902D-895944D9FB69}" name="Feature ID"/>
     <tableColumn id="5" xr3:uid="{B24C2F29-63F0-444C-BEF7-9A76FCB32652}" name="Game State">
-      <calculatedColumnFormula>VLOOKUP($F53,Table1[],2,TRUE)</calculatedColumnFormula>
+      <calculatedColumnFormula>VLOOKUP($F48,Table1[],2,TRUE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{FE8182AE-9790-4939-8FF4-6070CF1562BE}" name="Area">
-      <calculatedColumnFormula>VLOOKUP($F53,Table1[],3,TRUE)</calculatedColumnFormula>
+      <calculatedColumnFormula>VLOOKUP($F48,Table1[],3,TRUE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{E7F548A7-6336-48B8-A133-B7FCEE2A2BDE}" name="Features">
-      <calculatedColumnFormula>VLOOKUP($F53,Table1[],4,TRUE)</calculatedColumnFormula>
+      <calculatedColumnFormula>VLOOKUP($F48,Table1[],4,TRUE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{FA6C449C-FC00-4EF7-B313-44A06BA6C8C8}" name="Description">
-      <calculatedColumnFormula>VLOOKUP($F53,Table1[],5,TRUE)</calculatedColumnFormula>
+      <calculatedColumnFormula>VLOOKUP($F48,Table1[],5,TRUE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1059,10 +1106,10 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{30F3182D-6F4F-47DA-9031-C4C7700B24D0}" name="Table356789" displayName="Table356789" ref="A57:J59" insertRow="1" totalsRowCount="1">
-  <autoFilter ref="A57:J58" xr:uid="{B94650E2-40D2-4E6D-BDD5-60BDE959C1FE}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A58:J58">
-    <sortCondition ref="F11:F42"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{30F3182D-6F4F-47DA-9031-C4C7700B24D0}" name="Table356789" displayName="Table356789" ref="A52:J54" insertRow="1" totalsRowCount="1">
+  <autoFilter ref="A52:J53" xr:uid="{B94650E2-40D2-4E6D-BDD5-60BDE959C1FE}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A53:J53">
+    <sortCondition ref="F11:F37"/>
   </sortState>
   <tableColumns count="10">
     <tableColumn id="10" xr3:uid="{DC6AA35E-8AA3-446B-B599-609F1953960A}" name="Task ID"/>
@@ -1076,16 +1123,16 @@
     <tableColumn id="11" xr3:uid="{F62C4925-2A4F-4E55-8ABC-E6F6593114DC}" name="Task"/>
     <tableColumn id="4" xr3:uid="{01A791A3-ACBC-4A55-B3B0-A86AD9A448A7}" name="Feature ID"/>
     <tableColumn id="5" xr3:uid="{295C0FE1-E8EF-4354-AFB2-7D7ABA42869A}" name="Game State">
-      <calculatedColumnFormula>VLOOKUP($F58,Table1[],2,TRUE)</calculatedColumnFormula>
+      <calculatedColumnFormula>VLOOKUP($F53,Table1[],2,TRUE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{FF2F79F8-5BB6-4B43-A8B1-9663B716C6B1}" name="Area">
-      <calculatedColumnFormula>VLOOKUP($F58,Table1[],3,TRUE)</calculatedColumnFormula>
+      <calculatedColumnFormula>VLOOKUP($F53,Table1[],3,TRUE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{5482843D-6E87-4AC9-93CD-093636B159C7}" name="Features">
-      <calculatedColumnFormula>VLOOKUP($F58,Table1[],4,TRUE)</calculatedColumnFormula>
+      <calculatedColumnFormula>VLOOKUP($F53,Table1[],4,TRUE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{677E5A6C-8291-472B-8F25-DC573BD78CC5}" name="Description">
-      <calculatedColumnFormula>VLOOKUP($F58,Table1[],5,TRUE)</calculatedColumnFormula>
+      <calculatedColumnFormula>VLOOKUP($F53,Table1[],5,TRUE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1400,12 +1447,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95CAAFA2-F5E8-420F-97C9-09E9E707D7A4}">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView topLeftCell="A16" workbookViewId="1">
+      <selection activeCell="E51" sqref="E51"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1430,7 +1479,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1440,10 +1489,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1524,7 +1573,7 @@
         <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1538,10 +1587,10 @@
         <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1558,7 +1607,7 @@
         <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1572,7 +1621,7 @@
         <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>
@@ -1589,10 +1638,10 @@
         <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E19" t="s">
-        <v>24</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1606,10 +1655,10 @@
         <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>195</v>
       </c>
       <c r="E20" t="s">
-        <v>25</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1620,13 +1669,13 @@
         <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E21" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1637,13 +1686,13 @@
         <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D22" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1654,13 +1703,13 @@
         <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D23" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E23" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1671,13 +1720,13 @@
         <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D24" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E24" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1688,13 +1737,13 @@
         <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D25" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E25" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1705,13 +1754,13 @@
         <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D26" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E26" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1722,13 +1771,13 @@
         <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D27" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1736,16 +1785,16 @@
         <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D28" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E28" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1756,13 +1805,13 @@
         <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D29" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E29" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1773,13 +1822,13 @@
         <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D30" t="s">
         <v>13</v>
       </c>
       <c r="E30" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1790,13 +1839,13 @@
         <v>9</v>
       </c>
       <c r="C31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" t="s">
         <v>47</v>
-      </c>
-      <c r="D31" t="s">
-        <v>50</v>
-      </c>
-      <c r="E31" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1807,13 +1856,13 @@
         <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D32" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E32" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1824,13 +1873,13 @@
         <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D33" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E33" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1841,13 +1890,13 @@
         <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D34" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E34" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1858,13 +1907,13 @@
         <v>9</v>
       </c>
       <c r="C35" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" t="s">
+        <v>67</v>
+      </c>
+      <c r="E35" t="s">
         <v>68</v>
-      </c>
-      <c r="D35" t="s">
-        <v>71</v>
-      </c>
-      <c r="E35" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1875,13 +1924,13 @@
         <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D36" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E36" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1892,13 +1941,13 @@
         <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D37" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E37" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1909,13 +1958,13 @@
         <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D38" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E38" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1926,13 +1975,13 @@
         <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D39" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E39" t="s">
-        <v>83</v>
+        <v>202</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1943,13 +1992,13 @@
         <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D40" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E40" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1960,13 +2009,13 @@
         <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D41" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E41" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1974,16 +2023,16 @@
         <v>30</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D42" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E42" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1994,13 +2043,13 @@
         <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D43" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E43" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -2011,13 +2060,13 @@
         <v>9</v>
       </c>
       <c r="C44" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44" t="s">
+        <v>55</v>
+      </c>
+      <c r="E44" t="s">
         <v>56</v>
-      </c>
-      <c r="D44" t="s">
-        <v>59</v>
-      </c>
-      <c r="E44" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -2028,13 +2077,13 @@
         <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D45" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E45" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -2045,13 +2094,13 @@
         <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D46" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E46" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -2062,13 +2111,13 @@
         <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D47" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E47" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -2076,16 +2125,33 @@
         <v>36</v>
       </c>
       <c r="B48" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C48" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D48" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E48" t="s">
-        <v>105</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>37</v>
+      </c>
+      <c r="B49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" t="s">
+        <v>205</v>
+      </c>
+      <c r="D49" t="s">
+        <v>205</v>
+      </c>
+      <c r="E49" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -2100,12 +2166,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDAEC069-D6F8-4CCE-BE78-F924E31A4A35}">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="1">
-      <selection activeCell="B46" sqref="B46"/>
-    </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2128,15 +2192,15 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B7" s="2">
         <v>43997</v>
@@ -2144,7 +2208,7 @@
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B8" s="2">
         <v>44011</v>
@@ -2152,7 +2216,7 @@
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B9" s="2">
         <v>44025</v>
@@ -2160,7 +2224,7 @@
     </row>
     <row r="10" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B10" s="2">
         <v>44033</v>
@@ -2172,10 +2236,10 @@
     </row>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B12" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -2192,7 +2256,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B13">
         <v>36</v>
@@ -2216,7 +2280,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -2240,7 +2304,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -2264,7 +2328,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -2288,7 +2352,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B17">
         <v>7</v>
@@ -2303,16 +2367,16 @@
       </c>
       <c r="E17" t="str">
         <f>VLOOKUP($B17,Table1[],4,TRUE)</f>
-        <v>Data driven Weapons</v>
+        <v>Weapons</v>
       </c>
       <c r="F17" t="str">
         <f>VLOOKUP($B17,Table1[],5,TRUE)</f>
-        <v>Weapons are data driven with Weapon visual, VFX, and SFX</v>
+        <v>Weapons may be data driven with Weapon visual, VFX, and SFX</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B18">
         <v>8</v>
@@ -2327,16 +2391,16 @@
       </c>
       <c r="E18" t="str">
         <f>VLOOKUP($B18,Table1[],4,TRUE)</f>
-        <v>Data driven Bullets</v>
+        <v>Bullets</v>
       </c>
       <c r="F18" t="str">
         <f>VLOOKUP($B18,Table1[],5,TRUE)</f>
-        <v>Bullets are data driven with damage, visuals, VFX, and SFX</v>
+        <v>Bullets may be data driven with damage, visuals, VFX, and SFX</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B19">
         <v>9</v>
@@ -2360,7 +2424,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B20">
         <v>17</v>
@@ -2384,7 +2448,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B21">
         <v>18</v>
@@ -2408,7 +2472,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B22">
         <v>19</v>
@@ -2432,7 +2496,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B23">
         <v>20</v>
@@ -2456,7 +2520,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B24">
         <v>21</v>
@@ -2480,7 +2544,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B25">
         <v>22</v>
@@ -2504,7 +2568,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B26">
         <v>23</v>
@@ -2528,7 +2592,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B27">
         <v>10</v>
@@ -2552,7 +2616,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B28">
         <v>11</v>
@@ -2576,7 +2640,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B29">
         <v>13</v>
@@ -2600,7 +2664,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B30">
         <v>24</v>
@@ -2624,7 +2688,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B31">
         <v>25</v>
@@ -2648,7 +2712,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B32">
         <v>26</v>
@@ -2672,7 +2736,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B33">
         <v>27</v>
@@ -2691,12 +2755,12 @@
       </c>
       <c r="F33" t="str">
         <f>VLOOKUP($B33,Table1[],5,TRUE)</f>
-        <v>Enemies are actors with data driven types. They have on hit and on death effects to drop loot</v>
+        <v>Enemies are actors that may be data driven. They have on hit and on death effects to drop loot</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B34">
         <v>31</v>
@@ -2720,7 +2784,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B35">
         <v>32</v>
@@ -2744,7 +2808,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B36">
         <v>33</v>
@@ -2768,7 +2832,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B37">
         <v>34</v>
@@ -2792,7 +2856,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B38">
         <v>35</v>
@@ -2816,7 +2880,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B39">
         <v>4</v>
@@ -2840,7 +2904,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B40">
         <v>5</v>
@@ -2864,7 +2928,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B41">
         <v>6</v>
@@ -2888,7 +2952,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B42">
         <v>12</v>
@@ -2912,7 +2976,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B43">
         <v>14</v>
@@ -2936,7 +3000,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B44">
         <v>15</v>
@@ -2960,7 +3024,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B45">
         <v>16</v>
@@ -2984,7 +3048,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B46">
         <v>28</v>
@@ -3008,7 +3072,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B47">
         <v>29</v>
@@ -3032,7 +3096,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B48">
         <v>30</v>
@@ -3067,13 +3131,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC20C21-6CC5-454B-A71B-54C5FBC17A7F}">
-  <dimension ref="A2:J72"/>
+  <dimension ref="A2:J77"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J72"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A49" workbookViewId="1">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3089,93 +3153,93 @@
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F4" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B6" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B8" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B11" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C11" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D11" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E11" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F11" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G11" t="s">
         <v>14</v>
@@ -3204,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -3240,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -3276,7 +3340,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F14">
         <v>3</v>
@@ -3312,7 +3376,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F15">
         <v>3</v>
@@ -3348,7 +3412,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F16">
         <v>4</v>
@@ -3384,7 +3448,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F17">
         <v>5</v>
@@ -3420,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F18">
         <v>6</v>
@@ -3446,8 +3510,8 @@
       <c r="A19">
         <v>8</v>
       </c>
-      <c r="B19">
-        <v>0</v>
+      <c r="B19" t="s">
+        <v>112</v>
       </c>
       <c r="C19">
         <v>1.5</v>
@@ -3456,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F19">
         <v>7</v>
@@ -3471,19 +3535,19 @@
       </c>
       <c r="I19" t="str">
         <f>VLOOKUP($F19,Table1[],4,TRUE)</f>
-        <v>Data driven Weapons</v>
+        <v>Weapons</v>
       </c>
       <c r="J19" t="str">
         <f>VLOOKUP($F19,Table1[],5,TRUE)</f>
-        <v>Weapons are data driven with Weapon visual, VFX, and SFX</v>
+        <v>Weapons may be data driven with Weapon visual, VFX, and SFX</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>9</v>
       </c>
-      <c r="B20">
-        <v>0</v>
+      <c r="B20" t="s">
+        <v>112</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -3492,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F20">
         <v>7</v>
@@ -3507,11 +3571,11 @@
       </c>
       <c r="I20" t="str">
         <f>VLOOKUP($F20,Table1[],4,TRUE)</f>
-        <v>Data driven Weapons</v>
+        <v>Weapons</v>
       </c>
       <c r="J20" t="str">
         <f>VLOOKUP($F20,Table1[],5,TRUE)</f>
-        <v>Weapons are data driven with Weapon visual, VFX, and SFX</v>
+        <v>Weapons may be data driven with Weapon visual, VFX, and SFX</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -3528,7 +3592,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F21">
         <v>7</v>
@@ -3543,11 +3607,11 @@
       </c>
       <c r="I21" t="str">
         <f>VLOOKUP($F21,Table1[],4,TRUE)</f>
-        <v>Data driven Weapons</v>
+        <v>Weapons</v>
       </c>
       <c r="J21" t="str">
         <f>VLOOKUP($F21,Table1[],5,TRUE)</f>
-        <v>Weapons are data driven with Weapon visual, VFX, and SFX</v>
+        <v>Weapons may be data driven with Weapon visual, VFX, and SFX</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -3564,7 +3628,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F22">
         <v>7</v>
@@ -3579,11 +3643,11 @@
       </c>
       <c r="I22" t="str">
         <f>VLOOKUP($F22,Table1[],4,TRUE)</f>
-        <v>Data driven Weapons</v>
+        <v>Weapons</v>
       </c>
       <c r="J22" t="str">
         <f>VLOOKUP($F22,Table1[],5,TRUE)</f>
-        <v>Weapons are data driven with Weapon visual, VFX, and SFX</v>
+        <v>Weapons may be data driven with Weapon visual, VFX, and SFX</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -3600,7 +3664,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F23">
         <v>7</v>
@@ -3615,11 +3679,11 @@
       </c>
       <c r="I23" t="str">
         <f>VLOOKUP($F23,Table1[],4,TRUE)</f>
-        <v>Data driven Weapons</v>
+        <v>Weapons</v>
       </c>
       <c r="J23" t="str">
         <f>VLOOKUP($F23,Table1[],5,TRUE)</f>
-        <v>Weapons are data driven with Weapon visual, VFX, and SFX</v>
+        <v>Weapons may be data driven with Weapon visual, VFX, and SFX</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -3636,7 +3700,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F24">
         <v>7</v>
@@ -3651,11 +3715,11 @@
       </c>
       <c r="I24" t="str">
         <f>VLOOKUP($F24,Table1[],4,TRUE)</f>
-        <v>Data driven Weapons</v>
+        <v>Weapons</v>
       </c>
       <c r="J24" t="str">
         <f>VLOOKUP($F24,Table1[],5,TRUE)</f>
-        <v>Weapons are data driven with Weapon visual, VFX, and SFX</v>
+        <v>Weapons may be data driven with Weapon visual, VFX, and SFX</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -3672,7 +3736,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F25">
         <v>7</v>
@@ -3687,11 +3751,11 @@
       </c>
       <c r="I25" t="str">
         <f>VLOOKUP($F25,Table1[],4,TRUE)</f>
-        <v>Data driven Weapons</v>
+        <v>Weapons</v>
       </c>
       <c r="J25" t="str">
         <f>VLOOKUP($F25,Table1[],5,TRUE)</f>
-        <v>Weapons are data driven with Weapon visual, VFX, and SFX</v>
+        <v>Weapons may be data driven with Weapon visual, VFX, and SFX</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -3708,7 +3772,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F26">
         <v>7</v>
@@ -3723,11 +3787,11 @@
       </c>
       <c r="I26" t="str">
         <f>VLOOKUP($F26,Table1[],4,TRUE)</f>
-        <v>Data driven Weapons</v>
+        <v>Weapons</v>
       </c>
       <c r="J26" t="str">
         <f>VLOOKUP($F26,Table1[],5,TRUE)</f>
-        <v>Weapons are data driven with Weapon visual, VFX, and SFX</v>
+        <v>Weapons may be data driven with Weapon visual, VFX, and SFX</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -3744,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F27">
         <v>7</v>
@@ -3759,19 +3823,19 @@
       </c>
       <c r="I27" t="str">
         <f>VLOOKUP($F27,Table1[],4,TRUE)</f>
-        <v>Data driven Weapons</v>
+        <v>Weapons</v>
       </c>
       <c r="J27" t="str">
         <f>VLOOKUP($F27,Table1[],5,TRUE)</f>
-        <v>Weapons are data driven with Weapon visual, VFX, and SFX</v>
+        <v>Weapons may be data driven with Weapon visual, VFX, and SFX</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>17</v>
       </c>
-      <c r="B28">
-        <v>0</v>
+      <c r="B28" t="s">
+        <v>112</v>
       </c>
       <c r="C28">
         <v>1.5</v>
@@ -3780,7 +3844,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F28">
         <v>8</v>
@@ -3795,17 +3859,20 @@
       </c>
       <c r="I28" t="str">
         <f>VLOOKUP($F28,Table1[],4,TRUE)</f>
-        <v>Data driven Bullets</v>
+        <v>Bullets</v>
       </c>
       <c r="J28" t="str">
         <f>VLOOKUP($F28,Table1[],5,TRUE)</f>
-        <v>Bullets are data driven with damage, visuals, VFX, and SFX</v>
+        <v>Bullets may be data driven with damage, visuals, VFX, and SFX</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>18</v>
       </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
       <c r="C29">
         <v>1</v>
       </c>
@@ -3813,7 +3880,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F29">
         <v>8</v>
@@ -3828,11 +3895,11 @@
       </c>
       <c r="I29" t="str">
         <f>VLOOKUP($F29,Table1[],4,TRUE)</f>
-        <v>Data driven Bullets</v>
+        <v>Bullets</v>
       </c>
       <c r="J29" t="str">
         <f>VLOOKUP($F29,Table1[],5,TRUE)</f>
-        <v>Bullets are data driven with damage, visuals, VFX, and SFX</v>
+        <v>Bullets may be data driven with damage, visuals, VFX, and SFX</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -3849,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F30">
         <v>8</v>
@@ -3864,11 +3931,11 @@
       </c>
       <c r="I30" t="str">
         <f>VLOOKUP($F30,Table1[],4,TRUE)</f>
-        <v>Data driven Bullets</v>
+        <v>Bullets</v>
       </c>
       <c r="J30" t="str">
         <f>VLOOKUP($F30,Table1[],5,TRUE)</f>
-        <v>Bullets are data driven with damage, visuals, VFX, and SFX</v>
+        <v>Bullets may be data driven with damage, visuals, VFX, and SFX</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -3885,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F31">
         <v>8</v>
@@ -3900,11 +3967,11 @@
       </c>
       <c r="I31" t="str">
         <f>VLOOKUP($F31,Table1[],4,TRUE)</f>
-        <v>Data driven Bullets</v>
+        <v>Bullets</v>
       </c>
       <c r="J31" t="str">
         <f>VLOOKUP($F31,Table1[],5,TRUE)</f>
-        <v>Bullets are data driven with damage, visuals, VFX, and SFX</v>
+        <v>Bullets may be data driven with damage, visuals, VFX, and SFX</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -3921,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F32">
         <v>9</v>
@@ -3947,6 +4014,9 @@
       <c r="A33">
         <v>22</v>
       </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
       <c r="C33">
         <v>0.5</v>
       </c>
@@ -3954,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F33">
         <v>9</v>
@@ -3990,7 +4060,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F34">
         <v>10</v>
@@ -4026,7 +4096,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F35">
         <v>11</v>
@@ -4062,7 +4132,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F36">
         <v>12</v>
@@ -4098,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F37">
         <v>13</v>
@@ -4134,7 +4204,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F38">
         <v>14</v>
@@ -4170,7 +4240,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F39">
         <v>15</v>
@@ -4206,7 +4276,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F40">
         <v>16</v>
@@ -4242,7 +4312,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F41">
         <v>17</v>
@@ -4278,7 +4348,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F42">
         <v>18</v>
@@ -4314,7 +4384,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F43">
         <v>18</v>
@@ -4340,8 +4410,8 @@
       <c r="A44">
         <v>33</v>
       </c>
-      <c r="B44">
-        <v>0</v>
+      <c r="B44" t="s">
+        <v>112</v>
       </c>
       <c r="C44">
         <v>1.5</v>
@@ -4350,7 +4420,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F44">
         <v>19</v>
@@ -4386,7 +4456,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F45">
         <v>19</v>
@@ -4422,7 +4492,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F46">
         <v>20</v>
@@ -4458,7 +4528,7 @@
         <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F47">
         <v>21</v>
@@ -4494,7 +4564,7 @@
         <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F48">
         <v>21</v>
@@ -4530,7 +4600,7 @@
         <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F49">
         <v>22</v>
@@ -4566,7 +4636,7 @@
         <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F50">
         <v>23</v>
@@ -4602,7 +4672,7 @@
         <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F51">
         <v>24</v>
@@ -4638,7 +4708,7 @@
         <v>0</v>
       </c>
       <c r="E52" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F52">
         <v>25</v>
@@ -4674,7 +4744,7 @@
         <v>0</v>
       </c>
       <c r="E53" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F53">
         <v>26</v>
@@ -4710,7 +4780,7 @@
         <v>0</v>
       </c>
       <c r="E54" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F54">
         <v>27</v>
@@ -4729,7 +4799,7 @@
       </c>
       <c r="J54" t="str">
         <f>VLOOKUP($F54,Table1[],5,TRUE)</f>
-        <v>Enemies are actors with data driven types. They have on hit and on death effects to drop loot</v>
+        <v>Enemies are actors that may be data driven. They have on hit and on death effects to drop loot</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -4746,7 +4816,7 @@
         <v>0</v>
       </c>
       <c r="E55" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F55">
         <v>28</v>
@@ -4782,7 +4852,7 @@
         <v>0</v>
       </c>
       <c r="E56" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F56">
         <v>28</v>
@@ -4818,7 +4888,7 @@
         <v>0</v>
       </c>
       <c r="E57" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F57">
         <v>29</v>
@@ -4854,7 +4924,7 @@
         <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F58">
         <v>29</v>
@@ -4890,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="E59" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F59">
         <v>29</v>
@@ -4926,7 +4996,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F60">
         <v>30</v>
@@ -4962,7 +5032,7 @@
         <v>0</v>
       </c>
       <c r="E61" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F61">
         <v>31</v>
@@ -4998,7 +5068,7 @@
         <v>0</v>
       </c>
       <c r="E62" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F62">
         <v>32</v>
@@ -5034,7 +5104,7 @@
         <v>0</v>
       </c>
       <c r="E63" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F63">
         <v>33</v>
@@ -5070,7 +5140,7 @@
         <v>0</v>
       </c>
       <c r="E64" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F64">
         <v>33</v>
@@ -5106,7 +5176,7 @@
         <v>0</v>
       </c>
       <c r="E65" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F65">
         <v>33</v>
@@ -5142,7 +5212,7 @@
         <v>0</v>
       </c>
       <c r="E66" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F66">
         <v>34</v>
@@ -5178,7 +5248,7 @@
         <v>0</v>
       </c>
       <c r="E67" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F67">
         <v>34</v>
@@ -5214,7 +5284,7 @@
         <v>0</v>
       </c>
       <c r="E68" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F68">
         <v>34</v>
@@ -5250,7 +5320,7 @@
         <v>0</v>
       </c>
       <c r="E69" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F69">
         <v>34</v>
@@ -5277,16 +5347,16 @@
         <v>59</v>
       </c>
       <c r="B70" t="s">
-        <v>188</v>
-      </c>
-      <c r="C70">
-        <v>2</v>
+        <v>183</v>
+      </c>
+      <c r="C70" t="s">
+        <v>111</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
       <c r="E70" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F70">
         <v>35</v>
@@ -5322,7 +5392,7 @@
         <v>0</v>
       </c>
       <c r="E71" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F71">
         <v>36</v>
@@ -5345,11 +5415,191 @@
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>61</v>
+      </c>
+      <c r="B72" t="s">
+        <v>203</v>
+      </c>
       <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72" t="s">
+        <v>199</v>
+      </c>
+      <c r="F72">
+        <v>20</v>
+      </c>
+      <c r="G72" t="str">
+        <f>VLOOKUP($F72,Table1[],2,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="H72" t="str">
+        <f>VLOOKUP($F72,Table1[],3,TRUE)</f>
+        <v>Player</v>
+      </c>
+      <c r="I72" t="str">
+        <f>VLOOKUP($F72,Table1[],4,TRUE)</f>
+        <v>Player Character</v>
+      </c>
+      <c r="J72" t="str">
+        <f>VLOOKUP($F72,Table1[],5,TRUE)</f>
+        <v>The Player character is derived from actor with a player controller</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>62</v>
+      </c>
+      <c r="B73" t="s">
+        <v>203</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73" t="s">
+        <v>200</v>
+      </c>
+      <c r="F73">
+        <v>7</v>
+      </c>
+      <c r="G73" t="str">
+        <f>VLOOKUP($F73,Table1[],2,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="H73" t="str">
+        <f>VLOOKUP($F73,Table1[],3,TRUE)</f>
+        <v>Weapons</v>
+      </c>
+      <c r="I73" t="str">
+        <f>VLOOKUP($F73,Table1[],4,TRUE)</f>
+        <v>Weapons</v>
+      </c>
+      <c r="J73" t="str">
+        <f>VLOOKUP($F73,Table1[],5,TRUE)</f>
+        <v>Weapons may be data driven with Weapon visual, VFX, and SFX</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>63</v>
+      </c>
+      <c r="B74" t="s">
+        <v>203</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74" t="s">
+        <v>201</v>
+      </c>
+      <c r="F74">
+        <v>8</v>
+      </c>
+      <c r="G74" t="str">
+        <f>VLOOKUP($F74,Table1[],2,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="H74" t="str">
+        <f>VLOOKUP($F74,Table1[],3,TRUE)</f>
+        <v>Weapons</v>
+      </c>
+      <c r="I74" t="str">
+        <f>VLOOKUP($F74,Table1[],4,TRUE)</f>
+        <v>Bullets</v>
+      </c>
+      <c r="J74" t="str">
+        <f>VLOOKUP($F74,Table1[],5,TRUE)</f>
+        <v>Bullets may be data driven with damage, visuals, VFX, and SFX</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>64</v>
+      </c>
+      <c r="B75" t="s">
+        <v>203</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75" t="s">
+        <v>207</v>
+      </c>
+      <c r="F75">
+        <v>27</v>
+      </c>
+      <c r="G75" t="str">
+        <f>VLOOKUP($F75,Table1[],2,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="H75" t="str">
+        <f>VLOOKUP($F75,Table1[],3,TRUE)</f>
+        <v>Enemies</v>
+      </c>
+      <c r="I75" t="str">
+        <f>VLOOKUP($F75,Table1[],4,TRUE)</f>
+        <v>Enemy characters</v>
+      </c>
+      <c r="J75" t="str">
+        <f>VLOOKUP($F75,Table1[],5,TRUE)</f>
+        <v>Enemies are actors that may be data driven. They have on hit and on death effects to drop loot</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>65</v>
+      </c>
+      <c r="B76" t="s">
+        <v>208</v>
+      </c>
+      <c r="C76">
+        <v>2</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76" t="s">
+        <v>204</v>
+      </c>
+      <c r="F76">
+        <v>37</v>
+      </c>
+      <c r="G76" t="str">
+        <f>VLOOKUP($F76,Table1[],2,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="H76" t="str">
+        <f>VLOOKUP($F76,Table1[],3,TRUE)</f>
+        <v>Protogame</v>
+      </c>
+      <c r="I76" t="str">
+        <f>VLOOKUP($F76,Table1[],4,TRUE)</f>
+        <v>Protogame</v>
+      </c>
+      <c r="J76" t="str">
+        <f>VLOOKUP($F76,Table1[],5,TRUE)</f>
+        <v>Create Protogame as starting point</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C77">
         <f>SUM(Table35[Estimate])</f>
-        <v>101</v>
-      </c>
-      <c r="D72">
+        <v>105</v>
+      </c>
+      <c r="D77">
         <f>SUM(Table35[Actual])</f>
         <v>0</v>
       </c>
@@ -5364,13 +5614,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93182A32-9B41-4840-9B31-4DBA5186CB78}">
-  <dimension ref="A6:J59"/>
+  <dimension ref="A6:J54"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:J18"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
-    <sheetView topLeftCell="A10" workbookViewId="1">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="A13" workbookViewId="1">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5387,103 +5637,103 @@
   <sheetData>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E6" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E7" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F7" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B8" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E8" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F8" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B9" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B10" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B11" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B12" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B17" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C17" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E17" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F17" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G17" t="s">
         <v>14</v>
@@ -5500,94 +5750,109 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="B18" t="str">
+        <f>VLOOKUP($A18,Table35[#All],2,TRUE)</f>
+        <v>*I</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <f>VLOOKUP($A18,Table35[#All],3,TRUE)</f>
+        <v>2</v>
       </c>
       <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18" t="s">
-        <v>129</v>
+        <f>VLOOKUP($A18,Table35[#All],4,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="E18" t="str">
+        <f>VLOOKUP($A18,Table35[#All],5,TRUE)</f>
+        <v>Create Protogame as starting place</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <f>VLOOKUP($A18,Table35[#All],6,TRUE)</f>
+        <v>37</v>
       </c>
       <c r="G18" t="str">
         <f>VLOOKUP($F18,Table1[],2,TRUE)</f>
-        <v>Loading Screen</v>
+        <v>Game</v>
       </c>
       <c r="H18" t="str">
         <f>VLOOKUP($F18,Table1[],3,TRUE)</f>
-        <v>Function</v>
+        <v>Protogame</v>
       </c>
       <c r="I18" t="str">
         <f>VLOOKUP($F18,Table1[],4,TRUE)</f>
-        <v>Load data</v>
+        <v>Protogame</v>
       </c>
       <c r="J18" t="str">
         <f>VLOOKUP($F18,Table1[],5,TRUE)</f>
-        <v xml:space="preserve">Loads game assets </v>
+        <v>Create Protogame as starting point</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>3</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="B19" t="str">
+        <f>VLOOKUP($A19,Table35[#All],2,TRUE)</f>
+        <v>*0</v>
       </c>
       <c r="C19">
-        <v>0.5</v>
+        <f>VLOOKUP($A19,Table35[#All],3,TRUE)</f>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19" t="s">
-        <v>131</v>
+        <f>VLOOKUP($A19,Table35[#All],4,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="E19" t="str">
+        <f>VLOOKUP($A19,Table35[#All],5,TRUE)</f>
+        <v>Create simple Enemy character with functions to shoot</v>
       </c>
       <c r="F19">
-        <v>3</v>
+        <f>VLOOKUP($A19,Table35[#All],6,TRUE)</f>
+        <v>27</v>
       </c>
       <c r="G19" t="str">
         <f>VLOOKUP($F19,Table1[],2,TRUE)</f>
-        <v>Main Menu</v>
+        <v>Game</v>
       </c>
       <c r="H19" t="str">
         <f>VLOOKUP($F19,Table1[],3,TRUE)</f>
-        <v>Function</v>
+        <v>Enemies</v>
       </c>
       <c r="I19" t="str">
         <f>VLOOKUP($F19,Table1[],4,TRUE)</f>
-        <v>Buttons</v>
+        <v>Enemy characters</v>
       </c>
       <c r="J19" t="str">
         <f>VLOOKUP($F19,Table1[],5,TRUE)</f>
-        <v>Start game, Exit Game buttons to start or exit the game</v>
+        <v>Enemies are actors that may be data driven. They have on hit and on death effects to drop loot</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>8</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
+        <v>61</v>
+      </c>
+      <c r="B20" t="str">
+        <f>VLOOKUP($A20,Table35[#All],2,TRUE)</f>
+        <v>*0</v>
       </c>
       <c r="C20">
-        <v>1.5</v>
+        <f>VLOOKUP($A20,Table35[#All],3,TRUE)</f>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20" t="s">
-        <v>136</v>
+        <f>VLOOKUP($A20,Table35[#All],4,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="E20" t="str">
+        <f>VLOOKUP($A20,Table35[#All],5,TRUE)</f>
+        <v>Create Prototype player</v>
       </c>
       <c r="F20">
-        <v>7</v>
+        <f>VLOOKUP($A20,Table35[#All],6,TRUE)</f>
+        <v>20</v>
       </c>
       <c r="G20" t="str">
         <f>VLOOKUP($F20,Table1[],2,TRUE)</f>
@@ -5595,34 +5860,39 @@
       </c>
       <c r="H20" t="str">
         <f>VLOOKUP($F20,Table1[],3,TRUE)</f>
-        <v>Weapons</v>
+        <v>Player</v>
       </c>
       <c r="I20" t="str">
         <f>VLOOKUP($F20,Table1[],4,TRUE)</f>
-        <v>Data driven Weapons</v>
+        <v>Player Character</v>
       </c>
       <c r="J20" t="str">
         <f>VLOOKUP($F20,Table1[],5,TRUE)</f>
-        <v>Weapons are data driven with Weapon visual, VFX, and SFX</v>
+        <v>The Player character is derived from actor with a player controller</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>9</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
+        <v>62</v>
+      </c>
+      <c r="B21" t="str">
+        <f>VLOOKUP($A21,Table35[#All],2,TRUE)</f>
+        <v>*0</v>
       </c>
       <c r="C21">
+        <f>VLOOKUP($A21,Table35[#All],3,TRUE)</f>
         <v>1</v>
       </c>
       <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21" t="s">
-        <v>137</v>
+        <f>VLOOKUP($A21,Table35[#All],4,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="E21" t="str">
+        <f>VLOOKUP($A21,Table35[#All],5,TRUE)</f>
+        <v>Create prototype gun</v>
       </c>
       <c r="F21">
+        <f>VLOOKUP($A21,Table35[#All],6,TRUE)</f>
         <v>7</v>
       </c>
       <c r="G21" t="str">
@@ -5635,31 +5905,36 @@
       </c>
       <c r="I21" t="str">
         <f>VLOOKUP($F21,Table1[],4,TRUE)</f>
-        <v>Data driven Weapons</v>
+        <v>Weapons</v>
       </c>
       <c r="J21" t="str">
         <f>VLOOKUP($F21,Table1[],5,TRUE)</f>
-        <v>Weapons are data driven with Weapon visual, VFX, and SFX</v>
+        <v>Weapons may be data driven with Weapon visual, VFX, and SFX</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>11</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="B22" t="str">
+        <f>VLOOKUP($A22,Table35[#All],2,TRUE)</f>
+        <v>*0</v>
       </c>
       <c r="C22">
+        <f>VLOOKUP($A22,Table35[#All],3,TRUE)</f>
         <v>1</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22" t="s">
-        <v>140</v>
+        <f>VLOOKUP($A22,Table35[#All],4,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="E22" t="str">
+        <f>VLOOKUP($A22,Table35[#All],5,TRUE)</f>
+        <v>Create Prototype bullets/firing</v>
       </c>
       <c r="F22">
-        <v>7</v>
+        <f>VLOOKUP($A22,Table35[#All],6,TRUE)</f>
+        <v>8</v>
       </c>
       <c r="G22" t="str">
         <f>VLOOKUP($F22,Table1[],2,TRUE)</f>
@@ -5671,103 +5946,118 @@
       </c>
       <c r="I22" t="str">
         <f>VLOOKUP($F22,Table1[],4,TRUE)</f>
-        <v>Data driven Weapons</v>
+        <v>Bullets</v>
       </c>
       <c r="J22" t="str">
         <f>VLOOKUP($F22,Table1[],5,TRUE)</f>
-        <v>Weapons are data driven with Weapon visual, VFX, and SFX</v>
+        <v>Bullets may be data driven with damage, visuals, VFX, and SFX</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B23">
+        <f>VLOOKUP($A23,Table35[#All],2,TRUE)</f>
         <v>0</v>
       </c>
       <c r="C23">
-        <v>1.5</v>
+        <f>VLOOKUP($A23,Table35[#All],3,TRUE)</f>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23" t="s">
-        <v>139</v>
+        <f>VLOOKUP($A23,Table35[#All],4,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="E23" t="str">
+        <f>VLOOKUP($A23,Table35[#All],5,TRUE)</f>
+        <v>Implement loading state and loading functions</v>
       </c>
       <c r="F23">
-        <v>7</v>
+        <f>VLOOKUP($A23,Table35[#All],6,TRUE)</f>
+        <v>1</v>
       </c>
       <c r="G23" t="str">
         <f>VLOOKUP($F23,Table1[],2,TRUE)</f>
-        <v>Game</v>
+        <v>Loading Screen</v>
       </c>
       <c r="H23" t="str">
         <f>VLOOKUP($F23,Table1[],3,TRUE)</f>
-        <v>Weapons</v>
+        <v>Function</v>
       </c>
       <c r="I23" t="str">
         <f>VLOOKUP($F23,Table1[],4,TRUE)</f>
-        <v>Data driven Weapons</v>
+        <v>Load data</v>
       </c>
       <c r="J23" t="str">
         <f>VLOOKUP($F23,Table1[],5,TRUE)</f>
-        <v>Weapons are data driven with Weapon visual, VFX, and SFX</v>
+        <v xml:space="preserve">Loads game assets </v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B24">
+        <f>VLOOKUP($A24,Table35[#All],2,TRUE)</f>
         <v>0</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <f>VLOOKUP($A24,Table35[#All],3,TRUE)</f>
+        <v>0.5</v>
       </c>
       <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24" t="s">
-        <v>141</v>
+        <f>VLOOKUP($A24,Table35[#All],4,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="E24" t="str">
+        <f>VLOOKUP($A24,Table35[#All],5,TRUE)</f>
+        <v>Add Start button to begin the first level and exit button to quit game</v>
       </c>
       <c r="F24">
-        <v>7</v>
+        <f>VLOOKUP($A24,Table35[#All],6,TRUE)</f>
+        <v>3</v>
       </c>
       <c r="G24" t="str">
         <f>VLOOKUP($F24,Table1[],2,TRUE)</f>
-        <v>Game</v>
+        <v>Main Menu</v>
       </c>
       <c r="H24" t="str">
         <f>VLOOKUP($F24,Table1[],3,TRUE)</f>
-        <v>Weapons</v>
+        <v>Function</v>
       </c>
       <c r="I24" t="str">
         <f>VLOOKUP($F24,Table1[],4,TRUE)</f>
-        <v>Data driven Weapons</v>
+        <v>Buttons</v>
       </c>
       <c r="J24" t="str">
         <f>VLOOKUP($F24,Table1[],5,TRUE)</f>
-        <v>Weapons are data driven with Weapon visual, VFX, and SFX</v>
+        <v>Start game, Exit Game buttons to start or exit the game</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B25">
+        <f>VLOOKUP($A25,Table35[#All],2,TRUE)</f>
         <v>0</v>
       </c>
       <c r="C25">
-        <v>1.5</v>
+        <f>VLOOKUP($A25,Table35[#All],3,TRUE)</f>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25" t="s">
-        <v>145</v>
+        <f>VLOOKUP($A25,Table35[#All],4,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" t="str">
+        <f>VLOOKUP($A25,Table35[#All],5,TRUE)</f>
+        <v>Integrate Weapons with bullets</v>
       </c>
       <c r="F25">
-        <v>8</v>
+        <f>VLOOKUP($A25,Table35[#All],6,TRUE)</f>
+        <v>7</v>
       </c>
       <c r="G25" t="str">
         <f>VLOOKUP($F25,Table1[],2,TRUE)</f>
@@ -5779,28 +6069,36 @@
       </c>
       <c r="I25" t="str">
         <f>VLOOKUP($F25,Table1[],4,TRUE)</f>
-        <v>Data driven Bullets</v>
+        <v>Weapons</v>
       </c>
       <c r="J25" t="str">
         <f>VLOOKUP($F25,Table1[],5,TRUE)</f>
-        <v>Bullets are data driven with damage, visuals, VFX, and SFX</v>
+        <v>Weapons may be data driven with Weapon visual, VFX, and SFX</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>18</v>
+        <v>12</v>
+      </c>
+      <c r="B26">
+        <f>VLOOKUP($A26,Table35[#All],2,TRUE)</f>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <f>VLOOKUP($A26,Table35[#All],3,TRUE)</f>
+        <v>1.5</v>
       </c>
       <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26" t="s">
-        <v>147</v>
+        <f>VLOOKUP($A26,Table35[#All],4,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="E26" t="str">
+        <f>VLOOKUP($A26,Table35[#All],5,TRUE)</f>
+        <v>Integrate Weapon with actors</v>
       </c>
       <c r="F26">
-        <v>8</v>
+        <f>VLOOKUP($A26,Table35[#All],6,TRUE)</f>
+        <v>7</v>
       </c>
       <c r="G26" t="str">
         <f>VLOOKUP($F26,Table1[],2,TRUE)</f>
@@ -5812,31 +6110,36 @@
       </c>
       <c r="I26" t="str">
         <f>VLOOKUP($F26,Table1[],4,TRUE)</f>
-        <v>Data driven Bullets</v>
+        <v>Weapons</v>
       </c>
       <c r="J26" t="str">
         <f>VLOOKUP($F26,Table1[],5,TRUE)</f>
-        <v>Bullets are data driven with damage, visuals, VFX, and SFX</v>
+        <v>Weapons may be data driven with Weapon visual, VFX, and SFX</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B27">
+        <f>VLOOKUP($A27,Table35[#All],2,TRUE)</f>
         <v>0</v>
       </c>
       <c r="C27">
+        <f>VLOOKUP($A27,Table35[#All],3,TRUE)</f>
         <v>1</v>
       </c>
       <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27" t="s">
-        <v>146</v>
+        <f>VLOOKUP($A27,Table35[#All],4,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="E27" t="str">
+        <f>VLOOKUP($A27,Table35[#All],5,TRUE)</f>
+        <v>Find/implement first 2 weapon assets (pistol/shotgun)</v>
       </c>
       <c r="F27">
-        <v>8</v>
+        <f>VLOOKUP($A27,Table35[#All],6,TRUE)</f>
+        <v>7</v>
       </c>
       <c r="G27" t="str">
         <f>VLOOKUP($F27,Table1[],2,TRUE)</f>
@@ -5848,31 +6151,36 @@
       </c>
       <c r="I27" t="str">
         <f>VLOOKUP($F27,Table1[],4,TRUE)</f>
-        <v>Data driven Bullets</v>
+        <v>Weapons</v>
       </c>
       <c r="J27" t="str">
         <f>VLOOKUP($F27,Table1[],5,TRUE)</f>
-        <v>Bullets are data driven with damage, visuals, VFX, and SFX</v>
+        <v>Weapons may be data driven with Weapon visual, VFX, and SFX</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B28">
+        <f>VLOOKUP($A28,Table35[#All],2,TRUE)</f>
         <v>0</v>
       </c>
       <c r="C28">
+        <f>VLOOKUP($A28,Table35[#All],3,TRUE)</f>
         <v>1</v>
       </c>
       <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28" t="s">
-        <v>149</v>
+        <f>VLOOKUP($A28,Table35[#All],4,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="E28" t="str">
+        <f>VLOOKUP($A28,Table35[#All],5,TRUE)</f>
+        <v>Implement bullet collisions</v>
       </c>
       <c r="F28">
-        <v>9</v>
+        <f>VLOOKUP($A28,Table35[#All],6,TRUE)</f>
+        <v>8</v>
       </c>
       <c r="G28" t="str">
         <f>VLOOKUP($F28,Table1[],2,TRUE)</f>
@@ -5880,32 +6188,40 @@
       </c>
       <c r="H28" t="str">
         <f>VLOOKUP($F28,Table1[],3,TRUE)</f>
-        <v>Camera</v>
+        <v>Weapons</v>
       </c>
       <c r="I28" t="str">
         <f>VLOOKUP($F28,Table1[],4,TRUE)</f>
-        <v>Top down camera</v>
+        <v>Bullets</v>
       </c>
       <c r="J28" t="str">
         <f>VLOOKUP($F28,Table1[],5,TRUE)</f>
-        <v>Camera view is top down focusing on the player but is clamped to screen</v>
+        <v>Bullets may be data driven with damage, visuals, VFX, and SFX</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="B29">
+        <f>VLOOKUP($A29,Table35[#All],2,TRUE)</f>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>0.5</v>
+        <f>VLOOKUP($A29,Table35[#All],3,TRUE)</f>
+        <v>1</v>
       </c>
       <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29" t="s">
-        <v>150</v>
+        <f>VLOOKUP($A29,Table35[#All],4,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="E29" t="str">
+        <f>VLOOKUP($A29,Table35[#All],5,TRUE)</f>
+        <v>Find/implement basic bullet asset</v>
       </c>
       <c r="F29">
-        <v>9</v>
+        <f>VLOOKUP($A29,Table35[#All],6,TRUE)</f>
+        <v>8</v>
       </c>
       <c r="G29" t="str">
         <f>VLOOKUP($F29,Table1[],2,TRUE)</f>
@@ -5913,35 +6229,40 @@
       </c>
       <c r="H29" t="str">
         <f>VLOOKUP($F29,Table1[],3,TRUE)</f>
-        <v>Camera</v>
+        <v>Weapons</v>
       </c>
       <c r="I29" t="str">
         <f>VLOOKUP($F29,Table1[],4,TRUE)</f>
-        <v>Top down camera</v>
+        <v>Bullets</v>
       </c>
       <c r="J29" t="str">
         <f>VLOOKUP($F29,Table1[],5,TRUE)</f>
-        <v>Camera view is top down focusing on the player but is clamped to screen</v>
+        <v>Bullets may be data driven with damage, visuals, VFX, and SFX</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B30">
+        <f>VLOOKUP($A30,Table35[#All],2,TRUE)</f>
         <v>0</v>
       </c>
       <c r="C30">
+        <f>VLOOKUP($A30,Table35[#All],3,TRUE)</f>
         <v>1</v>
       </c>
       <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30" t="s">
-        <v>161</v>
+        <f>VLOOKUP($A30,Table35[#All],4,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="E30" t="str">
+        <f>VLOOKUP($A30,Table35[#All],5,TRUE)</f>
+        <v>Create camera to follow player</v>
       </c>
       <c r="F30">
-        <v>17</v>
+        <f>VLOOKUP($A30,Table35[#All],6,TRUE)</f>
+        <v>9</v>
       </c>
       <c r="G30" t="str">
         <f>VLOOKUP($F30,Table1[],2,TRUE)</f>
@@ -5949,35 +6270,40 @@
       </c>
       <c r="H30" t="str">
         <f>VLOOKUP($F30,Table1[],3,TRUE)</f>
-        <v>Actors</v>
+        <v>Camera</v>
       </c>
       <c r="I30" t="str">
         <f>VLOOKUP($F30,Table1[],4,TRUE)</f>
-        <v>Physics</v>
+        <v>Top down camera</v>
       </c>
       <c r="J30" t="str">
         <f>VLOOKUP($F30,Table1[],5,TRUE)</f>
-        <v>Physics like actor radius is data driven and says what the actor will collide with</v>
+        <v>Camera view is top down focusing on the player but is clamped to screen</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B31">
+        <f>VLOOKUP($A31,Table35[#All],2,TRUE)</f>
         <v>0</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <f>VLOOKUP($A31,Table35[#All],3,TRUE)</f>
+        <v>0.5</v>
       </c>
       <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31" t="s">
-        <v>158</v>
+        <f>VLOOKUP($A31,Table35[#All],4,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="E31" t="str">
+        <f>VLOOKUP($A31,Table35[#All],5,TRUE)</f>
+        <v>Clamp camera to map dimensions</v>
       </c>
       <c r="F31">
-        <v>18</v>
+        <f>VLOOKUP($A31,Table35[#All],6,TRUE)</f>
+        <v>9</v>
       </c>
       <c r="G31" t="str">
         <f>VLOOKUP($F31,Table1[],2,TRUE)</f>
@@ -5985,35 +6311,40 @@
       </c>
       <c r="H31" t="str">
         <f>VLOOKUP($F31,Table1[],3,TRUE)</f>
-        <v>Actors</v>
+        <v>Camera</v>
       </c>
       <c r="I31" t="str">
         <f>VLOOKUP($F31,Table1[],4,TRUE)</f>
-        <v>Weapons</v>
+        <v>Top down camera</v>
       </c>
       <c r="J31" t="str">
         <f>VLOOKUP($F31,Table1[],5,TRUE)</f>
-        <v>Game keeps track of current weapon and uses the weapon definitions to know the stats</v>
+        <v>Camera view is top down focusing on the player but is clamped to screen</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B32">
+        <f>VLOOKUP($A32,Table35[#All],2,TRUE)</f>
         <v>0</v>
       </c>
       <c r="C32">
+        <f>VLOOKUP($A32,Table35[#All],3,TRUE)</f>
         <v>1</v>
       </c>
       <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32" t="s">
-        <v>159</v>
+        <f>VLOOKUP($A32,Table35[#All],4,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="E32" t="str">
+        <f>VLOOKUP($A32,Table35[#All],5,TRUE)</f>
+        <v>Implement Actor physics with collisions of enemies and obstacles</v>
       </c>
       <c r="F32">
-        <v>18</v>
+        <f>VLOOKUP($A32,Table35[#All],6,TRUE)</f>
+        <v>17</v>
       </c>
       <c r="G32" t="str">
         <f>VLOOKUP($F32,Table1[],2,TRUE)</f>
@@ -6025,31 +6356,36 @@
       </c>
       <c r="I32" t="str">
         <f>VLOOKUP($F32,Table1[],4,TRUE)</f>
-        <v>Weapons</v>
+        <v>Physics</v>
       </c>
       <c r="J32" t="str">
         <f>VLOOKUP($F32,Table1[],5,TRUE)</f>
-        <v>Game keeps track of current weapon and uses the weapon definitions to know the stats</v>
+        <v>Physics like actor radius is data driven and says what the actor will collide with</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B33">
+        <f>VLOOKUP($A33,Table35[#All],2,TRUE)</f>
         <v>0</v>
       </c>
       <c r="C33">
-        <v>1.5</v>
+        <f>VLOOKUP($A33,Table35[#All],3,TRUE)</f>
+        <v>1</v>
       </c>
       <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33" t="s">
-        <v>160</v>
+        <f>VLOOKUP($A33,Table35[#All],4,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="E33" t="str">
+        <f>VLOOKUP($A33,Table35[#All],5,TRUE)</f>
+        <v>Have weapons face actor direction moving in a circular motion around player radius</v>
       </c>
       <c r="F33">
-        <v>19</v>
+        <f>VLOOKUP($A33,Table35[#All],6,TRUE)</f>
+        <v>18</v>
       </c>
       <c r="G33" t="str">
         <f>VLOOKUP($F33,Table1[],2,TRUE)</f>
@@ -6061,31 +6397,36 @@
       </c>
       <c r="I33" t="str">
         <f>VLOOKUP($F33,Table1[],4,TRUE)</f>
-        <v>Model/animations</v>
+        <v>Weapons</v>
       </c>
       <c r="J33" t="str">
         <f>VLOOKUP($F33,Table1[],5,TRUE)</f>
-        <v>Actors model and animations are data driven with walking and death</v>
+        <v>Game keeps track of current weapon and uses the weapon definitions to know the stats</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B34">
+        <f>VLOOKUP($A34,Table35[#All],2,TRUE)</f>
         <v>0</v>
       </c>
       <c r="C34">
-        <v>1.5</v>
+        <f>VLOOKUP($A34,Table35[#All],3,TRUE)</f>
+        <v>1</v>
       </c>
       <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34" t="s">
-        <v>162</v>
+        <f>VLOOKUP($A34,Table35[#All],4,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="E34" t="str">
+        <f>VLOOKUP($A34,Table35[#All],5,TRUE)</f>
+        <v>Have weapons behind player at top of screen and in front of player at bottom of screen</v>
       </c>
       <c r="F34">
-        <v>19</v>
+        <f>VLOOKUP($A34,Table35[#All],6,TRUE)</f>
+        <v>18</v>
       </c>
       <c r="G34" t="str">
         <f>VLOOKUP($F34,Table1[],2,TRUE)</f>
@@ -6097,31 +6438,36 @@
       </c>
       <c r="I34" t="str">
         <f>VLOOKUP($F34,Table1[],4,TRUE)</f>
-        <v>Model/animations</v>
+        <v>Weapons</v>
       </c>
       <c r="J34" t="str">
         <f>VLOOKUP($F34,Table1[],5,TRUE)</f>
-        <v>Actors model and animations are data driven with walking and death</v>
+        <v>Game keeps track of current weapon and uses the weapon definitions to know the stats</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B35">
+        <f>VLOOKUP($A35,Table35[#All],2,TRUE)</f>
         <v>0</v>
       </c>
       <c r="C35">
-        <v>1.5</v>
+        <f>VLOOKUP($A35,Table35[#All],3,TRUE)</f>
+        <v>1</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35" t="s">
-        <v>163</v>
+        <f>VLOOKUP($A35,Table35[#All],4,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="E35" t="str">
+        <f>VLOOKUP($A35,Table35[#All],5,TRUE)</f>
+        <v>Add movement keys to controller class</v>
       </c>
       <c r="F35">
-        <v>20</v>
+        <f>VLOOKUP($A35,Table35[#All],6,TRUE)</f>
+        <v>21</v>
       </c>
       <c r="G35" t="str">
         <f>VLOOKUP($F35,Table1[],2,TRUE)</f>
@@ -6129,35 +6475,40 @@
       </c>
       <c r="H35" t="str">
         <f>VLOOKUP($F35,Table1[],3,TRUE)</f>
-        <v>Player</v>
+        <v>Player Controller</v>
       </c>
       <c r="I35" t="str">
         <f>VLOOKUP($F35,Table1[],4,TRUE)</f>
-        <v>Player Character</v>
+        <v>Movement</v>
       </c>
       <c r="J35" t="str">
         <f>VLOOKUP($F35,Table1[],5,TRUE)</f>
-        <v>The Player character is derived from actor with a player controller</v>
+        <v>Player moves with WASD or controller left joystick</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B36">
+        <f>VLOOKUP($A36,Table35[#All],2,TRUE)</f>
         <v>0</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <f>VLOOKUP($A36,Table35[#All],3,TRUE)</f>
+        <v>2</v>
       </c>
       <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36" t="s">
-        <v>164</v>
+        <f>VLOOKUP($A36,Table35[#All],4,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="E36" t="str">
+        <f>VLOOKUP($A36,Table35[#All],5,TRUE)</f>
+        <v>Create simple enemy controller to run at player and shoot</v>
       </c>
       <c r="F36">
-        <v>21</v>
+        <f>VLOOKUP($A36,Table35[#All],6,TRUE)</f>
+        <v>28</v>
       </c>
       <c r="G36" t="str">
         <f>VLOOKUP($F36,Table1[],2,TRUE)</f>
@@ -6165,35 +6516,40 @@
       </c>
       <c r="H36" t="str">
         <f>VLOOKUP($F36,Table1[],3,TRUE)</f>
-        <v>Player Controller</v>
+        <v>Enemy Controller</v>
       </c>
       <c r="I36" t="str">
         <f>VLOOKUP($F36,Table1[],4,TRUE)</f>
-        <v>Movement</v>
+        <v>Enemy AI Controller</v>
       </c>
       <c r="J36" t="str">
         <f>VLOOKUP($F36,Table1[],5,TRUE)</f>
-        <v>Player moves with WASD or controller left joystick</v>
+        <v>Enemies have a data driven controller where they will wander until the player is spotted before chasing and shooting</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="B37">
+        <f>VLOOKUP($A37,Table35[#All],2,TRUE)</f>
         <v>0</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <f>VLOOKUP($A37,Table35[#All],3,TRUE)</f>
+        <v>5</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37" t="s">
-        <v>165</v>
+        <f>VLOOKUP($A37,Table35[#All],4,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="E37" t="str">
+        <f>VLOOKUP($A37,Table35[#All],5,TRUE)</f>
+        <v>Integrate map with actors and check collisions</v>
       </c>
       <c r="F37">
-        <v>21</v>
+        <f>VLOOKUP($A37,Table35[#All],6,TRUE)</f>
+        <v>33</v>
       </c>
       <c r="G37" t="str">
         <f>VLOOKUP($F37,Table1[],2,TRUE)</f>
@@ -6201,233 +6557,103 @@
       </c>
       <c r="H37" t="str">
         <f>VLOOKUP($F37,Table1[],3,TRUE)</f>
-        <v>Player Controller</v>
+        <v>Map</v>
       </c>
       <c r="I37" t="str">
         <f>VLOOKUP($F37,Table1[],4,TRUE)</f>
-        <v>Movement</v>
+        <v>Map makeup</v>
       </c>
       <c r="J37" t="str">
         <f>VLOOKUP($F37,Table1[],5,TRUE)</f>
-        <v>Player moves with WASD or controller left joystick</v>
+        <v>Maps are tile based with tile definitions determining what/who they block or not block</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>38</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
       <c r="C38">
-        <v>1</v>
+        <f>SUM(Table356[Estimate])</f>
+        <v>25.5</v>
       </c>
       <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38" t="s">
-        <v>166</v>
-      </c>
-      <c r="F38">
-        <v>22</v>
-      </c>
-      <c r="G38" t="str">
-        <f>VLOOKUP($F38,Table1[],2,TRUE)</f>
-        <v>Game</v>
-      </c>
-      <c r="H38" t="str">
-        <f>VLOOKUP($F38,Table1[],3,TRUE)</f>
-        <v>Player Controller</v>
-      </c>
-      <c r="I38" t="str">
-        <f>VLOOKUP($F38,Table1[],4,TRUE)</f>
-        <v>Shooting</v>
-      </c>
-      <c r="J38" t="str">
-        <f>VLOOKUP($F38,Table1[],5,TRUE)</f>
-        <v>Player shoots with left mouse button or controller right button</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>39</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39" t="s">
-        <v>167</v>
-      </c>
-      <c r="F39">
-        <v>23</v>
-      </c>
-      <c r="G39" t="str">
-        <f>VLOOKUP($F39,Table1[],2,TRUE)</f>
-        <v>Game</v>
-      </c>
-      <c r="H39" t="str">
-        <f>VLOOKUP($F39,Table1[],3,TRUE)</f>
-        <v>Player Controller</v>
-      </c>
-      <c r="I39" t="str">
-        <f>VLOOKUP($F39,Table1[],4,TRUE)</f>
-        <v>Aiming</v>
-      </c>
-      <c r="J39" t="str">
-        <f>VLOOKUP($F39,Table1[],5,TRUE)</f>
-        <v>Player aims with mouse or controller right joystick</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>43</v>
-      </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40">
+        <f>SUM(Table356[Actual])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B41" s="10">
+        <v>44011</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>119</v>
+      </c>
+      <c r="B42" t="s">
+        <v>121</v>
+      </c>
+      <c r="C42" t="s">
+        <v>122</v>
+      </c>
+      <c r="D42" t="s">
+        <v>123</v>
+      </c>
+      <c r="E42" t="s">
+        <v>120</v>
+      </c>
+      <c r="F42" t="s">
+        <v>92</v>
+      </c>
+      <c r="G42" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" t="s">
+        <v>6</v>
+      </c>
+      <c r="I42" t="s">
+        <v>15</v>
+      </c>
+      <c r="J42" t="s">
         <v>2</v>
       </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40" t="s">
-        <v>171</v>
-      </c>
-      <c r="F40">
-        <v>27</v>
-      </c>
-      <c r="G40" t="str">
-        <f>VLOOKUP($F40,Table1[],2,TRUE)</f>
-        <v>Game</v>
-      </c>
-      <c r="H40" t="str">
-        <f>VLOOKUP($F40,Table1[],3,TRUE)</f>
-        <v>Enemies</v>
-      </c>
-      <c r="I40" t="str">
-        <f>VLOOKUP($F40,Table1[],4,TRUE)</f>
-        <v>Enemy characters</v>
-      </c>
-      <c r="J40" t="str">
-        <f>VLOOKUP($F40,Table1[],5,TRUE)</f>
-        <v>Enemies are actors with data driven types. They have on hit and on death effects to drop loot</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>44</v>
-      </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41">
-        <v>2</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41" t="s">
-        <v>172</v>
-      </c>
-      <c r="F41">
-        <v>28</v>
-      </c>
-      <c r="G41" t="str">
-        <f>VLOOKUP($F41,Table1[],2,TRUE)</f>
-        <v>Game</v>
-      </c>
-      <c r="H41" t="str">
-        <f>VLOOKUP($F41,Table1[],3,TRUE)</f>
-        <v>Enemy Controller</v>
-      </c>
-      <c r="I41" t="str">
-        <f>VLOOKUP($F41,Table1[],4,TRUE)</f>
-        <v>Enemy AI Controller</v>
-      </c>
-      <c r="J41" t="str">
-        <f>VLOOKUP($F41,Table1[],5,TRUE)</f>
-        <v>Enemies have a data driven controller where they will wander until the player is spotted before chasing and shooting</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>54</v>
-      </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="C42">
-        <v>5</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42" t="s">
-        <v>182</v>
-      </c>
-      <c r="F42">
-        <v>33</v>
-      </c>
-      <c r="G42" t="str">
-        <f>VLOOKUP($F42,Table1[],2,TRUE)</f>
-        <v>Game</v>
-      </c>
-      <c r="H42" t="str">
-        <f>VLOOKUP($F42,Table1[],3,TRUE)</f>
-        <v>Map</v>
-      </c>
-      <c r="I42" t="str">
-        <f>VLOOKUP($F42,Table1[],4,TRUE)</f>
-        <v>Map makeup</v>
-      </c>
-      <c r="J42" t="str">
-        <f>VLOOKUP($F42,Table1[],5,TRUE)</f>
-        <v>Maps are tile based with tile definitions determining what/who they block or not block</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C43">
-        <f>SUM(Table356[Estimate])</f>
-        <v>33</v>
-      </c>
-      <c r="D43">
-        <f>SUM(Table356[Actual])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="B46" s="10">
-        <v>44011</v>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <f>SUM(Table3567[Estimate])</f>
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <f>SUM(Table3567[Actual])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" s="2">
+        <v>44025</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B47" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C47" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D47" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E47" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F47" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G47" t="s">
         <v>14</v>
@@ -6444,40 +6670,40 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C49">
-        <f>SUM(Table3567[Estimate])</f>
+        <f>SUM(Table35678[Estimate])</f>
         <v>0</v>
       </c>
       <c r="D49">
-        <f>SUM(Table3567[Actual])</f>
+        <f>SUM(Table35678[Actual])</f>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B51" s="2">
-        <v>44025</v>
+        <v>44033</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B52" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C52" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D52" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E52" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F52" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G52" t="s">
         <v>14</v>
@@ -6494,60 +6720,10 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C54">
-        <f>SUM(Table35678[Estimate])</f>
+        <f>SUM(Table356789[Estimate])</f>
         <v>0</v>
       </c>
       <c r="D54">
-        <f>SUM(Table35678[Actual])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>101</v>
-      </c>
-      <c r="B56" s="2">
-        <v>44033</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>124</v>
-      </c>
-      <c r="B57" t="s">
-        <v>126</v>
-      </c>
-      <c r="C57" t="s">
-        <v>127</v>
-      </c>
-      <c r="D57" t="s">
-        <v>128</v>
-      </c>
-      <c r="E57" t="s">
-        <v>125</v>
-      </c>
-      <c r="F57" t="s">
-        <v>97</v>
-      </c>
-      <c r="G57" t="s">
-        <v>14</v>
-      </c>
-      <c r="H57" t="s">
-        <v>6</v>
-      </c>
-      <c r="I57" t="s">
-        <v>15</v>
-      </c>
-      <c r="J57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C59">
-        <f>SUM(Table356789[Estimate])</f>
-        <v>0</v>
-      </c>
-      <c r="D59">
         <f>SUM(Table356789[Actual])</f>
         <v>0</v>
       </c>
@@ -6565,121 +6741,126 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734CCCA4-3ECC-40E0-914B-329F4B230DBE}">
-  <dimension ref="A2:K15"/>
+  <dimension ref="A2:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView tabSelected="1" workbookViewId="1">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="14.42578125" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="6" max="6" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="6" max="6" width="68.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="G2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G4" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C5" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C6" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C8" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>14</v>
@@ -6699,22 +6880,22 @@
         <v>43977</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E12" s="6">
         <v>3</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H12" s="6" t="e">
         <f>VLOOKUP($G12,Table1[],2,TRUE)</f>
@@ -6738,22 +6919,22 @@
         <v>43982</v>
       </c>
       <c r="B13" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C13" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D13" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E13">
         <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H13" s="6" t="e">
         <f>VLOOKUP($G13,Table1[],2,TRUE)</f>
@@ -6777,22 +6958,22 @@
         <v>43982</v>
       </c>
       <c r="B14" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C14" t="s">
-        <v>199</v>
+        <v>111</v>
       </c>
       <c r="D14" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H14" s="6" t="e">
         <f>VLOOKUP($G14,Table1[],2,TRUE)</f>
@@ -6816,22 +6997,22 @@
         <v>43982</v>
       </c>
       <c r="B15" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C15" t="s">
-        <v>199</v>
+        <v>111</v>
       </c>
       <c r="D15" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E15">
         <v>0.5</v>
       </c>
       <c r="F15" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H15" s="6" t="e">
         <f>VLOOKUP($G15,Table1[],2,TRUE)</f>
@@ -6848,6 +7029,89 @@
       <c r="K15" s="7" t="e">
         <f>VLOOKUP($G15,Table1[],5,TRUE)</f>
         <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>43983</v>
+      </c>
+      <c r="B16" t="s">
+        <v>189</v>
+      </c>
+      <c r="C16" t="s">
+        <v>194</v>
+      </c>
+      <c r="D16" t="s">
+        <v>189</v>
+      </c>
+      <c r="E16">
+        <v>0.5</v>
+      </c>
+      <c r="F16" t="s">
+        <v>198</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="H16" s="6" t="e">
+        <f>VLOOKUP($G16,Table1[],2,TRUE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I16" s="6" t="e">
+        <f>VLOOKUP($G16,Table1[],3,TRUE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J16" s="6" t="e">
+        <f>VLOOKUP($G16,Table1[],4,TRUE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K16" s="7" t="e">
+        <f>VLOOKUP($G16,Table1[],5,TRUE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>43983</v>
+      </c>
+      <c r="B17">
+        <v>65</v>
+      </c>
+      <c r="C17" t="str">
+        <f>VLOOKUP($B17,Table35[#All],2,TRUE)</f>
+        <v>*I</v>
+      </c>
+      <c r="D17">
+        <f>VLOOKUP($B17,Table35[#All],3,TRUE)</f>
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <f>VLOOKUP($B17,Table35[#All],4,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="F17" t="str">
+        <f>VLOOKUP($B17,Table35[#All],5,TRUE)</f>
+        <v>Create Protogame as starting place</v>
+      </c>
+      <c r="G17">
+        <f>VLOOKUP($B17,Table35[#All],6,TRUE)</f>
+        <v>37</v>
+      </c>
+      <c r="H17" t="str">
+        <f>VLOOKUP($B17,Table35[#All],7,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="I17" t="str">
+        <f>VLOOKUP($B17,Table35[#All],8,TRUE)</f>
+        <v>Protogame</v>
+      </c>
+      <c r="J17" t="str">
+        <f>VLOOKUP($B17,Table35[#All],9,TRUE)</f>
+        <v>Protogame</v>
+      </c>
+      <c r="K17" t="str">
+        <f>VLOOKUP($B17,Table35[#All],10,TRUE)</f>
+        <v>Create Protogame as starting point</v>
       </c>
     </row>
   </sheetData>

--- a/DFS/DFS Documentation - Jonathan Sarasua.xlsx
+++ b/DFS/DFS Documentation - Jonathan Sarasua.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Guildhall\DFS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9744D6-ABA9-415F-B9C2-C0887F13BFF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42DF394D-EC09-4122-8BE4-4E7040D48D90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{C664E016-CE9A-4FC5-A772-98B630577C19}"/>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{3D84B222-422C-4254-85C9-E5FC35CCD999}"/>
+    <workbookView minimized="1" xWindow="2940" yWindow="2655" windowWidth="21600" windowHeight="10395" activeTab="2" xr2:uid="{C664E016-CE9A-4FC5-A772-98B630577C19}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{3D84B222-422C-4254-85C9-E5FC35CCD999}"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="211">
   <si>
     <t>Fields</t>
   </si>
@@ -664,7 +664,13 @@
     <t>Create simple Enemy character with functions to shoot</t>
   </si>
   <si>
-    <t>*I</t>
+    <t>*X</t>
+  </si>
+  <si>
+    <t>Implement Incursion style map and tank (doesn't shoot)</t>
+  </si>
+  <si>
+    <t>*/</t>
   </si>
 </sst>
 </file>
@@ -962,8 +968,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{3AFC5965-674A-4451-AC25-19E71FAB4844}" name="Table35" displayName="Table35" ref="A11:J77" totalsRowCount="1">
-  <autoFilter ref="A11:J76" xr:uid="{4A443AB6-A518-4003-A068-759E12CFD484}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{3AFC5965-674A-4451-AC25-19E71FAB4844}" name="Table35" displayName="Table35" ref="A11:J78" totalsRowCount="1">
+  <autoFilter ref="A11:J77" xr:uid="{4A443AB6-A518-4003-A068-759E12CFD484}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A12:J71">
     <sortCondition ref="F11:F71"/>
   </sortState>
@@ -996,10 +1002,10 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{4151FFFD-B746-4538-A0CE-AB3ABE724425}" name="Table356" displayName="Table356" ref="A17:J38" totalsRowCount="1">
-  <autoFilter ref="A17:J37" xr:uid="{7D17F18C-C430-4F21-9230-429FFCB76917}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A18:J37">
-    <sortCondition ref="F11:F37"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{4151FFFD-B746-4538-A0CE-AB3ABE724425}" name="Table356" displayName="Table356" ref="A17:J39" totalsRowCount="1">
+  <autoFilter ref="A17:J38" xr:uid="{7D17F18C-C430-4F21-9230-429FFCB76917}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A18:J38">
+    <sortCondition ref="F11:F38"/>
   </sortState>
   <tableColumns count="10">
     <tableColumn id="10" xr3:uid="{62B84147-86F3-475B-86AF-B1B525EF17F5}" name="Task ID"/>
@@ -1038,10 +1044,10 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{618CE7E4-5ADE-4E98-B2AC-0682EBACB73D}" name="Table3567" displayName="Table3567" ref="A42:J44" insertRow="1" totalsRowCount="1">
-  <autoFilter ref="A42:J43" xr:uid="{DD29A22F-BB19-4ADC-B414-52C64CAC47C4}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A43:J43">
-    <sortCondition ref="F11:F37"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{618CE7E4-5ADE-4E98-B2AC-0682EBACB73D}" name="Table3567" displayName="Table3567" ref="A43:J45" insertRow="1" totalsRowCount="1">
+  <autoFilter ref="A43:J44" xr:uid="{DD29A22F-BB19-4ADC-B414-52C64CAC47C4}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A44:J44">
+    <sortCondition ref="F11:F38"/>
   </sortState>
   <tableColumns count="10">
     <tableColumn id="10" xr3:uid="{C6F19666-4430-4172-9EF5-7BF02339E0BE}" name="Task ID"/>
@@ -1055,16 +1061,16 @@
     <tableColumn id="11" xr3:uid="{49D5F43A-A98B-42E6-ACBC-67D28734B648}" name="Task"/>
     <tableColumn id="4" xr3:uid="{E8FD2575-FD87-4AEC-B082-FC9EF15436ED}" name="Feature ID"/>
     <tableColumn id="5" xr3:uid="{00E2B42D-24A6-4373-8A60-41DF03320438}" name="Game State">
-      <calculatedColumnFormula>VLOOKUP($F43,Table1[],2,TRUE)</calculatedColumnFormula>
+      <calculatedColumnFormula>VLOOKUP($F44,Table1[],2,TRUE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{7CAF72B6-3BE7-4219-8CBF-3144E50061D4}" name="Area">
-      <calculatedColumnFormula>VLOOKUP($F43,Table1[],3,TRUE)</calculatedColumnFormula>
+      <calculatedColumnFormula>VLOOKUP($F44,Table1[],3,TRUE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{006D294A-1C72-4BE8-93FB-F3D69846DA4B}" name="Features">
-      <calculatedColumnFormula>VLOOKUP($F43,Table1[],4,TRUE)</calculatedColumnFormula>
+      <calculatedColumnFormula>VLOOKUP($F44,Table1[],4,TRUE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{34E05C3D-FA28-4EB6-94EB-403D79C130C2}" name="Description">
-      <calculatedColumnFormula>VLOOKUP($F43,Table1[],5,TRUE)</calculatedColumnFormula>
+      <calculatedColumnFormula>VLOOKUP($F44,Table1[],5,TRUE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1072,10 +1078,10 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A50E57C5-0AFB-4BA1-ADB8-B627D629FE7F}" name="Table35678" displayName="Table35678" ref="A47:J49" insertRow="1" totalsRowCount="1">
-  <autoFilter ref="A47:J48" xr:uid="{12F7B163-3DD2-4A1A-B717-142A2F111DBF}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A48:J48">
-    <sortCondition ref="F11:F37"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A50E57C5-0AFB-4BA1-ADB8-B627D629FE7F}" name="Table35678" displayName="Table35678" ref="A48:J50" insertRow="1" totalsRowCount="1">
+  <autoFilter ref="A48:J49" xr:uid="{12F7B163-3DD2-4A1A-B717-142A2F111DBF}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A49:J49">
+    <sortCondition ref="F11:F38"/>
   </sortState>
   <tableColumns count="10">
     <tableColumn id="10" xr3:uid="{F8381028-8A17-4B32-A639-67E8C8144828}" name="Task ID"/>
@@ -1089,16 +1095,16 @@
     <tableColumn id="11" xr3:uid="{91CFC98B-90CD-42BE-9A24-77BC97E0454A}" name="Task"/>
     <tableColumn id="4" xr3:uid="{B7F5769E-B85A-43C1-902D-895944D9FB69}" name="Feature ID"/>
     <tableColumn id="5" xr3:uid="{B24C2F29-63F0-444C-BEF7-9A76FCB32652}" name="Game State">
-      <calculatedColumnFormula>VLOOKUP($F48,Table1[],2,TRUE)</calculatedColumnFormula>
+      <calculatedColumnFormula>VLOOKUP($F49,Table1[],2,TRUE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{FE8182AE-9790-4939-8FF4-6070CF1562BE}" name="Area">
-      <calculatedColumnFormula>VLOOKUP($F48,Table1[],3,TRUE)</calculatedColumnFormula>
+      <calculatedColumnFormula>VLOOKUP($F49,Table1[],3,TRUE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{E7F548A7-6336-48B8-A133-B7FCEE2A2BDE}" name="Features">
-      <calculatedColumnFormula>VLOOKUP($F48,Table1[],4,TRUE)</calculatedColumnFormula>
+      <calculatedColumnFormula>VLOOKUP($F49,Table1[],4,TRUE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{FA6C449C-FC00-4EF7-B313-44A06BA6C8C8}" name="Description">
-      <calculatedColumnFormula>VLOOKUP($F48,Table1[],5,TRUE)</calculatedColumnFormula>
+      <calculatedColumnFormula>VLOOKUP($F49,Table1[],5,TRUE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1106,10 +1112,10 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{30F3182D-6F4F-47DA-9031-C4C7700B24D0}" name="Table356789" displayName="Table356789" ref="A52:J54" insertRow="1" totalsRowCount="1">
-  <autoFilter ref="A52:J53" xr:uid="{B94650E2-40D2-4E6D-BDD5-60BDE959C1FE}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A53:J53">
-    <sortCondition ref="F11:F37"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{30F3182D-6F4F-47DA-9031-C4C7700B24D0}" name="Table356789" displayName="Table356789" ref="A53:J55" insertRow="1" totalsRowCount="1">
+  <autoFilter ref="A53:J54" xr:uid="{B94650E2-40D2-4E6D-BDD5-60BDE959C1FE}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A54:J54">
+    <sortCondition ref="F11:F38"/>
   </sortState>
   <tableColumns count="10">
     <tableColumn id="10" xr3:uid="{DC6AA35E-8AA3-446B-B599-609F1953960A}" name="Task ID"/>
@@ -1123,16 +1129,16 @@
     <tableColumn id="11" xr3:uid="{F62C4925-2A4F-4E55-8ABC-E6F6593114DC}" name="Task"/>
     <tableColumn id="4" xr3:uid="{01A791A3-ACBC-4A55-B3B0-A86AD9A448A7}" name="Feature ID"/>
     <tableColumn id="5" xr3:uid="{295C0FE1-E8EF-4354-AFB2-7D7ABA42869A}" name="Game State">
-      <calculatedColumnFormula>VLOOKUP($F53,Table1[],2,TRUE)</calculatedColumnFormula>
+      <calculatedColumnFormula>VLOOKUP($F54,Table1[],2,TRUE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{FF2F79F8-5BB6-4B43-A8B1-9663B716C6B1}" name="Area">
-      <calculatedColumnFormula>VLOOKUP($F53,Table1[],3,TRUE)</calculatedColumnFormula>
+      <calculatedColumnFormula>VLOOKUP($F54,Table1[],3,TRUE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{5482843D-6E87-4AC9-93CD-093636B159C7}" name="Features">
-      <calculatedColumnFormula>VLOOKUP($F53,Table1[],4,TRUE)</calculatedColumnFormula>
+      <calculatedColumnFormula>VLOOKUP($F54,Table1[],4,TRUE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{677E5A6C-8291-472B-8F25-DC573BD78CC5}" name="Description">
-      <calculatedColumnFormula>VLOOKUP($F53,Table1[],5,TRUE)</calculatedColumnFormula>
+      <calculatedColumnFormula>VLOOKUP($F54,Table1[],5,TRUE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3131,13 +3137,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC20C21-6CC5-454B-A71B-54C5FBC17A7F}">
-  <dimension ref="A2:J77"/>
+  <dimension ref="A2:J78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="E72" sqref="E72"/>
     </sheetView>
-    <sheetView topLeftCell="A49" workbookViewId="1">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView topLeftCell="A22" workbookViewId="1">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3978,14 +3984,14 @@
       <c r="A32">
         <v>21</v>
       </c>
-      <c r="B32">
-        <v>0</v>
+      <c r="B32" t="s">
+        <v>111</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="s">
         <v>144</v>
@@ -4014,14 +4020,14 @@
       <c r="A33">
         <v>22</v>
       </c>
-      <c r="B33">
-        <v>0</v>
+      <c r="B33" t="s">
+        <v>111</v>
       </c>
       <c r="C33">
         <v>0.5</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E33" t="s">
         <v>145</v>
@@ -5419,7 +5425,7 @@
         <v>61</v>
       </c>
       <c r="B72" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -5569,7 +5575,7 @@
         <v>2</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E76" t="s">
         <v>204</v>
@@ -5595,13 +5601,49 @@
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>66</v>
+      </c>
+      <c r="B77" t="s">
+        <v>208</v>
+      </c>
       <c r="C77">
+        <v>2</v>
+      </c>
+      <c r="D77">
+        <v>3</v>
+      </c>
+      <c r="E77" t="s">
+        <v>209</v>
+      </c>
+      <c r="F77">
+        <v>37</v>
+      </c>
+      <c r="G77" t="str">
+        <f>VLOOKUP($F77,Table1[],2,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="H77" t="str">
+        <f>VLOOKUP($F77,Table1[],3,TRUE)</f>
+        <v>Protogame</v>
+      </c>
+      <c r="I77" t="str">
+        <f>VLOOKUP($F77,Table1[],4,TRUE)</f>
+        <v>Protogame</v>
+      </c>
+      <c r="J77" t="str">
+        <f>VLOOKUP($F77,Table1[],5,TRUE)</f>
+        <v>Create Protogame as starting point</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C78">
         <f>SUM(Table35[Estimate])</f>
-        <v>105</v>
-      </c>
-      <c r="D77">
+        <v>107</v>
+      </c>
+      <c r="D78">
         <f>SUM(Table35[Actual])</f>
-        <v>0</v>
+        <v>8.5</v>
       </c>
     </row>
   </sheetData>
@@ -5614,13 +5656,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93182A32-9B41-4840-9B31-4DBA5186CB78}">
-  <dimension ref="A6:J54"/>
+  <dimension ref="A6:J55"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
-    <sheetView topLeftCell="A13" workbookViewId="1">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="1">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5754,7 +5796,7 @@
       </c>
       <c r="B18" t="str">
         <f>VLOOKUP($A18,Table35[#All],2,TRUE)</f>
-        <v>*I</v>
+        <v>*X</v>
       </c>
       <c r="C18">
         <f>VLOOKUP($A18,Table35[#All],3,TRUE)</f>
@@ -5762,7 +5804,7 @@
       </c>
       <c r="D18">
         <f>VLOOKUP($A18,Table35[#All],4,TRUE)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E18" t="str">
         <f>VLOOKUP($A18,Table35[#All],5,TRUE)</f>
@@ -5791,27 +5833,27 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B19" t="str">
         <f>VLOOKUP($A19,Table35[#All],2,TRUE)</f>
-        <v>*0</v>
+        <v>*X</v>
       </c>
       <c r="C19">
         <f>VLOOKUP($A19,Table35[#All],3,TRUE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19">
         <f>VLOOKUP($A19,Table35[#All],4,TRUE)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E19" t="str">
         <f>VLOOKUP($A19,Table35[#All],5,TRUE)</f>
-        <v>Create simple Enemy character with functions to shoot</v>
+        <v>Implement Incursion style map and tank (doesn't shoot)</v>
       </c>
       <c r="F19">
         <f>VLOOKUP($A19,Table35[#All],6,TRUE)</f>
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="G19" t="str">
         <f>VLOOKUP($F19,Table1[],2,TRUE)</f>
@@ -5819,20 +5861,20 @@
       </c>
       <c r="H19" t="str">
         <f>VLOOKUP($F19,Table1[],3,TRUE)</f>
-        <v>Enemies</v>
+        <v>Protogame</v>
       </c>
       <c r="I19" t="str">
         <f>VLOOKUP($F19,Table1[],4,TRUE)</f>
-        <v>Enemy characters</v>
+        <v>Protogame</v>
       </c>
       <c r="J19" t="str">
         <f>VLOOKUP($F19,Table1[],5,TRUE)</f>
-        <v>Enemies are actors that may be data driven. They have on hit and on death effects to drop loot</v>
+        <v>Create Protogame as starting point</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B20" t="str">
         <f>VLOOKUP($A20,Table35[#All],2,TRUE)</f>
@@ -5848,11 +5890,11 @@
       </c>
       <c r="E20" t="str">
         <f>VLOOKUP($A20,Table35[#All],5,TRUE)</f>
-        <v>Create Prototype player</v>
+        <v>Create simple Enemy character with functions to shoot</v>
       </c>
       <c r="F20">
         <f>VLOOKUP($A20,Table35[#All],6,TRUE)</f>
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G20" t="str">
         <f>VLOOKUP($F20,Table1[],2,TRUE)</f>
@@ -5860,24 +5902,24 @@
       </c>
       <c r="H20" t="str">
         <f>VLOOKUP($F20,Table1[],3,TRUE)</f>
-        <v>Player</v>
+        <v>Enemies</v>
       </c>
       <c r="I20" t="str">
         <f>VLOOKUP($F20,Table1[],4,TRUE)</f>
-        <v>Player Character</v>
+        <v>Enemy characters</v>
       </c>
       <c r="J20" t="str">
         <f>VLOOKUP($F20,Table1[],5,TRUE)</f>
-        <v>The Player character is derived from actor with a player controller</v>
+        <v>Enemies are actors that may be data driven. They have on hit and on death effects to drop loot</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B21" t="str">
         <f>VLOOKUP($A21,Table35[#All],2,TRUE)</f>
-        <v>*0</v>
+        <v>*/</v>
       </c>
       <c r="C21">
         <f>VLOOKUP($A21,Table35[#All],3,TRUE)</f>
@@ -5889,11 +5931,11 @@
       </c>
       <c r="E21" t="str">
         <f>VLOOKUP($A21,Table35[#All],5,TRUE)</f>
-        <v>Create prototype gun</v>
+        <v>Create Prototype player</v>
       </c>
       <c r="F21">
         <f>VLOOKUP($A21,Table35[#All],6,TRUE)</f>
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G21" t="str">
         <f>VLOOKUP($F21,Table1[],2,TRUE)</f>
@@ -5901,20 +5943,20 @@
       </c>
       <c r="H21" t="str">
         <f>VLOOKUP($F21,Table1[],3,TRUE)</f>
-        <v>Weapons</v>
+        <v>Player</v>
       </c>
       <c r="I21" t="str">
         <f>VLOOKUP($F21,Table1[],4,TRUE)</f>
-        <v>Weapons</v>
+        <v>Player Character</v>
       </c>
       <c r="J21" t="str">
         <f>VLOOKUP($F21,Table1[],5,TRUE)</f>
-        <v>Weapons may be data driven with Weapon visual, VFX, and SFX</v>
+        <v>The Player character is derived from actor with a player controller</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B22" t="str">
         <f>VLOOKUP($A22,Table35[#All],2,TRUE)</f>
@@ -5930,11 +5972,11 @@
       </c>
       <c r="E22" t="str">
         <f>VLOOKUP($A22,Table35[#All],5,TRUE)</f>
-        <v>Create Prototype bullets/firing</v>
+        <v>Create prototype gun</v>
       </c>
       <c r="F22">
         <f>VLOOKUP($A22,Table35[#All],6,TRUE)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G22" t="str">
         <f>VLOOKUP($F22,Table1[],2,TRUE)</f>
@@ -5946,20 +5988,20 @@
       </c>
       <c r="I22" t="str">
         <f>VLOOKUP($F22,Table1[],4,TRUE)</f>
-        <v>Bullets</v>
+        <v>Weapons</v>
       </c>
       <c r="J22" t="str">
         <f>VLOOKUP($F22,Table1[],5,TRUE)</f>
-        <v>Bullets may be data driven with damage, visuals, VFX, and SFX</v>
+        <v>Weapons may be data driven with Weapon visual, VFX, and SFX</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>1</v>
-      </c>
-      <c r="B23">
+        <v>63</v>
+      </c>
+      <c r="B23" t="str">
         <f>VLOOKUP($A23,Table35[#All],2,TRUE)</f>
-        <v>0</v>
+        <v>*0</v>
       </c>
       <c r="C23">
         <f>VLOOKUP($A23,Table35[#All],3,TRUE)</f>
@@ -5971,32 +6013,32 @@
       </c>
       <c r="E23" t="str">
         <f>VLOOKUP($A23,Table35[#All],5,TRUE)</f>
-        <v>Implement loading state and loading functions</v>
+        <v>Create Prototype bullets/firing</v>
       </c>
       <c r="F23">
         <f>VLOOKUP($A23,Table35[#All],6,TRUE)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G23" t="str">
         <f>VLOOKUP($F23,Table1[],2,TRUE)</f>
-        <v>Loading Screen</v>
+        <v>Game</v>
       </c>
       <c r="H23" t="str">
         <f>VLOOKUP($F23,Table1[],3,TRUE)</f>
-        <v>Function</v>
+        <v>Weapons</v>
       </c>
       <c r="I23" t="str">
         <f>VLOOKUP($F23,Table1[],4,TRUE)</f>
-        <v>Load data</v>
+        <v>Bullets</v>
       </c>
       <c r="J23" t="str">
         <f>VLOOKUP($F23,Table1[],5,TRUE)</f>
-        <v xml:space="preserve">Loads game assets </v>
+        <v>Bullets may be data driven with damage, visuals, VFX, and SFX</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B24">
         <f>VLOOKUP($A24,Table35[#All],2,TRUE)</f>
@@ -6004,7 +6046,7 @@
       </c>
       <c r="C24">
         <f>VLOOKUP($A24,Table35[#All],3,TRUE)</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D24">
         <f>VLOOKUP($A24,Table35[#All],4,TRUE)</f>
@@ -6012,15 +6054,15 @@
       </c>
       <c r="E24" t="str">
         <f>VLOOKUP($A24,Table35[#All],5,TRUE)</f>
-        <v>Add Start button to begin the first level and exit button to quit game</v>
+        <v>Implement loading state and loading functions</v>
       </c>
       <c r="F24">
         <f>VLOOKUP($A24,Table35[#All],6,TRUE)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G24" t="str">
         <f>VLOOKUP($F24,Table1[],2,TRUE)</f>
-        <v>Main Menu</v>
+        <v>Loading Screen</v>
       </c>
       <c r="H24" t="str">
         <f>VLOOKUP($F24,Table1[],3,TRUE)</f>
@@ -6028,16 +6070,16 @@
       </c>
       <c r="I24" t="str">
         <f>VLOOKUP($F24,Table1[],4,TRUE)</f>
-        <v>Buttons</v>
+        <v>Load data</v>
       </c>
       <c r="J24" t="str">
         <f>VLOOKUP($F24,Table1[],5,TRUE)</f>
-        <v>Start game, Exit Game buttons to start or exit the game</v>
+        <v xml:space="preserve">Loads game assets </v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B25">
         <f>VLOOKUP($A25,Table35[#All],2,TRUE)</f>
@@ -6045,7 +6087,7 @@
       </c>
       <c r="C25">
         <f>VLOOKUP($A25,Table35[#All],3,TRUE)</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D25">
         <f>VLOOKUP($A25,Table35[#All],4,TRUE)</f>
@@ -6053,32 +6095,32 @@
       </c>
       <c r="E25" t="str">
         <f>VLOOKUP($A25,Table35[#All],5,TRUE)</f>
-        <v>Integrate Weapons with bullets</v>
+        <v>Add Start button to begin the first level and exit button to quit game</v>
       </c>
       <c r="F25">
         <f>VLOOKUP($A25,Table35[#All],6,TRUE)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G25" t="str">
         <f>VLOOKUP($F25,Table1[],2,TRUE)</f>
-        <v>Game</v>
+        <v>Main Menu</v>
       </c>
       <c r="H25" t="str">
         <f>VLOOKUP($F25,Table1[],3,TRUE)</f>
-        <v>Weapons</v>
+        <v>Function</v>
       </c>
       <c r="I25" t="str">
         <f>VLOOKUP($F25,Table1[],4,TRUE)</f>
-        <v>Weapons</v>
+        <v>Buttons</v>
       </c>
       <c r="J25" t="str">
         <f>VLOOKUP($F25,Table1[],5,TRUE)</f>
-        <v>Weapons may be data driven with Weapon visual, VFX, and SFX</v>
+        <v>Start game, Exit Game buttons to start or exit the game</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B26">
         <f>VLOOKUP($A26,Table35[#All],2,TRUE)</f>
@@ -6086,7 +6128,7 @@
       </c>
       <c r="C26">
         <f>VLOOKUP($A26,Table35[#All],3,TRUE)</f>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D26">
         <f>VLOOKUP($A26,Table35[#All],4,TRUE)</f>
@@ -6094,7 +6136,7 @@
       </c>
       <c r="E26" t="str">
         <f>VLOOKUP($A26,Table35[#All],5,TRUE)</f>
-        <v>Integrate Weapon with actors</v>
+        <v>Integrate Weapons with bullets</v>
       </c>
       <c r="F26">
         <f>VLOOKUP($A26,Table35[#All],6,TRUE)</f>
@@ -6119,7 +6161,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B27">
         <f>VLOOKUP($A27,Table35[#All],2,TRUE)</f>
@@ -6127,7 +6169,7 @@
       </c>
       <c r="C27">
         <f>VLOOKUP($A27,Table35[#All],3,TRUE)</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D27">
         <f>VLOOKUP($A27,Table35[#All],4,TRUE)</f>
@@ -6135,7 +6177,7 @@
       </c>
       <c r="E27" t="str">
         <f>VLOOKUP($A27,Table35[#All],5,TRUE)</f>
-        <v>Find/implement first 2 weapon assets (pistol/shotgun)</v>
+        <v>Integrate Weapon with actors</v>
       </c>
       <c r="F27">
         <f>VLOOKUP($A27,Table35[#All],6,TRUE)</f>
@@ -6160,7 +6202,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B28">
         <f>VLOOKUP($A28,Table35[#All],2,TRUE)</f>
@@ -6176,11 +6218,11 @@
       </c>
       <c r="E28" t="str">
         <f>VLOOKUP($A28,Table35[#All],5,TRUE)</f>
-        <v>Implement bullet collisions</v>
+        <v>Find/implement first 2 weapon assets (pistol/shotgun)</v>
       </c>
       <c r="F28">
         <f>VLOOKUP($A28,Table35[#All],6,TRUE)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G28" t="str">
         <f>VLOOKUP($F28,Table1[],2,TRUE)</f>
@@ -6192,16 +6234,16 @@
       </c>
       <c r="I28" t="str">
         <f>VLOOKUP($F28,Table1[],4,TRUE)</f>
-        <v>Bullets</v>
+        <v>Weapons</v>
       </c>
       <c r="J28" t="str">
         <f>VLOOKUP($F28,Table1[],5,TRUE)</f>
-        <v>Bullets may be data driven with damage, visuals, VFX, and SFX</v>
+        <v>Weapons may be data driven with Weapon visual, VFX, and SFX</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B29">
         <f>VLOOKUP($A29,Table35[#All],2,TRUE)</f>
@@ -6217,7 +6259,7 @@
       </c>
       <c r="E29" t="str">
         <f>VLOOKUP($A29,Table35[#All],5,TRUE)</f>
-        <v>Find/implement basic bullet asset</v>
+        <v>Implement bullet collisions</v>
       </c>
       <c r="F29">
         <f>VLOOKUP($A29,Table35[#All],6,TRUE)</f>
@@ -6242,7 +6284,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B30">
         <f>VLOOKUP($A30,Table35[#All],2,TRUE)</f>
@@ -6258,11 +6300,11 @@
       </c>
       <c r="E30" t="str">
         <f>VLOOKUP($A30,Table35[#All],5,TRUE)</f>
-        <v>Create camera to follow player</v>
+        <v>Find/implement basic bullet asset</v>
       </c>
       <c r="F30">
         <f>VLOOKUP($A30,Table35[#All],6,TRUE)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G30" t="str">
         <f>VLOOKUP($F30,Table1[],2,TRUE)</f>
@@ -6270,36 +6312,36 @@
       </c>
       <c r="H30" t="str">
         <f>VLOOKUP($F30,Table1[],3,TRUE)</f>
-        <v>Camera</v>
+        <v>Weapons</v>
       </c>
       <c r="I30" t="str">
         <f>VLOOKUP($F30,Table1[],4,TRUE)</f>
-        <v>Top down camera</v>
+        <v>Bullets</v>
       </c>
       <c r="J30" t="str">
         <f>VLOOKUP($F30,Table1[],5,TRUE)</f>
-        <v>Camera view is top down focusing on the player but is clamped to screen</v>
+        <v>Bullets may be data driven with damage, visuals, VFX, and SFX</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>22</v>
-      </c>
-      <c r="B31">
+        <v>21</v>
+      </c>
+      <c r="B31" t="str">
         <f>VLOOKUP($A31,Table35[#All],2,TRUE)</f>
-        <v>0</v>
+        <v>X</v>
       </c>
       <c r="C31">
         <f>VLOOKUP($A31,Table35[#All],3,TRUE)</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D31">
         <f>VLOOKUP($A31,Table35[#All],4,TRUE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="str">
         <f>VLOOKUP($A31,Table35[#All],5,TRUE)</f>
-        <v>Clamp camera to map dimensions</v>
+        <v>Create camera to follow player</v>
       </c>
       <c r="F31">
         <f>VLOOKUP($A31,Table35[#All],6,TRUE)</f>
@@ -6324,27 +6366,27 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>30</v>
-      </c>
-      <c r="B32">
+        <v>22</v>
+      </c>
+      <c r="B32" t="str">
         <f>VLOOKUP($A32,Table35[#All],2,TRUE)</f>
-        <v>0</v>
+        <v>X</v>
       </c>
       <c r="C32">
         <f>VLOOKUP($A32,Table35[#All],3,TRUE)</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D32">
         <f>VLOOKUP($A32,Table35[#All],4,TRUE)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E32" t="str">
         <f>VLOOKUP($A32,Table35[#All],5,TRUE)</f>
-        <v>Implement Actor physics with collisions of enemies and obstacles</v>
+        <v>Clamp camera to map dimensions</v>
       </c>
       <c r="F32">
         <f>VLOOKUP($A32,Table35[#All],6,TRUE)</f>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G32" t="str">
         <f>VLOOKUP($F32,Table1[],2,TRUE)</f>
@@ -6352,20 +6394,20 @@
       </c>
       <c r="H32" t="str">
         <f>VLOOKUP($F32,Table1[],3,TRUE)</f>
-        <v>Actors</v>
+        <v>Camera</v>
       </c>
       <c r="I32" t="str">
         <f>VLOOKUP($F32,Table1[],4,TRUE)</f>
-        <v>Physics</v>
+        <v>Top down camera</v>
       </c>
       <c r="J32" t="str">
         <f>VLOOKUP($F32,Table1[],5,TRUE)</f>
-        <v>Physics like actor radius is data driven and says what the actor will collide with</v>
+        <v>Camera view is top down focusing on the player but is clamped to screen</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B33">
         <f>VLOOKUP($A33,Table35[#All],2,TRUE)</f>
@@ -6381,11 +6423,11 @@
       </c>
       <c r="E33" t="str">
         <f>VLOOKUP($A33,Table35[#All],5,TRUE)</f>
-        <v>Have weapons face actor direction moving in a circular motion around player radius</v>
+        <v>Implement Actor physics with collisions of enemies and obstacles</v>
       </c>
       <c r="F33">
         <f>VLOOKUP($A33,Table35[#All],6,TRUE)</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G33" t="str">
         <f>VLOOKUP($F33,Table1[],2,TRUE)</f>
@@ -6397,16 +6439,16 @@
       </c>
       <c r="I33" t="str">
         <f>VLOOKUP($F33,Table1[],4,TRUE)</f>
-        <v>Weapons</v>
+        <v>Physics</v>
       </c>
       <c r="J33" t="str">
         <f>VLOOKUP($F33,Table1[],5,TRUE)</f>
-        <v>Game keeps track of current weapon and uses the weapon definitions to know the stats</v>
+        <v>Physics like actor radius is data driven and says what the actor will collide with</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34">
         <f>VLOOKUP($A34,Table35[#All],2,TRUE)</f>
@@ -6422,7 +6464,7 @@
       </c>
       <c r="E34" t="str">
         <f>VLOOKUP($A34,Table35[#All],5,TRUE)</f>
-        <v>Have weapons behind player at top of screen and in front of player at bottom of screen</v>
+        <v>Have weapons face actor direction moving in a circular motion around player radius</v>
       </c>
       <c r="F34">
         <f>VLOOKUP($A34,Table35[#All],6,TRUE)</f>
@@ -6447,7 +6489,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B35">
         <f>VLOOKUP($A35,Table35[#All],2,TRUE)</f>
@@ -6463,11 +6505,11 @@
       </c>
       <c r="E35" t="str">
         <f>VLOOKUP($A35,Table35[#All],5,TRUE)</f>
-        <v>Add movement keys to controller class</v>
+        <v>Have weapons behind player at top of screen and in front of player at bottom of screen</v>
       </c>
       <c r="F35">
         <f>VLOOKUP($A35,Table35[#All],6,TRUE)</f>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G35" t="str">
         <f>VLOOKUP($F35,Table1[],2,TRUE)</f>
@@ -6475,20 +6517,20 @@
       </c>
       <c r="H35" t="str">
         <f>VLOOKUP($F35,Table1[],3,TRUE)</f>
-        <v>Player Controller</v>
+        <v>Actors</v>
       </c>
       <c r="I35" t="str">
         <f>VLOOKUP($F35,Table1[],4,TRUE)</f>
-        <v>Movement</v>
+        <v>Weapons</v>
       </c>
       <c r="J35" t="str">
         <f>VLOOKUP($F35,Table1[],5,TRUE)</f>
-        <v>Player moves with WASD or controller left joystick</v>
+        <v>Game keeps track of current weapon and uses the weapon definitions to know the stats</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B36">
         <f>VLOOKUP($A36,Table35[#All],2,TRUE)</f>
@@ -6496,7 +6538,7 @@
       </c>
       <c r="C36">
         <f>VLOOKUP($A36,Table35[#All],3,TRUE)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D36">
         <f>VLOOKUP($A36,Table35[#All],4,TRUE)</f>
@@ -6504,11 +6546,11 @@
       </c>
       <c r="E36" t="str">
         <f>VLOOKUP($A36,Table35[#All],5,TRUE)</f>
-        <v>Create simple enemy controller to run at player and shoot</v>
+        <v>Add movement keys to controller class</v>
       </c>
       <c r="F36">
         <f>VLOOKUP($A36,Table35[#All],6,TRUE)</f>
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G36" t="str">
         <f>VLOOKUP($F36,Table1[],2,TRUE)</f>
@@ -6516,20 +6558,20 @@
       </c>
       <c r="H36" t="str">
         <f>VLOOKUP($F36,Table1[],3,TRUE)</f>
-        <v>Enemy Controller</v>
+        <v>Player Controller</v>
       </c>
       <c r="I36" t="str">
         <f>VLOOKUP($F36,Table1[],4,TRUE)</f>
-        <v>Enemy AI Controller</v>
+        <v>Movement</v>
       </c>
       <c r="J36" t="str">
         <f>VLOOKUP($F36,Table1[],5,TRUE)</f>
-        <v>Enemies have a data driven controller where they will wander until the player is spotted before chasing and shooting</v>
+        <v>Player moves with WASD or controller left joystick</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <f>VLOOKUP($A37,Table35[#All],2,TRUE)</f>
@@ -6537,7 +6579,7 @@
       </c>
       <c r="C37">
         <f>VLOOKUP($A37,Table35[#All],3,TRUE)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37">
         <f>VLOOKUP($A37,Table35[#All],4,TRUE)</f>
@@ -6545,11 +6587,11 @@
       </c>
       <c r="E37" t="str">
         <f>VLOOKUP($A37,Table35[#All],5,TRUE)</f>
-        <v>Integrate map with actors and check collisions</v>
+        <v>Create simple enemy controller to run at player and shoot</v>
       </c>
       <c r="F37">
         <f>VLOOKUP($A37,Table35[#All],6,TRUE)</f>
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G37" t="str">
         <f>VLOOKUP($F37,Table1[],2,TRUE)</f>
@@ -6557,173 +6599,214 @@
       </c>
       <c r="H37" t="str">
         <f>VLOOKUP($F37,Table1[],3,TRUE)</f>
-        <v>Map</v>
+        <v>Enemy Controller</v>
       </c>
       <c r="I37" t="str">
         <f>VLOOKUP($F37,Table1[],4,TRUE)</f>
-        <v>Map makeup</v>
+        <v>Enemy AI Controller</v>
       </c>
       <c r="J37" t="str">
         <f>VLOOKUP($F37,Table1[],5,TRUE)</f>
+        <v>Enemies have a data driven controller where they will wander until the player is spotted before chasing and shooting</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>54</v>
+      </c>
+      <c r="B38">
+        <f>VLOOKUP($A38,Table35[#All],2,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <f>VLOOKUP($A38,Table35[#All],3,TRUE)</f>
+        <v>5</v>
+      </c>
+      <c r="D38">
+        <f>VLOOKUP($A38,Table35[#All],4,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="E38" t="str">
+        <f>VLOOKUP($A38,Table35[#All],5,TRUE)</f>
+        <v>Integrate map with actors and check collisions</v>
+      </c>
+      <c r="F38">
+        <f>VLOOKUP($A38,Table35[#All],6,TRUE)</f>
+        <v>33</v>
+      </c>
+      <c r="G38" t="str">
+        <f>VLOOKUP($F38,Table1[],2,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="H38" t="str">
+        <f>VLOOKUP($F38,Table1[],3,TRUE)</f>
+        <v>Map</v>
+      </c>
+      <c r="I38" t="str">
+        <f>VLOOKUP($F38,Table1[],4,TRUE)</f>
+        <v>Map makeup</v>
+      </c>
+      <c r="J38" t="str">
+        <f>VLOOKUP($F38,Table1[],5,TRUE)</f>
         <v>Maps are tile based with tile definitions determining what/who they block or not block</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C38">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C39">
         <f>SUM(Table356[Estimate])</f>
-        <v>25.5</v>
-      </c>
-      <c r="D38">
+        <v>27.5</v>
+      </c>
+      <c r="D39">
         <f>SUM(Table356[Actual])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B41" s="10">
+      <c r="B42" s="10">
         <v>44011</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>119</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>121</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C43" t="s">
         <v>122</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D43" t="s">
         <v>123</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E43" t="s">
         <v>120</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F43" t="s">
         <v>92</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G43" t="s">
         <v>14</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H43" t="s">
         <v>6</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I43" t="s">
         <v>15</v>
       </c>
-      <c r="J42" t="s">
+      <c r="J43" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C44">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C45">
         <f>SUM(Table3567[Estimate])</f>
         <v>0</v>
       </c>
-      <c r="D44">
+      <c r="D45">
         <f>SUM(Table3567[Actual])</f>
         <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>95</v>
-      </c>
-      <c r="B46" s="2">
-        <v>44025</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" s="2">
+        <v>44025</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>119</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
         <v>121</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C48" t="s">
         <v>122</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D48" t="s">
         <v>123</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E48" t="s">
         <v>120</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F48" t="s">
         <v>92</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G48" t="s">
         <v>14</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H48" t="s">
         <v>6</v>
       </c>
-      <c r="I47" t="s">
+      <c r="I48" t="s">
         <v>15</v>
       </c>
-      <c r="J47" t="s">
+      <c r="J48" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C49">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C50">
         <f>SUM(Table35678[Estimate])</f>
         <v>0</v>
       </c>
-      <c r="D49">
+      <c r="D50">
         <f>SUM(Table35678[Actual])</f>
         <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>96</v>
-      </c>
-      <c r="B51" s="2">
-        <v>44033</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>96</v>
+      </c>
+      <c r="B52" s="2">
+        <v>44033</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>119</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B53" t="s">
         <v>121</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C53" t="s">
         <v>122</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D53" t="s">
         <v>123</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E53" t="s">
         <v>120</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F53" t="s">
         <v>92</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G53" t="s">
         <v>14</v>
       </c>
-      <c r="H52" t="s">
+      <c r="H53" t="s">
         <v>6</v>
       </c>
-      <c r="I52" t="s">
+      <c r="I53" t="s">
         <v>15</v>
       </c>
-      <c r="J52" t="s">
+      <c r="J53" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C54">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C55">
         <f>SUM(Table356789[Estimate])</f>
         <v>0</v>
       </c>
-      <c r="D54">
+      <c r="D55">
         <f>SUM(Table356789[Actual])</f>
         <v>0</v>
       </c>
@@ -6741,13 +6824,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734CCCA4-3ECC-40E0-914B-329F4B230DBE}">
-  <dimension ref="A2:K17"/>
+  <dimension ref="A2:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="1">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7079,7 +7162,7 @@
       </c>
       <c r="C17" t="str">
         <f>VLOOKUP($B17,Table35[#All],2,TRUE)</f>
-        <v>*I</v>
+        <v>*X</v>
       </c>
       <c r="D17">
         <f>VLOOKUP($B17,Table35[#All],3,TRUE)</f>
@@ -7087,7 +7170,7 @@
       </c>
       <c r="E17">
         <f>VLOOKUP($B17,Table35[#All],4,TRUE)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F17" t="str">
         <f>VLOOKUP($B17,Table35[#All],5,TRUE)</f>
@@ -7112,6 +7195,182 @@
       <c r="K17" t="str">
         <f>VLOOKUP($B17,Table35[#All],10,TRUE)</f>
         <v>Create Protogame as starting point</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>43988</v>
+      </c>
+      <c r="B18">
+        <v>65</v>
+      </c>
+      <c r="C18" t="str">
+        <f>VLOOKUP($B18,Table35[#All],2,TRUE)</f>
+        <v>*X</v>
+      </c>
+      <c r="D18">
+        <f>VLOOKUP($B18,Table35[#All],3,TRUE)</f>
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <f>VLOOKUP($B18,Table35[#All],4,TRUE)</f>
+        <v>4</v>
+      </c>
+      <c r="F18" t="str">
+        <f>VLOOKUP($B18,Table35[#All],5,TRUE)</f>
+        <v>Create Protogame as starting place</v>
+      </c>
+      <c r="G18">
+        <f>VLOOKUP($B18,Table35[#All],6,TRUE)</f>
+        <v>37</v>
+      </c>
+      <c r="H18" t="str">
+        <f>VLOOKUP($B18,Table35[#All],7,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="I18" t="str">
+        <f>VLOOKUP($B18,Table35[#All],8,TRUE)</f>
+        <v>Protogame</v>
+      </c>
+      <c r="J18" t="str">
+        <f>VLOOKUP($B18,Table35[#All],9,TRUE)</f>
+        <v>Protogame</v>
+      </c>
+      <c r="K18" t="str">
+        <f>VLOOKUP($B18,Table35[#All],10,TRUE)</f>
+        <v>Create Protogame as starting point</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>43989</v>
+      </c>
+      <c r="B19">
+        <v>66</v>
+      </c>
+      <c r="C19" t="str">
+        <f>VLOOKUP($B19,Table35[#All],2,TRUE)</f>
+        <v>*X</v>
+      </c>
+      <c r="D19">
+        <f>VLOOKUP($B19,Table35[#All],3,TRUE)</f>
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <f>VLOOKUP($B19,Table35[#All],4,TRUE)</f>
+        <v>3</v>
+      </c>
+      <c r="F19" t="str">
+        <f>VLOOKUP($B19,Table35[#All],5,TRUE)</f>
+        <v>Implement Incursion style map and tank (doesn't shoot)</v>
+      </c>
+      <c r="G19">
+        <f>VLOOKUP($B19,Table35[#All],6,TRUE)</f>
+        <v>37</v>
+      </c>
+      <c r="H19" t="str">
+        <f>VLOOKUP($B19,Table35[#All],7,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="I19" t="str">
+        <f>VLOOKUP($B19,Table35[#All],8,TRUE)</f>
+        <v>Protogame</v>
+      </c>
+      <c r="J19" t="str">
+        <f>VLOOKUP($B19,Table35[#All],9,TRUE)</f>
+        <v>Protogame</v>
+      </c>
+      <c r="K19" t="str">
+        <f>VLOOKUP($B19,Table35[#All],10,TRUE)</f>
+        <v>Create Protogame as starting point</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>43989</v>
+      </c>
+      <c r="B20">
+        <v>21</v>
+      </c>
+      <c r="C20" t="str">
+        <f>VLOOKUP($B20,Table35[#All],2,TRUE)</f>
+        <v>X</v>
+      </c>
+      <c r="D20">
+        <f>VLOOKUP($B20,Table35[#All],3,TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <f>VLOOKUP($B20,Table35[#All],4,TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="F20" t="str">
+        <f>VLOOKUP($B20,Table35[#All],5,TRUE)</f>
+        <v>Create camera to follow player</v>
+      </c>
+      <c r="G20">
+        <f>VLOOKUP($B20,Table35[#All],6,TRUE)</f>
+        <v>9</v>
+      </c>
+      <c r="H20" t="str">
+        <f>VLOOKUP($B20,Table35[#All],7,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="I20" t="str">
+        <f>VLOOKUP($B20,Table35[#All],8,TRUE)</f>
+        <v>Camera</v>
+      </c>
+      <c r="J20" t="str">
+        <f>VLOOKUP($B20,Table35[#All],9,TRUE)</f>
+        <v>Top down camera</v>
+      </c>
+      <c r="K20" t="str">
+        <f>VLOOKUP($B20,Table35[#All],10,TRUE)</f>
+        <v>Camera view is top down focusing on the player but is clamped to screen</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>43989</v>
+      </c>
+      <c r="B21">
+        <v>22</v>
+      </c>
+      <c r="C21" t="str">
+        <f>VLOOKUP($B21,Table35[#All],2,TRUE)</f>
+        <v>X</v>
+      </c>
+      <c r="D21">
+        <f>VLOOKUP($B21,Table35[#All],3,TRUE)</f>
+        <v>0.5</v>
+      </c>
+      <c r="E21">
+        <f>VLOOKUP($B21,Table35[#All],4,TRUE)</f>
+        <v>0.5</v>
+      </c>
+      <c r="F21" t="str">
+        <f>VLOOKUP($B21,Table35[#All],5,TRUE)</f>
+        <v>Clamp camera to map dimensions</v>
+      </c>
+      <c r="G21">
+        <f>VLOOKUP($B21,Table35[#All],6,TRUE)</f>
+        <v>9</v>
+      </c>
+      <c r="H21" t="str">
+        <f>VLOOKUP($B21,Table35[#All],7,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="I21" t="str">
+        <f>VLOOKUP($B21,Table35[#All],8,TRUE)</f>
+        <v>Camera</v>
+      </c>
+      <c r="J21" t="str">
+        <f>VLOOKUP($B21,Table35[#All],9,TRUE)</f>
+        <v>Top down camera</v>
+      </c>
+      <c r="K21" t="str">
+        <f>VLOOKUP($B21,Table35[#All],10,TRUE)</f>
+        <v>Camera view is top down focusing on the player but is clamped to screen</v>
       </c>
     </row>
   </sheetData>

--- a/DFS/DFS Documentation - Jonathan Sarasua.xlsx
+++ b/DFS/DFS Documentation - Jonathan Sarasua.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Guildhall\DFS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42DF394D-EC09-4122-8BE4-4E7040D48D90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF7962C-A46D-4540-A0B3-6A28F7EAEC56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2940" yWindow="2655" windowWidth="21600" windowHeight="10395" activeTab="2" xr2:uid="{C664E016-CE9A-4FC5-A772-98B630577C19}"/>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{3D84B222-422C-4254-85C9-E5FC35CCD999}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{C664E016-CE9A-4FC5-A772-98B630577C19}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{3D84B222-422C-4254-85C9-E5FC35CCD999}"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="212">
   <si>
     <t>Fields</t>
   </si>
@@ -418,9 +418,6 @@
     <t>Implement loading screen text and background</t>
   </si>
   <si>
-    <t>Add Start button to begin the first level and exit button to quit game</t>
-  </si>
-  <si>
     <t>Implement visuals for the buttons</t>
   </si>
   <si>
@@ -520,15 +517,6 @@
     <t>Create controller class</t>
   </si>
   <si>
-    <t>Add movement keys to controller class</t>
-  </si>
-  <si>
-    <t>Add shooting to controller class</t>
-  </si>
-  <si>
-    <t>Add aiming to controller class</t>
-  </si>
-  <si>
     <t>Add dodging to controller class</t>
   </si>
   <si>
@@ -649,9 +637,6 @@
     <t>Enemies are actors that may be data driven. They have on hit and on death effects to drop loot</t>
   </si>
   <si>
-    <t>*0</t>
-  </si>
-  <si>
     <t>Create Protogame as starting place</t>
   </si>
   <si>
@@ -670,7 +655,25 @@
     <t>Implement Incursion style map and tank (doesn't shoot)</t>
   </si>
   <si>
-    <t>*/</t>
+    <t>Refactor Testgame2D to be used as a base project</t>
+  </si>
+  <si>
+    <t>Add movement controls (WASD)</t>
+  </si>
+  <si>
+    <t>Add shooting controls (LMB)</t>
+  </si>
+  <si>
+    <t>Add aiming controls (Mouse)</t>
+  </si>
+  <si>
+    <t>Initial Estimate</t>
+  </si>
+  <si>
+    <t>End Estimate</t>
+  </si>
+  <si>
+    <t>Add Attract Screen functionality (space or lmb to start game)</t>
   </si>
 </sst>
 </file>
@@ -869,7 +872,51 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
@@ -930,12 +977,32 @@
 </table>
 </file>
 
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{E3CFF414-7CA4-46A6-BE0E-B33C7CAC44AA}" name="Table11" displayName="Table11" ref="A11:K22" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="2">
+  <autoFilter ref="A11:K22" xr:uid="{EAE23911-42F4-4082-AE0F-23491A450C69}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{982DC17F-03DB-4686-9D01-D567F59FF074}" name="Date" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{9DC524A3-5239-4EFC-9625-7BED45C12A39}" name="Task ID"/>
+    <tableColumn id="3" xr3:uid="{E528A451-B369-4CDB-BDAB-DFC3499740A9}" name="Status"/>
+    <tableColumn id="4" xr3:uid="{0EF50412-F9F5-4BDC-B9F1-08FB4AC5CB44}" name="Estimate"/>
+    <tableColumn id="5" xr3:uid="{A2D889FC-6941-4701-87B7-DF916968D971}" name="Actual"/>
+    <tableColumn id="6" xr3:uid="{3C0954D0-C3F5-4F65-BC28-2B80E010A298}" name="Task"/>
+    <tableColumn id="7" xr3:uid="{748BC0CC-9BBE-445C-AA25-4D5D18EEEF91}" name="Feature ID"/>
+    <tableColumn id="8" xr3:uid="{C4D92668-03DC-40D9-8807-41CC4D1599FE}" name="Game State"/>
+    <tableColumn id="9" xr3:uid="{540D3064-A6DD-4A08-93B8-339BD04E1AA0}" name="Area"/>
+    <tableColumn id="10" xr3:uid="{995CC827-BF2A-413F-BCE1-C8CAA39BBAAE}" name="Features"/>
+    <tableColumn id="11" xr3:uid="{70D16A06-2E64-4AFD-A4BB-A0E1C9BF938A}" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BFACE515-2966-4008-AB38-0A834E1D027F}" name="Table2" displayName="Table2" ref="A6:B10" totalsRowShown="0">
   <autoFilter ref="A6:B10" xr:uid="{AAF0B698-6AA9-4EC2-BD1F-F54699311DE9}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{B7574024-B128-410E-A3F1-5B672326E58F}" name="Milestones" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{BEF5B8D6-9367-4D76-9368-9F5D816EB1D0}" name="Dates" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{B7574024-B128-410E-A3F1-5B672326E58F}" name="Milestones" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{BEF5B8D6-9367-4D76-9368-9F5D816EB1D0}" name="Dates" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -968,8 +1035,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{3AFC5965-674A-4451-AC25-19E71FAB4844}" name="Table35" displayName="Table35" ref="A11:J78" totalsRowCount="1">
-  <autoFilter ref="A11:J77" xr:uid="{4A443AB6-A518-4003-A068-759E12CFD484}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{3AFC5965-674A-4451-AC25-19E71FAB4844}" name="Table35" displayName="Table35" ref="A11:J79" totalsRowCount="1">
+  <autoFilter ref="A11:J78" xr:uid="{4A443AB6-A518-4003-A068-759E12CFD484}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A12:J71">
     <sortCondition ref="F11:F71"/>
   </sortState>
@@ -1002,10 +1069,10 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{4151FFFD-B746-4538-A0CE-AB3ABE724425}" name="Table356" displayName="Table356" ref="A17:J39" totalsRowCount="1">
-  <autoFilter ref="A17:J38" xr:uid="{7D17F18C-C430-4F21-9230-429FFCB76917}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A18:J38">
-    <sortCondition ref="F11:F38"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{4151FFFD-B746-4538-A0CE-AB3ABE724425}" name="Table356" displayName="Table356" ref="A17:J45" totalsRowCount="1">
+  <autoFilter ref="A17:J44" xr:uid="{7D17F18C-C430-4F21-9230-429FFCB76917}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A18:J44">
+    <sortCondition ref="F11:F44"/>
   </sortState>
   <tableColumns count="10">
     <tableColumn id="10" xr3:uid="{62B84147-86F3-475B-86AF-B1B525EF17F5}" name="Task ID"/>
@@ -1044,10 +1111,10 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{618CE7E4-5ADE-4E98-B2AC-0682EBACB73D}" name="Table3567" displayName="Table3567" ref="A43:J45" insertRow="1" totalsRowCount="1">
-  <autoFilter ref="A43:J44" xr:uid="{DD29A22F-BB19-4ADC-B414-52C64CAC47C4}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A44:J44">
-    <sortCondition ref="F11:F38"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{618CE7E4-5ADE-4E98-B2AC-0682EBACB73D}" name="Table3567" displayName="Table3567" ref="A50:J52" insertRow="1" totalsRowCount="1">
+  <autoFilter ref="A50:J51" xr:uid="{DD29A22F-BB19-4ADC-B414-52C64CAC47C4}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A51:J51">
+    <sortCondition ref="F11:F44"/>
   </sortState>
   <tableColumns count="10">
     <tableColumn id="10" xr3:uid="{C6F19666-4430-4172-9EF5-7BF02339E0BE}" name="Task ID"/>
@@ -1061,16 +1128,16 @@
     <tableColumn id="11" xr3:uid="{49D5F43A-A98B-42E6-ACBC-67D28734B648}" name="Task"/>
     <tableColumn id="4" xr3:uid="{E8FD2575-FD87-4AEC-B082-FC9EF15436ED}" name="Feature ID"/>
     <tableColumn id="5" xr3:uid="{00E2B42D-24A6-4373-8A60-41DF03320438}" name="Game State">
-      <calculatedColumnFormula>VLOOKUP($F44,Table1[],2,TRUE)</calculatedColumnFormula>
+      <calculatedColumnFormula>VLOOKUP($F51,Table1[],2,TRUE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{7CAF72B6-3BE7-4219-8CBF-3144E50061D4}" name="Area">
-      <calculatedColumnFormula>VLOOKUP($F44,Table1[],3,TRUE)</calculatedColumnFormula>
+      <calculatedColumnFormula>VLOOKUP($F51,Table1[],3,TRUE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{006D294A-1C72-4BE8-93FB-F3D69846DA4B}" name="Features">
-      <calculatedColumnFormula>VLOOKUP($F44,Table1[],4,TRUE)</calculatedColumnFormula>
+      <calculatedColumnFormula>VLOOKUP($F51,Table1[],4,TRUE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{34E05C3D-FA28-4EB6-94EB-403D79C130C2}" name="Description">
-      <calculatedColumnFormula>VLOOKUP($F44,Table1[],5,TRUE)</calculatedColumnFormula>
+      <calculatedColumnFormula>VLOOKUP($F51,Table1[],5,TRUE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1078,10 +1145,10 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A50E57C5-0AFB-4BA1-ADB8-B627D629FE7F}" name="Table35678" displayName="Table35678" ref="A48:J50" insertRow="1" totalsRowCount="1">
-  <autoFilter ref="A48:J49" xr:uid="{12F7B163-3DD2-4A1A-B717-142A2F111DBF}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A49:J49">
-    <sortCondition ref="F11:F38"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A50E57C5-0AFB-4BA1-ADB8-B627D629FE7F}" name="Table35678" displayName="Table35678" ref="A55:J57" insertRow="1" totalsRowCount="1">
+  <autoFilter ref="A55:J56" xr:uid="{12F7B163-3DD2-4A1A-B717-142A2F111DBF}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A56:J56">
+    <sortCondition ref="F11:F44"/>
   </sortState>
   <tableColumns count="10">
     <tableColumn id="10" xr3:uid="{F8381028-8A17-4B32-A639-67E8C8144828}" name="Task ID"/>
@@ -1095,16 +1162,16 @@
     <tableColumn id="11" xr3:uid="{91CFC98B-90CD-42BE-9A24-77BC97E0454A}" name="Task"/>
     <tableColumn id="4" xr3:uid="{B7F5769E-B85A-43C1-902D-895944D9FB69}" name="Feature ID"/>
     <tableColumn id="5" xr3:uid="{B24C2F29-63F0-444C-BEF7-9A76FCB32652}" name="Game State">
-      <calculatedColumnFormula>VLOOKUP($F49,Table1[],2,TRUE)</calculatedColumnFormula>
+      <calculatedColumnFormula>VLOOKUP($F56,Table1[],2,TRUE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{FE8182AE-9790-4939-8FF4-6070CF1562BE}" name="Area">
-      <calculatedColumnFormula>VLOOKUP($F49,Table1[],3,TRUE)</calculatedColumnFormula>
+      <calculatedColumnFormula>VLOOKUP($F56,Table1[],3,TRUE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{E7F548A7-6336-48B8-A133-B7FCEE2A2BDE}" name="Features">
-      <calculatedColumnFormula>VLOOKUP($F49,Table1[],4,TRUE)</calculatedColumnFormula>
+      <calculatedColumnFormula>VLOOKUP($F56,Table1[],4,TRUE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{FA6C449C-FC00-4EF7-B313-44A06BA6C8C8}" name="Description">
-      <calculatedColumnFormula>VLOOKUP($F49,Table1[],5,TRUE)</calculatedColumnFormula>
+      <calculatedColumnFormula>VLOOKUP($F56,Table1[],5,TRUE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1112,10 +1179,10 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{30F3182D-6F4F-47DA-9031-C4C7700B24D0}" name="Table356789" displayName="Table356789" ref="A53:J55" insertRow="1" totalsRowCount="1">
-  <autoFilter ref="A53:J54" xr:uid="{B94650E2-40D2-4E6D-BDD5-60BDE959C1FE}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A54:J54">
-    <sortCondition ref="F11:F38"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{30F3182D-6F4F-47DA-9031-C4C7700B24D0}" name="Table356789" displayName="Table356789" ref="A60:J62" insertRow="1" totalsRowCount="1">
+  <autoFilter ref="A60:J61" xr:uid="{B94650E2-40D2-4E6D-BDD5-60BDE959C1FE}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A61:J61">
+    <sortCondition ref="F11:F44"/>
   </sortState>
   <tableColumns count="10">
     <tableColumn id="10" xr3:uid="{DC6AA35E-8AA3-446B-B599-609F1953960A}" name="Task ID"/>
@@ -1129,16 +1196,16 @@
     <tableColumn id="11" xr3:uid="{F62C4925-2A4F-4E55-8ABC-E6F6593114DC}" name="Task"/>
     <tableColumn id="4" xr3:uid="{01A791A3-ACBC-4A55-B3B0-A86AD9A448A7}" name="Feature ID"/>
     <tableColumn id="5" xr3:uid="{295C0FE1-E8EF-4354-AFB2-7D7ABA42869A}" name="Game State">
-      <calculatedColumnFormula>VLOOKUP($F54,Table1[],2,TRUE)</calculatedColumnFormula>
+      <calculatedColumnFormula>VLOOKUP($F61,Table1[],2,TRUE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{FF2F79F8-5BB6-4B43-A8B1-9663B716C6B1}" name="Area">
-      <calculatedColumnFormula>VLOOKUP($F54,Table1[],3,TRUE)</calculatedColumnFormula>
+      <calculatedColumnFormula>VLOOKUP($F61,Table1[],3,TRUE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{5482843D-6E87-4AC9-93CD-093636B159C7}" name="Features">
-      <calculatedColumnFormula>VLOOKUP($F54,Table1[],4,TRUE)</calculatedColumnFormula>
+      <calculatedColumnFormula>VLOOKUP($F61,Table1[],4,TRUE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{677E5A6C-8291-472B-8F25-DC573BD78CC5}" name="Description">
-      <calculatedColumnFormula>VLOOKUP($F54,Table1[],5,TRUE)</calculatedColumnFormula>
+      <calculatedColumnFormula>VLOOKUP($F61,Table1[],5,TRUE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1647,7 +1714,7 @@
         <v>13</v>
       </c>
       <c r="E19" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1661,10 +1728,10 @@
         <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E20" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1987,7 +2054,7 @@
         <v>77</v>
       </c>
       <c r="E39" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -2151,13 +2218,13 @@
         <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D49" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E49" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -3137,13 +3204,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC20C21-6CC5-454B-A71B-54C5FBC17A7F}">
-  <dimension ref="A2:J78"/>
+  <dimension ref="A2:J79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A58" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="E72" sqref="E72"/>
     </sheetView>
-    <sheetView topLeftCell="A22" workbookViewId="1">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView topLeftCell="A11" workbookViewId="1">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3222,7 +3289,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B8" t="s">
         <v>107</v>
@@ -3264,14 +3331,14 @@
       <c r="A12">
         <v>1</v>
       </c>
-      <c r="B12">
-        <v>0</v>
+      <c r="B12" t="s">
+        <v>111</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="s">
         <v>124</v>
@@ -3336,17 +3403,17 @@
       <c r="A14">
         <v>3</v>
       </c>
-      <c r="B14">
-        <v>0</v>
+      <c r="B14" t="s">
+        <v>111</v>
       </c>
       <c r="C14">
         <v>0.5</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>126</v>
+        <v>211</v>
       </c>
       <c r="F14">
         <v>3</v>
@@ -3382,7 +3449,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F15">
         <v>3</v>
@@ -3418,7 +3485,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F16">
         <v>4</v>
@@ -3454,7 +3521,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F17">
         <v>5</v>
@@ -3490,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F18">
         <v>6</v>
@@ -3526,7 +3593,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F19">
         <v>7</v>
@@ -3562,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F20">
         <v>7</v>
@@ -3598,7 +3665,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F21">
         <v>7</v>
@@ -3624,17 +3691,17 @@
       <c r="A22">
         <v>11</v>
       </c>
-      <c r="B22">
-        <v>0</v>
+      <c r="B22" t="s">
+        <v>111</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F22">
         <v>7</v>
@@ -3660,17 +3727,17 @@
       <c r="A23">
         <v>12</v>
       </c>
-      <c r="B23">
-        <v>0</v>
+      <c r="B23" t="s">
+        <v>111</v>
       </c>
       <c r="C23">
         <v>1.5</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F23">
         <v>7</v>
@@ -3696,8 +3763,8 @@
       <c r="A24">
         <v>13</v>
       </c>
-      <c r="B24">
-        <v>0</v>
+      <c r="B24" t="s">
+        <v>112</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -3706,7 +3773,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F24">
         <v>7</v>
@@ -3742,7 +3809,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F25">
         <v>7</v>
@@ -3778,7 +3845,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F26">
         <v>7</v>
@@ -3814,7 +3881,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F27">
         <v>7</v>
@@ -3850,7 +3917,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F28">
         <v>8</v>
@@ -3876,17 +3943,17 @@
       <c r="A29">
         <v>18</v>
       </c>
-      <c r="B29">
-        <v>0</v>
+      <c r="B29" t="s">
+        <v>111</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F29">
         <v>8</v>
@@ -3912,17 +3979,17 @@
       <c r="A30">
         <v>19</v>
       </c>
-      <c r="B30">
-        <v>0</v>
+      <c r="B30" t="s">
+        <v>111</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F30">
         <v>8</v>
@@ -3958,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F31">
         <v>8</v>
@@ -3994,7 +4061,7 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F32">
         <v>9</v>
@@ -4030,7 +4097,7 @@
         <v>0.5</v>
       </c>
       <c r="E33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F33">
         <v>9</v>
@@ -4066,7 +4133,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F34">
         <v>10</v>
@@ -4102,7 +4169,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F35">
         <v>11</v>
@@ -4138,7 +4205,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F36">
         <v>12</v>
@@ -4174,7 +4241,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F37">
         <v>13</v>
@@ -4210,7 +4277,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F38">
         <v>14</v>
@@ -4246,7 +4313,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F39">
         <v>15</v>
@@ -4282,7 +4349,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F40">
         <v>16</v>
@@ -4308,17 +4375,17 @@
       <c r="A41">
         <v>30</v>
       </c>
-      <c r="B41">
-        <v>0</v>
+      <c r="B41" t="s">
+        <v>111</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F41">
         <v>17</v>
@@ -4344,17 +4411,17 @@
       <c r="A42">
         <v>31</v>
       </c>
-      <c r="B42">
-        <v>0</v>
+      <c r="B42" t="s">
+        <v>111</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E42" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F42">
         <v>18</v>
@@ -4380,17 +4447,17 @@
       <c r="A43">
         <v>32</v>
       </c>
-      <c r="B43">
-        <v>0</v>
+      <c r="B43" t="s">
+        <v>111</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E43" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F43">
         <v>18</v>
@@ -4426,7 +4493,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F44">
         <v>19</v>
@@ -4462,7 +4529,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F45">
         <v>19</v>
@@ -4498,7 +4565,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F46">
         <v>20</v>
@@ -4534,7 +4601,7 @@
         <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F47">
         <v>21</v>
@@ -4560,17 +4627,17 @@
       <c r="A48">
         <v>37</v>
       </c>
-      <c r="B48">
-        <v>0</v>
+      <c r="B48" t="s">
+        <v>111</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E48" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="F48">
         <v>21</v>
@@ -4596,17 +4663,17 @@
       <c r="A49">
         <v>38</v>
       </c>
-      <c r="B49">
-        <v>0</v>
+      <c r="B49" t="s">
+        <v>111</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E49" t="s">
-        <v>161</v>
+        <v>207</v>
       </c>
       <c r="F49">
         <v>22</v>
@@ -4632,17 +4699,17 @@
       <c r="A50">
         <v>39</v>
       </c>
-      <c r="B50">
-        <v>0</v>
+      <c r="B50" t="s">
+        <v>111</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E50" t="s">
-        <v>162</v>
+        <v>208</v>
       </c>
       <c r="F50">
         <v>23</v>
@@ -4678,7 +4745,7 @@
         <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F51">
         <v>24</v>
@@ -4714,7 +4781,7 @@
         <v>0</v>
       </c>
       <c r="E52" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F52">
         <v>25</v>
@@ -4750,7 +4817,7 @@
         <v>0</v>
       </c>
       <c r="E53" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F53">
         <v>26</v>
@@ -4786,7 +4853,7 @@
         <v>0</v>
       </c>
       <c r="E54" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F54">
         <v>27</v>
@@ -4812,17 +4879,17 @@
       <c r="A55">
         <v>44</v>
       </c>
-      <c r="B55">
-        <v>0</v>
+      <c r="B55" t="s">
+        <v>111</v>
       </c>
       <c r="C55">
         <v>2</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E55" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F55">
         <v>28</v>
@@ -4858,7 +4925,7 @@
         <v>0</v>
       </c>
       <c r="E56" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F56">
         <v>28</v>
@@ -4894,7 +4961,7 @@
         <v>0</v>
       </c>
       <c r="E57" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F57">
         <v>29</v>
@@ -4930,7 +4997,7 @@
         <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F58">
         <v>29</v>
@@ -4966,7 +5033,7 @@
         <v>0</v>
       </c>
       <c r="E59" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F59">
         <v>29</v>
@@ -5002,7 +5069,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F60">
         <v>30</v>
@@ -5038,7 +5105,7 @@
         <v>0</v>
       </c>
       <c r="E61" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F61">
         <v>31</v>
@@ -5074,7 +5141,7 @@
         <v>0</v>
       </c>
       <c r="E62" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F62">
         <v>32</v>
@@ -5110,7 +5177,7 @@
         <v>0</v>
       </c>
       <c r="E63" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F63">
         <v>33</v>
@@ -5146,7 +5213,7 @@
         <v>0</v>
       </c>
       <c r="E64" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F64">
         <v>33</v>
@@ -5172,17 +5239,17 @@
       <c r="A65">
         <v>54</v>
       </c>
-      <c r="B65">
-        <v>0</v>
+      <c r="B65" t="s">
+        <v>111</v>
       </c>
       <c r="C65">
         <v>5</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E65" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F65">
         <v>33</v>
@@ -5218,7 +5285,7 @@
         <v>0</v>
       </c>
       <c r="E66" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F66">
         <v>34</v>
@@ -5254,7 +5321,7 @@
         <v>0</v>
       </c>
       <c r="E67" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F67">
         <v>34</v>
@@ -5290,7 +5357,7 @@
         <v>0</v>
       </c>
       <c r="E68" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F68">
         <v>34</v>
@@ -5326,7 +5393,7 @@
         <v>0</v>
       </c>
       <c r="E69" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F69">
         <v>34</v>
@@ -5353,7 +5420,7 @@
         <v>59</v>
       </c>
       <c r="B70" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C70" t="s">
         <v>111</v>
@@ -5362,7 +5429,7 @@
         <v>0</v>
       </c>
       <c r="E70" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F70">
         <v>35</v>
@@ -5425,16 +5492,16 @@
         <v>61</v>
       </c>
       <c r="B72" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E72" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F72">
         <v>20</v>
@@ -5467,10 +5534,10 @@
         <v>1</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F73">
         <v>7</v>
@@ -5503,10 +5570,10 @@
         <v>1</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E74" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F74">
         <v>8</v>
@@ -5539,10 +5606,10 @@
         <v>1</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E75" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F75">
         <v>27</v>
@@ -5569,7 +5636,7 @@
         <v>65</v>
       </c>
       <c r="B76" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C76">
         <v>2</v>
@@ -5578,7 +5645,7 @@
         <v>4</v>
       </c>
       <c r="E76" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="F76">
         <v>37</v>
@@ -5605,7 +5672,7 @@
         <v>66</v>
       </c>
       <c r="B77" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C77">
         <v>2</v>
@@ -5614,7 +5681,7 @@
         <v>3</v>
       </c>
       <c r="E77" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F77">
         <v>37</v>
@@ -5637,13 +5704,49 @@
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>67</v>
+      </c>
+      <c r="B78" t="s">
+        <v>203</v>
+      </c>
       <c r="C78">
+        <v>4</v>
+      </c>
+      <c r="D78">
+        <v>6</v>
+      </c>
+      <c r="E78" t="s">
+        <v>205</v>
+      </c>
+      <c r="F78">
+        <v>37</v>
+      </c>
+      <c r="G78" t="str">
+        <f>VLOOKUP($F78,Table1[],2,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="H78" t="str">
+        <f>VLOOKUP($F78,Table1[],3,TRUE)</f>
+        <v>Protogame</v>
+      </c>
+      <c r="I78" t="str">
+        <f>VLOOKUP($F78,Table1[],4,TRUE)</f>
+        <v>Protogame</v>
+      </c>
+      <c r="J78" t="str">
+        <f>VLOOKUP($F78,Table1[],5,TRUE)</f>
+        <v>Create Protogame as starting point</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C79">
         <f>SUM(Table35[Estimate])</f>
-        <v>107</v>
-      </c>
-      <c r="D78">
+        <v>111</v>
+      </c>
+      <c r="D79">
         <f>SUM(Table35[Actual])</f>
-        <v>8.5</v>
+        <v>32.75</v>
       </c>
     </row>
   </sheetData>
@@ -5656,13 +5759,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93182A32-9B41-4840-9B31-4DBA5186CB78}">
-  <dimension ref="A6:J55"/>
+  <dimension ref="A6:J62"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="1">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="1">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5742,7 +5845,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B12" t="s">
         <v>107</v>
@@ -5750,12 +5853,12 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -5792,7 +5895,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B18" t="str">
         <f>VLOOKUP($A18,Table35[#All],2,TRUE)</f>
@@ -5800,15 +5903,15 @@
       </c>
       <c r="C18">
         <f>VLOOKUP($A18,Table35[#All],3,TRUE)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18">
         <f>VLOOKUP($A18,Table35[#All],4,TRUE)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E18" t="str">
         <f>VLOOKUP($A18,Table35[#All],5,TRUE)</f>
-        <v>Create Protogame as starting place</v>
+        <v>Refactor Testgame2D to be used as a base project</v>
       </c>
       <c r="F18">
         <f>VLOOKUP($A18,Table35[#All],6,TRUE)</f>
@@ -5833,7 +5936,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B19" t="str">
         <f>VLOOKUP($A19,Table35[#All],2,TRUE)</f>
@@ -5845,11 +5948,11 @@
       </c>
       <c r="D19">
         <f>VLOOKUP($A19,Table35[#All],4,TRUE)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E19" t="str">
         <f>VLOOKUP($A19,Table35[#All],5,TRUE)</f>
-        <v>Implement Incursion style map and tank (doesn't shoot)</v>
+        <v>Create Protogame as starting place</v>
       </c>
       <c r="F19">
         <f>VLOOKUP($A19,Table35[#All],6,TRUE)</f>
@@ -5874,27 +5977,27 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B20" t="str">
         <f>VLOOKUP($A20,Table35[#All],2,TRUE)</f>
-        <v>*0</v>
+        <v>*X</v>
       </c>
       <c r="C20">
         <f>VLOOKUP($A20,Table35[#All],3,TRUE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20">
         <f>VLOOKUP($A20,Table35[#All],4,TRUE)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E20" t="str">
         <f>VLOOKUP($A20,Table35[#All],5,TRUE)</f>
-        <v>Create simple Enemy character with functions to shoot</v>
+        <v>Implement Incursion style map and tank (doesn't shoot)</v>
       </c>
       <c r="F20">
         <f>VLOOKUP($A20,Table35[#All],6,TRUE)</f>
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="G20" t="str">
         <f>VLOOKUP($F20,Table1[],2,TRUE)</f>
@@ -5902,24 +6005,24 @@
       </c>
       <c r="H20" t="str">
         <f>VLOOKUP($F20,Table1[],3,TRUE)</f>
-        <v>Enemies</v>
+        <v>Protogame</v>
       </c>
       <c r="I20" t="str">
         <f>VLOOKUP($F20,Table1[],4,TRUE)</f>
-        <v>Enemy characters</v>
+        <v>Protogame</v>
       </c>
       <c r="J20" t="str">
         <f>VLOOKUP($F20,Table1[],5,TRUE)</f>
-        <v>Enemies are actors that may be data driven. They have on hit and on death effects to drop loot</v>
+        <v>Create Protogame as starting point</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B21" t="str">
         <f>VLOOKUP($A21,Table35[#All],2,TRUE)</f>
-        <v>*/</v>
+        <v>*X</v>
       </c>
       <c r="C21">
         <f>VLOOKUP($A21,Table35[#All],3,TRUE)</f>
@@ -5927,15 +6030,15 @@
       </c>
       <c r="D21">
         <f>VLOOKUP($A21,Table35[#All],4,TRUE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="str">
         <f>VLOOKUP($A21,Table35[#All],5,TRUE)</f>
-        <v>Create Prototype player</v>
+        <v>Create simple Enemy character with functions to shoot</v>
       </c>
       <c r="F21">
         <f>VLOOKUP($A21,Table35[#All],6,TRUE)</f>
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G21" t="str">
         <f>VLOOKUP($F21,Table1[],2,TRUE)</f>
@@ -5943,24 +6046,24 @@
       </c>
       <c r="H21" t="str">
         <f>VLOOKUP($F21,Table1[],3,TRUE)</f>
-        <v>Player</v>
+        <v>Enemies</v>
       </c>
       <c r="I21" t="str">
         <f>VLOOKUP($F21,Table1[],4,TRUE)</f>
-        <v>Player Character</v>
+        <v>Enemy characters</v>
       </c>
       <c r="J21" t="str">
         <f>VLOOKUP($F21,Table1[],5,TRUE)</f>
-        <v>The Player character is derived from actor with a player controller</v>
+        <v>Enemies are actors that may be data driven. They have on hit and on death effects to drop loot</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B22" t="str">
         <f>VLOOKUP($A22,Table35[#All],2,TRUE)</f>
-        <v>*0</v>
+        <v>*X</v>
       </c>
       <c r="C22">
         <f>VLOOKUP($A22,Table35[#All],3,TRUE)</f>
@@ -5968,15 +6071,15 @@
       </c>
       <c r="D22">
         <f>VLOOKUP($A22,Table35[#All],4,TRUE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="str">
         <f>VLOOKUP($A22,Table35[#All],5,TRUE)</f>
-        <v>Create prototype gun</v>
+        <v>Create Prototype player</v>
       </c>
       <c r="F22">
         <f>VLOOKUP($A22,Table35[#All],6,TRUE)</f>
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G22" t="str">
         <f>VLOOKUP($F22,Table1[],2,TRUE)</f>
@@ -5984,24 +6087,24 @@
       </c>
       <c r="H22" t="str">
         <f>VLOOKUP($F22,Table1[],3,TRUE)</f>
-        <v>Weapons</v>
+        <v>Player</v>
       </c>
       <c r="I22" t="str">
         <f>VLOOKUP($F22,Table1[],4,TRUE)</f>
-        <v>Weapons</v>
+        <v>Player Character</v>
       </c>
       <c r="J22" t="str">
         <f>VLOOKUP($F22,Table1[],5,TRUE)</f>
-        <v>Weapons may be data driven with Weapon visual, VFX, and SFX</v>
+        <v>The Player character is derived from actor with a player controller</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B23" t="str">
         <f>VLOOKUP($A23,Table35[#All],2,TRUE)</f>
-        <v>*0</v>
+        <v>*X</v>
       </c>
       <c r="C23">
         <f>VLOOKUP($A23,Table35[#All],3,TRUE)</f>
@@ -6009,15 +6112,15 @@
       </c>
       <c r="D23">
         <f>VLOOKUP($A23,Table35[#All],4,TRUE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="str">
         <f>VLOOKUP($A23,Table35[#All],5,TRUE)</f>
-        <v>Create Prototype bullets/firing</v>
+        <v>Create prototype gun</v>
       </c>
       <c r="F23">
         <f>VLOOKUP($A23,Table35[#All],6,TRUE)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G23" t="str">
         <f>VLOOKUP($F23,Table1[],2,TRUE)</f>
@@ -6029,20 +6132,20 @@
       </c>
       <c r="I23" t="str">
         <f>VLOOKUP($F23,Table1[],4,TRUE)</f>
-        <v>Bullets</v>
+        <v>Weapons</v>
       </c>
       <c r="J23" t="str">
         <f>VLOOKUP($F23,Table1[],5,TRUE)</f>
-        <v>Bullets may be data driven with damage, visuals, VFX, and SFX</v>
+        <v>Weapons may be data driven with Weapon visual, VFX, and SFX</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>1</v>
-      </c>
-      <c r="B24">
+        <v>63</v>
+      </c>
+      <c r="B24" t="str">
         <f>VLOOKUP($A24,Table35[#All],2,TRUE)</f>
-        <v>0</v>
+        <v>*X</v>
       </c>
       <c r="C24">
         <f>VLOOKUP($A24,Table35[#All],3,TRUE)</f>
@@ -6050,60 +6153,60 @@
       </c>
       <c r="D24">
         <f>VLOOKUP($A24,Table35[#All],4,TRUE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="str">
         <f>VLOOKUP($A24,Table35[#All],5,TRUE)</f>
-        <v>Implement loading state and loading functions</v>
+        <v>Create Prototype bullets/firing</v>
       </c>
       <c r="F24">
         <f>VLOOKUP($A24,Table35[#All],6,TRUE)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G24" t="str">
         <f>VLOOKUP($F24,Table1[],2,TRUE)</f>
-        <v>Loading Screen</v>
+        <v>Game</v>
       </c>
       <c r="H24" t="str">
         <f>VLOOKUP($F24,Table1[],3,TRUE)</f>
-        <v>Function</v>
+        <v>Weapons</v>
       </c>
       <c r="I24" t="str">
         <f>VLOOKUP($F24,Table1[],4,TRUE)</f>
-        <v>Load data</v>
+        <v>Bullets</v>
       </c>
       <c r="J24" t="str">
         <f>VLOOKUP($F24,Table1[],5,TRUE)</f>
-        <v xml:space="preserve">Loads game assets </v>
+        <v>Bullets may be data driven with damage, visuals, VFX, and SFX</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>3</v>
-      </c>
-      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="B25" t="str">
         <f>VLOOKUP($A25,Table35[#All],2,TRUE)</f>
-        <v>0</v>
+        <v>X</v>
       </c>
       <c r="C25">
         <f>VLOOKUP($A25,Table35[#All],3,TRUE)</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D25">
         <f>VLOOKUP($A25,Table35[#All],4,TRUE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="str">
         <f>VLOOKUP($A25,Table35[#All],5,TRUE)</f>
-        <v>Add Start button to begin the first level and exit button to quit game</v>
+        <v>Implement loading state and loading functions</v>
       </c>
       <c r="F25">
         <f>VLOOKUP($A25,Table35[#All],6,TRUE)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G25" t="str">
         <f>VLOOKUP($F25,Table1[],2,TRUE)</f>
-        <v>Main Menu</v>
+        <v>Loading Screen</v>
       </c>
       <c r="H25" t="str">
         <f>VLOOKUP($F25,Table1[],3,TRUE)</f>
@@ -6111,61 +6214,61 @@
       </c>
       <c r="I25" t="str">
         <f>VLOOKUP($F25,Table1[],4,TRUE)</f>
-        <v>Buttons</v>
+        <v>Load data</v>
       </c>
       <c r="J25" t="str">
         <f>VLOOKUP($F25,Table1[],5,TRUE)</f>
-        <v>Start game, Exit Game buttons to start or exit the game</v>
+        <v xml:space="preserve">Loads game assets </v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>11</v>
-      </c>
-      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="B26" t="str">
         <f>VLOOKUP($A26,Table35[#All],2,TRUE)</f>
-        <v>0</v>
+        <v>X</v>
       </c>
       <c r="C26">
         <f>VLOOKUP($A26,Table35[#All],3,TRUE)</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D26">
         <f>VLOOKUP($A26,Table35[#All],4,TRUE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="str">
         <f>VLOOKUP($A26,Table35[#All],5,TRUE)</f>
-        <v>Integrate Weapons with bullets</v>
+        <v>Add Attract Screen functionality (space or lmb to start game)</v>
       </c>
       <c r="F26">
         <f>VLOOKUP($A26,Table35[#All],6,TRUE)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G26" t="str">
         <f>VLOOKUP($F26,Table1[],2,TRUE)</f>
-        <v>Game</v>
+        <v>Main Menu</v>
       </c>
       <c r="H26" t="str">
         <f>VLOOKUP($F26,Table1[],3,TRUE)</f>
-        <v>Weapons</v>
+        <v>Function</v>
       </c>
       <c r="I26" t="str">
         <f>VLOOKUP($F26,Table1[],4,TRUE)</f>
-        <v>Weapons</v>
+        <v>Buttons</v>
       </c>
       <c r="J26" t="str">
         <f>VLOOKUP($F26,Table1[],5,TRUE)</f>
-        <v>Weapons may be data driven with Weapon visual, VFX, and SFX</v>
+        <v>Start game, Exit Game buttons to start or exit the game</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>12</v>
-      </c>
-      <c r="B27">
+        <v>8</v>
+      </c>
+      <c r="B27" t="str">
         <f>VLOOKUP($A27,Table35[#All],2,TRUE)</f>
-        <v>0</v>
+        <v>&lt;</v>
       </c>
       <c r="C27">
         <f>VLOOKUP($A27,Table35[#All],3,TRUE)</f>
@@ -6177,7 +6280,7 @@
       </c>
       <c r="E27" t="str">
         <f>VLOOKUP($A27,Table35[#All],5,TRUE)</f>
-        <v>Integrate Weapon with actors</v>
+        <v>Create Weapon Definition</v>
       </c>
       <c r="F27">
         <f>VLOOKUP($A27,Table35[#All],6,TRUE)</f>
@@ -6202,11 +6305,11 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>13</v>
-      </c>
-      <c r="B28">
+        <v>9</v>
+      </c>
+      <c r="B28" t="str">
         <f>VLOOKUP($A28,Table35[#All],2,TRUE)</f>
-        <v>0</v>
+        <v>&lt;</v>
       </c>
       <c r="C28">
         <f>VLOOKUP($A28,Table35[#All],3,TRUE)</f>
@@ -6218,7 +6321,7 @@
       </c>
       <c r="E28" t="str">
         <f>VLOOKUP($A28,Table35[#All],5,TRUE)</f>
-        <v>Find/implement first 2 weapon assets (pistol/shotgun)</v>
+        <v>Implement shooting using weapon definition</v>
       </c>
       <c r="F28">
         <f>VLOOKUP($A28,Table35[#All],6,TRUE)</f>
@@ -6243,15 +6346,15 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>18</v>
-      </c>
-      <c r="B29">
+        <v>17</v>
+      </c>
+      <c r="B29" t="str">
         <f>VLOOKUP($A29,Table35[#All],2,TRUE)</f>
-        <v>0</v>
+        <v>&lt;</v>
       </c>
       <c r="C29">
         <f>VLOOKUP($A29,Table35[#All],3,TRUE)</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D29">
         <f>VLOOKUP($A29,Table35[#All],4,TRUE)</f>
@@ -6259,7 +6362,7 @@
       </c>
       <c r="E29" t="str">
         <f>VLOOKUP($A29,Table35[#All],5,TRUE)</f>
-        <v>Implement bullet collisions</v>
+        <v>Create Bullet Definition</v>
       </c>
       <c r="F29">
         <f>VLOOKUP($A29,Table35[#All],6,TRUE)</f>
@@ -6284,11 +6387,11 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>19</v>
-      </c>
-      <c r="B30">
+        <v>11</v>
+      </c>
+      <c r="B30" t="str">
         <f>VLOOKUP($A30,Table35[#All],2,TRUE)</f>
-        <v>0</v>
+        <v>X</v>
       </c>
       <c r="C30">
         <f>VLOOKUP($A30,Table35[#All],3,TRUE)</f>
@@ -6296,15 +6399,15 @@
       </c>
       <c r="D30">
         <f>VLOOKUP($A30,Table35[#All],4,TRUE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="str">
         <f>VLOOKUP($A30,Table35[#All],5,TRUE)</f>
-        <v>Find/implement basic bullet asset</v>
+        <v>Integrate Weapons with bullets</v>
       </c>
       <c r="F30">
         <f>VLOOKUP($A30,Table35[#All],6,TRUE)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G30" t="str">
         <f>VLOOKUP($F30,Table1[],2,TRUE)</f>
@@ -6316,16 +6419,16 @@
       </c>
       <c r="I30" t="str">
         <f>VLOOKUP($F30,Table1[],4,TRUE)</f>
-        <v>Bullets</v>
+        <v>Weapons</v>
       </c>
       <c r="J30" t="str">
         <f>VLOOKUP($F30,Table1[],5,TRUE)</f>
-        <v>Bullets may be data driven with damage, visuals, VFX, and SFX</v>
+        <v>Weapons may be data driven with Weapon visual, VFX, and SFX</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B31" t="str">
         <f>VLOOKUP($A31,Table35[#All],2,TRUE)</f>
@@ -6333,19 +6436,19 @@
       </c>
       <c r="C31">
         <f>VLOOKUP($A31,Table35[#All],3,TRUE)</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D31">
         <f>VLOOKUP($A31,Table35[#All],4,TRUE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E31" t="str">
         <f>VLOOKUP($A31,Table35[#All],5,TRUE)</f>
-        <v>Create camera to follow player</v>
+        <v>Integrate Weapon with actors</v>
       </c>
       <c r="F31">
         <f>VLOOKUP($A31,Table35[#All],6,TRUE)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G31" t="str">
         <f>VLOOKUP($F31,Table1[],2,TRUE)</f>
@@ -6353,40 +6456,40 @@
       </c>
       <c r="H31" t="str">
         <f>VLOOKUP($F31,Table1[],3,TRUE)</f>
-        <v>Camera</v>
+        <v>Weapons</v>
       </c>
       <c r="I31" t="str">
         <f>VLOOKUP($F31,Table1[],4,TRUE)</f>
-        <v>Top down camera</v>
+        <v>Weapons</v>
       </c>
       <c r="J31" t="str">
         <f>VLOOKUP($F31,Table1[],5,TRUE)</f>
-        <v>Camera view is top down focusing on the player but is clamped to screen</v>
+        <v>Weapons may be data driven with Weapon visual, VFX, and SFX</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B32" t="str">
         <f>VLOOKUP($A32,Table35[#All],2,TRUE)</f>
-        <v>X</v>
+        <v>&lt;</v>
       </c>
       <c r="C32">
         <f>VLOOKUP($A32,Table35[#All],3,TRUE)</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D32">
         <f>VLOOKUP($A32,Table35[#All],4,TRUE)</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E32" t="str">
         <f>VLOOKUP($A32,Table35[#All],5,TRUE)</f>
-        <v>Clamp camera to map dimensions</v>
+        <v>Find/implement first 2 weapon assets (pistol/shotgun)</v>
       </c>
       <c r="F32">
         <f>VLOOKUP($A32,Table35[#All],6,TRUE)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G32" t="str">
         <f>VLOOKUP($F32,Table1[],2,TRUE)</f>
@@ -6394,24 +6497,24 @@
       </c>
       <c r="H32" t="str">
         <f>VLOOKUP($F32,Table1[],3,TRUE)</f>
-        <v>Camera</v>
+        <v>Weapons</v>
       </c>
       <c r="I32" t="str">
         <f>VLOOKUP($F32,Table1[],4,TRUE)</f>
-        <v>Top down camera</v>
+        <v>Weapons</v>
       </c>
       <c r="J32" t="str">
         <f>VLOOKUP($F32,Table1[],5,TRUE)</f>
-        <v>Camera view is top down focusing on the player but is clamped to screen</v>
+        <v>Weapons may be data driven with Weapon visual, VFX, and SFX</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>30</v>
-      </c>
-      <c r="B33">
+        <v>18</v>
+      </c>
+      <c r="B33" t="str">
         <f>VLOOKUP($A33,Table35[#All],2,TRUE)</f>
-        <v>0</v>
+        <v>X</v>
       </c>
       <c r="C33">
         <f>VLOOKUP($A33,Table35[#All],3,TRUE)</f>
@@ -6419,15 +6522,15 @@
       </c>
       <c r="D33">
         <f>VLOOKUP($A33,Table35[#All],4,TRUE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="str">
         <f>VLOOKUP($A33,Table35[#All],5,TRUE)</f>
-        <v>Implement Actor physics with collisions of enemies and obstacles</v>
+        <v>Implement bullet collisions</v>
       </c>
       <c r="F33">
         <f>VLOOKUP($A33,Table35[#All],6,TRUE)</f>
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G33" t="str">
         <f>VLOOKUP($F33,Table1[],2,TRUE)</f>
@@ -6435,24 +6538,24 @@
       </c>
       <c r="H33" t="str">
         <f>VLOOKUP($F33,Table1[],3,TRUE)</f>
-        <v>Actors</v>
+        <v>Weapons</v>
       </c>
       <c r="I33" t="str">
         <f>VLOOKUP($F33,Table1[],4,TRUE)</f>
-        <v>Physics</v>
+        <v>Bullets</v>
       </c>
       <c r="J33" t="str">
         <f>VLOOKUP($F33,Table1[],5,TRUE)</f>
-        <v>Physics like actor radius is data driven and says what the actor will collide with</v>
+        <v>Bullets may be data driven with damage, visuals, VFX, and SFX</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>31</v>
-      </c>
-      <c r="B34">
+        <v>19</v>
+      </c>
+      <c r="B34" t="str">
         <f>VLOOKUP($A34,Table35[#All],2,TRUE)</f>
-        <v>0</v>
+        <v>X</v>
       </c>
       <c r="C34">
         <f>VLOOKUP($A34,Table35[#All],3,TRUE)</f>
@@ -6460,15 +6563,15 @@
       </c>
       <c r="D34">
         <f>VLOOKUP($A34,Table35[#All],4,TRUE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="str">
         <f>VLOOKUP($A34,Table35[#All],5,TRUE)</f>
-        <v>Have weapons face actor direction moving in a circular motion around player radius</v>
+        <v>Find/implement basic bullet asset</v>
       </c>
       <c r="F34">
         <f>VLOOKUP($A34,Table35[#All],6,TRUE)</f>
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G34" t="str">
         <f>VLOOKUP($F34,Table1[],2,TRUE)</f>
@@ -6476,24 +6579,24 @@
       </c>
       <c r="H34" t="str">
         <f>VLOOKUP($F34,Table1[],3,TRUE)</f>
-        <v>Actors</v>
+        <v>Weapons</v>
       </c>
       <c r="I34" t="str">
         <f>VLOOKUP($F34,Table1[],4,TRUE)</f>
-        <v>Weapons</v>
+        <v>Bullets</v>
       </c>
       <c r="J34" t="str">
         <f>VLOOKUP($F34,Table1[],5,TRUE)</f>
-        <v>Game keeps track of current weapon and uses the weapon definitions to know the stats</v>
+        <v>Bullets may be data driven with damage, visuals, VFX, and SFX</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>32</v>
-      </c>
-      <c r="B35">
+        <v>21</v>
+      </c>
+      <c r="B35" t="str">
         <f>VLOOKUP($A35,Table35[#All],2,TRUE)</f>
-        <v>0</v>
+        <v>X</v>
       </c>
       <c r="C35">
         <f>VLOOKUP($A35,Table35[#All],3,TRUE)</f>
@@ -6501,15 +6604,15 @@
       </c>
       <c r="D35">
         <f>VLOOKUP($A35,Table35[#All],4,TRUE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="str">
         <f>VLOOKUP($A35,Table35[#All],5,TRUE)</f>
-        <v>Have weapons behind player at top of screen and in front of player at bottom of screen</v>
+        <v>Create camera to follow player</v>
       </c>
       <c r="F35">
         <f>VLOOKUP($A35,Table35[#All],6,TRUE)</f>
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="G35" t="str">
         <f>VLOOKUP($F35,Table1[],2,TRUE)</f>
@@ -6517,40 +6620,40 @@
       </c>
       <c r="H35" t="str">
         <f>VLOOKUP($F35,Table1[],3,TRUE)</f>
-        <v>Actors</v>
+        <v>Camera</v>
       </c>
       <c r="I35" t="str">
         <f>VLOOKUP($F35,Table1[],4,TRUE)</f>
-        <v>Weapons</v>
+        <v>Top down camera</v>
       </c>
       <c r="J35" t="str">
         <f>VLOOKUP($F35,Table1[],5,TRUE)</f>
-        <v>Game keeps track of current weapon and uses the weapon definitions to know the stats</v>
+        <v>Camera view is top down focusing on the player but is clamped to screen</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>37</v>
-      </c>
-      <c r="B36">
+        <v>22</v>
+      </c>
+      <c r="B36" t="str">
         <f>VLOOKUP($A36,Table35[#All],2,TRUE)</f>
-        <v>0</v>
+        <v>X</v>
       </c>
       <c r="C36">
         <f>VLOOKUP($A36,Table35[#All],3,TRUE)</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D36">
         <f>VLOOKUP($A36,Table35[#All],4,TRUE)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E36" t="str">
         <f>VLOOKUP($A36,Table35[#All],5,TRUE)</f>
-        <v>Add movement keys to controller class</v>
+        <v>Clamp camera to map dimensions</v>
       </c>
       <c r="F36">
         <f>VLOOKUP($A36,Table35[#All],6,TRUE)</f>
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="G36" t="str">
         <f>VLOOKUP($F36,Table1[],2,TRUE)</f>
@@ -6558,40 +6661,40 @@
       </c>
       <c r="H36" t="str">
         <f>VLOOKUP($F36,Table1[],3,TRUE)</f>
-        <v>Player Controller</v>
+        <v>Camera</v>
       </c>
       <c r="I36" t="str">
         <f>VLOOKUP($F36,Table1[],4,TRUE)</f>
-        <v>Movement</v>
+        <v>Top down camera</v>
       </c>
       <c r="J36" t="str">
         <f>VLOOKUP($F36,Table1[],5,TRUE)</f>
-        <v>Player moves with WASD or controller left joystick</v>
+        <v>Camera view is top down focusing on the player but is clamped to screen</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>44</v>
-      </c>
-      <c r="B37">
+        <v>30</v>
+      </c>
+      <c r="B37" t="str">
         <f>VLOOKUP($A37,Table35[#All],2,TRUE)</f>
-        <v>0</v>
+        <v>X</v>
       </c>
       <c r="C37">
         <f>VLOOKUP($A37,Table35[#All],3,TRUE)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37">
         <f>VLOOKUP($A37,Table35[#All],4,TRUE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" t="str">
         <f>VLOOKUP($A37,Table35[#All],5,TRUE)</f>
-        <v>Create simple enemy controller to run at player and shoot</v>
+        <v>Implement Actor physics with collisions of enemies and obstacles</v>
       </c>
       <c r="F37">
         <f>VLOOKUP($A37,Table35[#All],6,TRUE)</f>
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="G37" t="str">
         <f>VLOOKUP($F37,Table1[],2,TRUE)</f>
@@ -6599,40 +6702,40 @@
       </c>
       <c r="H37" t="str">
         <f>VLOOKUP($F37,Table1[],3,TRUE)</f>
-        <v>Enemy Controller</v>
+        <v>Actors</v>
       </c>
       <c r="I37" t="str">
         <f>VLOOKUP($F37,Table1[],4,TRUE)</f>
-        <v>Enemy AI Controller</v>
+        <v>Physics</v>
       </c>
       <c r="J37" t="str">
         <f>VLOOKUP($F37,Table1[],5,TRUE)</f>
-        <v>Enemies have a data driven controller where they will wander until the player is spotted before chasing and shooting</v>
+        <v>Physics like actor radius is data driven and says what the actor will collide with</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>54</v>
-      </c>
-      <c r="B38">
+        <v>31</v>
+      </c>
+      <c r="B38" t="str">
         <f>VLOOKUP($A38,Table35[#All],2,TRUE)</f>
-        <v>0</v>
+        <v>X</v>
       </c>
       <c r="C38">
         <f>VLOOKUP($A38,Table35[#All],3,TRUE)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D38">
         <f>VLOOKUP($A38,Table35[#All],4,TRUE)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E38" t="str">
         <f>VLOOKUP($A38,Table35[#All],5,TRUE)</f>
-        <v>Integrate map with actors and check collisions</v>
+        <v>Have weapons face actor direction moving in a circular motion around player radius</v>
       </c>
       <c r="F38">
         <f>VLOOKUP($A38,Table35[#All],6,TRUE)</f>
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G38" t="str">
         <f>VLOOKUP($F38,Table1[],2,TRUE)</f>
@@ -6640,173 +6743,435 @@
       </c>
       <c r="H38" t="str">
         <f>VLOOKUP($F38,Table1[],3,TRUE)</f>
-        <v>Map</v>
+        <v>Actors</v>
       </c>
       <c r="I38" t="str">
         <f>VLOOKUP($F38,Table1[],4,TRUE)</f>
-        <v>Map makeup</v>
+        <v>Weapons</v>
       </c>
       <c r="J38" t="str">
         <f>VLOOKUP($F38,Table1[],5,TRUE)</f>
+        <v>Game keeps track of current weapon and uses the weapon definitions to know the stats</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>32</v>
+      </c>
+      <c r="B39" t="str">
+        <f>VLOOKUP($A39,Table35[#All],2,TRUE)</f>
+        <v>X</v>
+      </c>
+      <c r="C39">
+        <f>VLOOKUP($A39,Table35[#All],3,TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <f>VLOOKUP($A39,Table35[#All],4,TRUE)</f>
+        <v>0.5</v>
+      </c>
+      <c r="E39" t="str">
+        <f>VLOOKUP($A39,Table35[#All],5,TRUE)</f>
+        <v>Have weapons behind player at top of screen and in front of player at bottom of screen</v>
+      </c>
+      <c r="F39">
+        <f>VLOOKUP($A39,Table35[#All],6,TRUE)</f>
+        <v>18</v>
+      </c>
+      <c r="G39" t="str">
+        <f>VLOOKUP($F39,Table1[],2,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="H39" t="str">
+        <f>VLOOKUP($F39,Table1[],3,TRUE)</f>
+        <v>Actors</v>
+      </c>
+      <c r="I39" t="str">
+        <f>VLOOKUP($F39,Table1[],4,TRUE)</f>
+        <v>Weapons</v>
+      </c>
+      <c r="J39" t="str">
+        <f>VLOOKUP($F39,Table1[],5,TRUE)</f>
+        <v>Game keeps track of current weapon and uses the weapon definitions to know the stats</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>37</v>
+      </c>
+      <c r="B40" t="str">
+        <f>VLOOKUP($A40,Table35[#All],2,TRUE)</f>
+        <v>X</v>
+      </c>
+      <c r="C40">
+        <f>VLOOKUP($A40,Table35[#All],3,TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <f>VLOOKUP($A40,Table35[#All],4,TRUE)</f>
+        <v>0.5</v>
+      </c>
+      <c r="E40" t="str">
+        <f>VLOOKUP($A40,Table35[#All],5,TRUE)</f>
+        <v>Add movement controls (WASD)</v>
+      </c>
+      <c r="F40">
+        <f>VLOOKUP($A40,Table35[#All],6,TRUE)</f>
+        <v>21</v>
+      </c>
+      <c r="G40" t="str">
+        <f>VLOOKUP($F40,Table1[],2,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="H40" t="str">
+        <f>VLOOKUP($F40,Table1[],3,TRUE)</f>
+        <v>Player Controller</v>
+      </c>
+      <c r="I40" t="str">
+        <f>VLOOKUP($F40,Table1[],4,TRUE)</f>
+        <v>Movement</v>
+      </c>
+      <c r="J40" t="str">
+        <f>VLOOKUP($F40,Table1[],5,TRUE)</f>
+        <v>Player moves with WASD or controller left joystick</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>38</v>
+      </c>
+      <c r="B41" t="str">
+        <f>VLOOKUP($A41,Table35[#All],2,TRUE)</f>
+        <v>X</v>
+      </c>
+      <c r="C41">
+        <f>VLOOKUP($A41,Table35[#All],3,TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <f>VLOOKUP($A41,Table35[#All],4,TRUE)</f>
+        <v>0.5</v>
+      </c>
+      <c r="E41" t="str">
+        <f>VLOOKUP($A41,Table35[#All],5,TRUE)</f>
+        <v>Add shooting controls (LMB)</v>
+      </c>
+      <c r="F41">
+        <f>VLOOKUP($A41,Table35[#All],6,TRUE)</f>
+        <v>22</v>
+      </c>
+      <c r="G41" t="str">
+        <f>VLOOKUP($F41,Table1[],2,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="H41" t="str">
+        <f>VLOOKUP($F41,Table1[],3,TRUE)</f>
+        <v>Player Controller</v>
+      </c>
+      <c r="I41" t="str">
+        <f>VLOOKUP($F41,Table1[],4,TRUE)</f>
+        <v>Shooting</v>
+      </c>
+      <c r="J41" t="str">
+        <f>VLOOKUP($F41,Table1[],5,TRUE)</f>
+        <v>Player shoots with left mouse button or controller right button</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>39</v>
+      </c>
+      <c r="B42" t="str">
+        <f>VLOOKUP($A42,Table35[#All],2,TRUE)</f>
+        <v>X</v>
+      </c>
+      <c r="C42">
+        <f>VLOOKUP($A42,Table35[#All],3,TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <f>VLOOKUP($A42,Table35[#All],4,TRUE)</f>
+        <v>0.25</v>
+      </c>
+      <c r="E42" t="str">
+        <f>VLOOKUP($A42,Table35[#All],5,TRUE)</f>
+        <v>Add aiming controls (Mouse)</v>
+      </c>
+      <c r="F42">
+        <f>VLOOKUP($A42,Table35[#All],6,TRUE)</f>
+        <v>23</v>
+      </c>
+      <c r="G42" t="str">
+        <f>VLOOKUP($F42,Table1[],2,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="H42" t="str">
+        <f>VLOOKUP($F42,Table1[],3,TRUE)</f>
+        <v>Player Controller</v>
+      </c>
+      <c r="I42" t="str">
+        <f>VLOOKUP($F42,Table1[],4,TRUE)</f>
+        <v>Aiming</v>
+      </c>
+      <c r="J42" t="str">
+        <f>VLOOKUP($F42,Table1[],5,TRUE)</f>
+        <v>Player aims with mouse or controller right joystick</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>44</v>
+      </c>
+      <c r="B43" t="str">
+        <f>VLOOKUP($A43,Table35[#All],2,TRUE)</f>
+        <v>X</v>
+      </c>
+      <c r="C43">
+        <f>VLOOKUP($A43,Table35[#All],3,TRUE)</f>
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <f>VLOOKUP($A43,Table35[#All],4,TRUE)</f>
+        <v>0.5</v>
+      </c>
+      <c r="E43" t="str">
+        <f>VLOOKUP($A43,Table35[#All],5,TRUE)</f>
+        <v>Create simple enemy controller to run at player and shoot</v>
+      </c>
+      <c r="F43">
+        <f>VLOOKUP($A43,Table35[#All],6,TRUE)</f>
+        <v>28</v>
+      </c>
+      <c r="G43" t="str">
+        <f>VLOOKUP($F43,Table1[],2,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="H43" t="str">
+        <f>VLOOKUP($F43,Table1[],3,TRUE)</f>
+        <v>Enemy Controller</v>
+      </c>
+      <c r="I43" t="str">
+        <f>VLOOKUP($F43,Table1[],4,TRUE)</f>
+        <v>Enemy AI Controller</v>
+      </c>
+      <c r="J43" t="str">
+        <f>VLOOKUP($F43,Table1[],5,TRUE)</f>
+        <v>Enemies have a data driven controller where they will wander until the player is spotted before chasing and shooting</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>54</v>
+      </c>
+      <c r="B44" t="str">
+        <f>VLOOKUP($A44,Table35[#All],2,TRUE)</f>
+        <v>X</v>
+      </c>
+      <c r="C44">
+        <f>VLOOKUP($A44,Table35[#All],3,TRUE)</f>
+        <v>5</v>
+      </c>
+      <c r="D44">
+        <f>VLOOKUP($A44,Table35[#All],4,TRUE)</f>
+        <v>2.5</v>
+      </c>
+      <c r="E44" t="str">
+        <f>VLOOKUP($A44,Table35[#All],5,TRUE)</f>
+        <v>Integrate map with actors and check collisions</v>
+      </c>
+      <c r="F44">
+        <f>VLOOKUP($A44,Table35[#All],6,TRUE)</f>
+        <v>33</v>
+      </c>
+      <c r="G44" t="str">
+        <f>VLOOKUP($F44,Table1[],2,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="H44" t="str">
+        <f>VLOOKUP($F44,Table1[],3,TRUE)</f>
+        <v>Map</v>
+      </c>
+      <c r="I44" t="str">
+        <f>VLOOKUP($F44,Table1[],4,TRUE)</f>
+        <v>Map makeup</v>
+      </c>
+      <c r="J44" t="str">
+        <f>VLOOKUP($F44,Table1[],5,TRUE)</f>
         <v>Maps are tile based with tile definitions determining what/who they block or not block</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C39">
-        <f>SUM(Table356[Estimate])</f>
-        <v>27.5</v>
-      </c>
-      <c r="D39">
-        <f>SUM(Table356[Actual])</f>
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B42" s="10">
-        <v>44011</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>119</v>
-      </c>
-      <c r="B43" t="s">
-        <v>121</v>
-      </c>
-      <c r="C43" t="s">
-        <v>122</v>
-      </c>
-      <c r="D43" t="s">
-        <v>123</v>
-      </c>
-      <c r="E43" t="s">
-        <v>120</v>
-      </c>
-      <c r="F43" t="s">
-        <v>92</v>
-      </c>
-      <c r="G43" t="s">
-        <v>14</v>
-      </c>
-      <c r="H43" t="s">
-        <v>6</v>
-      </c>
-      <c r="I43" t="s">
-        <v>15</v>
-      </c>
-      <c r="J43" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C45">
+        <f>SUM(Table356[Estimate])</f>
+        <v>37.5</v>
+      </c>
+      <c r="D45">
+        <f>SUM(Table356[Actual])</f>
+        <v>32.75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>209</v>
+      </c>
+      <c r="C46">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>210</v>
+      </c>
+      <c r="C47">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" s="10">
+        <v>44011</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>119</v>
+      </c>
+      <c r="B50" t="s">
+        <v>121</v>
+      </c>
+      <c r="C50" t="s">
+        <v>122</v>
+      </c>
+      <c r="D50" t="s">
+        <v>123</v>
+      </c>
+      <c r="E50" t="s">
+        <v>120</v>
+      </c>
+      <c r="F50" t="s">
+        <v>92</v>
+      </c>
+      <c r="G50" t="s">
+        <v>14</v>
+      </c>
+      <c r="H50" t="s">
+        <v>6</v>
+      </c>
+      <c r="I50" t="s">
+        <v>15</v>
+      </c>
+      <c r="J50" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C52">
         <f>SUM(Table3567[Estimate])</f>
         <v>0</v>
       </c>
-      <c r="D45">
+      <c r="D52">
         <f>SUM(Table3567[Actual])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>95</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B54" s="2">
         <v>44025</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>119</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B55" t="s">
         <v>121</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C55" t="s">
         <v>122</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D55" t="s">
         <v>123</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E55" t="s">
         <v>120</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F55" t="s">
         <v>92</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G55" t="s">
         <v>14</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H55" t="s">
         <v>6</v>
       </c>
-      <c r="I48" t="s">
+      <c r="I55" t="s">
         <v>15</v>
       </c>
-      <c r="J48" t="s">
+      <c r="J55" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C50">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C57">
         <f>SUM(Table35678[Estimate])</f>
         <v>0</v>
       </c>
-      <c r="D50">
+      <c r="D57">
         <f>SUM(Table35678[Actual])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>96</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B59" s="2">
         <v>44033</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>119</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B60" t="s">
         <v>121</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C60" t="s">
         <v>122</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D60" t="s">
         <v>123</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E60" t="s">
         <v>120</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F60" t="s">
         <v>92</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G60" t="s">
         <v>14</v>
       </c>
-      <c r="H53" t="s">
+      <c r="H60" t="s">
         <v>6</v>
       </c>
-      <c r="I53" t="s">
+      <c r="I60" t="s">
         <v>15</v>
       </c>
-      <c r="J53" t="s">
+      <c r="J60" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C55">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C62">
         <f>SUM(Table356789[Estimate])</f>
         <v>0</v>
       </c>
-      <c r="D55">
+      <c r="D62">
         <f>SUM(Table356789[Actual])</f>
         <v>0</v>
       </c>
@@ -6824,24 +7189,26 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734CCCA4-3ECC-40E0-914B-329F4B230DBE}">
-  <dimension ref="A2:K21"/>
+  <dimension ref="A2:K42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A4" workbookViewId="1">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="14.42578125" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
     <col min="6" max="6" width="68.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="67" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -6855,7 +7222,7 @@
         <v>114</v>
       </c>
       <c r="G2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -6874,7 +7241,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C4" t="s">
         <v>103</v>
@@ -6912,7 +7279,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C8" t="s">
         <v>107</v>
@@ -6920,12 +7287,12 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>119</v>
@@ -6963,22 +7330,22 @@
         <v>43977</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>111</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E12" s="6">
         <v>3</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H12" s="6" t="e">
         <f>VLOOKUP($G12,Table1[],2,TRUE)</f>
@@ -7002,22 +7369,22 @@
         <v>43982</v>
       </c>
       <c r="B13" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C13" t="s">
         <v>111</v>
       </c>
       <c r="D13" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E13">
         <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H13" s="6" t="e">
         <f>VLOOKUP($G13,Table1[],2,TRUE)</f>
@@ -7041,22 +7408,22 @@
         <v>43982</v>
       </c>
       <c r="B14" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C14" t="s">
         <v>111</v>
       </c>
       <c r="D14" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H14" s="6" t="e">
         <f>VLOOKUP($G14,Table1[],2,TRUE)</f>
@@ -7080,22 +7447,22 @@
         <v>43982</v>
       </c>
       <c r="B15" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C15" t="s">
         <v>111</v>
       </c>
       <c r="D15" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E15">
         <v>0.5</v>
       </c>
       <c r="F15" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H15" s="6" t="e">
         <f>VLOOKUP($G15,Table1[],2,TRUE)</f>
@@ -7119,22 +7486,22 @@
         <v>43983</v>
       </c>
       <c r="B16" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C16" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D16" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E16">
         <v>0.5</v>
       </c>
       <c r="F16" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H16" s="6" t="e">
         <f>VLOOKUP($G16,Table1[],2,TRUE)</f>
@@ -7373,11 +7740,936 @@
         <v>Camera view is top down focusing on the player but is clamped to screen</v>
       </c>
     </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>43991</v>
+      </c>
+      <c r="B22">
+        <v>67</v>
+      </c>
+      <c r="C22" t="str">
+        <f>VLOOKUP($B22,Table35[#All],2,TRUE)</f>
+        <v>*X</v>
+      </c>
+      <c r="D22">
+        <f>VLOOKUP($B22,Table35[#All],3,TRUE)</f>
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <f>VLOOKUP($B22,Table35[#All],4,TRUE)</f>
+        <v>6</v>
+      </c>
+      <c r="F22" t="str">
+        <f>VLOOKUP($B22,Table35[#All],5,TRUE)</f>
+        <v>Refactor Testgame2D to be used as a base project</v>
+      </c>
+      <c r="G22">
+        <f>VLOOKUP($B22,Table35[#All],6,TRUE)</f>
+        <v>37</v>
+      </c>
+      <c r="H22" t="str">
+        <f>VLOOKUP($B22,Table35[#All],7,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="I22" t="str">
+        <f>VLOOKUP($B22,Table35[#All],8,TRUE)</f>
+        <v>Protogame</v>
+      </c>
+      <c r="J22" t="str">
+        <f>VLOOKUP($B22,Table35[#All],9,TRUE)</f>
+        <v>Protogame</v>
+      </c>
+      <c r="K22" t="str">
+        <f>VLOOKUP($B22,Table35[#All],10,TRUE)</f>
+        <v>Create Protogame as starting point</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>43994</v>
+      </c>
+      <c r="B23">
+        <v>67</v>
+      </c>
+      <c r="C23" t="str">
+        <f>VLOOKUP($B23,Table35[#All],2,TRUE)</f>
+        <v>*X</v>
+      </c>
+      <c r="D23">
+        <f>VLOOKUP($B23,Table35[#All],3,TRUE)</f>
+        <v>4</v>
+      </c>
+      <c r="E23">
+        <f>VLOOKUP($B23,Table35[#All],4,TRUE)</f>
+        <v>6</v>
+      </c>
+      <c r="F23" t="str">
+        <f>VLOOKUP($B23,Table35[#All],5,TRUE)</f>
+        <v>Refactor Testgame2D to be used as a base project</v>
+      </c>
+      <c r="G23">
+        <f>VLOOKUP($B23,Table35[#All],6,TRUE)</f>
+        <v>37</v>
+      </c>
+      <c r="H23" t="str">
+        <f>VLOOKUP($B23,Table35[#All],7,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="I23" t="str">
+        <f>VLOOKUP($B23,Table35[#All],8,TRUE)</f>
+        <v>Protogame</v>
+      </c>
+      <c r="J23" t="str">
+        <f>VLOOKUP($B23,Table35[#All],9,TRUE)</f>
+        <v>Protogame</v>
+      </c>
+      <c r="K23" t="str">
+        <f>VLOOKUP($B23,Table35[#All],10,TRUE)</f>
+        <v>Create Protogame as starting point</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>43995</v>
+      </c>
+      <c r="B24">
+        <v>61</v>
+      </c>
+      <c r="C24" t="str">
+        <f>VLOOKUP($B24,Table35[#All],2,TRUE)</f>
+        <v>*X</v>
+      </c>
+      <c r="D24">
+        <f>VLOOKUP($B24,Table35[#All],3,TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <f>VLOOKUP($B24,Table35[#All],4,TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="F24" t="str">
+        <f>VLOOKUP($B24,Table35[#All],5,TRUE)</f>
+        <v>Create Prototype player</v>
+      </c>
+      <c r="G24">
+        <f>VLOOKUP($B24,Table35[#All],6,TRUE)</f>
+        <v>20</v>
+      </c>
+      <c r="H24" t="str">
+        <f>VLOOKUP($B24,Table35[#All],7,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="I24" t="str">
+        <f>VLOOKUP($B24,Table35[#All],8,TRUE)</f>
+        <v>Player</v>
+      </c>
+      <c r="J24" t="str">
+        <f>VLOOKUP($B24,Table35[#All],9,TRUE)</f>
+        <v>Player Character</v>
+      </c>
+      <c r="K24" t="str">
+        <f>VLOOKUP($B24,Table35[#All],10,TRUE)</f>
+        <v>The Player character is derived from actor with a player controller</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>43995</v>
+      </c>
+      <c r="B25">
+        <v>62</v>
+      </c>
+      <c r="C25" t="str">
+        <f>VLOOKUP($B25,Table35[#All],2,TRUE)</f>
+        <v>*X</v>
+      </c>
+      <c r="D25">
+        <f>VLOOKUP($B25,Table35[#All],3,TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <f>VLOOKUP($B25,Table35[#All],4,TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="F25" t="str">
+        <f>VLOOKUP($B25,Table35[#All],5,TRUE)</f>
+        <v>Create prototype gun</v>
+      </c>
+      <c r="G25">
+        <f>VLOOKUP($B25,Table35[#All],6,TRUE)</f>
+        <v>7</v>
+      </c>
+      <c r="H25" t="str">
+        <f>VLOOKUP($B25,Table35[#All],7,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="I25" t="str">
+        <f>VLOOKUP($B25,Table35[#All],8,TRUE)</f>
+        <v>Weapons</v>
+      </c>
+      <c r="J25" t="str">
+        <f>VLOOKUP($B25,Table35[#All],9,TRUE)</f>
+        <v>Weapons</v>
+      </c>
+      <c r="K25" t="str">
+        <f>VLOOKUP($B25,Table35[#All],10,TRUE)</f>
+        <v>Weapons may be data driven with Weapon visual, VFX, and SFX</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>43995</v>
+      </c>
+      <c r="B26">
+        <v>63</v>
+      </c>
+      <c r="C26" t="str">
+        <f>VLOOKUP($B26,Table35[#All],2,TRUE)</f>
+        <v>*X</v>
+      </c>
+      <c r="D26">
+        <f>VLOOKUP($B26,Table35[#All],3,TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <f>VLOOKUP($B26,Table35[#All],4,TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="F26" t="str">
+        <f>VLOOKUP($B26,Table35[#All],5,TRUE)</f>
+        <v>Create Prototype bullets/firing</v>
+      </c>
+      <c r="G26">
+        <f>VLOOKUP($B26,Table35[#All],6,TRUE)</f>
+        <v>8</v>
+      </c>
+      <c r="H26" t="str">
+        <f>VLOOKUP($B26,Table35[#All],7,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="I26" t="str">
+        <f>VLOOKUP($B26,Table35[#All],8,TRUE)</f>
+        <v>Weapons</v>
+      </c>
+      <c r="J26" t="str">
+        <f>VLOOKUP($B26,Table35[#All],9,TRUE)</f>
+        <v>Bullets</v>
+      </c>
+      <c r="K26" t="str">
+        <f>VLOOKUP($B26,Table35[#All],10,TRUE)</f>
+        <v>Bullets may be data driven with damage, visuals, VFX, and SFX</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>43995</v>
+      </c>
+      <c r="B27">
+        <v>64</v>
+      </c>
+      <c r="C27" t="str">
+        <f>VLOOKUP($B27,Table35[#All],2,TRUE)</f>
+        <v>*X</v>
+      </c>
+      <c r="D27">
+        <f>VLOOKUP($B27,Table35[#All],3,TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <f>VLOOKUP($B27,Table35[#All],4,TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="F27" t="str">
+        <f>VLOOKUP($B27,Table35[#All],5,TRUE)</f>
+        <v>Create simple Enemy character with functions to shoot</v>
+      </c>
+      <c r="G27">
+        <f>VLOOKUP($B27,Table35[#All],6,TRUE)</f>
+        <v>27</v>
+      </c>
+      <c r="H27" t="str">
+        <f>VLOOKUP($B27,Table35[#All],7,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="I27" t="str">
+        <f>VLOOKUP($B27,Table35[#All],8,TRUE)</f>
+        <v>Enemies</v>
+      </c>
+      <c r="J27" t="str">
+        <f>VLOOKUP($B27,Table35[#All],9,TRUE)</f>
+        <v>Enemy characters</v>
+      </c>
+      <c r="K27" t="str">
+        <f>VLOOKUP($B27,Table35[#All],10,TRUE)</f>
+        <v>Enemies are actors that may be data driven. They have on hit and on death effects to drop loot</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>43995</v>
+      </c>
+      <c r="B28">
+        <v>11</v>
+      </c>
+      <c r="C28" t="str">
+        <f>VLOOKUP($B28,Table35[#All],2,TRUE)</f>
+        <v>X</v>
+      </c>
+      <c r="D28">
+        <f>VLOOKUP($B28,Table35[#All],3,TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <f>VLOOKUP($B28,Table35[#All],4,TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="F28" t="str">
+        <f>VLOOKUP($B28,Table35[#All],5,TRUE)</f>
+        <v>Integrate Weapons with bullets</v>
+      </c>
+      <c r="G28">
+        <f>VLOOKUP($B28,Table35[#All],6,TRUE)</f>
+        <v>7</v>
+      </c>
+      <c r="H28" t="str">
+        <f>VLOOKUP($B28,Table35[#All],7,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="I28" t="str">
+        <f>VLOOKUP($B28,Table35[#All],8,TRUE)</f>
+        <v>Weapons</v>
+      </c>
+      <c r="J28" t="str">
+        <f>VLOOKUP($B28,Table35[#All],9,TRUE)</f>
+        <v>Weapons</v>
+      </c>
+      <c r="K28" t="str">
+        <f>VLOOKUP($B28,Table35[#All],10,TRUE)</f>
+        <v>Weapons may be data driven with Weapon visual, VFX, and SFX</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>43995</v>
+      </c>
+      <c r="B29">
+        <v>12</v>
+      </c>
+      <c r="C29" t="str">
+        <f>VLOOKUP($B29,Table35[#All],2,TRUE)</f>
+        <v>X</v>
+      </c>
+      <c r="D29">
+        <f>VLOOKUP($B29,Table35[#All],3,TRUE)</f>
+        <v>1.5</v>
+      </c>
+      <c r="E29">
+        <f>VLOOKUP($B29,Table35[#All],4,TRUE)</f>
+        <v>2</v>
+      </c>
+      <c r="F29" t="str">
+        <f>VLOOKUP($B29,Table35[#All],5,TRUE)</f>
+        <v>Integrate Weapon with actors</v>
+      </c>
+      <c r="G29">
+        <f>VLOOKUP($B29,Table35[#All],6,TRUE)</f>
+        <v>7</v>
+      </c>
+      <c r="H29" t="str">
+        <f>VLOOKUP($B29,Table35[#All],7,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="I29" t="str">
+        <f>VLOOKUP($B29,Table35[#All],8,TRUE)</f>
+        <v>Weapons</v>
+      </c>
+      <c r="J29" t="str">
+        <f>VLOOKUP($B29,Table35[#All],9,TRUE)</f>
+        <v>Weapons</v>
+      </c>
+      <c r="K29" t="str">
+        <f>VLOOKUP($B29,Table35[#All],10,TRUE)</f>
+        <v>Weapons may be data driven with Weapon visual, VFX, and SFX</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>43995</v>
+      </c>
+      <c r="B30">
+        <v>18</v>
+      </c>
+      <c r="C30" t="str">
+        <f>VLOOKUP($B30,Table35[#All],2,TRUE)</f>
+        <v>X</v>
+      </c>
+      <c r="D30">
+        <f>VLOOKUP($B30,Table35[#All],3,TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <f>VLOOKUP($B30,Table35[#All],4,TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="F30" t="str">
+        <f>VLOOKUP($B30,Table35[#All],5,TRUE)</f>
+        <v>Implement bullet collisions</v>
+      </c>
+      <c r="G30">
+        <f>VLOOKUP($B30,Table35[#All],6,TRUE)</f>
+        <v>8</v>
+      </c>
+      <c r="H30" t="str">
+        <f>VLOOKUP($B30,Table35[#All],7,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="I30" t="str">
+        <f>VLOOKUP($B30,Table35[#All],8,TRUE)</f>
+        <v>Weapons</v>
+      </c>
+      <c r="J30" t="str">
+        <f>VLOOKUP($B30,Table35[#All],9,TRUE)</f>
+        <v>Bullets</v>
+      </c>
+      <c r="K30" t="str">
+        <f>VLOOKUP($B30,Table35[#All],10,TRUE)</f>
+        <v>Bullets may be data driven with damage, visuals, VFX, and SFX</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>43995</v>
+      </c>
+      <c r="B31">
+        <v>19</v>
+      </c>
+      <c r="C31" t="str">
+        <f>VLOOKUP($B31,Table35[#All],2,TRUE)</f>
+        <v>X</v>
+      </c>
+      <c r="D31">
+        <f>VLOOKUP($B31,Table35[#All],3,TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <f>VLOOKUP($B31,Table35[#All],4,TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="F31" t="str">
+        <f>VLOOKUP($B31,Table35[#All],5,TRUE)</f>
+        <v>Find/implement basic bullet asset</v>
+      </c>
+      <c r="G31">
+        <f>VLOOKUP($B31,Table35[#All],6,TRUE)</f>
+        <v>8</v>
+      </c>
+      <c r="H31" t="str">
+        <f>VLOOKUP($B31,Table35[#All],7,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="I31" t="str">
+        <f>VLOOKUP($B31,Table35[#All],8,TRUE)</f>
+        <v>Weapons</v>
+      </c>
+      <c r="J31" t="str">
+        <f>VLOOKUP($B31,Table35[#All],9,TRUE)</f>
+        <v>Bullets</v>
+      </c>
+      <c r="K31" t="str">
+        <f>VLOOKUP($B31,Table35[#All],10,TRUE)</f>
+        <v>Bullets may be data driven with damage, visuals, VFX, and SFX</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>43995</v>
+      </c>
+      <c r="B32">
+        <v>30</v>
+      </c>
+      <c r="C32" t="str">
+        <f>VLOOKUP($B32,Table35[#All],2,TRUE)</f>
+        <v>X</v>
+      </c>
+      <c r="D32">
+        <f>VLOOKUP($B32,Table35[#All],3,TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <f>VLOOKUP($B32,Table35[#All],4,TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="F32" t="str">
+        <f>VLOOKUP($B32,Table35[#All],5,TRUE)</f>
+        <v>Implement Actor physics with collisions of enemies and obstacles</v>
+      </c>
+      <c r="G32">
+        <f>VLOOKUP($B32,Table35[#All],6,TRUE)</f>
+        <v>17</v>
+      </c>
+      <c r="H32" t="str">
+        <f>VLOOKUP($B32,Table35[#All],7,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="I32" t="str">
+        <f>VLOOKUP($B32,Table35[#All],8,TRUE)</f>
+        <v>Actors</v>
+      </c>
+      <c r="J32" t="str">
+        <f>VLOOKUP($B32,Table35[#All],9,TRUE)</f>
+        <v>Physics</v>
+      </c>
+      <c r="K32" t="str">
+        <f>VLOOKUP($B32,Table35[#All],10,TRUE)</f>
+        <v>Physics like actor radius is data driven and says what the actor will collide with</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>43995</v>
+      </c>
+      <c r="B33">
+        <v>37</v>
+      </c>
+      <c r="C33" t="str">
+        <f>VLOOKUP($B33,Table35[#All],2,TRUE)</f>
+        <v>X</v>
+      </c>
+      <c r="D33">
+        <f>VLOOKUP($B33,Table35[#All],3,TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <f>VLOOKUP($B33,Table35[#All],4,TRUE)</f>
+        <v>0.5</v>
+      </c>
+      <c r="F33" t="str">
+        <f>VLOOKUP($B33,Table35[#All],5,TRUE)</f>
+        <v>Add movement controls (WASD)</v>
+      </c>
+      <c r="G33">
+        <f>VLOOKUP($B33,Table35[#All],6,TRUE)</f>
+        <v>21</v>
+      </c>
+      <c r="H33" t="str">
+        <f>VLOOKUP($B33,Table35[#All],7,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="I33" t="str">
+        <f>VLOOKUP($B33,Table35[#All],8,TRUE)</f>
+        <v>Player Controller</v>
+      </c>
+      <c r="J33" t="str">
+        <f>VLOOKUP($B33,Table35[#All],9,TRUE)</f>
+        <v>Movement</v>
+      </c>
+      <c r="K33" t="str">
+        <f>VLOOKUP($B33,Table35[#All],10,TRUE)</f>
+        <v>Player moves with WASD or controller left joystick</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>43995</v>
+      </c>
+      <c r="B34">
+        <v>38</v>
+      </c>
+      <c r="C34" t="str">
+        <f>VLOOKUP($B34,Table35[#All],2,TRUE)</f>
+        <v>X</v>
+      </c>
+      <c r="D34">
+        <f>VLOOKUP($B34,Table35[#All],3,TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <f>VLOOKUP($B34,Table35[#All],4,TRUE)</f>
+        <v>0.5</v>
+      </c>
+      <c r="F34" t="str">
+        <f>VLOOKUP($B34,Table35[#All],5,TRUE)</f>
+        <v>Add shooting controls (LMB)</v>
+      </c>
+      <c r="G34">
+        <f>VLOOKUP($B34,Table35[#All],6,TRUE)</f>
+        <v>22</v>
+      </c>
+      <c r="H34" t="str">
+        <f>VLOOKUP($B34,Table35[#All],7,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="I34" t="str">
+        <f>VLOOKUP($B34,Table35[#All],8,TRUE)</f>
+        <v>Player Controller</v>
+      </c>
+      <c r="J34" t="str">
+        <f>VLOOKUP($B34,Table35[#All],9,TRUE)</f>
+        <v>Shooting</v>
+      </c>
+      <c r="K34" t="str">
+        <f>VLOOKUP($B34,Table35[#All],10,TRUE)</f>
+        <v>Player shoots with left mouse button or controller right button</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>43995</v>
+      </c>
+      <c r="B35">
+        <v>39</v>
+      </c>
+      <c r="C35" t="str">
+        <f>VLOOKUP($B35,Table35[#All],2,TRUE)</f>
+        <v>X</v>
+      </c>
+      <c r="D35">
+        <f>VLOOKUP($B35,Table35[#All],3,TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <f>VLOOKUP($B35,Table35[#All],4,TRUE)</f>
+        <v>0.25</v>
+      </c>
+      <c r="F35" t="str">
+        <f>VLOOKUP($B35,Table35[#All],5,TRUE)</f>
+        <v>Add aiming controls (Mouse)</v>
+      </c>
+      <c r="G35">
+        <f>VLOOKUP($B35,Table35[#All],6,TRUE)</f>
+        <v>23</v>
+      </c>
+      <c r="H35" t="str">
+        <f>VLOOKUP($B35,Table35[#All],7,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="I35" t="str">
+        <f>VLOOKUP($B35,Table35[#All],8,TRUE)</f>
+        <v>Player Controller</v>
+      </c>
+      <c r="J35" t="str">
+        <f>VLOOKUP($B35,Table35[#All],9,TRUE)</f>
+        <v>Aiming</v>
+      </c>
+      <c r="K35" t="str">
+        <f>VLOOKUP($B35,Table35[#All],10,TRUE)</f>
+        <v>Player aims with mouse or controller right joystick</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>43995</v>
+      </c>
+      <c r="B36">
+        <v>44</v>
+      </c>
+      <c r="C36" t="str">
+        <f>VLOOKUP($B36,Table35[#All],2,TRUE)</f>
+        <v>X</v>
+      </c>
+      <c r="D36">
+        <f>VLOOKUP($B36,Table35[#All],3,TRUE)</f>
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <f>VLOOKUP($B36,Table35[#All],4,TRUE)</f>
+        <v>0.5</v>
+      </c>
+      <c r="F36" t="str">
+        <f>VLOOKUP($B36,Table35[#All],5,TRUE)</f>
+        <v>Create simple enemy controller to run at player and shoot</v>
+      </c>
+      <c r="G36">
+        <f>VLOOKUP($B36,Table35[#All],6,TRUE)</f>
+        <v>28</v>
+      </c>
+      <c r="H36" t="str">
+        <f>VLOOKUP($B36,Table35[#All],7,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="I36" t="str">
+        <f>VLOOKUP($B36,Table35[#All],8,TRUE)</f>
+        <v>Enemy Controller</v>
+      </c>
+      <c r="J36" t="str">
+        <f>VLOOKUP($B36,Table35[#All],9,TRUE)</f>
+        <v>Enemy AI Controller</v>
+      </c>
+      <c r="K36" t="str">
+        <f>VLOOKUP($B36,Table35[#All],10,TRUE)</f>
+        <v>Enemies have a data driven controller where they will wander until the player is spotted before chasing and shooting</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>43995</v>
+      </c>
+      <c r="B37">
+        <v>54</v>
+      </c>
+      <c r="C37" t="str">
+        <f>VLOOKUP($B37,Table35[#All],2,TRUE)</f>
+        <v>X</v>
+      </c>
+      <c r="D37">
+        <f>VLOOKUP($B37,Table35[#All],3,TRUE)</f>
+        <v>5</v>
+      </c>
+      <c r="E37">
+        <f>VLOOKUP($B37,Table35[#All],4,TRUE)</f>
+        <v>2.5</v>
+      </c>
+      <c r="F37" t="str">
+        <f>VLOOKUP($B37,Table35[#All],5,TRUE)</f>
+        <v>Integrate map with actors and check collisions</v>
+      </c>
+      <c r="G37">
+        <f>VLOOKUP($B37,Table35[#All],6,TRUE)</f>
+        <v>33</v>
+      </c>
+      <c r="H37" t="str">
+        <f>VLOOKUP($B37,Table35[#All],7,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="I37" t="str">
+        <f>VLOOKUP($B37,Table35[#All],8,TRUE)</f>
+        <v>Map</v>
+      </c>
+      <c r="J37" t="str">
+        <f>VLOOKUP($B37,Table35[#All],9,TRUE)</f>
+        <v>Map makeup</v>
+      </c>
+      <c r="K37" t="str">
+        <f>VLOOKUP($B37,Table35[#All],10,TRUE)</f>
+        <v>Maps are tile based with tile definitions determining what/who they block or not block</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>43995</v>
+      </c>
+      <c r="B38">
+        <v>31</v>
+      </c>
+      <c r="C38" t="str">
+        <f>VLOOKUP($B38,Table35[#All],2,TRUE)</f>
+        <v>X</v>
+      </c>
+      <c r="D38">
+        <f>VLOOKUP($B38,Table35[#All],3,TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <f>VLOOKUP($B38,Table35[#All],4,TRUE)</f>
+        <v>1.5</v>
+      </c>
+      <c r="F38" t="str">
+        <f>VLOOKUP($B38,Table35[#All],5,TRUE)</f>
+        <v>Have weapons face actor direction moving in a circular motion around player radius</v>
+      </c>
+      <c r="G38">
+        <f>VLOOKUP($B38,Table35[#All],6,TRUE)</f>
+        <v>18</v>
+      </c>
+      <c r="H38" t="str">
+        <f>VLOOKUP($B38,Table35[#All],7,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="I38" t="str">
+        <f>VLOOKUP($B38,Table35[#All],8,TRUE)</f>
+        <v>Actors</v>
+      </c>
+      <c r="J38" t="str">
+        <f>VLOOKUP($B38,Table35[#All],9,TRUE)</f>
+        <v>Weapons</v>
+      </c>
+      <c r="K38" t="str">
+        <f>VLOOKUP($B38,Table35[#All],10,TRUE)</f>
+        <v>Game keeps track of current weapon and uses the weapon definitions to know the stats</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>43995</v>
+      </c>
+      <c r="B39">
+        <v>32</v>
+      </c>
+      <c r="C39" t="str">
+        <f>VLOOKUP($B39,Table35[#All],2,TRUE)</f>
+        <v>X</v>
+      </c>
+      <c r="D39">
+        <f>VLOOKUP($B39,Table35[#All],3,TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <f>VLOOKUP($B39,Table35[#All],4,TRUE)</f>
+        <v>0.5</v>
+      </c>
+      <c r="F39" t="str">
+        <f>VLOOKUP($B39,Table35[#All],5,TRUE)</f>
+        <v>Have weapons behind player at top of screen and in front of player at bottom of screen</v>
+      </c>
+      <c r="G39">
+        <f>VLOOKUP($B39,Table35[#All],6,TRUE)</f>
+        <v>18</v>
+      </c>
+      <c r="H39" t="str">
+        <f>VLOOKUP($B39,Table35[#All],7,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="I39" t="str">
+        <f>VLOOKUP($B39,Table35[#All],8,TRUE)</f>
+        <v>Actors</v>
+      </c>
+      <c r="J39" t="str">
+        <f>VLOOKUP($B39,Table35[#All],9,TRUE)</f>
+        <v>Weapons</v>
+      </c>
+      <c r="K39" t="str">
+        <f>VLOOKUP($B39,Table35[#All],10,TRUE)</f>
+        <v>Game keeps track of current weapon and uses the weapon definitions to know the stats</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>43995</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="str">
+        <f>VLOOKUP($B40,Table35[#All],2,TRUE)</f>
+        <v>X</v>
+      </c>
+      <c r="D40">
+        <f>VLOOKUP($B40,Table35[#All],3,TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <f>VLOOKUP($B40,Table35[#All],4,TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="F40" t="str">
+        <f>VLOOKUP($B40,Table35[#All],5,TRUE)</f>
+        <v>Implement loading state and loading functions</v>
+      </c>
+      <c r="G40">
+        <f>VLOOKUP($B40,Table35[#All],6,TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="H40" t="str">
+        <f>VLOOKUP($B40,Table35[#All],7,TRUE)</f>
+        <v>Loading Screen</v>
+      </c>
+      <c r="I40" t="str">
+        <f>VLOOKUP($B40,Table35[#All],8,TRUE)</f>
+        <v>Function</v>
+      </c>
+      <c r="J40" t="str">
+        <f>VLOOKUP($B40,Table35[#All],9,TRUE)</f>
+        <v>Load data</v>
+      </c>
+      <c r="K40" t="str">
+        <f>VLOOKUP($B40,Table35[#All],10,TRUE)</f>
+        <v xml:space="preserve">Loads game assets </v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>43995</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41" t="str">
+        <f>VLOOKUP($B41,Table35[#All],2,TRUE)</f>
+        <v>X</v>
+      </c>
+      <c r="D41">
+        <f>VLOOKUP($B41,Table35[#All],3,TRUE)</f>
+        <v>0.5</v>
+      </c>
+      <c r="E41">
+        <f>VLOOKUP($B41,Table35[#All],4,TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="F41" t="str">
+        <f>VLOOKUP($B41,Table35[#All],5,TRUE)</f>
+        <v>Add Attract Screen functionality (space or lmb to start game)</v>
+      </c>
+      <c r="G41">
+        <f>VLOOKUP($B41,Table35[#All],6,TRUE)</f>
+        <v>3</v>
+      </c>
+      <c r="H41" t="str">
+        <f>VLOOKUP($B41,Table35[#All],7,TRUE)</f>
+        <v>Main Menu</v>
+      </c>
+      <c r="I41" t="str">
+        <f>VLOOKUP($B41,Table35[#All],8,TRUE)</f>
+        <v>Function</v>
+      </c>
+      <c r="J41" t="str">
+        <f>VLOOKUP($B41,Table35[#All],9,TRUE)</f>
+        <v>Buttons</v>
+      </c>
+      <c r="K41" t="str">
+        <f>VLOOKUP($B41,Table35[#All],10,TRUE)</f>
+        <v>Start game, Exit Game buttons to start or exit the game</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>43995</v>
+      </c>
+      <c r="B42">
+        <v>54</v>
+      </c>
+      <c r="C42" t="str">
+        <f>VLOOKUP($B42,Table35[#All],2,TRUE)</f>
+        <v>X</v>
+      </c>
+      <c r="D42">
+        <f>VLOOKUP($B42,Table35[#All],3,TRUE)</f>
+        <v>5</v>
+      </c>
+      <c r="E42">
+        <f>VLOOKUP($B42,Table35[#All],4,TRUE)</f>
+        <v>2.5</v>
+      </c>
+      <c r="F42" t="str">
+        <f>VLOOKUP($B42,Table35[#All],5,TRUE)</f>
+        <v>Integrate map with actors and check collisions</v>
+      </c>
+      <c r="G42">
+        <f>VLOOKUP($B42,Table35[#All],6,TRUE)</f>
+        <v>33</v>
+      </c>
+      <c r="H42" t="str">
+        <f>VLOOKUP($B42,Table35[#All],7,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="I42" t="str">
+        <f>VLOOKUP($B42,Table35[#All],8,TRUE)</f>
+        <v>Map</v>
+      </c>
+      <c r="J42" t="str">
+        <f>VLOOKUP($B42,Table35[#All],9,TRUE)</f>
+        <v>Map makeup</v>
+      </c>
+      <c r="K42" t="str">
+        <f>VLOOKUP($B42,Table35[#All],10,TRUE)</f>
+        <v>Maps are tile based with tile definitions determining what/who they block or not block</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="2">
+  <tableParts count="3">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/DFS/DFS Documentation - Jonathan Sarasua.xlsx
+++ b/DFS/DFS Documentation - Jonathan Sarasua.xlsx
@@ -8,10 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Guildhall\DFS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF7962C-A46D-4540-A0B3-6A28F7EAEC56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F00B90-2E60-4889-862D-6F10C76EBC79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{C664E016-CE9A-4FC5-A772-98B630577C19}"/>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{3D84B222-422C-4254-85C9-E5FC35CCD999}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{3D84B222-422C-4254-85C9-E5FC35CCD999}"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="1" r:id="rId1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="220">
   <si>
     <t>Fields</t>
   </si>
@@ -502,9 +501,6 @@
     <t>Have weapons behind player at top of screen and in front of player at bottom of screen</t>
   </si>
   <si>
-    <t>Implement Actor Definition</t>
-  </si>
-  <si>
     <t>Implement Actor physics with collisions of enemies and obstacles</t>
   </si>
   <si>
@@ -550,15 +546,6 @@
     <t>Build Datadriven map from image file</t>
   </si>
   <si>
-    <t>Implement room making map generation</t>
-  </si>
-  <si>
-    <t>Build map definition</t>
-  </si>
-  <si>
-    <t>Build tile definitions</t>
-  </si>
-  <si>
     <t>Integrate map with actors and check collisions</t>
   </si>
   <si>
@@ -674,6 +661,42 @@
   </si>
   <si>
     <t>Add Attract Screen functionality (space or lmb to start game)</t>
+  </si>
+  <si>
+    <t>Implement Actor Definition (Done in Testgame2D base)</t>
+  </si>
+  <si>
+    <t>Build tile definitions (done in Testgame2D base)</t>
+  </si>
+  <si>
+    <t>Build map definition (done in Testgame2D base)</t>
+  </si>
+  <si>
+    <t>Implement room locking and enemy spawning in locked rooms</t>
+  </si>
+  <si>
+    <t>*0</t>
+  </si>
+  <si>
+    <t>Clean up weapon rendering</t>
+  </si>
+  <si>
+    <t>Find a different sprite sheet/ remove hands from current sprite sheet</t>
+  </si>
+  <si>
+    <t>Plan Milestone 2</t>
+  </si>
+  <si>
+    <t>Unplanned hours</t>
+  </si>
+  <si>
+    <t>Removed From Milestone 1</t>
+  </si>
+  <si>
+    <t>Removed</t>
+  </si>
+  <si>
+    <t>Estimated/Actual diff</t>
   </si>
 </sst>
 </file>
@@ -729,7 +752,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -846,11 +869,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -868,11 +915,25 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -905,16 +966,6 @@
         </right>
         <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thick">
-          <color theme="0"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -978,10 +1029,10 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{E3CFF414-7CA4-46A6-BE0E-B33C7CAC44AA}" name="Table11" displayName="Table11" ref="A11:K22" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="2">
-  <autoFilter ref="A11:K22" xr:uid="{EAE23911-42F4-4082-AE0F-23491A450C69}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{E3CFF414-7CA4-46A6-BE0E-B33C7CAC44AA}" name="Table11" displayName="Table11" ref="A11:K43" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1">
+  <autoFilter ref="A11:K43" xr:uid="{EAE23911-42F4-4082-AE0F-23491A450C69}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{982DC17F-03DB-4686-9D01-D567F59FF074}" name="Date" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{982DC17F-03DB-4686-9D01-D567F59FF074}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{9DC524A3-5239-4EFC-9625-7BED45C12A39}" name="Task ID"/>
     <tableColumn id="3" xr3:uid="{E528A451-B369-4CDB-BDAB-DFC3499740A9}" name="Status"/>
     <tableColumn id="4" xr3:uid="{0EF50412-F9F5-4BDC-B9F1-08FB4AC5CB44}" name="Estimate"/>
@@ -1035,8 +1086,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{3AFC5965-674A-4451-AC25-19E71FAB4844}" name="Table35" displayName="Table35" ref="A11:J79" totalsRowCount="1">
-  <autoFilter ref="A11:J78" xr:uid="{4A443AB6-A518-4003-A068-759E12CFD484}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{3AFC5965-674A-4451-AC25-19E71FAB4844}" name="Table35" displayName="Table35" ref="A11:J82" totalsRowCount="1">
+  <autoFilter ref="A11:J81" xr:uid="{4A443AB6-A518-4003-A068-759E12CFD484}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A12:J71">
     <sortCondition ref="F11:F71"/>
   </sortState>
@@ -1069,10 +1120,10 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{4151FFFD-B746-4538-A0CE-AB3ABE724425}" name="Table356" displayName="Table356" ref="A17:J45" totalsRowCount="1">
-  <autoFilter ref="A17:J44" xr:uid="{7D17F18C-C430-4F21-9230-429FFCB76917}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A18:J44">
-    <sortCondition ref="F11:F44"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{4151FFFD-B746-4538-A0CE-AB3ABE724425}" name="Table356" displayName="Table356" ref="A17:J41" totalsRowCount="1">
+  <autoFilter ref="A17:J40" xr:uid="{7D17F18C-C430-4F21-9230-429FFCB76917}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A18:J40">
+    <sortCondition ref="F11:F40"/>
   </sortState>
   <tableColumns count="10">
     <tableColumn id="10" xr3:uid="{62B84147-86F3-475B-86AF-B1B525EF17F5}" name="Task ID"/>
@@ -1111,33 +1162,41 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{618CE7E4-5ADE-4E98-B2AC-0682EBACB73D}" name="Table3567" displayName="Table3567" ref="A50:J52" insertRow="1" totalsRowCount="1">
-  <autoFilter ref="A50:J51" xr:uid="{DD29A22F-BB19-4ADC-B414-52C64CAC47C4}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A51:J51">
-    <sortCondition ref="F11:F44"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{618CE7E4-5ADE-4E98-B2AC-0682EBACB73D}" name="Table3567" displayName="Table3567" ref="A56:J79" totalsRowCount="1">
+  <autoFilter ref="A56:J78" xr:uid="{DD29A22F-BB19-4ADC-B414-52C64CAC47C4}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A57:J68">
+    <sortCondition ref="F11:F40"/>
   </sortState>
   <tableColumns count="10">
     <tableColumn id="10" xr3:uid="{C6F19666-4430-4172-9EF5-7BF02339E0BE}" name="Task ID"/>
-    <tableColumn id="9" xr3:uid="{8EC30E7E-7313-4950-85AC-8D917BFE0325}" name="Status"/>
+    <tableColumn id="9" xr3:uid="{8EC30E7E-7313-4950-85AC-8D917BFE0325}" name="Status">
+      <calculatedColumnFormula>VLOOKUP($A57,Table35[#All],2,TRUE)</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="2" xr3:uid="{00F12D22-11C0-4F5E-B453-73C36471DC95}" name="Estimate" totalsRowFunction="custom">
+      <calculatedColumnFormula>VLOOKUP($A57,Table35[#All],3,TRUE)</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table3567[Estimate])</totalsRowFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{04403CBB-B6F2-436B-BB44-4750D481682E}" name="Actual" totalsRowFunction="custom">
+      <calculatedColumnFormula>VLOOKUP($A57,Table35[#All],4,TRUE)</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table3567[Actual])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{49D5F43A-A98B-42E6-ACBC-67D28734B648}" name="Task"/>
-    <tableColumn id="4" xr3:uid="{E8FD2575-FD87-4AEC-B082-FC9EF15436ED}" name="Feature ID"/>
+    <tableColumn id="11" xr3:uid="{49D5F43A-A98B-42E6-ACBC-67D28734B648}" name="Task">
+      <calculatedColumnFormula>VLOOKUP($A57,Table35[#All],5,TRUE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{E8FD2575-FD87-4AEC-B082-FC9EF15436ED}" name="Feature ID">
+      <calculatedColumnFormula>VLOOKUP($A57,Table35[#All],6,TRUE)</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="5" xr3:uid="{00E2B42D-24A6-4373-8A60-41DF03320438}" name="Game State">
-      <calculatedColumnFormula>VLOOKUP($F51,Table1[],2,TRUE)</calculatedColumnFormula>
+      <calculatedColumnFormula>VLOOKUP($F57,Table1[],2,TRUE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{7CAF72B6-3BE7-4219-8CBF-3144E50061D4}" name="Area">
-      <calculatedColumnFormula>VLOOKUP($F51,Table1[],3,TRUE)</calculatedColumnFormula>
+      <calculatedColumnFormula>VLOOKUP($F57,Table1[],3,TRUE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{006D294A-1C72-4BE8-93FB-F3D69846DA4B}" name="Features">
-      <calculatedColumnFormula>VLOOKUP($F51,Table1[],4,TRUE)</calculatedColumnFormula>
+      <calculatedColumnFormula>VLOOKUP($F57,Table1[],4,TRUE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{34E05C3D-FA28-4EB6-94EB-403D79C130C2}" name="Description">
-      <calculatedColumnFormula>VLOOKUP($F51,Table1[],5,TRUE)</calculatedColumnFormula>
+      <calculatedColumnFormula>VLOOKUP($F57,Table1[],5,TRUE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1145,10 +1204,10 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A50E57C5-0AFB-4BA1-ADB8-B627D629FE7F}" name="Table35678" displayName="Table35678" ref="A55:J57" insertRow="1" totalsRowCount="1">
-  <autoFilter ref="A55:J56" xr:uid="{12F7B163-3DD2-4A1A-B717-142A2F111DBF}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A56:J56">
-    <sortCondition ref="F11:F44"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A50E57C5-0AFB-4BA1-ADB8-B627D629FE7F}" name="Table35678" displayName="Table35678" ref="A82:J84" insertRow="1" totalsRowCount="1">
+  <autoFilter ref="A82:J83" xr:uid="{12F7B163-3DD2-4A1A-B717-142A2F111DBF}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A83:J83">
+    <sortCondition ref="F11:F40"/>
   </sortState>
   <tableColumns count="10">
     <tableColumn id="10" xr3:uid="{F8381028-8A17-4B32-A639-67E8C8144828}" name="Task ID"/>
@@ -1162,16 +1221,16 @@
     <tableColumn id="11" xr3:uid="{91CFC98B-90CD-42BE-9A24-77BC97E0454A}" name="Task"/>
     <tableColumn id="4" xr3:uid="{B7F5769E-B85A-43C1-902D-895944D9FB69}" name="Feature ID"/>
     <tableColumn id="5" xr3:uid="{B24C2F29-63F0-444C-BEF7-9A76FCB32652}" name="Game State">
-      <calculatedColumnFormula>VLOOKUP($F56,Table1[],2,TRUE)</calculatedColumnFormula>
+      <calculatedColumnFormula>VLOOKUP($F83,Table1[],2,TRUE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{FE8182AE-9790-4939-8FF4-6070CF1562BE}" name="Area">
-      <calculatedColumnFormula>VLOOKUP($F56,Table1[],3,TRUE)</calculatedColumnFormula>
+      <calculatedColumnFormula>VLOOKUP($F83,Table1[],3,TRUE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{E7F548A7-6336-48B8-A133-B7FCEE2A2BDE}" name="Features">
-      <calculatedColumnFormula>VLOOKUP($F56,Table1[],4,TRUE)</calculatedColumnFormula>
+      <calculatedColumnFormula>VLOOKUP($F83,Table1[],4,TRUE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{FA6C449C-FC00-4EF7-B313-44A06BA6C8C8}" name="Description">
-      <calculatedColumnFormula>VLOOKUP($F56,Table1[],5,TRUE)</calculatedColumnFormula>
+      <calculatedColumnFormula>VLOOKUP($F83,Table1[],5,TRUE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1179,10 +1238,10 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{30F3182D-6F4F-47DA-9031-C4C7700B24D0}" name="Table356789" displayName="Table356789" ref="A60:J62" insertRow="1" totalsRowCount="1">
-  <autoFilter ref="A60:J61" xr:uid="{B94650E2-40D2-4E6D-BDD5-60BDE959C1FE}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A61:J61">
-    <sortCondition ref="F11:F44"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{30F3182D-6F4F-47DA-9031-C4C7700B24D0}" name="Table356789" displayName="Table356789" ref="A87:J89" insertRow="1" totalsRowCount="1">
+  <autoFilter ref="A87:J88" xr:uid="{B94650E2-40D2-4E6D-BDD5-60BDE959C1FE}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A88:J88">
+    <sortCondition ref="F11:F40"/>
   </sortState>
   <tableColumns count="10">
     <tableColumn id="10" xr3:uid="{DC6AA35E-8AA3-446B-B599-609F1953960A}" name="Task ID"/>
@@ -1196,16 +1255,16 @@
     <tableColumn id="11" xr3:uid="{F62C4925-2A4F-4E55-8ABC-E6F6593114DC}" name="Task"/>
     <tableColumn id="4" xr3:uid="{01A791A3-ACBC-4A55-B3B0-A86AD9A448A7}" name="Feature ID"/>
     <tableColumn id="5" xr3:uid="{295C0FE1-E8EF-4354-AFB2-7D7ABA42869A}" name="Game State">
-      <calculatedColumnFormula>VLOOKUP($F61,Table1[],2,TRUE)</calculatedColumnFormula>
+      <calculatedColumnFormula>VLOOKUP($F88,Table1[],2,TRUE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{FF2F79F8-5BB6-4B43-A8B1-9663B716C6B1}" name="Area">
-      <calculatedColumnFormula>VLOOKUP($F61,Table1[],3,TRUE)</calculatedColumnFormula>
+      <calculatedColumnFormula>VLOOKUP($F88,Table1[],3,TRUE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{5482843D-6E87-4AC9-93CD-093636B159C7}" name="Features">
-      <calculatedColumnFormula>VLOOKUP($F61,Table1[],4,TRUE)</calculatedColumnFormula>
+      <calculatedColumnFormula>VLOOKUP($F88,Table1[],4,TRUE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{677E5A6C-8291-472B-8F25-DC573BD78CC5}" name="Description">
-      <calculatedColumnFormula>VLOOKUP($F61,Table1[],5,TRUE)</calculatedColumnFormula>
+      <calculatedColumnFormula>VLOOKUP($F88,Table1[],5,TRUE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1522,10 +1581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95CAAFA2-F5E8-420F-97C9-09E9E707D7A4}">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
-    </sheetView>
-    <sheetView topLeftCell="A16" workbookViewId="1">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
@@ -1714,7 +1770,7 @@
         <v>13</v>
       </c>
       <c r="E19" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1728,10 +1784,10 @@
         <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E20" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -2054,7 +2110,7 @@
         <v>77</v>
       </c>
       <c r="E39" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -2218,13 +2274,13 @@
         <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D49" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E49" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -2239,10 +2295,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDAEC069-D6F8-4CCE-BE78-F924E31A4A35}">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3204,19 +3259,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC20C21-6CC5-454B-A71B-54C5FBC17A7F}">
-  <dimension ref="A2:J79"/>
+  <dimension ref="A2:J82"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
-    </sheetView>
-    <sheetView topLeftCell="A11" workbookViewId="1">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="86" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="101" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
@@ -3289,7 +3341,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B8" t="s">
         <v>107</v>
@@ -3371,7 +3423,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -3413,7 +3465,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F14">
         <v>3</v>
@@ -3698,7 +3750,7 @@
         <v>1</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E22" t="s">
         <v>134</v>
@@ -3734,7 +3786,7 @@
         <v>1.5</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="E23" t="s">
         <v>133</v>
@@ -3986,7 +4038,7 @@
         <v>1</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E30" t="s">
         <v>140</v>
@@ -4385,7 +4437,7 @@
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F41">
         <v>17</v>
@@ -4484,7 +4536,7 @@
         <v>33</v>
       </c>
       <c r="B44" t="s">
-        <v>112</v>
+        <v>175</v>
       </c>
       <c r="C44">
         <v>1.5</v>
@@ -4493,7 +4545,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="F44">
         <v>19</v>
@@ -4529,7 +4581,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F45">
         <v>19</v>
@@ -4565,7 +4617,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F46">
         <v>20</v>
@@ -4601,7 +4653,7 @@
         <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F47">
         <v>21</v>
@@ -4634,10 +4686,10 @@
         <v>1</v>
       </c>
       <c r="D48">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E48" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F48">
         <v>21</v>
@@ -4670,10 +4722,10 @@
         <v>1</v>
       </c>
       <c r="D49">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E49" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F49">
         <v>22</v>
@@ -4709,7 +4761,7 @@
         <v>0.25</v>
       </c>
       <c r="E50" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F50">
         <v>23</v>
@@ -4745,7 +4797,7 @@
         <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F51">
         <v>24</v>
@@ -4781,7 +4833,7 @@
         <v>0</v>
       </c>
       <c r="E52" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F52">
         <v>25</v>
@@ -4817,7 +4869,7 @@
         <v>0</v>
       </c>
       <c r="E53" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F53">
         <v>26</v>
@@ -4853,7 +4905,7 @@
         <v>0</v>
       </c>
       <c r="E54" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F54">
         <v>27</v>
@@ -4889,7 +4941,7 @@
         <v>0.5</v>
       </c>
       <c r="E55" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F55">
         <v>28</v>
@@ -4925,7 +4977,7 @@
         <v>0</v>
       </c>
       <c r="E56" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F56">
         <v>28</v>
@@ -4961,7 +5013,7 @@
         <v>0</v>
       </c>
       <c r="E57" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F57">
         <v>29</v>
@@ -4991,13 +5043,13 @@
         <v>0</v>
       </c>
       <c r="C58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F58">
         <v>29</v>
@@ -5027,13 +5079,13 @@
         <v>0</v>
       </c>
       <c r="C59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="E59" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F59">
         <v>29</v>
@@ -5063,13 +5115,13 @@
         <v>0</v>
       </c>
       <c r="C60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="E60" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F60">
         <v>30</v>
@@ -5099,13 +5151,13 @@
         <v>0</v>
       </c>
       <c r="C61">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F61">
         <v>31</v>
@@ -5141,7 +5193,7 @@
         <v>0</v>
       </c>
       <c r="E62" t="s">
-        <v>170</v>
+        <v>211</v>
       </c>
       <c r="F62">
         <v>32</v>
@@ -5167,8 +5219,8 @@
       <c r="A63">
         <v>52</v>
       </c>
-      <c r="B63">
-        <v>0</v>
+      <c r="B63" t="s">
+        <v>175</v>
       </c>
       <c r="C63">
         <v>2</v>
@@ -5177,7 +5229,7 @@
         <v>0</v>
       </c>
       <c r="E63" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="F63">
         <v>33</v>
@@ -5203,8 +5255,8 @@
       <c r="A64">
         <v>53</v>
       </c>
-      <c r="B64">
-        <v>0</v>
+      <c r="B64" t="s">
+        <v>175</v>
       </c>
       <c r="C64">
         <v>3</v>
@@ -5213,7 +5265,7 @@
         <v>0</v>
       </c>
       <c r="E64" t="s">
-        <v>171</v>
+        <v>210</v>
       </c>
       <c r="F64">
         <v>33</v>
@@ -5249,7 +5301,7 @@
         <v>2.5</v>
       </c>
       <c r="E65" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F65">
         <v>33</v>
@@ -5285,7 +5337,7 @@
         <v>0</v>
       </c>
       <c r="E66" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F66">
         <v>34</v>
@@ -5321,7 +5373,7 @@
         <v>0</v>
       </c>
       <c r="E67" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F67">
         <v>34</v>
@@ -5357,7 +5409,7 @@
         <v>0</v>
       </c>
       <c r="E68" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F68">
         <v>34</v>
@@ -5393,7 +5445,7 @@
         <v>0</v>
       </c>
       <c r="E69" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F69">
         <v>34</v>
@@ -5420,7 +5472,7 @@
         <v>59</v>
       </c>
       <c r="B70" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C70" t="s">
         <v>111</v>
@@ -5429,7 +5481,7 @@
         <v>0</v>
       </c>
       <c r="E70" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F70">
         <v>35</v>
@@ -5492,16 +5544,16 @@
         <v>61</v>
       </c>
       <c r="B72" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E72" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F72">
         <v>20</v>
@@ -5528,7 +5580,7 @@
         <v>62</v>
       </c>
       <c r="B73" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -5537,7 +5589,7 @@
         <v>1</v>
       </c>
       <c r="E73" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F73">
         <v>7</v>
@@ -5564,7 +5616,7 @@
         <v>63</v>
       </c>
       <c r="B74" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -5573,7 +5625,7 @@
         <v>1</v>
       </c>
       <c r="E74" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F74">
         <v>8</v>
@@ -5600,7 +5652,7 @@
         <v>64</v>
       </c>
       <c r="B75" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -5609,7 +5661,7 @@
         <v>1</v>
       </c>
       <c r="E75" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F75">
         <v>27</v>
@@ -5636,7 +5688,7 @@
         <v>65</v>
       </c>
       <c r="B76" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C76">
         <v>2</v>
@@ -5645,7 +5697,7 @@
         <v>4</v>
       </c>
       <c r="E76" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F76">
         <v>37</v>
@@ -5672,7 +5724,7 @@
         <v>66</v>
       </c>
       <c r="B77" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C77">
         <v>2</v>
@@ -5681,7 +5733,7 @@
         <v>3</v>
       </c>
       <c r="E77" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F77">
         <v>37</v>
@@ -5708,16 +5760,16 @@
         <v>67</v>
       </c>
       <c r="B78" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C78">
         <v>4</v>
       </c>
       <c r="D78">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E78" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F78">
         <v>37</v>
@@ -5740,13 +5792,103 @@
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>68</v>
+      </c>
+      <c r="B79" t="s">
+        <v>212</v>
+      </c>
       <c r="C79">
+        <v>2</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79" t="s">
+        <v>213</v>
+      </c>
+      <c r="F79">
+        <v>7</v>
+      </c>
+      <c r="G79" t="str">
+        <f>VLOOKUP($F79,Table1[],2,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="H79" t="str">
+        <f>VLOOKUP($F79,Table1[],3,TRUE)</f>
+        <v>Weapons</v>
+      </c>
+      <c r="I79" t="str">
+        <f>VLOOKUP($F79,Table1[],4,TRUE)</f>
+        <v>Weapons</v>
+      </c>
+      <c r="J79" t="str">
+        <f>VLOOKUP($F79,Table1[],5,TRUE)</f>
+        <v>Weapons may be data driven with Weapon visual, VFX, and SFX</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>69</v>
+      </c>
+      <c r="B80" t="s">
+        <v>212</v>
+      </c>
+      <c r="C80">
+        <v>2</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80" t="s">
+        <v>214</v>
+      </c>
+      <c r="F80">
+        <v>7</v>
+      </c>
+      <c r="G80" t="str">
+        <f>VLOOKUP($F80,Table1[],2,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="H80" t="str">
+        <f>VLOOKUP($F80,Table1[],3,TRUE)</f>
+        <v>Weapons</v>
+      </c>
+      <c r="I80" t="str">
+        <f>VLOOKUP($F80,Table1[],4,TRUE)</f>
+        <v>Weapons</v>
+      </c>
+      <c r="J80" t="str">
+        <f>VLOOKUP($F80,Table1[],5,TRUE)</f>
+        <v>Weapons may be data driven with Weapon visual, VFX, and SFX</v>
+      </c>
+    </row>
+    <row r="81" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="G81" t="e">
+        <f>VLOOKUP($F81,Table1[],2,TRUE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H81" t="e">
+        <f>VLOOKUP($F81,Table1[],3,TRUE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I81" t="e">
+        <f>VLOOKUP($F81,Table1[],4,TRUE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J81" t="e">
+        <f>VLOOKUP($F81,Table1[],5,TRUE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="82" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C82">
         <f>SUM(Table35[Estimate])</f>
         <v>111</v>
       </c>
-      <c r="D79">
+      <c r="D82">
         <f>SUM(Table35[Actual])</f>
-        <v>32.75</v>
+        <v>28.25</v>
       </c>
     </row>
   </sheetData>
@@ -5759,13 +5901,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93182A32-9B41-4840-9B31-4DBA5186CB78}">
-  <dimension ref="A6:J62"/>
+  <dimension ref="A6:J89"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="1">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5845,7 +5984,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B12" t="s">
         <v>107</v>
@@ -5853,12 +5992,12 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -5907,7 +6046,7 @@
       </c>
       <c r="D18">
         <f>VLOOKUP($A18,Table35[#All],4,TRUE)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E18" t="str">
         <f>VLOOKUP($A18,Table35[#All],5,TRUE)</f>
@@ -6071,7 +6210,7 @@
       </c>
       <c r="D22">
         <f>VLOOKUP($A22,Table35[#All],4,TRUE)</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E22" t="str">
         <f>VLOOKUP($A22,Table35[#All],5,TRUE)</f>
@@ -6264,23 +6403,23 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B27" t="str">
         <f>VLOOKUP($A27,Table35[#All],2,TRUE)</f>
-        <v>&lt;</v>
+        <v>X</v>
       </c>
       <c r="C27">
         <f>VLOOKUP($A27,Table35[#All],3,TRUE)</f>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <f>VLOOKUP($A27,Table35[#All],4,TRUE)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E27" t="str">
         <f>VLOOKUP($A27,Table35[#All],5,TRUE)</f>
-        <v>Create Weapon Definition</v>
+        <v>Integrate Weapons with bullets</v>
       </c>
       <c r="F27">
         <f>VLOOKUP($A27,Table35[#All],6,TRUE)</f>
@@ -6305,23 +6444,23 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B28" t="str">
         <f>VLOOKUP($A28,Table35[#All],2,TRUE)</f>
-        <v>&lt;</v>
+        <v>X</v>
       </c>
       <c r="C28">
         <f>VLOOKUP($A28,Table35[#All],3,TRUE)</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D28">
         <f>VLOOKUP($A28,Table35[#All],4,TRUE)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E28" t="str">
         <f>VLOOKUP($A28,Table35[#All],5,TRUE)</f>
-        <v>Implement shooting using weapon definition</v>
+        <v>Integrate Weapon with actors</v>
       </c>
       <c r="F28">
         <f>VLOOKUP($A28,Table35[#All],6,TRUE)</f>
@@ -6346,23 +6485,23 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B29" t="str">
         <f>VLOOKUP($A29,Table35[#All],2,TRUE)</f>
-        <v>&lt;</v>
+        <v>X</v>
       </c>
       <c r="C29">
         <f>VLOOKUP($A29,Table35[#All],3,TRUE)</f>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D29">
         <f>VLOOKUP($A29,Table35[#All],4,TRUE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="str">
         <f>VLOOKUP($A29,Table35[#All],5,TRUE)</f>
-        <v>Create Bullet Definition</v>
+        <v>Implement bullet collisions</v>
       </c>
       <c r="F29">
         <f>VLOOKUP($A29,Table35[#All],6,TRUE)</f>
@@ -6387,7 +6526,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B30" t="str">
         <f>VLOOKUP($A30,Table35[#All],2,TRUE)</f>
@@ -6399,15 +6538,15 @@
       </c>
       <c r="D30">
         <f>VLOOKUP($A30,Table35[#All],4,TRUE)</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E30" t="str">
         <f>VLOOKUP($A30,Table35[#All],5,TRUE)</f>
-        <v>Integrate Weapons with bullets</v>
+        <v>Find/implement basic bullet asset</v>
       </c>
       <c r="F30">
         <f>VLOOKUP($A30,Table35[#All],6,TRUE)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G30" t="str">
         <f>VLOOKUP($F30,Table1[],2,TRUE)</f>
@@ -6419,16 +6558,16 @@
       </c>
       <c r="I30" t="str">
         <f>VLOOKUP($F30,Table1[],4,TRUE)</f>
-        <v>Weapons</v>
+        <v>Bullets</v>
       </c>
       <c r="J30" t="str">
         <f>VLOOKUP($F30,Table1[],5,TRUE)</f>
-        <v>Weapons may be data driven with Weapon visual, VFX, and SFX</v>
+        <v>Bullets may be data driven with damage, visuals, VFX, and SFX</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B31" t="str">
         <f>VLOOKUP($A31,Table35[#All],2,TRUE)</f>
@@ -6436,19 +6575,19 @@
       </c>
       <c r="C31">
         <f>VLOOKUP($A31,Table35[#All],3,TRUE)</f>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D31">
         <f>VLOOKUP($A31,Table35[#All],4,TRUE)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E31" t="str">
         <f>VLOOKUP($A31,Table35[#All],5,TRUE)</f>
-        <v>Integrate Weapon with actors</v>
+        <v>Create camera to follow player</v>
       </c>
       <c r="F31">
         <f>VLOOKUP($A31,Table35[#All],6,TRUE)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G31" t="str">
         <f>VLOOKUP($F31,Table1[],2,TRUE)</f>
@@ -6456,40 +6595,40 @@
       </c>
       <c r="H31" t="str">
         <f>VLOOKUP($F31,Table1[],3,TRUE)</f>
-        <v>Weapons</v>
+        <v>Camera</v>
       </c>
       <c r="I31" t="str">
         <f>VLOOKUP($F31,Table1[],4,TRUE)</f>
-        <v>Weapons</v>
+        <v>Top down camera</v>
       </c>
       <c r="J31" t="str">
         <f>VLOOKUP($F31,Table1[],5,TRUE)</f>
-        <v>Weapons may be data driven with Weapon visual, VFX, and SFX</v>
+        <v>Camera view is top down focusing on the player but is clamped to screen</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B32" t="str">
         <f>VLOOKUP($A32,Table35[#All],2,TRUE)</f>
-        <v>&lt;</v>
+        <v>X</v>
       </c>
       <c r="C32">
         <f>VLOOKUP($A32,Table35[#All],3,TRUE)</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D32">
         <f>VLOOKUP($A32,Table35[#All],4,TRUE)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E32" t="str">
         <f>VLOOKUP($A32,Table35[#All],5,TRUE)</f>
-        <v>Find/implement first 2 weapon assets (pistol/shotgun)</v>
+        <v>Clamp camera to map dimensions</v>
       </c>
       <c r="F32">
         <f>VLOOKUP($A32,Table35[#All],6,TRUE)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G32" t="str">
         <f>VLOOKUP($F32,Table1[],2,TRUE)</f>
@@ -6497,20 +6636,20 @@
       </c>
       <c r="H32" t="str">
         <f>VLOOKUP($F32,Table1[],3,TRUE)</f>
-        <v>Weapons</v>
+        <v>Camera</v>
       </c>
       <c r="I32" t="str">
         <f>VLOOKUP($F32,Table1[],4,TRUE)</f>
-        <v>Weapons</v>
+        <v>Top down camera</v>
       </c>
       <c r="J32" t="str">
         <f>VLOOKUP($F32,Table1[],5,TRUE)</f>
-        <v>Weapons may be data driven with Weapon visual, VFX, and SFX</v>
+        <v>Camera view is top down focusing on the player but is clamped to screen</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B33" t="str">
         <f>VLOOKUP($A33,Table35[#All],2,TRUE)</f>
@@ -6526,11 +6665,11 @@
       </c>
       <c r="E33" t="str">
         <f>VLOOKUP($A33,Table35[#All],5,TRUE)</f>
-        <v>Implement bullet collisions</v>
+        <v>Implement Actor physics with collisions of enemies and obstacles</v>
       </c>
       <c r="F33">
         <f>VLOOKUP($A33,Table35[#All],6,TRUE)</f>
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G33" t="str">
         <f>VLOOKUP($F33,Table1[],2,TRUE)</f>
@@ -6538,20 +6677,20 @@
       </c>
       <c r="H33" t="str">
         <f>VLOOKUP($F33,Table1[],3,TRUE)</f>
-        <v>Weapons</v>
+        <v>Actors</v>
       </c>
       <c r="I33" t="str">
         <f>VLOOKUP($F33,Table1[],4,TRUE)</f>
-        <v>Bullets</v>
+        <v>Physics</v>
       </c>
       <c r="J33" t="str">
         <f>VLOOKUP($F33,Table1[],5,TRUE)</f>
-        <v>Bullets may be data driven with damage, visuals, VFX, and SFX</v>
+        <v>Physics like actor radius is data driven and says what the actor will collide with</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B34" t="str">
         <f>VLOOKUP($A34,Table35[#All],2,TRUE)</f>
@@ -6563,15 +6702,15 @@
       </c>
       <c r="D34">
         <f>VLOOKUP($A34,Table35[#All],4,TRUE)</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E34" t="str">
         <f>VLOOKUP($A34,Table35[#All],5,TRUE)</f>
-        <v>Find/implement basic bullet asset</v>
+        <v>Have weapons face actor direction moving in a circular motion around player radius</v>
       </c>
       <c r="F34">
         <f>VLOOKUP($A34,Table35[#All],6,TRUE)</f>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G34" t="str">
         <f>VLOOKUP($F34,Table1[],2,TRUE)</f>
@@ -6579,20 +6718,20 @@
       </c>
       <c r="H34" t="str">
         <f>VLOOKUP($F34,Table1[],3,TRUE)</f>
-        <v>Weapons</v>
+        <v>Actors</v>
       </c>
       <c r="I34" t="str">
         <f>VLOOKUP($F34,Table1[],4,TRUE)</f>
-        <v>Bullets</v>
+        <v>Weapons</v>
       </c>
       <c r="J34" t="str">
         <f>VLOOKUP($F34,Table1[],5,TRUE)</f>
-        <v>Bullets may be data driven with damage, visuals, VFX, and SFX</v>
+        <v>Game keeps track of current weapon and uses the weapon definitions to know the stats</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B35" t="str">
         <f>VLOOKUP($A35,Table35[#All],2,TRUE)</f>
@@ -6604,15 +6743,15 @@
       </c>
       <c r="D35">
         <f>VLOOKUP($A35,Table35[#All],4,TRUE)</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E35" t="str">
         <f>VLOOKUP($A35,Table35[#All],5,TRUE)</f>
-        <v>Create camera to follow player</v>
+        <v>Have weapons behind player at top of screen and in front of player at bottom of screen</v>
       </c>
       <c r="F35">
         <f>VLOOKUP($A35,Table35[#All],6,TRUE)</f>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="G35" t="str">
         <f>VLOOKUP($F35,Table1[],2,TRUE)</f>
@@ -6620,20 +6759,20 @@
       </c>
       <c r="H35" t="str">
         <f>VLOOKUP($F35,Table1[],3,TRUE)</f>
-        <v>Camera</v>
+        <v>Actors</v>
       </c>
       <c r="I35" t="str">
         <f>VLOOKUP($F35,Table1[],4,TRUE)</f>
-        <v>Top down camera</v>
+        <v>Weapons</v>
       </c>
       <c r="J35" t="str">
         <f>VLOOKUP($F35,Table1[],5,TRUE)</f>
-        <v>Camera view is top down focusing on the player but is clamped to screen</v>
+        <v>Game keeps track of current weapon and uses the weapon definitions to know the stats</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="B36" t="str">
         <f>VLOOKUP($A36,Table35[#All],2,TRUE)</f>
@@ -6641,19 +6780,19 @@
       </c>
       <c r="C36">
         <f>VLOOKUP($A36,Table35[#All],3,TRUE)</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D36">
         <f>VLOOKUP($A36,Table35[#All],4,TRUE)</f>
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E36" t="str">
         <f>VLOOKUP($A36,Table35[#All],5,TRUE)</f>
-        <v>Clamp camera to map dimensions</v>
+        <v>Add movement controls (WASD)</v>
       </c>
       <c r="F36">
         <f>VLOOKUP($A36,Table35[#All],6,TRUE)</f>
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="G36" t="str">
         <f>VLOOKUP($F36,Table1[],2,TRUE)</f>
@@ -6661,20 +6800,20 @@
       </c>
       <c r="H36" t="str">
         <f>VLOOKUP($F36,Table1[],3,TRUE)</f>
-        <v>Camera</v>
+        <v>Player Controller</v>
       </c>
       <c r="I36" t="str">
         <f>VLOOKUP($F36,Table1[],4,TRUE)</f>
-        <v>Top down camera</v>
+        <v>Movement</v>
       </c>
       <c r="J36" t="str">
         <f>VLOOKUP($F36,Table1[],5,TRUE)</f>
-        <v>Camera view is top down focusing on the player but is clamped to screen</v>
+        <v>Player moves with WASD or controller left joystick</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B37" t="str">
         <f>VLOOKUP($A37,Table35[#All],2,TRUE)</f>
@@ -6686,15 +6825,15 @@
       </c>
       <c r="D37">
         <f>VLOOKUP($A37,Table35[#All],4,TRUE)</f>
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="E37" t="str">
         <f>VLOOKUP($A37,Table35[#All],5,TRUE)</f>
-        <v>Implement Actor physics with collisions of enemies and obstacles</v>
+        <v>Add shooting controls (LMB)</v>
       </c>
       <c r="F37">
         <f>VLOOKUP($A37,Table35[#All],6,TRUE)</f>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G37" t="str">
         <f>VLOOKUP($F37,Table1[],2,TRUE)</f>
@@ -6702,20 +6841,20 @@
       </c>
       <c r="H37" t="str">
         <f>VLOOKUP($F37,Table1[],3,TRUE)</f>
-        <v>Actors</v>
+        <v>Player Controller</v>
       </c>
       <c r="I37" t="str">
         <f>VLOOKUP($F37,Table1[],4,TRUE)</f>
-        <v>Physics</v>
+        <v>Shooting</v>
       </c>
       <c r="J37" t="str">
         <f>VLOOKUP($F37,Table1[],5,TRUE)</f>
-        <v>Physics like actor radius is data driven and says what the actor will collide with</v>
+        <v>Player shoots with left mouse button or controller right button</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B38" t="str">
         <f>VLOOKUP($A38,Table35[#All],2,TRUE)</f>
@@ -6727,15 +6866,15 @@
       </c>
       <c r="D38">
         <f>VLOOKUP($A38,Table35[#All],4,TRUE)</f>
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="E38" t="str">
         <f>VLOOKUP($A38,Table35[#All],5,TRUE)</f>
-        <v>Have weapons face actor direction moving in a circular motion around player radius</v>
+        <v>Add aiming controls (Mouse)</v>
       </c>
       <c r="F38">
         <f>VLOOKUP($A38,Table35[#All],6,TRUE)</f>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G38" t="str">
         <f>VLOOKUP($F38,Table1[],2,TRUE)</f>
@@ -6743,20 +6882,20 @@
       </c>
       <c r="H38" t="str">
         <f>VLOOKUP($F38,Table1[],3,TRUE)</f>
-        <v>Actors</v>
+        <v>Player Controller</v>
       </c>
       <c r="I38" t="str">
         <f>VLOOKUP($F38,Table1[],4,TRUE)</f>
-        <v>Weapons</v>
+        <v>Aiming</v>
       </c>
       <c r="J38" t="str">
         <f>VLOOKUP($F38,Table1[],5,TRUE)</f>
-        <v>Game keeps track of current weapon and uses the weapon definitions to know the stats</v>
+        <v>Player aims with mouse or controller right joystick</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B39" t="str">
         <f>VLOOKUP($A39,Table35[#All],2,TRUE)</f>
@@ -6764,7 +6903,7 @@
       </c>
       <c r="C39">
         <f>VLOOKUP($A39,Table35[#All],3,TRUE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D39">
         <f>VLOOKUP($A39,Table35[#All],4,TRUE)</f>
@@ -6772,11 +6911,11 @@
       </c>
       <c r="E39" t="str">
         <f>VLOOKUP($A39,Table35[#All],5,TRUE)</f>
-        <v>Have weapons behind player at top of screen and in front of player at bottom of screen</v>
+        <v>Create simple enemy controller to run at player and shoot</v>
       </c>
       <c r="F39">
         <f>VLOOKUP($A39,Table35[#All],6,TRUE)</f>
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G39" t="str">
         <f>VLOOKUP($F39,Table1[],2,TRUE)</f>
@@ -6784,20 +6923,20 @@
       </c>
       <c r="H39" t="str">
         <f>VLOOKUP($F39,Table1[],3,TRUE)</f>
-        <v>Actors</v>
+        <v>Enemy Controller</v>
       </c>
       <c r="I39" t="str">
         <f>VLOOKUP($F39,Table1[],4,TRUE)</f>
-        <v>Weapons</v>
+        <v>Enemy AI Controller</v>
       </c>
       <c r="J39" t="str">
         <f>VLOOKUP($F39,Table1[],5,TRUE)</f>
-        <v>Game keeps track of current weapon and uses the weapon definitions to know the stats</v>
+        <v>Enemies have a data driven controller where they will wander until the player is spotted before chasing and shooting</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="B40" t="str">
         <f>VLOOKUP($A40,Table35[#All],2,TRUE)</f>
@@ -6805,19 +6944,19 @@
       </c>
       <c r="C40">
         <f>VLOOKUP($A40,Table35[#All],3,TRUE)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D40">
         <f>VLOOKUP($A40,Table35[#All],4,TRUE)</f>
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="E40" t="str">
         <f>VLOOKUP($A40,Table35[#All],5,TRUE)</f>
-        <v>Add movement controls (WASD)</v>
+        <v>Integrate map with actors and check collisions</v>
       </c>
       <c r="F40">
         <f>VLOOKUP($A40,Table35[#All],6,TRUE)</f>
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="G40" t="str">
         <f>VLOOKUP($F40,Table1[],2,TRUE)</f>
@@ -6825,353 +6964,1325 @@
       </c>
       <c r="H40" t="str">
         <f>VLOOKUP($F40,Table1[],3,TRUE)</f>
-        <v>Player Controller</v>
+        <v>Map</v>
       </c>
       <c r="I40" t="str">
         <f>VLOOKUP($F40,Table1[],4,TRUE)</f>
-        <v>Movement</v>
+        <v>Map makeup</v>
       </c>
       <c r="J40" t="str">
         <f>VLOOKUP($F40,Table1[],5,TRUE)</f>
-        <v>Player moves with WASD or controller left joystick</v>
+        <v>Maps are tile based with tile definitions determining what/who they block or not block</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>38</v>
-      </c>
-      <c r="B41" t="str">
-        <f>VLOOKUP($A41,Table35[#All],2,TRUE)</f>
-        <v>X</v>
-      </c>
       <c r="C41">
-        <f>VLOOKUP($A41,Table35[#All],3,TRUE)</f>
-        <v>1</v>
+        <f>SUM(Table356[Estimate])</f>
+        <v>32.5</v>
       </c>
       <c r="D41">
-        <f>VLOOKUP($A41,Table35[#All],4,TRUE)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E41" t="str">
-        <f>VLOOKUP($A41,Table35[#All],5,TRUE)</f>
-        <v>Add shooting controls (LMB)</v>
-      </c>
-      <c r="F41">
-        <f>VLOOKUP($A41,Table35[#All],6,TRUE)</f>
-        <v>22</v>
-      </c>
-      <c r="G41" t="str">
-        <f>VLOOKUP($F41,Table1[],2,TRUE)</f>
-        <v>Game</v>
-      </c>
-      <c r="H41" t="str">
-        <f>VLOOKUP($F41,Table1[],3,TRUE)</f>
-        <v>Player Controller</v>
-      </c>
-      <c r="I41" t="str">
-        <f>VLOOKUP($F41,Table1[],4,TRUE)</f>
-        <v>Shooting</v>
-      </c>
-      <c r="J41" t="str">
-        <f>VLOOKUP($F41,Table1[],5,TRUE)</f>
-        <v>Player shoots with left mouse button or controller right button</v>
+        <f>SUM(Table356[Actual])</f>
+        <v>28.25</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>39</v>
-      </c>
-      <c r="B42" t="str">
-        <f>VLOOKUP($A42,Table35[#All],2,TRUE)</f>
-        <v>X</v>
+      <c r="B42" t="s">
+        <v>205</v>
       </c>
       <c r="C42">
-        <f>VLOOKUP($A42,Table35[#All],3,TRUE)</f>
-        <v>1</v>
-      </c>
-      <c r="D42">
-        <f>VLOOKUP($A42,Table35[#All],4,TRUE)</f>
-        <v>0.25</v>
-      </c>
-      <c r="E42" t="str">
-        <f>VLOOKUP($A42,Table35[#All],5,TRUE)</f>
-        <v>Add aiming controls (Mouse)</v>
-      </c>
-      <c r="F42">
-        <f>VLOOKUP($A42,Table35[#All],6,TRUE)</f>
-        <v>23</v>
-      </c>
-      <c r="G42" t="str">
-        <f>VLOOKUP($F42,Table1[],2,TRUE)</f>
-        <v>Game</v>
-      </c>
-      <c r="H42" t="str">
-        <f>VLOOKUP($F42,Table1[],3,TRUE)</f>
-        <v>Player Controller</v>
-      </c>
-      <c r="I42" t="str">
-        <f>VLOOKUP($F42,Table1[],4,TRUE)</f>
-        <v>Aiming</v>
-      </c>
-      <c r="J42" t="str">
-        <f>VLOOKUP($F42,Table1[],5,TRUE)</f>
-        <v>Player aims with mouse or controller right joystick</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>44</v>
-      </c>
-      <c r="B43" t="str">
-        <f>VLOOKUP($A43,Table35[#All],2,TRUE)</f>
-        <v>X</v>
+      <c r="B43" t="s">
+        <v>206</v>
       </c>
       <c r="C43">
-        <f>VLOOKUP($A43,Table35[#All],3,TRUE)</f>
-        <v>2</v>
-      </c>
-      <c r="D43">
-        <f>VLOOKUP($A43,Table35[#All],4,TRUE)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E43" t="str">
-        <f>VLOOKUP($A43,Table35[#All],5,TRUE)</f>
-        <v>Create simple enemy controller to run at player and shoot</v>
-      </c>
-      <c r="F43">
-        <f>VLOOKUP($A43,Table35[#All],6,TRUE)</f>
-        <v>28</v>
-      </c>
-      <c r="G43" t="str">
-        <f>VLOOKUP($F43,Table1[],2,TRUE)</f>
-        <v>Game</v>
-      </c>
-      <c r="H43" t="str">
-        <f>VLOOKUP($F43,Table1[],3,TRUE)</f>
-        <v>Enemy Controller</v>
-      </c>
-      <c r="I43" t="str">
-        <f>VLOOKUP($F43,Table1[],4,TRUE)</f>
-        <v>Enemy AI Controller</v>
-      </c>
-      <c r="J43" t="str">
-        <f>VLOOKUP($F43,Table1[],5,TRUE)</f>
-        <v>Enemies have a data driven controller where they will wander until the player is spotted before chasing and shooting</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>54</v>
-      </c>
-      <c r="B44" t="str">
-        <f>VLOOKUP($A44,Table35[#All],2,TRUE)</f>
-        <v>X</v>
+      <c r="B44" t="s">
+        <v>218</v>
       </c>
       <c r="C44">
-        <f>VLOOKUP($A44,Table35[#All],3,TRUE)</f>
-        <v>5</v>
-      </c>
-      <c r="D44">
-        <f>VLOOKUP($A44,Table35[#All],4,TRUE)</f>
-        <v>2.5</v>
-      </c>
-      <c r="E44" t="str">
-        <f>VLOOKUP($A44,Table35[#All],5,TRUE)</f>
-        <v>Integrate map with actors and check collisions</v>
-      </c>
-      <c r="F44">
-        <f>VLOOKUP($A44,Table35[#All],6,TRUE)</f>
-        <v>33</v>
-      </c>
-      <c r="G44" t="str">
-        <f>VLOOKUP($F44,Table1[],2,TRUE)</f>
-        <v>Game</v>
-      </c>
-      <c r="H44" t="str">
-        <f>VLOOKUP($F44,Table1[],3,TRUE)</f>
-        <v>Map</v>
-      </c>
-      <c r="I44" t="str">
-        <f>VLOOKUP($F44,Table1[],4,TRUE)</f>
-        <v>Map makeup</v>
-      </c>
-      <c r="J44" t="str">
-        <f>VLOOKUP($F44,Table1[],5,TRUE)</f>
-        <v>Maps are tile based with tile definitions determining what/who they block or not block</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>219</v>
+      </c>
       <c r="C45">
-        <f>SUM(Table356[Estimate])</f>
-        <v>37.5</v>
-      </c>
-      <c r="D45">
-        <f>SUM(Table356[Actual])</f>
-        <v>32.75</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="C46">
-        <v>25.5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>210</v>
-      </c>
-      <c r="C47">
-        <v>32.5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>8</v>
+      </c>
+      <c r="B49" t="str">
+        <f>VLOOKUP($A49,Table35[#All],2,TRUE)</f>
+        <v>&lt;</v>
+      </c>
+      <c r="C49">
+        <f>VLOOKUP($A49,Table35[#All],3,TRUE)</f>
+        <v>1.5</v>
+      </c>
+      <c r="D49">
+        <f>VLOOKUP($A49,Table35[#All],4,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="E49" t="str">
+        <f>VLOOKUP($A49,Table35[#All],5,TRUE)</f>
+        <v>Create Weapon Definition</v>
+      </c>
+      <c r="F49">
+        <f>VLOOKUP($A49,Table35[#All],6,TRUE)</f>
+        <v>7</v>
+      </c>
+      <c r="G49" t="str">
+        <f>VLOOKUP($F49,Table1[],2,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="H49" t="str">
+        <f>VLOOKUP($F49,Table1[],3,TRUE)</f>
+        <v>Weapons</v>
+      </c>
+      <c r="I49" t="str">
+        <f>VLOOKUP($F49,Table1[],4,TRUE)</f>
+        <v>Weapons</v>
+      </c>
+      <c r="J49" t="str">
+        <f>VLOOKUP($F49,Table1[],5,TRUE)</f>
+        <v>Weapons may be data driven with Weapon visual, VFX, and SFX</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>9</v>
+      </c>
+      <c r="B50" t="str">
+        <f>VLOOKUP($A50,Table35[#All],2,TRUE)</f>
+        <v>&lt;</v>
+      </c>
+      <c r="C50">
+        <f>VLOOKUP($A50,Table35[#All],3,TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <f>VLOOKUP($A50,Table35[#All],4,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="E50" t="str">
+        <f>VLOOKUP($A50,Table35[#All],5,TRUE)</f>
+        <v>Implement shooting using weapon definition</v>
+      </c>
+      <c r="F50">
+        <f>VLOOKUP($A50,Table35[#All],6,TRUE)</f>
+        <v>7</v>
+      </c>
+      <c r="G50" t="str">
+        <f>VLOOKUP($F50,Table1[],2,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="H50" t="str">
+        <f>VLOOKUP($F50,Table1[],3,TRUE)</f>
+        <v>Weapons</v>
+      </c>
+      <c r="I50" t="str">
+        <f>VLOOKUP($F50,Table1[],4,TRUE)</f>
+        <v>Weapons</v>
+      </c>
+      <c r="J50" t="str">
+        <f>VLOOKUP($F50,Table1[],5,TRUE)</f>
+        <v>Weapons may be data driven with Weapon visual, VFX, and SFX</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>17</v>
+      </c>
+      <c r="B51" t="str">
+        <f>VLOOKUP($A51,Table35[#All],2,TRUE)</f>
+        <v>&lt;</v>
+      </c>
+      <c r="C51">
+        <f>VLOOKUP($A51,Table35[#All],3,TRUE)</f>
+        <v>1.5</v>
+      </c>
+      <c r="D51">
+        <f>VLOOKUP($A51,Table35[#All],4,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="E51" t="str">
+        <f>VLOOKUP($A51,Table35[#All],5,TRUE)</f>
+        <v>Create Bullet Definition</v>
+      </c>
+      <c r="F51">
+        <f>VLOOKUP($A51,Table35[#All],6,TRUE)</f>
+        <v>8</v>
+      </c>
+      <c r="G51" t="str">
+        <f>VLOOKUP($F51,Table1[],2,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="H51" t="str">
+        <f>VLOOKUP($F51,Table1[],3,TRUE)</f>
+        <v>Weapons</v>
+      </c>
+      <c r="I51" t="str">
+        <f>VLOOKUP($F51,Table1[],4,TRUE)</f>
+        <v>Bullets</v>
+      </c>
+      <c r="J51" t="str">
+        <f>VLOOKUP($F51,Table1[],5,TRUE)</f>
+        <v>Bullets may be data driven with damage, visuals, VFX, and SFX</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>13</v>
+      </c>
+      <c r="B52" t="str">
+        <f>VLOOKUP($A52,Table35[#All],2,TRUE)</f>
+        <v>&lt;</v>
+      </c>
+      <c r="C52">
+        <f>VLOOKUP($A52,Table35[#All],3,TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <f>VLOOKUP($A52,Table35[#All],4,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="E52" t="str">
+        <f>VLOOKUP($A52,Table35[#All],5,TRUE)</f>
+        <v>Find/implement first 2 weapon assets (pistol/shotgun)</v>
+      </c>
+      <c r="F52">
+        <f>VLOOKUP($A52,Table35[#All],6,TRUE)</f>
+        <v>7</v>
+      </c>
+      <c r="G52" t="str">
+        <f>VLOOKUP($F52,Table1[],2,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="H52" t="str">
+        <f>VLOOKUP($F52,Table1[],3,TRUE)</f>
+        <v>Weapons</v>
+      </c>
+      <c r="I52" t="str">
+        <f>VLOOKUP($F52,Table1[],4,TRUE)</f>
+        <v>Weapons</v>
+      </c>
+      <c r="J52" t="str">
+        <f>VLOOKUP($F52,Table1[],5,TRUE)</f>
+        <v>Weapons may be data driven with Weapon visual, VFX, and SFX</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>33</v>
+      </c>
+      <c r="B53" t="str">
+        <f>VLOOKUP($A53,Table35[#All],2,TRUE)</f>
+        <v>D</v>
+      </c>
+      <c r="C53">
+        <f>VLOOKUP($A53,Table35[#All],3,TRUE)</f>
+        <v>1.5</v>
+      </c>
+      <c r="D53">
+        <f>VLOOKUP($A53,Table35[#All],4,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="E53" t="str">
+        <f>VLOOKUP($A53,Table35[#All],5,TRUE)</f>
+        <v>Implement Actor Definition (Done in Testgame2D base)</v>
+      </c>
+      <c r="F53">
+        <f>VLOOKUP($A53,Table35[#All],6,TRUE)</f>
+        <v>19</v>
+      </c>
+      <c r="G53" t="str">
+        <f>VLOOKUP($F53,Table1[],2,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="H53" t="str">
+        <f>VLOOKUP($F53,Table1[],3,TRUE)</f>
+        <v>Actors</v>
+      </c>
+      <c r="I53" t="str">
+        <f>VLOOKUP($F53,Table1[],4,TRUE)</f>
+        <v>Model/animations</v>
+      </c>
+      <c r="J53" t="str">
+        <f>VLOOKUP($F53,Table1[],5,TRUE)</f>
+        <v>Actors model and animations are data driven with walking and death</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B49" s="10">
+      <c r="B55" s="10">
         <v>44011</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>119</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B56" t="s">
         <v>121</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C56" t="s">
         <v>122</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D56" t="s">
         <v>123</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E56" t="s">
         <v>120</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F56" t="s">
         <v>92</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G56" t="s">
         <v>14</v>
       </c>
-      <c r="H50" t="s">
+      <c r="H56" t="s">
         <v>6</v>
       </c>
-      <c r="I50" t="s">
+      <c r="I56" t="s">
         <v>15</v>
       </c>
-      <c r="J50" t="s">
+      <c r="J56" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C52">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>8</v>
+      </c>
+      <c r="B57" t="str">
+        <f>VLOOKUP($A57,Table35[#All],2,TRUE)</f>
+        <v>&lt;</v>
+      </c>
+      <c r="C57">
+        <f>VLOOKUP($A57,Table35[#All],3,TRUE)</f>
+        <v>1.5</v>
+      </c>
+      <c r="D57">
+        <f>VLOOKUP($A57,Table35[#All],4,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="E57" t="str">
+        <f>VLOOKUP($A57,Table35[#All],5,TRUE)</f>
+        <v>Create Weapon Definition</v>
+      </c>
+      <c r="F57">
+        <f>VLOOKUP($A57,Table35[#All],6,TRUE)</f>
+        <v>7</v>
+      </c>
+      <c r="G57" t="str">
+        <f>VLOOKUP($F57,Table1[],2,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="H57" t="str">
+        <f>VLOOKUP($F57,Table1[],3,TRUE)</f>
+        <v>Weapons</v>
+      </c>
+      <c r="I57" t="str">
+        <f>VLOOKUP($F57,Table1[],4,TRUE)</f>
+        <v>Weapons</v>
+      </c>
+      <c r="J57" t="str">
+        <f>VLOOKUP($F57,Table1[],5,TRUE)</f>
+        <v>Weapons may be data driven with Weapon visual, VFX, and SFX</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>9</v>
+      </c>
+      <c r="B58" t="str">
+        <f>VLOOKUP($A58,Table35[#All],2,TRUE)</f>
+        <v>&lt;</v>
+      </c>
+      <c r="C58">
+        <f>VLOOKUP($A58,Table35[#All],3,TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <f>VLOOKUP($A58,Table35[#All],4,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="E58" t="str">
+        <f>VLOOKUP($A58,Table35[#All],5,TRUE)</f>
+        <v>Implement shooting using weapon definition</v>
+      </c>
+      <c r="F58">
+        <f>VLOOKUP($A58,Table35[#All],6,TRUE)</f>
+        <v>7</v>
+      </c>
+      <c r="G58" t="str">
+        <f>VLOOKUP($F58,Table1[],2,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="H58" t="str">
+        <f>VLOOKUP($F58,Table1[],3,TRUE)</f>
+        <v>Weapons</v>
+      </c>
+      <c r="I58" t="str">
+        <f>VLOOKUP($F58,Table1[],4,TRUE)</f>
+        <v>Weapons</v>
+      </c>
+      <c r="J58" t="str">
+        <f>VLOOKUP($F58,Table1[],5,TRUE)</f>
+        <v>Weapons may be data driven with Weapon visual, VFX, and SFX</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>13</v>
+      </c>
+      <c r="B59" t="str">
+        <f>VLOOKUP($A59,Table35[#All],2,TRUE)</f>
+        <v>&lt;</v>
+      </c>
+      <c r="C59">
+        <f>VLOOKUP($A59,Table35[#All],3,TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <f>VLOOKUP($A59,Table35[#All],4,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="E59" t="str">
+        <f>VLOOKUP($A59,Table35[#All],5,TRUE)</f>
+        <v>Find/implement first 2 weapon assets (pistol/shotgun)</v>
+      </c>
+      <c r="F59">
+        <f>VLOOKUP($A59,Table35[#All],6,TRUE)</f>
+        <v>7</v>
+      </c>
+      <c r="G59" t="str">
+        <f>VLOOKUP($F59,Table1[],2,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="H59" t="str">
+        <f>VLOOKUP($F59,Table1[],3,TRUE)</f>
+        <v>Weapons</v>
+      </c>
+      <c r="I59" t="str">
+        <f>VLOOKUP($F59,Table1[],4,TRUE)</f>
+        <v>Weapons</v>
+      </c>
+      <c r="J59" t="str">
+        <f>VLOOKUP($F59,Table1[],5,TRUE)</f>
+        <v>Weapons may be data driven with Weapon visual, VFX, and SFX</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>17</v>
+      </c>
+      <c r="B60" t="str">
+        <f>VLOOKUP($A60,Table35[#All],2,TRUE)</f>
+        <v>&lt;</v>
+      </c>
+      <c r="C60">
+        <f>VLOOKUP($A60,Table35[#All],3,TRUE)</f>
+        <v>1.5</v>
+      </c>
+      <c r="D60">
+        <f>VLOOKUP($A60,Table35[#All],4,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="E60" t="str">
+        <f>VLOOKUP($A60,Table35[#All],5,TRUE)</f>
+        <v>Create Bullet Definition</v>
+      </c>
+      <c r="F60">
+        <f>VLOOKUP($A60,Table35[#All],6,TRUE)</f>
+        <v>8</v>
+      </c>
+      <c r="G60" t="str">
+        <f>VLOOKUP($F60,Table1[],2,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="H60" t="str">
+        <f>VLOOKUP($F60,Table1[],3,TRUE)</f>
+        <v>Weapons</v>
+      </c>
+      <c r="I60" t="str">
+        <f>VLOOKUP($F60,Table1[],4,TRUE)</f>
+        <v>Bullets</v>
+      </c>
+      <c r="J60" t="str">
+        <f>VLOOKUP($F60,Table1[],5,TRUE)</f>
+        <v>Bullets may be data driven with damage, visuals, VFX, and SFX</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>23</v>
+      </c>
+      <c r="B61">
+        <f>VLOOKUP($A61,Table35[#All],2,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <f>VLOOKUP($A61,Table35[#All],3,TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <f>VLOOKUP($A61,Table35[#All],4,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="E61" t="str">
+        <f>VLOOKUP($A61,Table35[#All],5,TRUE)</f>
+        <v>Implement screen shake</v>
+      </c>
+      <c r="F61">
+        <f>VLOOKUP($A61,Table35[#All],6,TRUE)</f>
+        <v>10</v>
+      </c>
+      <c r="G61" t="str">
+        <f>VLOOKUP($F61,Table1[],2,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="H61" t="str">
+        <f>VLOOKUP($F61,Table1[],3,TRUE)</f>
+        <v>Camera</v>
+      </c>
+      <c r="I61" t="str">
+        <f>VLOOKUP($F61,Table1[],4,TRUE)</f>
+        <v>Screen shake</v>
+      </c>
+      <c r="J61" t="str">
+        <f>VLOOKUP($F61,Table1[],5,TRUE)</f>
+        <v>Camera has screen shaking for for big damage taken</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>25</v>
+      </c>
+      <c r="B62">
+        <f>VLOOKUP($A62,Table35[#All],2,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <f>VLOOKUP($A62,Table35[#All],3,TRUE)</f>
+        <v>2</v>
+      </c>
+      <c r="D62">
+        <f>VLOOKUP($A62,Table35[#All],4,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="E62" t="str">
+        <f>VLOOKUP($A62,Table35[#All],5,TRUE)</f>
+        <v>Implement pause menu audio controls</v>
+      </c>
+      <c r="F62">
+        <f>VLOOKUP($A62,Table35[#All],6,TRUE)</f>
+        <v>12</v>
+      </c>
+      <c r="G62" t="str">
+        <f>VLOOKUP($F62,Table1[],2,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="H62" t="str">
+        <f>VLOOKUP($F62,Table1[],3,TRUE)</f>
+        <v>UI</v>
+      </c>
+      <c r="I62" t="str">
+        <f>VLOOKUP($F62,Table1[],4,TRUE)</f>
+        <v>Pause Menu Audio controls</v>
+      </c>
+      <c r="J62" t="str">
+        <f>VLOOKUP($F62,Table1[],5,TRUE)</f>
+        <v>Lowering and raising of the audio can be done through pause menu</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>26</v>
+      </c>
+      <c r="B63">
+        <f>VLOOKUP($A63,Table35[#All],2,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <f>VLOOKUP($A63,Table35[#All],3,TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <f>VLOOKUP($A63,Table35[#All],4,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="E63" t="str">
+        <f>VLOOKUP($A63,Table35[#All],5,TRUE)</f>
+        <v>Implement a HUD that shows health, ammo, and current weapon</v>
+      </c>
+      <c r="F63">
+        <f>VLOOKUP($A63,Table35[#All],6,TRUE)</f>
+        <v>13</v>
+      </c>
+      <c r="G63" t="str">
+        <f>VLOOKUP($F63,Table1[],2,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="H63" t="str">
+        <f>VLOOKUP($F63,Table1[],3,TRUE)</f>
+        <v>UI</v>
+      </c>
+      <c r="I63" t="str">
+        <f>VLOOKUP($F63,Table1[],4,TRUE)</f>
+        <v>HUD</v>
+      </c>
+      <c r="J63" t="str">
+        <f>VLOOKUP($F63,Table1[],5,TRUE)</f>
+        <v>There is a HUD that shows health, ammo, and current weapon</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>40</v>
+      </c>
+      <c r="B64">
+        <f>VLOOKUP($A64,Table35[#All],2,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <f>VLOOKUP($A64,Table35[#All],3,TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <f>VLOOKUP($A64,Table35[#All],4,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="E64" t="str">
+        <f>VLOOKUP($A64,Table35[#All],5,TRUE)</f>
+        <v>Add dodging to controller class</v>
+      </c>
+      <c r="F64">
+        <f>VLOOKUP($A64,Table35[#All],6,TRUE)</f>
+        <v>24</v>
+      </c>
+      <c r="G64" t="str">
+        <f>VLOOKUP($F64,Table1[],2,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="H64" t="str">
+        <f>VLOOKUP($F64,Table1[],3,TRUE)</f>
+        <v>Player Controller</v>
+      </c>
+      <c r="I64" t="str">
+        <f>VLOOKUP($F64,Table1[],4,TRUE)</f>
+        <v>Dodging</v>
+      </c>
+      <c r="J64" t="str">
+        <f>VLOOKUP($F64,Table1[],5,TRUE)</f>
+        <v>Player can dodge with space key or controller B button</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>41</v>
+      </c>
+      <c r="B65">
+        <f>VLOOKUP($A65,Table35[#All],2,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <f>VLOOKUP($A65,Table35[#All],3,TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <f>VLOOKUP($A65,Table35[#All],4,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="E65" t="str">
+        <f>VLOOKUP($A65,Table35[#All],5,TRUE)</f>
+        <v>Add changing weapons to controller class</v>
+      </c>
+      <c r="F65">
+        <f>VLOOKUP($A65,Table35[#All],6,TRUE)</f>
+        <v>25</v>
+      </c>
+      <c r="G65" t="str">
+        <f>VLOOKUP($F65,Table1[],2,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="H65" t="str">
+        <f>VLOOKUP($F65,Table1[],3,TRUE)</f>
+        <v>Player Controller</v>
+      </c>
+      <c r="I65" t="str">
+        <f>VLOOKUP($F65,Table1[],4,TRUE)</f>
+        <v>Changing weapons</v>
+      </c>
+      <c r="J65" t="str">
+        <f>VLOOKUP($F65,Table1[],5,TRUE)</f>
+        <v>Player can change weapons with Q/E keys or controller Y button</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>42</v>
+      </c>
+      <c r="B66">
+        <f>VLOOKUP($A66,Table35[#All],2,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <f>VLOOKUP($A66,Table35[#All],3,TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <f>VLOOKUP($A66,Table35[#All],4,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="E66" t="str">
+        <f>VLOOKUP($A66,Table35[#All],5,TRUE)</f>
+        <v>Add interacting/picking up loot to controller</v>
+      </c>
+      <c r="F66">
+        <f>VLOOKUP($A66,Table35[#All],6,TRUE)</f>
+        <v>26</v>
+      </c>
+      <c r="G66" t="str">
+        <f>VLOOKUP($F66,Table1[],2,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="H66" t="str">
+        <f>VLOOKUP($F66,Table1[],3,TRUE)</f>
+        <v>Player Controller</v>
+      </c>
+      <c r="I66" t="str">
+        <f>VLOOKUP($F66,Table1[],4,TRUE)</f>
+        <v>Interact/pick up loot</v>
+      </c>
+      <c r="J66" t="str">
+        <f>VLOOKUP($F66,Table1[],5,TRUE)</f>
+        <v>Player can pick up weapons/interact with F key or controller A button</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>50</v>
+      </c>
+      <c r="B67">
+        <f>VLOOKUP($A67,Table35[#All],2,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <f>VLOOKUP($A67,Table35[#All],3,TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <f>VLOOKUP($A67,Table35[#All],4,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="E67" t="str">
+        <f>VLOOKUP($A67,Table35[#All],5,TRUE)</f>
+        <v>Build Datadriven map from image file</v>
+      </c>
+      <c r="F67">
+        <f>VLOOKUP($A67,Table35[#All],6,TRUE)</f>
+        <v>31</v>
+      </c>
+      <c r="G67" t="str">
+        <f>VLOOKUP($F67,Table1[],2,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="H67" t="str">
+        <f>VLOOKUP($F67,Table1[],3,TRUE)</f>
+        <v>Map</v>
+      </c>
+      <c r="I67" t="str">
+        <f>VLOOKUP($F67,Table1[],4,TRUE)</f>
+        <v>Map editor</v>
+      </c>
+      <c r="J67" t="str">
+        <f>VLOOKUP($F67,Table1[],5,TRUE)</f>
+        <v>Maps are data driven and use an image with pixels determining what's on the terrain</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>51</v>
+      </c>
+      <c r="B68">
+        <f>VLOOKUP($A68,Table35[#All],2,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <f>VLOOKUP($A68,Table35[#All],3,TRUE)</f>
+        <v>2</v>
+      </c>
+      <c r="D68">
+        <f>VLOOKUP($A68,Table35[#All],4,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="E68" t="str">
+        <f>VLOOKUP($A68,Table35[#All],5,TRUE)</f>
+        <v>Implement room locking and enemy spawning in locked rooms</v>
+      </c>
+      <c r="F68">
+        <f>VLOOKUP($A68,Table35[#All],6,TRUE)</f>
+        <v>32</v>
+      </c>
+      <c r="G68" t="str">
+        <f>VLOOKUP($F68,Table1[],2,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="H68" t="str">
+        <f>VLOOKUP($F68,Table1[],3,TRUE)</f>
+        <v>Map</v>
+      </c>
+      <c r="I68" t="str">
+        <f>VLOOKUP($F68,Table1[],4,TRUE)</f>
+        <v>Map generation</v>
+      </c>
+      <c r="J68" t="str">
+        <f>VLOOKUP($F68,Table1[],5,TRUE)</f>
+        <v>Maps are room based and lock all doors on player entry until enemies are cleares</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>55</v>
+      </c>
+      <c r="B69">
+        <f>VLOOKUP($A69,Table35[#All],2,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <f>VLOOKUP($A69,Table35[#All],3,TRUE)</f>
+        <v>2</v>
+      </c>
+      <c r="D69">
+        <f>VLOOKUP($A69,Table35[#All],4,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="E69" t="str">
+        <f>VLOOKUP($A69,Table35[#All],5,TRUE)</f>
+        <v>Create multiple map integration</v>
+      </c>
+      <c r="F69">
+        <f>VLOOKUP($A69,Table35[#All],6,TRUE)</f>
+        <v>34</v>
+      </c>
+      <c r="G69" t="str">
+        <f>VLOOKUP($F69,Table1[],2,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="H69" t="str">
+        <f>VLOOKUP($F69,Table1[],3,TRUE)</f>
+        <v>World</v>
+      </c>
+      <c r="I69" t="str">
+        <f>VLOOKUP($F69,Table1[],4,TRUE)</f>
+        <v>Levels</v>
+      </c>
+      <c r="J69" t="str">
+        <f>VLOOKUP($F69,Table1[],5,TRUE)</f>
+        <v>The game is made up of multiple maps which are each a level</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>56</v>
+      </c>
+      <c r="B70">
+        <f>VLOOKUP($A70,Table35[#All],2,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <f>VLOOKUP($A70,Table35[#All],3,TRUE)</f>
+        <v>2</v>
+      </c>
+      <c r="D70">
+        <f>VLOOKUP($A70,Table35[#All],4,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="E70" t="str">
+        <f>VLOOKUP($A70,Table35[#All],5,TRUE)</f>
+        <v>Create first map</v>
+      </c>
+      <c r="F70">
+        <f>VLOOKUP($A70,Table35[#All],6,TRUE)</f>
+        <v>34</v>
+      </c>
+      <c r="G70" t="str">
+        <f>VLOOKUP($F70,Table1[],2,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="H70" t="str">
+        <f>VLOOKUP($F70,Table1[],3,TRUE)</f>
+        <v>World</v>
+      </c>
+      <c r="I70" t="str">
+        <f>VLOOKUP($F70,Table1[],4,TRUE)</f>
+        <v>Levels</v>
+      </c>
+      <c r="J70" t="str">
+        <f>VLOOKUP($F70,Table1[],5,TRUE)</f>
+        <v>The game is made up of multiple maps which are each a level</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>2</v>
+      </c>
+      <c r="B71">
+        <f>VLOOKUP($A71,Table35[#All],2,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <f>VLOOKUP($A71,Table35[#All],3,TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <f>VLOOKUP($A71,Table35[#All],4,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="E71" t="str">
+        <f>VLOOKUP($A71,Table35[#All],5,TRUE)</f>
+        <v>Implement loading screen text and background</v>
+      </c>
+      <c r="F71">
+        <f>VLOOKUP($A71,Table35[#All],6,TRUE)</f>
+        <v>2</v>
+      </c>
+      <c r="G71" t="str">
+        <f>VLOOKUP($F71,Table1[],2,TRUE)</f>
+        <v>Loading Screen</v>
+      </c>
+      <c r="H71" t="str">
+        <f>VLOOKUP($F71,Table1[],3,TRUE)</f>
+        <v>Assets</v>
+      </c>
+      <c r="I71" t="str">
+        <f>VLOOKUP($F71,Table1[],4,TRUE)</f>
+        <v>Loading text/background</v>
+      </c>
+      <c r="J71" t="str">
+        <f>VLOOKUP($F71,Table1[],5,TRUE)</f>
+        <v>Loading screen has a background and loading screen text</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>14</v>
+      </c>
+      <c r="B72">
+        <f>VLOOKUP($A72,Table35[#All],2,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <f>VLOOKUP($A72,Table35[#All],3,TRUE)</f>
+        <v>1.5</v>
+      </c>
+      <c r="D72">
+        <f>VLOOKUP($A72,Table35[#All],4,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="E72" t="str">
+        <f>VLOOKUP($A72,Table35[#All],5,TRUE)</f>
+        <v>Find/implement machine gun and flamethrower</v>
+      </c>
+      <c r="F72">
+        <f>VLOOKUP($A72,Table35[#All],6,TRUE)</f>
+        <v>7</v>
+      </c>
+      <c r="G72" t="str">
+        <f>VLOOKUP($F72,Table1[],2,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="H72" t="str">
+        <f>VLOOKUP($F72,Table1[],3,TRUE)</f>
+        <v>Weapons</v>
+      </c>
+      <c r="I72" t="str">
+        <f>VLOOKUP($F72,Table1[],4,TRUE)</f>
+        <v>Weapons</v>
+      </c>
+      <c r="J72" t="str">
+        <f>VLOOKUP($F72,Table1[],5,TRUE)</f>
+        <v>Weapons may be data driven with Weapon visual, VFX, and SFX</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>15</v>
+      </c>
+      <c r="B73">
+        <f>VLOOKUP($A73,Table35[#All],2,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <f>VLOOKUP($A73,Table35[#All],3,TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <f>VLOOKUP($A73,Table35[#All],4,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="E73" t="str">
+        <f>VLOOKUP($A73,Table35[#All],5,TRUE)</f>
+        <v>Find/implement laser gun</v>
+      </c>
+      <c r="F73">
+        <f>VLOOKUP($A73,Table35[#All],6,TRUE)</f>
+        <v>7</v>
+      </c>
+      <c r="G73" t="str">
+        <f>VLOOKUP($F73,Table1[],2,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="H73" t="str">
+        <f>VLOOKUP($F73,Table1[],3,TRUE)</f>
+        <v>Weapons</v>
+      </c>
+      <c r="I73" t="str">
+        <f>VLOOKUP($F73,Table1[],4,TRUE)</f>
+        <v>Weapons</v>
+      </c>
+      <c r="J73" t="str">
+        <f>VLOOKUP($F73,Table1[],5,TRUE)</f>
+        <v>Weapons may be data driven with Weapon visual, VFX, and SFX</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>16</v>
+      </c>
+      <c r="B74">
+        <f>VLOOKUP($A74,Table35[#All],2,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <f>VLOOKUP($A74,Table35[#All],3,TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <f>VLOOKUP($A74,Table35[#All],4,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="E74" t="str">
+        <f>VLOOKUP($A74,Table35[#All],5,TRUE)</f>
+        <v>Find/implement rocket launcher</v>
+      </c>
+      <c r="F74">
+        <f>VLOOKUP($A74,Table35[#All],6,TRUE)</f>
+        <v>7</v>
+      </c>
+      <c r="G74" t="str">
+        <f>VLOOKUP($F74,Table1[],2,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="H74" t="str">
+        <f>VLOOKUP($F74,Table1[],3,TRUE)</f>
+        <v>Weapons</v>
+      </c>
+      <c r="I74" t="str">
+        <f>VLOOKUP($F74,Table1[],4,TRUE)</f>
+        <v>Weapons</v>
+      </c>
+      <c r="J74" t="str">
+        <f>VLOOKUP($F74,Table1[],5,TRUE)</f>
+        <v>Weapons may be data driven with Weapon visual, VFX, and SFX</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>46</v>
+      </c>
+      <c r="B75">
+        <f>VLOOKUP($A75,Table35[#All],2,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <f>VLOOKUP($A75,Table35[#All],3,TRUE)</f>
+        <v>3</v>
+      </c>
+      <c r="D75">
+        <f>VLOOKUP($A75,Table35[#All],4,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="E75" t="str">
+        <f>VLOOKUP($A75,Table35[#All],5,TRUE)</f>
+        <v>Create first boss using enemies as a base. They will be enemies with bigger hitbox and multiple attacks</v>
+      </c>
+      <c r="F75">
+        <f>VLOOKUP($A75,Table35[#All],6,TRUE)</f>
+        <v>29</v>
+      </c>
+      <c r="G75" t="str">
+        <f>VLOOKUP($F75,Table1[],2,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="H75" t="str">
+        <f>VLOOKUP($F75,Table1[],3,TRUE)</f>
+        <v>Enemy</v>
+      </c>
+      <c r="I75" t="str">
+        <f>VLOOKUP($F75,Table1[],4,TRUE)</f>
+        <v>Boss</v>
+      </c>
+      <c r="J75" t="str">
+        <f>VLOOKUP($F75,Table1[],5,TRUE)</f>
+        <v>Bosses are enemies with a heavier data driven controller for larger attack animations and on hit effects</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>49</v>
+      </c>
+      <c r="B76">
+        <f>VLOOKUP($A76,Table35[#All],2,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <f>VLOOKUP($A76,Table35[#All],3,TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <f>VLOOKUP($A76,Table35[#All],4,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="E76" t="str">
+        <f>VLOOKUP($A76,Table35[#All],5,TRUE)</f>
+        <v>Create loot capabilities in Actor definition</v>
+      </c>
+      <c r="F76">
+        <f>VLOOKUP($A76,Table35[#All],6,TRUE)</f>
+        <v>30</v>
+      </c>
+      <c r="G76" t="str">
+        <f>VLOOKUP($F76,Table1[],2,TRUE)</f>
+        <v xml:space="preserve">Game </v>
+      </c>
+      <c r="H76" t="str">
+        <f>VLOOKUP($F76,Table1[],3,TRUE)</f>
+        <v>Actors</v>
+      </c>
+      <c r="I76" t="str">
+        <f>VLOOKUP($F76,Table1[],4,TRUE)</f>
+        <v>Loot</v>
+      </c>
+      <c r="J76" t="str">
+        <f>VLOOKUP($F76,Table1[],5,TRUE)</f>
+        <v>Loot can be dropped from enemies for example weapons, and can be picked up</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>68</v>
+      </c>
+      <c r="B77" t="str">
+        <f>VLOOKUP($A77,Table35[#All],2,TRUE)</f>
+        <v>*0</v>
+      </c>
+      <c r="C77">
+        <f>VLOOKUP($A77,Table35[#All],3,TRUE)</f>
+        <v>2</v>
+      </c>
+      <c r="D77">
+        <f>VLOOKUP($A77,Table35[#All],4,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="E77" t="str">
+        <f>VLOOKUP($A77,Table35[#All],5,TRUE)</f>
+        <v>Clean up weapon rendering</v>
+      </c>
+      <c r="F77">
+        <f>VLOOKUP($A77,Table35[#All],6,TRUE)</f>
+        <v>7</v>
+      </c>
+      <c r="G77" t="str">
+        <f>VLOOKUP($F77,Table1[],2,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="H77" t="str">
+        <f>VLOOKUP($F77,Table1[],3,TRUE)</f>
+        <v>Weapons</v>
+      </c>
+      <c r="I77" t="str">
+        <f>VLOOKUP($F77,Table1[],4,TRUE)</f>
+        <v>Weapons</v>
+      </c>
+      <c r="J77" t="str">
+        <f>VLOOKUP($F77,Table1[],5,TRUE)</f>
+        <v>Weapons may be data driven with Weapon visual, VFX, and SFX</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>69</v>
+      </c>
+      <c r="B78" t="str">
+        <f>VLOOKUP($A78,Table35[#All],2,TRUE)</f>
+        <v>*0</v>
+      </c>
+      <c r="C78">
+        <f>VLOOKUP($A78,Table35[#All],3,TRUE)</f>
+        <v>2</v>
+      </c>
+      <c r="D78">
+        <f>VLOOKUP($A78,Table35[#All],4,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="E78" t="str">
+        <f>VLOOKUP($A78,Table35[#All],5,TRUE)</f>
+        <v>Find a different sprite sheet/ remove hands from current sprite sheet</v>
+      </c>
+      <c r="F78">
+        <f>VLOOKUP($A78,Table35[#All],6,TRUE)</f>
+        <v>7</v>
+      </c>
+      <c r="G78" t="str">
+        <f>VLOOKUP($F78,Table1[],2,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="H78" t="str">
+        <f>VLOOKUP($F78,Table1[],3,TRUE)</f>
+        <v>Weapons</v>
+      </c>
+      <c r="I78" t="str">
+        <f>VLOOKUP($F78,Table1[],4,TRUE)</f>
+        <v>Weapons</v>
+      </c>
+      <c r="J78" t="str">
+        <f>VLOOKUP($F78,Table1[],5,TRUE)</f>
+        <v>Weapons may be data driven with Weapon visual, VFX, and SFX</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C79">
         <f>SUM(Table3567[Estimate])</f>
-        <v>0</v>
-      </c>
-      <c r="D52">
+        <v>31.5</v>
+      </c>
+      <c r="D79">
         <f>SUM(Table3567[Actual])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>95</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B81" s="2">
         <v>44025</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>119</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B82" t="s">
         <v>121</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C82" t="s">
         <v>122</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D82" t="s">
         <v>123</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E82" t="s">
         <v>120</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F82" t="s">
         <v>92</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G82" t="s">
         <v>14</v>
       </c>
-      <c r="H55" t="s">
+      <c r="H82" t="s">
         <v>6</v>
       </c>
-      <c r="I55" t="s">
+      <c r="I82" t="s">
         <v>15</v>
       </c>
-      <c r="J55" t="s">
+      <c r="J82" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C57">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C84">
         <f>SUM(Table35678[Estimate])</f>
         <v>0</v>
       </c>
-      <c r="D57">
+      <c r="D84">
         <f>SUM(Table35678[Actual])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>96</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B86" s="2">
         <v>44033</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>119</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B87" t="s">
         <v>121</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C87" t="s">
         <v>122</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D87" t="s">
         <v>123</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E87" t="s">
         <v>120</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F87" t="s">
         <v>92</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G87" t="s">
         <v>14</v>
       </c>
-      <c r="H60" t="s">
+      <c r="H87" t="s">
         <v>6</v>
       </c>
-      <c r="I60" t="s">
+      <c r="I87" t="s">
         <v>15</v>
       </c>
-      <c r="J60" t="s">
+      <c r="J87" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C62">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C89">
         <f>SUM(Table356789[Estimate])</f>
         <v>0</v>
       </c>
-      <c r="D62">
+      <c r="D89">
         <f>SUM(Table356789[Actual])</f>
         <v>0</v>
       </c>
@@ -7189,13 +8300,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734CCCA4-3ECC-40E0-914B-329F4B230DBE}">
-  <dimension ref="A2:K42"/>
+  <dimension ref="A2:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
-    </sheetView>
-    <sheetView topLeftCell="A4" workbookViewId="1">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7222,7 +8330,7 @@
         <v>114</v>
       </c>
       <c r="G2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -7241,7 +8349,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C4" t="s">
         <v>103</v>
@@ -7279,7 +8387,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C8" t="s">
         <v>107</v>
@@ -7287,12 +8395,12 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>119</v>
@@ -7330,22 +8438,22 @@
         <v>43977</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>111</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E12" s="6">
         <v>3</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H12" s="6" t="e">
         <f>VLOOKUP($G12,Table1[],2,TRUE)</f>
@@ -7369,22 +8477,22 @@
         <v>43982</v>
       </c>
       <c r="B13" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C13" t="s">
         <v>111</v>
       </c>
       <c r="D13" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E13">
         <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H13" s="6" t="e">
         <f>VLOOKUP($G13,Table1[],2,TRUE)</f>
@@ -7408,22 +8516,22 @@
         <v>43982</v>
       </c>
       <c r="B14" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C14" t="s">
         <v>111</v>
       </c>
       <c r="D14" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H14" s="6" t="e">
         <f>VLOOKUP($G14,Table1[],2,TRUE)</f>
@@ -7447,22 +8555,22 @@
         <v>43982</v>
       </c>
       <c r="B15" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C15" t="s">
         <v>111</v>
       </c>
       <c r="D15" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E15">
         <v>0.5</v>
       </c>
       <c r="F15" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H15" s="6" t="e">
         <f>VLOOKUP($G15,Table1[],2,TRUE)</f>
@@ -7486,22 +8594,22 @@
         <v>43983</v>
       </c>
       <c r="B16" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C16" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D16" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E16">
         <v>0.5</v>
       </c>
       <c r="F16" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H16" s="6" t="e">
         <f>VLOOKUP($G16,Table1[],2,TRUE)</f>
@@ -7757,7 +8865,7 @@
       </c>
       <c r="E22">
         <f>VLOOKUP($B22,Table35[#All],4,TRUE)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F22" t="str">
         <f>VLOOKUP($B22,Table35[#All],5,TRUE)</f>
@@ -7801,7 +8909,7 @@
       </c>
       <c r="E23">
         <f>VLOOKUP($B23,Table35[#All],4,TRUE)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F23" t="str">
         <f>VLOOKUP($B23,Table35[#All],5,TRUE)</f>
@@ -7845,7 +8953,7 @@
       </c>
       <c r="E24">
         <f>VLOOKUP($B24,Table35[#All],4,TRUE)</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F24" t="str">
         <f>VLOOKUP($B24,Table35[#All],5,TRUE)</f>
@@ -8021,7 +9129,7 @@
       </c>
       <c r="E28">
         <f>VLOOKUP($B28,Table35[#All],4,TRUE)</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F28" t="str">
         <f>VLOOKUP($B28,Table35[#All],5,TRUE)</f>
@@ -8065,7 +9173,7 @@
       </c>
       <c r="E29">
         <f>VLOOKUP($B29,Table35[#All],4,TRUE)</f>
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="F29" t="str">
         <f>VLOOKUP($B29,Table35[#All],5,TRUE)</f>
@@ -8153,7 +9261,7 @@
       </c>
       <c r="E31">
         <f>VLOOKUP($B31,Table35[#All],4,TRUE)</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F31" t="str">
         <f>VLOOKUP($B31,Table35[#All],5,TRUE)</f>
@@ -8241,7 +9349,7 @@
       </c>
       <c r="E33">
         <f>VLOOKUP($B33,Table35[#All],4,TRUE)</f>
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F33" t="str">
         <f>VLOOKUP($B33,Table35[#All],5,TRUE)</f>
@@ -8285,7 +9393,7 @@
       </c>
       <c r="E34">
         <f>VLOOKUP($B34,Table35[#All],4,TRUE)</f>
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F34" t="str">
         <f>VLOOKUP($B34,Table35[#All],5,TRUE)</f>
@@ -8534,7 +9642,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>43995</v>
+        <v>43996</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -8578,7 +9686,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>43995</v>
+        <v>43996</v>
       </c>
       <c r="B41">
         <v>3</v>
@@ -8622,46 +9730,80 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>43995</v>
-      </c>
-      <c r="B42">
-        <v>54</v>
-      </c>
-      <c r="C42" t="str">
-        <f>VLOOKUP($B42,Table35[#All],2,TRUE)</f>
-        <v>X</v>
-      </c>
-      <c r="D42">
-        <f>VLOOKUP($B42,Table35[#All],3,TRUE)</f>
-        <v>5</v>
+        <v>43996</v>
+      </c>
+      <c r="B42" t="s">
+        <v>181</v>
+      </c>
+      <c r="C42" t="s">
+        <v>111</v>
+      </c>
+      <c r="D42" t="s">
+        <v>181</v>
       </c>
       <c r="E42">
-        <f>VLOOKUP($B42,Table35[#All],4,TRUE)</f>
-        <v>2.5</v>
-      </c>
-      <c r="F42" t="str">
-        <f>VLOOKUP($B42,Table35[#All],5,TRUE)</f>
-        <v>Integrate map with actors and check collisions</v>
-      </c>
-      <c r="G42">
-        <f>VLOOKUP($B42,Table35[#All],6,TRUE)</f>
-        <v>33</v>
-      </c>
-      <c r="H42" t="str">
+        <v>2</v>
+      </c>
+      <c r="F42" t="s">
+        <v>215</v>
+      </c>
+      <c r="G42" t="s">
+        <v>181</v>
+      </c>
+      <c r="H42" t="e">
         <f>VLOOKUP($B42,Table35[#All],7,TRUE)</f>
-        <v>Game</v>
-      </c>
-      <c r="I42" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="I42" t="e">
         <f>VLOOKUP($B42,Table35[#All],8,TRUE)</f>
-        <v>Map</v>
-      </c>
-      <c r="J42" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="J42" t="e">
         <f>VLOOKUP($B42,Table35[#All],9,TRUE)</f>
-        <v>Map makeup</v>
-      </c>
-      <c r="K42" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="K42" t="e">
         <f>VLOOKUP($B42,Table35[#All],10,TRUE)</f>
-        <v>Maps are tile based with tile definitions determining what/who they block or not block</v>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="15">
+        <v>43996</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="E43" s="16">
+        <v>1</v>
+      </c>
+      <c r="F43" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="H43" s="13" t="e">
+        <f>VLOOKUP($G43,Table1[],2,TRUE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I43" s="13" t="e">
+        <f>VLOOKUP($G43,Table1[],3,TRUE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J43" s="13" t="e">
+        <f>VLOOKUP($G43,Table1[],4,TRUE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K43" s="14" t="e">
+        <f>VLOOKUP($G43,Table1[],5,TRUE)</f>
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>

--- a/DFS/DFS Documentation - Jonathan Sarasua.xlsx
+++ b/DFS/DFS Documentation - Jonathan Sarasua.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Guildhall\DFS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F00B90-2E60-4889-862D-6F10C76EBC79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{021808C0-F540-439F-BE9F-9756CEC66F7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{3D84B222-422C-4254-85C9-E5FC35CCD999}"/>
+    <workbookView xWindow="18970" yWindow="0" windowWidth="19430" windowHeight="10400" activeTab="4" xr2:uid="{3D84B222-422C-4254-85C9-E5FC35CCD999}"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="1" r:id="rId1"/>
@@ -3261,8 +3261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC20C21-6CC5-454B-A71B-54C5FBC17A7F}">
   <dimension ref="A2:J82"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3636,13 +3636,13 @@
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C19">
         <v>1.5</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E19" t="s">
         <v>130</v>
@@ -3672,13 +3672,13 @@
         <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="s">
         <v>131</v>
@@ -3816,13 +3816,13 @@
         <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E24" t="s">
         <v>135</v>
@@ -3960,13 +3960,13 @@
         <v>17</v>
       </c>
       <c r="B28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C28">
         <v>1.5</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E28" t="s">
         <v>139</v>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="D82">
         <f>SUM(Table35[Actual])</f>
-        <v>28.25</v>
+        <v>33.25</v>
       </c>
     </row>
   </sheetData>
@@ -5903,7 +5903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93182A32-9B41-4840-9B31-4DBA5186CB78}">
   <dimension ref="A6:J89"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
@@ -7036,7 +7036,7 @@
       </c>
       <c r="B49" t="str">
         <f>VLOOKUP($A49,Table35[#All],2,TRUE)</f>
-        <v>&lt;</v>
+        <v>X</v>
       </c>
       <c r="C49">
         <f>VLOOKUP($A49,Table35[#All],3,TRUE)</f>
@@ -7044,7 +7044,7 @@
       </c>
       <c r="D49">
         <f>VLOOKUP($A49,Table35[#All],4,TRUE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E49" t="str">
         <f>VLOOKUP($A49,Table35[#All],5,TRUE)</f>
@@ -7077,7 +7077,7 @@
       </c>
       <c r="B50" t="str">
         <f>VLOOKUP($A50,Table35[#All],2,TRUE)</f>
-        <v>&lt;</v>
+        <v>X</v>
       </c>
       <c r="C50">
         <f>VLOOKUP($A50,Table35[#All],3,TRUE)</f>
@@ -7085,7 +7085,7 @@
       </c>
       <c r="D50">
         <f>VLOOKUP($A50,Table35[#All],4,TRUE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" t="str">
         <f>VLOOKUP($A50,Table35[#All],5,TRUE)</f>
@@ -7118,7 +7118,7 @@
       </c>
       <c r="B51" t="str">
         <f>VLOOKUP($A51,Table35[#All],2,TRUE)</f>
-        <v>&lt;</v>
+        <v>X</v>
       </c>
       <c r="C51">
         <f>VLOOKUP($A51,Table35[#All],3,TRUE)</f>
@@ -7126,7 +7126,7 @@
       </c>
       <c r="D51">
         <f>VLOOKUP($A51,Table35[#All],4,TRUE)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E51" t="str">
         <f>VLOOKUP($A51,Table35[#All],5,TRUE)</f>
@@ -7159,7 +7159,7 @@
       </c>
       <c r="B52" t="str">
         <f>VLOOKUP($A52,Table35[#All],2,TRUE)</f>
-        <v>&lt;</v>
+        <v>X</v>
       </c>
       <c r="C52">
         <f>VLOOKUP($A52,Table35[#All],3,TRUE)</f>
@@ -7167,7 +7167,7 @@
       </c>
       <c r="D52">
         <f>VLOOKUP($A52,Table35[#All],4,TRUE)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E52" t="str">
         <f>VLOOKUP($A52,Table35[#All],5,TRUE)</f>
@@ -7281,7 +7281,7 @@
       </c>
       <c r="B57" t="str">
         <f>VLOOKUP($A57,Table35[#All],2,TRUE)</f>
-        <v>&lt;</v>
+        <v>X</v>
       </c>
       <c r="C57">
         <f>VLOOKUP($A57,Table35[#All],3,TRUE)</f>
@@ -7289,7 +7289,7 @@
       </c>
       <c r="D57">
         <f>VLOOKUP($A57,Table35[#All],4,TRUE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E57" t="str">
         <f>VLOOKUP($A57,Table35[#All],5,TRUE)</f>
@@ -7322,7 +7322,7 @@
       </c>
       <c r="B58" t="str">
         <f>VLOOKUP($A58,Table35[#All],2,TRUE)</f>
-        <v>&lt;</v>
+        <v>X</v>
       </c>
       <c r="C58">
         <f>VLOOKUP($A58,Table35[#All],3,TRUE)</f>
@@ -7330,7 +7330,7 @@
       </c>
       <c r="D58">
         <f>VLOOKUP($A58,Table35[#All],4,TRUE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58" t="str">
         <f>VLOOKUP($A58,Table35[#All],5,TRUE)</f>
@@ -7363,7 +7363,7 @@
       </c>
       <c r="B59" t="str">
         <f>VLOOKUP($A59,Table35[#All],2,TRUE)</f>
-        <v>&lt;</v>
+        <v>X</v>
       </c>
       <c r="C59">
         <f>VLOOKUP($A59,Table35[#All],3,TRUE)</f>
@@ -7371,7 +7371,7 @@
       </c>
       <c r="D59">
         <f>VLOOKUP($A59,Table35[#All],4,TRUE)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E59" t="str">
         <f>VLOOKUP($A59,Table35[#All],5,TRUE)</f>
@@ -7404,7 +7404,7 @@
       </c>
       <c r="B60" t="str">
         <f>VLOOKUP($A60,Table35[#All],2,TRUE)</f>
-        <v>&lt;</v>
+        <v>X</v>
       </c>
       <c r="C60">
         <f>VLOOKUP($A60,Table35[#All],3,TRUE)</f>
@@ -7412,7 +7412,7 @@
       </c>
       <c r="D60">
         <f>VLOOKUP($A60,Table35[#All],4,TRUE)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E60" t="str">
         <f>VLOOKUP($A60,Table35[#All],5,TRUE)</f>
@@ -8184,7 +8184,7 @@
       </c>
       <c r="D79">
         <f>SUM(Table3567[Actual])</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -8300,10 +8300,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734CCCA4-3ECC-40E0-914B-329F4B230DBE}">
-  <dimension ref="A2:K43"/>
+  <dimension ref="A2:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9806,6 +9806,182 @@
         <v>#N/A</v>
       </c>
     </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>44002</v>
+      </c>
+      <c r="B44">
+        <v>8</v>
+      </c>
+      <c r="C44" t="str">
+        <f>VLOOKUP($B44,Table35[#All],2,TRUE)</f>
+        <v>X</v>
+      </c>
+      <c r="D44">
+        <f>VLOOKUP($B44,Table35[#All],3,TRUE)</f>
+        <v>1.5</v>
+      </c>
+      <c r="E44">
+        <f>VLOOKUP($B44,Table35[#All],4,TRUE)</f>
+        <v>2</v>
+      </c>
+      <c r="F44" t="str">
+        <f>VLOOKUP($B44,Table35[#All],5,TRUE)</f>
+        <v>Create Weapon Definition</v>
+      </c>
+      <c r="G44">
+        <f>VLOOKUP($B44,Table35[#All],6,TRUE)</f>
+        <v>7</v>
+      </c>
+      <c r="H44" t="str">
+        <f>VLOOKUP($B44,Table35[#All],7,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="I44" t="str">
+        <f>VLOOKUP($B44,Table35[#All],8,TRUE)</f>
+        <v>Weapons</v>
+      </c>
+      <c r="J44" t="str">
+        <f>VLOOKUP($B44,Table35[#All],9,TRUE)</f>
+        <v>Weapons</v>
+      </c>
+      <c r="K44" t="str">
+        <f>VLOOKUP($B44,Table35[#All],10,TRUE)</f>
+        <v>Weapons may be data driven with Weapon visual, VFX, and SFX</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>44002</v>
+      </c>
+      <c r="B45">
+        <v>9</v>
+      </c>
+      <c r="C45" t="str">
+        <f>VLOOKUP($B45,Table35[#All],2,TRUE)</f>
+        <v>X</v>
+      </c>
+      <c r="D45">
+        <f>VLOOKUP($B45,Table35[#All],3,TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <f>VLOOKUP($B45,Table35[#All],4,TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="F45" t="str">
+        <f>VLOOKUP($B45,Table35[#All],5,TRUE)</f>
+        <v>Implement shooting using weapon definition</v>
+      </c>
+      <c r="G45">
+        <f>VLOOKUP($B45,Table35[#All],6,TRUE)</f>
+        <v>7</v>
+      </c>
+      <c r="H45" t="str">
+        <f>VLOOKUP($B45,Table35[#All],7,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="I45" t="str">
+        <f>VLOOKUP($B45,Table35[#All],8,TRUE)</f>
+        <v>Weapons</v>
+      </c>
+      <c r="J45" t="str">
+        <f>VLOOKUP($B45,Table35[#All],9,TRUE)</f>
+        <v>Weapons</v>
+      </c>
+      <c r="K45" t="str">
+        <f>VLOOKUP($B45,Table35[#All],10,TRUE)</f>
+        <v>Weapons may be data driven with Weapon visual, VFX, and SFX</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>44003</v>
+      </c>
+      <c r="B46">
+        <v>13</v>
+      </c>
+      <c r="C46" t="str">
+        <f>VLOOKUP($B46,Table35[#All],2,TRUE)</f>
+        <v>X</v>
+      </c>
+      <c r="D46">
+        <f>VLOOKUP($B46,Table35[#All],3,TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <f>VLOOKUP($B46,Table35[#All],4,TRUE)</f>
+        <v>0.5</v>
+      </c>
+      <c r="F46" t="str">
+        <f>VLOOKUP($B46,Table35[#All],5,TRUE)</f>
+        <v>Find/implement first 2 weapon assets (pistol/shotgun)</v>
+      </c>
+      <c r="G46">
+        <f>VLOOKUP($B46,Table35[#All],6,TRUE)</f>
+        <v>7</v>
+      </c>
+      <c r="H46" t="str">
+        <f>VLOOKUP($B46,Table35[#All],7,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="I46" t="str">
+        <f>VLOOKUP($B46,Table35[#All],8,TRUE)</f>
+        <v>Weapons</v>
+      </c>
+      <c r="J46" t="str">
+        <f>VLOOKUP($B46,Table35[#All],9,TRUE)</f>
+        <v>Weapons</v>
+      </c>
+      <c r="K46" t="str">
+        <f>VLOOKUP($B46,Table35[#All],10,TRUE)</f>
+        <v>Weapons may be data driven with Weapon visual, VFX, and SFX</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>44003</v>
+      </c>
+      <c r="B47">
+        <v>17</v>
+      </c>
+      <c r="C47" t="str">
+        <f>VLOOKUP($B47,Table35[#All],2,TRUE)</f>
+        <v>X</v>
+      </c>
+      <c r="D47">
+        <f>VLOOKUP($B47,Table35[#All],3,TRUE)</f>
+        <v>1.5</v>
+      </c>
+      <c r="E47">
+        <f>VLOOKUP($B47,Table35[#All],4,TRUE)</f>
+        <v>1.5</v>
+      </c>
+      <c r="F47" t="str">
+        <f>VLOOKUP($B47,Table35[#All],5,TRUE)</f>
+        <v>Create Bullet Definition</v>
+      </c>
+      <c r="G47">
+        <f>VLOOKUP($B47,Table35[#All],6,TRUE)</f>
+        <v>8</v>
+      </c>
+      <c r="H47" t="str">
+        <f>VLOOKUP($B47,Table35[#All],7,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="I47" t="str">
+        <f>VLOOKUP($B47,Table35[#All],8,TRUE)</f>
+        <v>Weapons</v>
+      </c>
+      <c r="J47" t="str">
+        <f>VLOOKUP($B47,Table35[#All],9,TRUE)</f>
+        <v>Bullets</v>
+      </c>
+      <c r="K47" t="str">
+        <f>VLOOKUP($B47,Table35[#All],10,TRUE)</f>
+        <v>Bullets may be data driven with damage, visuals, VFX, and SFX</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="3">

--- a/DFS/DFS Documentation - Jonathan Sarasua.xlsx
+++ b/DFS/DFS Documentation - Jonathan Sarasua.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Guildhall\DFS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{021808C0-F540-439F-BE9F-9756CEC66F7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9143DE7-513B-4FD9-85BD-7675D2A1AF3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18970" yWindow="0" windowWidth="19430" windowHeight="10400" activeTab="4" xr2:uid="{3D84B222-422C-4254-85C9-E5FC35CCD999}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{3D84B222-422C-4254-85C9-E5FC35CCD999}"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="220">
   <si>
     <t>Fields</t>
   </si>
@@ -3262,7 +3262,7 @@
   <dimension ref="A2:J82"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3851,14 +3851,14 @@
       <c r="A25">
         <v>14</v>
       </c>
-      <c r="B25">
-        <v>0</v>
+      <c r="B25" t="s">
+        <v>111</v>
       </c>
       <c r="C25">
         <v>1.5</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E25" t="s">
         <v>136</v>
@@ -3887,14 +3887,14 @@
       <c r="A26">
         <v>15</v>
       </c>
-      <c r="B26">
-        <v>0</v>
+      <c r="B26" t="s">
+        <v>111</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E26" t="s">
         <v>137</v>
@@ -3923,14 +3923,14 @@
       <c r="A27">
         <v>16</v>
       </c>
-      <c r="B27">
-        <v>0</v>
+      <c r="B27" t="s">
+        <v>111</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E27" t="s">
         <v>138</v>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="D82">
         <f>SUM(Table35[Actual])</f>
-        <v>33.25</v>
+        <v>34.75</v>
       </c>
     </row>
   </sheetData>
@@ -5903,8 +5903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93182A32-9B41-4840-9B31-4DBA5186CB78}">
   <dimension ref="A6:J89"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74:XFD74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7894,9 +7894,9 @@
       <c r="A72">
         <v>14</v>
       </c>
-      <c r="B72">
+      <c r="B72" t="str">
         <f>VLOOKUP($A72,Table35[#All],2,TRUE)</f>
-        <v>0</v>
+        <v>X</v>
       </c>
       <c r="C72">
         <f>VLOOKUP($A72,Table35[#All],3,TRUE)</f>
@@ -7904,7 +7904,7 @@
       </c>
       <c r="D72">
         <f>VLOOKUP($A72,Table35[#All],4,TRUE)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E72" t="str">
         <f>VLOOKUP($A72,Table35[#All],5,TRUE)</f>
@@ -7935,9 +7935,9 @@
       <c r="A73">
         <v>15</v>
       </c>
-      <c r="B73">
+      <c r="B73" t="str">
         <f>VLOOKUP($A73,Table35[#All],2,TRUE)</f>
-        <v>0</v>
+        <v>X</v>
       </c>
       <c r="C73">
         <f>VLOOKUP($A73,Table35[#All],3,TRUE)</f>
@@ -7945,7 +7945,7 @@
       </c>
       <c r="D73">
         <f>VLOOKUP($A73,Table35[#All],4,TRUE)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E73" t="str">
         <f>VLOOKUP($A73,Table35[#All],5,TRUE)</f>
@@ -7976,9 +7976,9 @@
       <c r="A74">
         <v>16</v>
       </c>
-      <c r="B74">
+      <c r="B74" t="str">
         <f>VLOOKUP($A74,Table35[#All],2,TRUE)</f>
-        <v>0</v>
+        <v>X</v>
       </c>
       <c r="C74">
         <f>VLOOKUP($A74,Table35[#All],3,TRUE)</f>
@@ -7986,7 +7986,7 @@
       </c>
       <c r="D74">
         <f>VLOOKUP($A74,Table35[#All],4,TRUE)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E74" t="str">
         <f>VLOOKUP($A74,Table35[#All],5,TRUE)</f>
@@ -8184,7 +8184,7 @@
       </c>
       <c r="D79">
         <f>SUM(Table3567[Actual])</f>
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -8300,10 +8300,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734CCCA4-3ECC-40E0-914B-329F4B230DBE}">
-  <dimension ref="A2:K47"/>
+  <dimension ref="A2:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9982,6 +9982,138 @@
         <v>Bullets may be data driven with damage, visuals, VFX, and SFX</v>
       </c>
     </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>44003</v>
+      </c>
+      <c r="B48">
+        <v>15</v>
+      </c>
+      <c r="C48" t="str">
+        <f>VLOOKUP($B48,Table35[#All],2,TRUE)</f>
+        <v>X</v>
+      </c>
+      <c r="D48">
+        <f>VLOOKUP($B48,Table35[#All],3,TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <f>VLOOKUP($B48,Table35[#All],4,TRUE)</f>
+        <v>0.5</v>
+      </c>
+      <c r="F48" t="str">
+        <f>VLOOKUP($B48,Table35[#All],5,TRUE)</f>
+        <v>Find/implement laser gun</v>
+      </c>
+      <c r="G48">
+        <f>VLOOKUP($B48,Table35[#All],6,TRUE)</f>
+        <v>7</v>
+      </c>
+      <c r="H48" t="str">
+        <f>VLOOKUP($B48,Table35[#All],7,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="I48" t="str">
+        <f>VLOOKUP($B48,Table35[#All],8,TRUE)</f>
+        <v>Weapons</v>
+      </c>
+      <c r="J48" t="str">
+        <f>VLOOKUP($B48,Table35[#All],9,TRUE)</f>
+        <v>Weapons</v>
+      </c>
+      <c r="K48" t="str">
+        <f>VLOOKUP($B48,Table35[#All],10,TRUE)</f>
+        <v>Weapons may be data driven with Weapon visual, VFX, and SFX</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>44004</v>
+      </c>
+      <c r="B49">
+        <v>14</v>
+      </c>
+      <c r="C49" t="str">
+        <f>VLOOKUP($B49,Table35[#All],2,TRUE)</f>
+        <v>X</v>
+      </c>
+      <c r="D49">
+        <f>VLOOKUP($B49,Table35[#All],3,TRUE)</f>
+        <v>1.5</v>
+      </c>
+      <c r="E49">
+        <f>VLOOKUP($B49,Table35[#All],4,TRUE)</f>
+        <v>0.5</v>
+      </c>
+      <c r="F49" t="str">
+        <f>VLOOKUP($B49,Table35[#All],5,TRUE)</f>
+        <v>Find/implement machine gun and flamethrower</v>
+      </c>
+      <c r="G49">
+        <f>VLOOKUP($B49,Table35[#All],6,TRUE)</f>
+        <v>7</v>
+      </c>
+      <c r="H49" t="str">
+        <f>VLOOKUP($B49,Table35[#All],7,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="I49" t="str">
+        <f>VLOOKUP($B49,Table35[#All],8,TRUE)</f>
+        <v>Weapons</v>
+      </c>
+      <c r="J49" t="str">
+        <f>VLOOKUP($B49,Table35[#All],9,TRUE)</f>
+        <v>Weapons</v>
+      </c>
+      <c r="K49" t="str">
+        <f>VLOOKUP($B49,Table35[#All],10,TRUE)</f>
+        <v>Weapons may be data driven with Weapon visual, VFX, and SFX</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>44004</v>
+      </c>
+      <c r="B50">
+        <v>16</v>
+      </c>
+      <c r="C50" t="str">
+        <f>VLOOKUP($B50,Table35[#All],2,TRUE)</f>
+        <v>X</v>
+      </c>
+      <c r="D50">
+        <f>VLOOKUP($B50,Table35[#All],3,TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <f>VLOOKUP($B50,Table35[#All],4,TRUE)</f>
+        <v>0.5</v>
+      </c>
+      <c r="F50" t="str">
+        <f>VLOOKUP($B50,Table35[#All],5,TRUE)</f>
+        <v>Find/implement rocket launcher</v>
+      </c>
+      <c r="G50">
+        <f>VLOOKUP($B50,Table35[#All],6,TRUE)</f>
+        <v>7</v>
+      </c>
+      <c r="H50" t="str">
+        <f>VLOOKUP($B50,Table35[#All],7,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="I50" t="str">
+        <f>VLOOKUP($B50,Table35[#All],8,TRUE)</f>
+        <v>Weapons</v>
+      </c>
+      <c r="J50" t="str">
+        <f>VLOOKUP($B50,Table35[#All],9,TRUE)</f>
+        <v>Weapons</v>
+      </c>
+      <c r="K50" t="str">
+        <f>VLOOKUP($B50,Table35[#All],10,TRUE)</f>
+        <v>Weapons may be data driven with Weapon visual, VFX, and SFX</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="3">

--- a/DFS/DFS Documentation - Jonathan Sarasua.xlsx
+++ b/DFS/DFS Documentation - Jonathan Sarasua.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Guildhall\DFS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9143DE7-513B-4FD9-85BD-7675D2A1AF3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65D3230-A20F-4E32-8FEB-2F16BA388FFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{3D84B222-422C-4254-85C9-E5FC35CCD999}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{3D84B222-422C-4254-85C9-E5FC35CCD999}"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="227">
   <si>
     <t>Fields</t>
   </si>
@@ -672,31 +672,52 @@
     <t>Build map definition (done in Testgame2D base)</t>
   </si>
   <si>
-    <t>Implement room locking and enemy spawning in locked rooms</t>
+    <t>Clean up weapon rendering</t>
+  </si>
+  <si>
+    <t>Find a different sprite sheet/ remove hands from current sprite sheet</t>
+  </si>
+  <si>
+    <t>Plan Milestone 2</t>
+  </si>
+  <si>
+    <t>Unplanned hours</t>
+  </si>
+  <si>
+    <t>Removed From Milestone 1</t>
+  </si>
+  <si>
+    <t>Removed</t>
+  </si>
+  <si>
+    <t>Estimated/Actual diff</t>
+  </si>
+  <si>
+    <t>Implement enemy spawning</t>
+  </si>
+  <si>
+    <t>Implement Room Locking</t>
+  </si>
+  <si>
+    <t>*/</t>
   </si>
   <si>
     <t>*0</t>
   </si>
   <si>
-    <t>Clean up weapon rendering</t>
-  </si>
-  <si>
-    <t>Find a different sprite sheet/ remove hands from current sprite sheet</t>
-  </si>
-  <si>
-    <t>Plan Milestone 2</t>
-  </si>
-  <si>
-    <t>Unplanned hours</t>
-  </si>
-  <si>
-    <t>Removed From Milestone 1</t>
-  </si>
-  <si>
-    <t>Removed</t>
-  </si>
-  <si>
-    <t>Estimated/Actual diff</t>
+    <t>Fix Dodge bug where the player reaches light speed</t>
+  </si>
+  <si>
+    <t>Implement Ammo</t>
+  </si>
+  <si>
+    <t>Fix Fire Rate bug where sometimes multiple shots are fired</t>
+  </si>
+  <si>
+    <t>Fix Quit bug where clicking exit doesn't quit</t>
+  </si>
+  <si>
+    <t>Work with Dhi to implement art assets</t>
   </si>
 </sst>
 </file>
@@ -1086,8 +1107,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{3AFC5965-674A-4451-AC25-19E71FAB4844}" name="Table35" displayName="Table35" ref="A11:J82" totalsRowCount="1">
-  <autoFilter ref="A11:J81" xr:uid="{4A443AB6-A518-4003-A068-759E12CFD484}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{3AFC5965-674A-4451-AC25-19E71FAB4844}" name="Table35" displayName="Table35" ref="A11:J87" totalsRowCount="1">
+  <autoFilter ref="A11:J86" xr:uid="{4A443AB6-A518-4003-A068-759E12CFD484}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A12:J71">
     <sortCondition ref="F11:F71"/>
   </sortState>
@@ -1162,8 +1183,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{618CE7E4-5ADE-4E98-B2AC-0682EBACB73D}" name="Table3567" displayName="Table3567" ref="A56:J79" totalsRowCount="1">
-  <autoFilter ref="A56:J78" xr:uid="{DD29A22F-BB19-4ADC-B414-52C64CAC47C4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{618CE7E4-5ADE-4E98-B2AC-0682EBACB73D}" name="Table3567" displayName="Table3567" ref="A56:J80" totalsRowCount="1">
+  <autoFilter ref="A56:J79" xr:uid="{DD29A22F-BB19-4ADC-B414-52C64CAC47C4}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A57:J68">
     <sortCondition ref="F11:F40"/>
   </sortState>
@@ -1204,9 +1225,9 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A50E57C5-0AFB-4BA1-ADB8-B627D629FE7F}" name="Table35678" displayName="Table35678" ref="A82:J84" insertRow="1" totalsRowCount="1">
-  <autoFilter ref="A82:J83" xr:uid="{12F7B163-3DD2-4A1A-B717-142A2F111DBF}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A83:J83">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A50E57C5-0AFB-4BA1-ADB8-B627D629FE7F}" name="Table35678" displayName="Table35678" ref="A83:J106" totalsRowCount="1">
+  <autoFilter ref="A83:J105" xr:uid="{12F7B163-3DD2-4A1A-B717-142A2F111DBF}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A84:J105">
     <sortCondition ref="F11:F40"/>
   </sortState>
   <tableColumns count="10">
@@ -1220,27 +1241,19 @@
     </tableColumn>
     <tableColumn id="11" xr3:uid="{91CFC98B-90CD-42BE-9A24-77BC97E0454A}" name="Task"/>
     <tableColumn id="4" xr3:uid="{B7F5769E-B85A-43C1-902D-895944D9FB69}" name="Feature ID"/>
-    <tableColumn id="5" xr3:uid="{B24C2F29-63F0-444C-BEF7-9A76FCB32652}" name="Game State">
-      <calculatedColumnFormula>VLOOKUP($F83,Table1[],2,TRUE)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" xr3:uid="{FE8182AE-9790-4939-8FF4-6070CF1562BE}" name="Area">
-      <calculatedColumnFormula>VLOOKUP($F83,Table1[],3,TRUE)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" xr3:uid="{E7F548A7-6336-48B8-A133-B7FCEE2A2BDE}" name="Features">
-      <calculatedColumnFormula>VLOOKUP($F83,Table1[],4,TRUE)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" xr3:uid="{FA6C449C-FC00-4EF7-B313-44A06BA6C8C8}" name="Description">
-      <calculatedColumnFormula>VLOOKUP($F83,Table1[],5,TRUE)</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="5" xr3:uid="{B24C2F29-63F0-444C-BEF7-9A76FCB32652}" name="Game State"/>
+    <tableColumn id="6" xr3:uid="{FE8182AE-9790-4939-8FF4-6070CF1562BE}" name="Area"/>
+    <tableColumn id="7" xr3:uid="{E7F548A7-6336-48B8-A133-B7FCEE2A2BDE}" name="Features"/>
+    <tableColumn id="8" xr3:uid="{FA6C449C-FC00-4EF7-B313-44A06BA6C8C8}" name="Description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{30F3182D-6F4F-47DA-9031-C4C7700B24D0}" name="Table356789" displayName="Table356789" ref="A87:J89" insertRow="1" totalsRowCount="1">
-  <autoFilter ref="A87:J88" xr:uid="{B94650E2-40D2-4E6D-BDD5-60BDE959C1FE}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A88:J88">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{30F3182D-6F4F-47DA-9031-C4C7700B24D0}" name="Table356789" displayName="Table356789" ref="A109:J111" insertRow="1" totalsRowCount="1">
+  <autoFilter ref="A109:J110" xr:uid="{B94650E2-40D2-4E6D-BDD5-60BDE959C1FE}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A110:J110">
     <sortCondition ref="F11:F40"/>
   </sortState>
   <tableColumns count="10">
@@ -1255,16 +1268,16 @@
     <tableColumn id="11" xr3:uid="{F62C4925-2A4F-4E55-8ABC-E6F6593114DC}" name="Task"/>
     <tableColumn id="4" xr3:uid="{01A791A3-ACBC-4A55-B3B0-A86AD9A448A7}" name="Feature ID"/>
     <tableColumn id="5" xr3:uid="{295C0FE1-E8EF-4354-AFB2-7D7ABA42869A}" name="Game State">
-      <calculatedColumnFormula>VLOOKUP($F88,Table1[],2,TRUE)</calculatedColumnFormula>
+      <calculatedColumnFormula>VLOOKUP($F110,Table1[],2,TRUE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{FF2F79F8-5BB6-4B43-A8B1-9663B716C6B1}" name="Area">
-      <calculatedColumnFormula>VLOOKUP($F88,Table1[],3,TRUE)</calculatedColumnFormula>
+      <calculatedColumnFormula>VLOOKUP($F110,Table1[],3,TRUE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{5482843D-6E87-4AC9-93CD-093636B159C7}" name="Features">
-      <calculatedColumnFormula>VLOOKUP($F88,Table1[],4,TRUE)</calculatedColumnFormula>
+      <calculatedColumnFormula>VLOOKUP($F110,Table1[],4,TRUE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{677E5A6C-8291-472B-8F25-DC573BD78CC5}" name="Description">
-      <calculatedColumnFormula>VLOOKUP($F88,Table1[],5,TRUE)</calculatedColumnFormula>
+      <calculatedColumnFormula>VLOOKUP($F110,Table1[],5,TRUE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1581,8 +1594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95CAAFA2-F5E8-420F-97C9-09E9E707D7A4}">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3259,10 +3272,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC20C21-6CC5-454B-A71B-54C5FBC17A7F}">
-  <dimension ref="A2:J82"/>
+  <dimension ref="A2:J87"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3419,8 +3432,8 @@
       <c r="A13">
         <v>2</v>
       </c>
-      <c r="B13">
-        <v>0</v>
+      <c r="B13" t="s">
+        <v>108</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -4175,14 +4188,14 @@
       <c r="A34">
         <v>23</v>
       </c>
-      <c r="B34">
-        <v>0</v>
+      <c r="B34" t="s">
+        <v>111</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="s">
         <v>145</v>
@@ -4247,8 +4260,8 @@
       <c r="A36">
         <v>25</v>
       </c>
-      <c r="B36">
-        <v>0</v>
+      <c r="B36" t="s">
+        <v>112</v>
       </c>
       <c r="C36">
         <v>2</v>
@@ -4283,14 +4296,14 @@
       <c r="A37">
         <v>26</v>
       </c>
-      <c r="B37">
-        <v>0</v>
+      <c r="B37" t="s">
+        <v>110</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" t="s">
         <v>148</v>
@@ -4787,14 +4800,14 @@
       <c r="A51">
         <v>40</v>
       </c>
-      <c r="B51">
-        <v>0</v>
+      <c r="B51" t="s">
+        <v>111</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" t="s">
         <v>158</v>
@@ -4823,14 +4836,14 @@
       <c r="A52">
         <v>41</v>
       </c>
-      <c r="B52">
-        <v>0</v>
+      <c r="B52" t="s">
+        <v>111</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52" t="s">
         <v>159</v>
@@ -4859,14 +4872,14 @@
       <c r="A53">
         <v>42</v>
       </c>
-      <c r="B53">
-        <v>0</v>
+      <c r="B53" t="s">
+        <v>111</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53" t="s">
         <v>160</v>
@@ -5003,14 +5016,14 @@
       <c r="A57">
         <v>46</v>
       </c>
-      <c r="B57">
-        <v>0</v>
+      <c r="B57" t="s">
+        <v>111</v>
       </c>
       <c r="C57">
         <v>3</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="E57" t="s">
         <v>164</v>
@@ -5111,14 +5124,14 @@
       <c r="A60">
         <v>49</v>
       </c>
-      <c r="B60">
-        <v>0</v>
+      <c r="B60" t="s">
+        <v>111</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60" t="s">
         <v>167</v>
@@ -5147,14 +5160,14 @@
       <c r="A61">
         <v>50</v>
       </c>
-      <c r="B61">
-        <v>0</v>
+      <c r="B61" t="s">
+        <v>111</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E61" t="s">
         <v>168</v>
@@ -5183,17 +5196,17 @@
       <c r="A62">
         <v>51</v>
       </c>
-      <c r="B62">
-        <v>0</v>
+      <c r="B62" t="s">
+        <v>111</v>
       </c>
       <c r="C62">
         <v>2</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E62" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="F62">
         <v>32</v>
@@ -5327,8 +5340,8 @@
       <c r="A66">
         <v>55</v>
       </c>
-      <c r="B66">
-        <v>0</v>
+      <c r="B66" t="s">
+        <v>108</v>
       </c>
       <c r="C66">
         <v>2</v>
@@ -5363,14 +5376,14 @@
       <c r="A67">
         <v>56</v>
       </c>
-      <c r="B67">
-        <v>0</v>
+      <c r="B67" t="s">
+        <v>111</v>
       </c>
       <c r="C67">
         <v>2</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67" t="s">
         <v>171</v>
@@ -5796,16 +5809,16 @@
         <v>68</v>
       </c>
       <c r="B79" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="C79">
         <v>2</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E79" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F79">
         <v>7</v>
@@ -5832,16 +5845,16 @@
         <v>69</v>
       </c>
       <c r="B80" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="C80">
         <v>2</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E80" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F80">
         <v>7</v>
@@ -5863,32 +5876,230 @@
         <v>Weapons may be data driven with Weapon visual, VFX, and SFX</v>
       </c>
     </row>
-    <row r="81" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="G81" t="e">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>70</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>2</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81" t="s">
+        <v>219</v>
+      </c>
+      <c r="F81">
+        <v>32</v>
+      </c>
+      <c r="G81" t="str">
         <f>VLOOKUP($F81,Table1[],2,TRUE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H81" t="e">
+        <v>Game</v>
+      </c>
+      <c r="H81" t="str">
         <f>VLOOKUP($F81,Table1[],3,TRUE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I81" t="e">
+        <v>Map</v>
+      </c>
+      <c r="I81" t="str">
         <f>VLOOKUP($F81,Table1[],4,TRUE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J81" t="e">
+        <v>Map generation</v>
+      </c>
+      <c r="J81" t="str">
         <f>VLOOKUP($F81,Table1[],5,TRUE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="82" spans="3:10" x14ac:dyDescent="0.25">
+        <v>Maps are room based and lock all doors on player entry until enemies are cleares</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>71</v>
+      </c>
+      <c r="B82" t="s">
+        <v>221</v>
+      </c>
       <c r="C82">
+        <v>0.5</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82" t="s">
+        <v>222</v>
+      </c>
+      <c r="F82">
+        <v>24</v>
+      </c>
+      <c r="G82" t="str">
+        <f>VLOOKUP($F82,Table1[],2,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="H82" t="str">
+        <f>VLOOKUP($F82,Table1[],3,TRUE)</f>
+        <v>Player Controller</v>
+      </c>
+      <c r="I82" t="str">
+        <f>VLOOKUP($F82,Table1[],4,TRUE)</f>
+        <v>Dodging</v>
+      </c>
+      <c r="J82" t="str">
+        <f>VLOOKUP($F82,Table1[],5,TRUE)</f>
+        <v>Player can dodge with space key or controller B button</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>72</v>
+      </c>
+      <c r="B83" t="s">
+        <v>221</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83" t="s">
+        <v>223</v>
+      </c>
+      <c r="F83">
+        <v>13</v>
+      </c>
+      <c r="G83" t="str">
+        <f>VLOOKUP($F83,Table1[],2,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="H83" t="str">
+        <f>VLOOKUP($F83,Table1[],3,TRUE)</f>
+        <v>UI</v>
+      </c>
+      <c r="I83" t="str">
+        <f>VLOOKUP($F83,Table1[],4,TRUE)</f>
+        <v>HUD</v>
+      </c>
+      <c r="J83" t="str">
+        <f>VLOOKUP($F83,Table1[],5,TRUE)</f>
+        <v>There is a HUD that shows health, ammo, and current weapon</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>73</v>
+      </c>
+      <c r="B84" t="s">
+        <v>221</v>
+      </c>
+      <c r="C84">
+        <v>0.5</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84" t="s">
+        <v>224</v>
+      </c>
+      <c r="F84">
+        <v>7</v>
+      </c>
+      <c r="G84" t="str">
+        <f>VLOOKUP($F84,Table1[],2,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="H84" t="str">
+        <f>VLOOKUP($F84,Table1[],3,TRUE)</f>
+        <v>Weapons</v>
+      </c>
+      <c r="I84" t="str">
+        <f>VLOOKUP($F84,Table1[],4,TRUE)</f>
+        <v>Weapons</v>
+      </c>
+      <c r="J84" t="str">
+        <f>VLOOKUP($F84,Table1[],5,TRUE)</f>
+        <v>Weapons may be data driven with Weapon visual, VFX, and SFX</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>74</v>
+      </c>
+      <c r="B85" t="s">
+        <v>221</v>
+      </c>
+      <c r="C85">
+        <v>0.5</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85" t="s">
+        <v>225</v>
+      </c>
+      <c r="F85">
+        <v>3</v>
+      </c>
+      <c r="G85" t="str">
+        <f>VLOOKUP($F85,Table1[],2,TRUE)</f>
+        <v>Main Menu</v>
+      </c>
+      <c r="H85" t="str">
+        <f>VLOOKUP($F85,Table1[],3,TRUE)</f>
+        <v>Function</v>
+      </c>
+      <c r="I85" t="str">
+        <f>VLOOKUP($F85,Table1[],4,TRUE)</f>
+        <v>Buttons</v>
+      </c>
+      <c r="J85" t="str">
+        <f>VLOOKUP($F85,Table1[],5,TRUE)</f>
+        <v>Start game, Exit Game buttons to start or exit the game</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>75</v>
+      </c>
+      <c r="B86" t="s">
+        <v>220</v>
+      </c>
+      <c r="C86">
+        <v>6</v>
+      </c>
+      <c r="D86">
+        <v>3</v>
+      </c>
+      <c r="E86" t="s">
+        <v>226</v>
+      </c>
+      <c r="F86">
+        <v>36</v>
+      </c>
+      <c r="G86" t="str">
+        <f>VLOOKUP($F86,Table1[],2,TRUE)</f>
+        <v>Polish</v>
+      </c>
+      <c r="H86" t="str">
+        <f>VLOOKUP($F86,Table1[],3,TRUE)</f>
+        <v>Polish</v>
+      </c>
+      <c r="I86" t="str">
+        <f>VLOOKUP($F86,Table1[],4,TRUE)</f>
+        <v>Polish</v>
+      </c>
+      <c r="J86" t="str">
+        <f>VLOOKUP($F86,Table1[],5,TRUE)</f>
+        <v>Polish</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C87">
         <f>SUM(Table35[Estimate])</f>
-        <v>111</v>
-      </c>
-      <c r="D82">
+        <v>121.5</v>
+      </c>
+      <c r="D87">
         <f>SUM(Table35[Actual])</f>
-        <v>34.75</v>
+        <v>57.75</v>
       </c>
     </row>
   </sheetData>
@@ -5901,10 +6112,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93182A32-9B41-4840-9B31-4DBA5186CB78}">
-  <dimension ref="A6:J89"/>
+  <dimension ref="A6:J111"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74:XFD74"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7003,7 +7214,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C44">
         <v>6.5</v>
@@ -7011,7 +7222,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C45">
         <v>4.25</v>
@@ -7019,7 +7230,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C46">
         <v>12</v>
@@ -7027,7 +7238,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -7443,9 +7654,9 @@
       <c r="A61">
         <v>23</v>
       </c>
-      <c r="B61">
+      <c r="B61" t="str">
         <f>VLOOKUP($A61,Table35[#All],2,TRUE)</f>
-        <v>0</v>
+        <v>X</v>
       </c>
       <c r="C61">
         <f>VLOOKUP($A61,Table35[#All],3,TRUE)</f>
@@ -7453,7 +7664,7 @@
       </c>
       <c r="D61">
         <f>VLOOKUP($A61,Table35[#All],4,TRUE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61" t="str">
         <f>VLOOKUP($A61,Table35[#All],5,TRUE)</f>
@@ -7484,9 +7695,9 @@
       <c r="A62">
         <v>25</v>
       </c>
-      <c r="B62">
+      <c r="B62" t="str">
         <f>VLOOKUP($A62,Table35[#All],2,TRUE)</f>
-        <v>0</v>
+        <v>&lt;</v>
       </c>
       <c r="C62">
         <f>VLOOKUP($A62,Table35[#All],3,TRUE)</f>
@@ -7525,9 +7736,9 @@
       <c r="A63">
         <v>26</v>
       </c>
-      <c r="B63">
+      <c r="B63" t="str">
         <f>VLOOKUP($A63,Table35[#All],2,TRUE)</f>
-        <v>0</v>
+        <v>/</v>
       </c>
       <c r="C63">
         <f>VLOOKUP($A63,Table35[#All],3,TRUE)</f>
@@ -7535,7 +7746,7 @@
       </c>
       <c r="D63">
         <f>VLOOKUP($A63,Table35[#All],4,TRUE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63" t="str">
         <f>VLOOKUP($A63,Table35[#All],5,TRUE)</f>
@@ -7566,9 +7777,9 @@
       <c r="A64">
         <v>40</v>
       </c>
-      <c r="B64">
+      <c r="B64" t="str">
         <f>VLOOKUP($A64,Table35[#All],2,TRUE)</f>
-        <v>0</v>
+        <v>X</v>
       </c>
       <c r="C64">
         <f>VLOOKUP($A64,Table35[#All],3,TRUE)</f>
@@ -7576,7 +7787,7 @@
       </c>
       <c r="D64">
         <f>VLOOKUP($A64,Table35[#All],4,TRUE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64" t="str">
         <f>VLOOKUP($A64,Table35[#All],5,TRUE)</f>
@@ -7607,9 +7818,9 @@
       <c r="A65">
         <v>41</v>
       </c>
-      <c r="B65">
+      <c r="B65" t="str">
         <f>VLOOKUP($A65,Table35[#All],2,TRUE)</f>
-        <v>0</v>
+        <v>X</v>
       </c>
       <c r="C65">
         <f>VLOOKUP($A65,Table35[#All],3,TRUE)</f>
@@ -7617,7 +7828,7 @@
       </c>
       <c r="D65">
         <f>VLOOKUP($A65,Table35[#All],4,TRUE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E65" t="str">
         <f>VLOOKUP($A65,Table35[#All],5,TRUE)</f>
@@ -7648,9 +7859,9 @@
       <c r="A66">
         <v>42</v>
       </c>
-      <c r="B66">
+      <c r="B66" t="str">
         <f>VLOOKUP($A66,Table35[#All],2,TRUE)</f>
-        <v>0</v>
+        <v>X</v>
       </c>
       <c r="C66">
         <f>VLOOKUP($A66,Table35[#All],3,TRUE)</f>
@@ -7658,7 +7869,7 @@
       </c>
       <c r="D66">
         <f>VLOOKUP($A66,Table35[#All],4,TRUE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66" t="str">
         <f>VLOOKUP($A66,Table35[#All],5,TRUE)</f>
@@ -7689,9 +7900,9 @@
       <c r="A67">
         <v>50</v>
       </c>
-      <c r="B67">
+      <c r="B67" t="str">
         <f>VLOOKUP($A67,Table35[#All],2,TRUE)</f>
-        <v>0</v>
+        <v>X</v>
       </c>
       <c r="C67">
         <f>VLOOKUP($A67,Table35[#All],3,TRUE)</f>
@@ -7699,7 +7910,7 @@
       </c>
       <c r="D67">
         <f>VLOOKUP($A67,Table35[#All],4,TRUE)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E67" t="str">
         <f>VLOOKUP($A67,Table35[#All],5,TRUE)</f>
@@ -7730,9 +7941,9 @@
       <c r="A68">
         <v>51</v>
       </c>
-      <c r="B68">
+      <c r="B68" t="str">
         <f>VLOOKUP($A68,Table35[#All],2,TRUE)</f>
-        <v>0</v>
+        <v>X</v>
       </c>
       <c r="C68">
         <f>VLOOKUP($A68,Table35[#All],3,TRUE)</f>
@@ -7740,11 +7951,11 @@
       </c>
       <c r="D68">
         <f>VLOOKUP($A68,Table35[#All],4,TRUE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E68" t="str">
         <f>VLOOKUP($A68,Table35[#All],5,TRUE)</f>
-        <v>Implement room locking and enemy spawning in locked rooms</v>
+        <v>Implement enemy spawning</v>
       </c>
       <c r="F68">
         <f>VLOOKUP($A68,Table35[#All],6,TRUE)</f>
@@ -7771,9 +7982,9 @@
       <c r="A69">
         <v>55</v>
       </c>
-      <c r="B69">
+      <c r="B69" t="str">
         <f>VLOOKUP($A69,Table35[#All],2,TRUE)</f>
-        <v>0</v>
+        <v>&gt;</v>
       </c>
       <c r="C69">
         <f>VLOOKUP($A69,Table35[#All],3,TRUE)</f>
@@ -7812,9 +8023,9 @@
       <c r="A70">
         <v>56</v>
       </c>
-      <c r="B70">
+      <c r="B70" t="str">
         <f>VLOOKUP($A70,Table35[#All],2,TRUE)</f>
-        <v>0</v>
+        <v>X</v>
       </c>
       <c r="C70">
         <f>VLOOKUP($A70,Table35[#All],3,TRUE)</f>
@@ -7822,7 +8033,7 @@
       </c>
       <c r="D70">
         <f>VLOOKUP($A70,Table35[#All],4,TRUE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70" t="str">
         <f>VLOOKUP($A70,Table35[#All],5,TRUE)</f>
@@ -7853,9 +8064,9 @@
       <c r="A71">
         <v>2</v>
       </c>
-      <c r="B71">
+      <c r="B71" t="str">
         <f>VLOOKUP($A71,Table35[#All],2,TRUE)</f>
-        <v>0</v>
+        <v>&gt;</v>
       </c>
       <c r="C71">
         <f>VLOOKUP($A71,Table35[#All],3,TRUE)</f>
@@ -8017,9 +8228,9 @@
       <c r="A75">
         <v>46</v>
       </c>
-      <c r="B75">
+      <c r="B75" t="str">
         <f>VLOOKUP($A75,Table35[#All],2,TRUE)</f>
-        <v>0</v>
+        <v>X</v>
       </c>
       <c r="C75">
         <f>VLOOKUP($A75,Table35[#All],3,TRUE)</f>
@@ -8027,7 +8238,7 @@
       </c>
       <c r="D75">
         <f>VLOOKUP($A75,Table35[#All],4,TRUE)</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="E75" t="str">
         <f>VLOOKUP($A75,Table35[#All],5,TRUE)</f>
@@ -8058,9 +8269,9 @@
       <c r="A76">
         <v>49</v>
       </c>
-      <c r="B76">
+      <c r="B76" t="str">
         <f>VLOOKUP($A76,Table35[#All],2,TRUE)</f>
-        <v>0</v>
+        <v>X</v>
       </c>
       <c r="C76">
         <f>VLOOKUP($A76,Table35[#All],3,TRUE)</f>
@@ -8068,7 +8279,7 @@
       </c>
       <c r="D76">
         <f>VLOOKUP($A76,Table35[#All],4,TRUE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76" t="str">
         <f>VLOOKUP($A76,Table35[#All],5,TRUE)</f>
@@ -8101,7 +8312,7 @@
       </c>
       <c r="B77" t="str">
         <f>VLOOKUP($A77,Table35[#All],2,TRUE)</f>
-        <v>*0</v>
+        <v>*X</v>
       </c>
       <c r="C77">
         <f>VLOOKUP($A77,Table35[#All],3,TRUE)</f>
@@ -8109,7 +8320,7 @@
       </c>
       <c r="D77">
         <f>VLOOKUP($A77,Table35[#All],4,TRUE)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E77" t="str">
         <f>VLOOKUP($A77,Table35[#All],5,TRUE)</f>
@@ -8142,7 +8353,7 @@
       </c>
       <c r="B78" t="str">
         <f>VLOOKUP($A78,Table35[#All],2,TRUE)</f>
-        <v>*0</v>
+        <v>*/</v>
       </c>
       <c r="C78">
         <f>VLOOKUP($A78,Table35[#All],3,TRUE)</f>
@@ -8150,7 +8361,7 @@
       </c>
       <c r="D78">
         <f>VLOOKUP($A78,Table35[#All],4,TRUE)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E78" t="str">
         <f>VLOOKUP($A78,Table35[#All],5,TRUE)</f>
@@ -8178,111 +8389,1054 @@
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>75</v>
+      </c>
+      <c r="B79" t="str">
+        <f>VLOOKUP($A79,Table35[#All],2,TRUE)</f>
+        <v>*/</v>
+      </c>
       <c r="C79">
+        <f>VLOOKUP($A79,Table35[#All],3,TRUE)</f>
+        <v>6</v>
+      </c>
+      <c r="D79">
+        <f>VLOOKUP($A79,Table35[#All],4,TRUE)</f>
+        <v>3</v>
+      </c>
+      <c r="E79" t="str">
+        <f>VLOOKUP($A79,Table35[#All],5,TRUE)</f>
+        <v>Work with Dhi to implement art assets</v>
+      </c>
+      <c r="F79">
+        <f>VLOOKUP($A79,Table35[#All],6,TRUE)</f>
+        <v>36</v>
+      </c>
+      <c r="G79" t="str">
+        <f>VLOOKUP($F79,Table1[],2,TRUE)</f>
+        <v>Polish</v>
+      </c>
+      <c r="H79" t="str">
+        <f>VLOOKUP($F79,Table1[],3,TRUE)</f>
+        <v>Polish</v>
+      </c>
+      <c r="I79" t="str">
+        <f>VLOOKUP($F79,Table1[],4,TRUE)</f>
+        <v>Polish</v>
+      </c>
+      <c r="J79" t="str">
+        <f>VLOOKUP($F79,Table1[],5,TRUE)</f>
+        <v>Polish</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C80">
         <f>SUM(Table3567[Estimate])</f>
-        <v>31.5</v>
-      </c>
-      <c r="D79">
+        <v>37.5</v>
+      </c>
+      <c r="D80">
         <f>SUM(Table3567[Actual])</f>
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>95</v>
-      </c>
-      <c r="B81" s="2">
-        <v>44025</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>95</v>
+      </c>
+      <c r="B82" s="2">
+        <v>44025</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>119</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B83" t="s">
         <v>121</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C83" t="s">
         <v>122</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D83" t="s">
         <v>123</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E83" t="s">
         <v>120</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F83" t="s">
         <v>92</v>
       </c>
-      <c r="G82" t="s">
+      <c r="G83" t="s">
         <v>14</v>
       </c>
-      <c r="H82" t="s">
+      <c r="H83" t="s">
         <v>6</v>
       </c>
-      <c r="I82" t="s">
+      <c r="I83" t="s">
         <v>15</v>
       </c>
-      <c r="J82" t="s">
+      <c r="J83" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>4</v>
+      </c>
+      <c r="B84">
+        <f>VLOOKUP($A84,Table35[#All],2,TRUE)</f>
+        <v>0</v>
+      </c>
       <c r="C84">
+        <f>VLOOKUP($A84,Table35[#All],3,TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <f>VLOOKUP($A84,Table35[#All],4,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="E84" t="str">
+        <f>VLOOKUP($A84,Table35[#All],5,TRUE)</f>
+        <v>Implement visuals for the buttons</v>
+      </c>
+      <c r="F84">
+        <f>VLOOKUP($A84,Table35[#All],6,TRUE)</f>
+        <v>3</v>
+      </c>
+      <c r="G84" t="str">
+        <f>VLOOKUP($F84,Table1[],2,TRUE)</f>
+        <v>Main Menu</v>
+      </c>
+      <c r="H84" t="str">
+        <f>VLOOKUP($F84,Table1[],3,TRUE)</f>
+        <v>Function</v>
+      </c>
+      <c r="I84" t="str">
+        <f>VLOOKUP($F84,Table1[],4,TRUE)</f>
+        <v>Buttons</v>
+      </c>
+      <c r="J84" t="str">
+        <f>VLOOKUP($F84,Table1[],5,TRUE)</f>
+        <v>Start game, Exit Game buttons to start or exit the game</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>6</v>
+      </c>
+      <c r="B85">
+        <f>VLOOKUP($A85,Table35[#All],2,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <f>VLOOKUP($A85,Table35[#All],3,TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <f>VLOOKUP($A85,Table35[#All],4,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="E85" t="str">
+        <f>VLOOKUP($A85,Table35[#All],5,TRUE)</f>
+        <v>Find/Add background art/music to Main menu</v>
+      </c>
+      <c r="F85">
+        <f>VLOOKUP($A85,Table35[#All],6,TRUE)</f>
+        <v>5</v>
+      </c>
+      <c r="G85" t="str">
+        <f>VLOOKUP($F85,Table1[],2,TRUE)</f>
+        <v>Main Menu</v>
+      </c>
+      <c r="H85" t="str">
+        <f>VLOOKUP($F85,Table1[],3,TRUE)</f>
+        <v>Assets</v>
+      </c>
+      <c r="I85" t="str">
+        <f>VLOOKUP($F85,Table1[],4,TRUE)</f>
+        <v>Background</v>
+      </c>
+      <c r="J85" t="str">
+        <f>VLOOKUP($F85,Table1[],5,TRUE)</f>
+        <v>Background Art/Music playing on loop</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>7</v>
+      </c>
+      <c r="B86">
+        <f>VLOOKUP($A86,Table35[#All],2,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <f>VLOOKUP($A86,Table35[#All],3,TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <f>VLOOKUP($A86,Table35[#All],4,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="E86" t="str">
+        <f>VLOOKUP($A86,Table35[#All],5,TRUE)</f>
+        <v>Find/Add background music for gameplay</v>
+      </c>
+      <c r="F86">
+        <f>VLOOKUP($A86,Table35[#All],6,TRUE)</f>
+        <v>6</v>
+      </c>
+      <c r="G86" t="str">
+        <f>VLOOKUP($F86,Table1[],2,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="H86" t="str">
+        <f>VLOOKUP($F86,Table1[],3,TRUE)</f>
+        <v>Assets</v>
+      </c>
+      <c r="I86" t="str">
+        <f>VLOOKUP($F86,Table1[],4,TRUE)</f>
+        <v>Background music</v>
+      </c>
+      <c r="J86" t="str">
+        <f>VLOOKUP($F86,Table1[],5,TRUE)</f>
+        <v>Background music is playing on loop</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>10</v>
+      </c>
+      <c r="B87">
+        <f>VLOOKUP($A87,Table35[#All],2,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <f>VLOOKUP($A87,Table35[#All],3,TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <f>VLOOKUP($A87,Table35[#All],4,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="E87" t="str">
+        <f>VLOOKUP($A87,Table35[#All],5,TRUE)</f>
+        <v>Implement VFX/SFX activation for weapons</v>
+      </c>
+      <c r="F87">
+        <f>VLOOKUP($A87,Table35[#All],6,TRUE)</f>
+        <v>7</v>
+      </c>
+      <c r="G87" t="str">
+        <f>VLOOKUP($F87,Table1[],2,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="H87" t="str">
+        <f>VLOOKUP($F87,Table1[],3,TRUE)</f>
+        <v>Weapons</v>
+      </c>
+      <c r="I87" t="str">
+        <f>VLOOKUP($F87,Table1[],4,TRUE)</f>
+        <v>Weapons</v>
+      </c>
+      <c r="J87" t="str">
+        <f>VLOOKUP($F87,Table1[],5,TRUE)</f>
+        <v>Weapons may be data driven with Weapon visual, VFX, and SFX</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>20</v>
+      </c>
+      <c r="B88">
+        <f>VLOOKUP($A88,Table35[#All],2,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <f>VLOOKUP($A88,Table35[#All],3,TRUE)</f>
+        <v>2</v>
+      </c>
+      <c r="D88">
+        <f>VLOOKUP($A88,Table35[#All],4,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="E88" t="str">
+        <f>VLOOKUP($A88,Table35[#All],5,TRUE)</f>
+        <v>Implement rest of bullet assets</v>
+      </c>
+      <c r="F88">
+        <f>VLOOKUP($A88,Table35[#All],6,TRUE)</f>
+        <v>8</v>
+      </c>
+      <c r="G88" t="str">
+        <f>VLOOKUP($F88,Table1[],2,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="H88" t="str">
+        <f>VLOOKUP($F88,Table1[],3,TRUE)</f>
+        <v>Weapons</v>
+      </c>
+      <c r="I88" t="str">
+        <f>VLOOKUP($F88,Table1[],4,TRUE)</f>
+        <v>Bullets</v>
+      </c>
+      <c r="J88" t="str">
+        <f>VLOOKUP($F88,Table1[],5,TRUE)</f>
+        <v>Bullets may be data driven with damage, visuals, VFX, and SFX</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>24</v>
+      </c>
+      <c r="B89">
+        <f>VLOOKUP($A89,Table35[#All],2,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <f>VLOOKUP($A89,Table35[#All],3,TRUE)</f>
+        <v>2</v>
+      </c>
+      <c r="D89">
+        <f>VLOOKUP($A89,Table35[#All],4,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="E89" t="str">
+        <f>VLOOKUP($A89,Table35[#All],5,TRUE)</f>
+        <v>Implement basic pause buttons, darken screen, stop time in game, and remove game controls</v>
+      </c>
+      <c r="F89">
+        <f>VLOOKUP($A89,Table35[#All],6,TRUE)</f>
+        <v>11</v>
+      </c>
+      <c r="G89" t="str">
+        <f>VLOOKUP($F89,Table1[],2,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="H89" t="str">
+        <f>VLOOKUP($F89,Table1[],3,TRUE)</f>
+        <v>UI</v>
+      </c>
+      <c r="I89" t="str">
+        <f>VLOOKUP($F89,Table1[],4,TRUE)</f>
+        <v>Pause Menu</v>
+      </c>
+      <c r="J89" t="str">
+        <f>VLOOKUP($F89,Table1[],5,TRUE)</f>
+        <v>Pause menu pauses gameplay and has buttons for resuming gameplay and quitting</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>27</v>
+      </c>
+      <c r="B90">
+        <f>VLOOKUP($A90,Table35[#All],2,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <f>VLOOKUP($A90,Table35[#All],3,TRUE)</f>
+        <v>2</v>
+      </c>
+      <c r="D90">
+        <f>VLOOKUP($A90,Table35[#All],4,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="E90" t="str">
+        <f>VLOOKUP($A90,Table35[#All],5,TRUE)</f>
+        <v>Create a transition for death where the screen fades to black and options to restart or go to main menu appear</v>
+      </c>
+      <c r="F90">
+        <f>VLOOKUP($A90,Table35[#All],6,TRUE)</f>
+        <v>14</v>
+      </c>
+      <c r="G90" t="str">
+        <f>VLOOKUP($F90,Table1[],2,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="H90" t="str">
+        <f>VLOOKUP($F90,Table1[],3,TRUE)</f>
+        <v>UI</v>
+      </c>
+      <c r="I90" t="str">
+        <f>VLOOKUP($F90,Table1[],4,TRUE)</f>
+        <v>Death Sequence</v>
+      </c>
+      <c r="J90" t="str">
+        <f>VLOOKUP($F90,Table1[],5,TRUE)</f>
+        <v>When the player dies, there is a transition to the death screen which allows the player to restart or go back to main menu</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>28</v>
+      </c>
+      <c r="B91">
+        <f>VLOOKUP($A91,Table35[#All],2,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <f>VLOOKUP($A91,Table35[#All],3,TRUE)</f>
+        <v>1.5</v>
+      </c>
+      <c r="D91">
+        <f>VLOOKUP($A91,Table35[#All],4,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="E91" t="str">
+        <f>VLOOKUP($A91,Table35[#All],5,TRUE)</f>
+        <v>Create a transition to fade in/out for between maps</v>
+      </c>
+      <c r="F91">
+        <f>VLOOKUP($A91,Table35[#All],6,TRUE)</f>
+        <v>15</v>
+      </c>
+      <c r="G91" t="str">
+        <f>VLOOKUP($F91,Table1[],2,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="H91" t="str">
+        <f>VLOOKUP($F91,Table1[],3,TRUE)</f>
+        <v>UI</v>
+      </c>
+      <c r="I91" t="str">
+        <f>VLOOKUP($F91,Table1[],4,TRUE)</f>
+        <v>Map transition sequence</v>
+      </c>
+      <c r="J91" t="str">
+        <f>VLOOKUP($F91,Table1[],5,TRUE)</f>
+        <v>When a level is completed there is a transition sequence to the next level</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>27</v>
+      </c>
+      <c r="B92">
+        <f>VLOOKUP($A92,Table35[#All],2,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <f>VLOOKUP($A92,Table35[#All],3,TRUE)</f>
+        <v>2</v>
+      </c>
+      <c r="D92">
+        <f>VLOOKUP($A92,Table35[#All],4,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="E92" t="str">
+        <f>VLOOKUP($A92,Table35[#All],5,TRUE)</f>
+        <v>Create a transition for death where the screen fades to black and options to restart or go to main menu appear</v>
+      </c>
+      <c r="F92">
+        <f>VLOOKUP($A92,Table35[#All],6,TRUE)</f>
+        <v>14</v>
+      </c>
+      <c r="G92" t="str">
+        <f>VLOOKUP($F92,Table1[],2,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="H92" t="str">
+        <f>VLOOKUP($F92,Table1[],3,TRUE)</f>
+        <v>UI</v>
+      </c>
+      <c r="I92" t="str">
+        <f>VLOOKUP($F92,Table1[],4,TRUE)</f>
+        <v>Death Sequence</v>
+      </c>
+      <c r="J92" t="str">
+        <f>VLOOKUP($F92,Table1[],5,TRUE)</f>
+        <v>When the player dies, there is a transition to the death screen which allows the player to restart or go back to main menu</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>28</v>
+      </c>
+      <c r="B93">
+        <f>VLOOKUP($A93,Table35[#All],2,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <f>VLOOKUP($A93,Table35[#All],3,TRUE)</f>
+        <v>1.5</v>
+      </c>
+      <c r="D93">
+        <f>VLOOKUP($A93,Table35[#All],4,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="E93" t="str">
+        <f>VLOOKUP($A93,Table35[#All],5,TRUE)</f>
+        <v>Create a transition to fade in/out for between maps</v>
+      </c>
+      <c r="F93">
+        <f>VLOOKUP($A93,Table35[#All],6,TRUE)</f>
+        <v>15</v>
+      </c>
+      <c r="G93" t="str">
+        <f>VLOOKUP($F93,Table1[],2,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="H93" t="str">
+        <f>VLOOKUP($F93,Table1[],3,TRUE)</f>
+        <v>UI</v>
+      </c>
+      <c r="I93" t="str">
+        <f>VLOOKUP($F93,Table1[],4,TRUE)</f>
+        <v>Map transition sequence</v>
+      </c>
+      <c r="J93" t="str">
+        <f>VLOOKUP($F93,Table1[],5,TRUE)</f>
+        <v>When a level is completed there is a transition sequence to the next level</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>29</v>
+      </c>
+      <c r="B94">
+        <f>VLOOKUP($A94,Table35[#All],2,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <f>VLOOKUP($A94,Table35[#All],3,TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <f>VLOOKUP($A94,Table35[#All],4,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="E94" t="str">
+        <f>VLOOKUP($A94,Table35[#All],5,TRUE)</f>
+        <v>Create victory state transition with restart/ go to main menu buttons</v>
+      </c>
+      <c r="F94">
+        <f>VLOOKUP($A94,Table35[#All],6,TRUE)</f>
+        <v>16</v>
+      </c>
+      <c r="G94" t="str">
+        <f>VLOOKUP($F94,Table1[],2,TRUE)</f>
+        <v xml:space="preserve">Game </v>
+      </c>
+      <c r="H94" t="str">
+        <f>VLOOKUP($F94,Table1[],3,TRUE)</f>
+        <v>UI</v>
+      </c>
+      <c r="I94" t="str">
+        <f>VLOOKUP($F94,Table1[],4,TRUE)</f>
+        <v>Victory sequence</v>
+      </c>
+      <c r="J94" t="str">
+        <f>VLOOKUP($F94,Table1[],5,TRUE)</f>
+        <v>When the full game is beaten, a vicotry sequence begins which then allows the player to restart or go back to main menu</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>47</v>
+      </c>
+      <c r="B95">
+        <f>VLOOKUP($A95,Table35[#All],2,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <f>VLOOKUP($A95,Table35[#All],3,TRUE)</f>
+        <v>2</v>
+      </c>
+      <c r="D95">
+        <f>VLOOKUP($A95,Table35[#All],4,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="E95" t="str">
+        <f>VLOOKUP($A95,Table35[#All],5,TRUE)</f>
+        <v>Create second boss following same pattern as first boss</v>
+      </c>
+      <c r="F95">
+        <f>VLOOKUP($A95,Table35[#All],6,TRUE)</f>
+        <v>29</v>
+      </c>
+      <c r="G95" t="str">
+        <f>VLOOKUP($F95,Table1[],2,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="H95" t="str">
+        <f>VLOOKUP($F95,Table1[],3,TRUE)</f>
+        <v>Enemy</v>
+      </c>
+      <c r="I95" t="str">
+        <f>VLOOKUP($F95,Table1[],4,TRUE)</f>
+        <v>Boss</v>
+      </c>
+      <c r="J95" t="str">
+        <f>VLOOKUP($F95,Table1[],5,TRUE)</f>
+        <v>Bosses are enemies with a heavier data driven controller for larger attack animations and on hit effects</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>48</v>
+      </c>
+      <c r="B96">
+        <f>VLOOKUP($A96,Table35[#All],2,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <f>VLOOKUP($A96,Table35[#All],3,TRUE)</f>
+        <v>2</v>
+      </c>
+      <c r="D96">
+        <f>VLOOKUP($A96,Table35[#All],4,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="E96" t="str">
+        <f>VLOOKUP($A96,Table35[#All],5,TRUE)</f>
+        <v>Create third boss</v>
+      </c>
+      <c r="F96">
+        <f>VLOOKUP($A96,Table35[#All],6,TRUE)</f>
+        <v>29</v>
+      </c>
+      <c r="G96" t="str">
+        <f>VLOOKUP($F96,Table1[],2,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="H96" t="str">
+        <f>VLOOKUP($F96,Table1[],3,TRUE)</f>
+        <v>Enemy</v>
+      </c>
+      <c r="I96" t="str">
+        <f>VLOOKUP($F96,Table1[],4,TRUE)</f>
+        <v>Boss</v>
+      </c>
+      <c r="J96" t="str">
+        <f>VLOOKUP($F96,Table1[],5,TRUE)</f>
+        <v>Bosses are enemies with a heavier data driven controller for larger attack animations and on hit effects</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>57</v>
+      </c>
+      <c r="B97">
+        <f>VLOOKUP($A97,Table35[#All],2,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <f>VLOOKUP($A97,Table35[#All],3,TRUE)</f>
+        <v>2</v>
+      </c>
+      <c r="D97">
+        <f>VLOOKUP($A97,Table35[#All],4,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="E97" t="str">
+        <f>VLOOKUP($A97,Table35[#All],5,TRUE)</f>
+        <v>Create second map</v>
+      </c>
+      <c r="F97">
+        <f>VLOOKUP($A97,Table35[#All],6,TRUE)</f>
+        <v>34</v>
+      </c>
+      <c r="G97" t="str">
+        <f>VLOOKUP($F97,Table1[],2,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="H97" t="str">
+        <f>VLOOKUP($F97,Table1[],3,TRUE)</f>
+        <v>World</v>
+      </c>
+      <c r="I97" t="str">
+        <f>VLOOKUP($F97,Table1[],4,TRUE)</f>
+        <v>Levels</v>
+      </c>
+      <c r="J97" t="str">
+        <f>VLOOKUP($F97,Table1[],5,TRUE)</f>
+        <v>The game is made up of multiple maps which are each a level</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>58</v>
+      </c>
+      <c r="B98">
+        <f>VLOOKUP($A98,Table35[#All],2,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <f>VLOOKUP($A98,Table35[#All],3,TRUE)</f>
+        <v>2</v>
+      </c>
+      <c r="D98">
+        <f>VLOOKUP($A98,Table35[#All],4,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="E98" t="str">
+        <f>VLOOKUP($A98,Table35[#All],5,TRUE)</f>
+        <v>Create third map</v>
+      </c>
+      <c r="F98">
+        <f>VLOOKUP($A98,Table35[#All],6,TRUE)</f>
+        <v>34</v>
+      </c>
+      <c r="G98" t="str">
+        <f>VLOOKUP($F98,Table1[],2,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="H98" t="str">
+        <f>VLOOKUP($F98,Table1[],3,TRUE)</f>
+        <v>World</v>
+      </c>
+      <c r="I98" t="str">
+        <f>VLOOKUP($F98,Table1[],4,TRUE)</f>
+        <v>Levels</v>
+      </c>
+      <c r="J98" t="str">
+        <f>VLOOKUP($F98,Table1[],5,TRUE)</f>
+        <v>The game is made up of multiple maps which are each a level</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>70</v>
+      </c>
+      <c r="B99">
+        <f>VLOOKUP($A99,Table35[#All],2,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <f>VLOOKUP($A99,Table35[#All],3,TRUE)</f>
+        <v>2</v>
+      </c>
+      <c r="D99">
+        <f>VLOOKUP($A99,Table35[#All],4,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="E99" t="str">
+        <f>VLOOKUP($A99,Table35[#All],5,TRUE)</f>
+        <v>Implement Room Locking</v>
+      </c>
+      <c r="F99">
+        <f>VLOOKUP($A99,Table35[#All],6,TRUE)</f>
+        <v>32</v>
+      </c>
+      <c r="G99" t="str">
+        <f>VLOOKUP($F99,Table1[],2,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="H99" t="str">
+        <f>VLOOKUP($F99,Table1[],3,TRUE)</f>
+        <v>Map</v>
+      </c>
+      <c r="I99" t="str">
+        <f>VLOOKUP($F99,Table1[],4,TRUE)</f>
+        <v>Map generation</v>
+      </c>
+      <c r="J99" t="str">
+        <f>VLOOKUP($F99,Table1[],5,TRUE)</f>
+        <v>Maps are room based and lock all doors on player entry until enemies are cleares</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>25</v>
+      </c>
+      <c r="B100" t="str">
+        <f>VLOOKUP($A100,Table35[#All],2,TRUE)</f>
+        <v>&lt;</v>
+      </c>
+      <c r="C100">
+        <f>VLOOKUP($A100,Table35[#All],3,TRUE)</f>
+        <v>2</v>
+      </c>
+      <c r="D100">
+        <f>VLOOKUP($A100,Table35[#All],4,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="E100" t="str">
+        <f>VLOOKUP($A100,Table35[#All],5,TRUE)</f>
+        <v>Implement pause menu audio controls</v>
+      </c>
+      <c r="F100">
+        <f>VLOOKUP($A100,Table35[#All],6,TRUE)</f>
+        <v>12</v>
+      </c>
+      <c r="G100" t="str">
+        <f>VLOOKUP($F100,Table1[],2,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="H100" t="str">
+        <f>VLOOKUP($F100,Table1[],3,TRUE)</f>
+        <v>UI</v>
+      </c>
+      <c r="I100" t="str">
+        <f>VLOOKUP($F100,Table1[],4,TRUE)</f>
+        <v>Pause Menu Audio controls</v>
+      </c>
+      <c r="J100" t="str">
+        <f>VLOOKUP($F100,Table1[],5,TRUE)</f>
+        <v>Lowering and raising of the audio can be done through pause menu</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>26</v>
+      </c>
+      <c r="B101" t="str">
+        <f>VLOOKUP($A101,Table35[#All],2,TRUE)</f>
+        <v>/</v>
+      </c>
+      <c r="C101">
+        <f>VLOOKUP($A101,Table35[#All],3,TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <f>VLOOKUP($A101,Table35[#All],4,TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="E101" t="str">
+        <f>VLOOKUP($A101,Table35[#All],5,TRUE)</f>
+        <v>Implement a HUD that shows health, ammo, and current weapon</v>
+      </c>
+      <c r="F101">
+        <f>VLOOKUP($A101,Table35[#All],6,TRUE)</f>
+        <v>13</v>
+      </c>
+      <c r="G101" t="str">
+        <f>VLOOKUP($F101,Table1[],2,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="H101" t="str">
+        <f>VLOOKUP($F101,Table1[],3,TRUE)</f>
+        <v>UI</v>
+      </c>
+      <c r="I101" t="str">
+        <f>VLOOKUP($F101,Table1[],4,TRUE)</f>
+        <v>HUD</v>
+      </c>
+      <c r="J101" t="str">
+        <f>VLOOKUP($F101,Table1[],5,TRUE)</f>
+        <v>There is a HUD that shows health, ammo, and current weapon</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>55</v>
+      </c>
+      <c r="B102" t="str">
+        <f>VLOOKUP($A102,Table35[#All],2,TRUE)</f>
+        <v>&gt;</v>
+      </c>
+      <c r="C102">
+        <f>VLOOKUP($A102,Table35[#All],3,TRUE)</f>
+        <v>2</v>
+      </c>
+      <c r="D102">
+        <f>VLOOKUP($A102,Table35[#All],4,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="E102" t="str">
+        <f>VLOOKUP($A102,Table35[#All],5,TRUE)</f>
+        <v>Create multiple map integration</v>
+      </c>
+      <c r="F102">
+        <f>VLOOKUP($A102,Table35[#All],6,TRUE)</f>
+        <v>34</v>
+      </c>
+      <c r="G102" t="str">
+        <f>VLOOKUP($F102,Table1[],2,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="H102" t="str">
+        <f>VLOOKUP($F102,Table1[],3,TRUE)</f>
+        <v>World</v>
+      </c>
+      <c r="I102" t="str">
+        <f>VLOOKUP($F102,Table1[],4,TRUE)</f>
+        <v>Levels</v>
+      </c>
+      <c r="J102" t="str">
+        <f>VLOOKUP($F102,Table1[],5,TRUE)</f>
+        <v>The game is made up of multiple maps which are each a level</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>2</v>
+      </c>
+      <c r="B103" t="str">
+        <f>VLOOKUP($A103,Table35[#All],2,TRUE)</f>
+        <v>&gt;</v>
+      </c>
+      <c r="C103">
+        <f>VLOOKUP($A103,Table35[#All],3,TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <f>VLOOKUP($A103,Table35[#All],4,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="E103" t="str">
+        <f>VLOOKUP($A103,Table35[#All],5,TRUE)</f>
+        <v>Implement loading screen text and background</v>
+      </c>
+      <c r="F103">
+        <f>VLOOKUP($A103,Table35[#All],6,TRUE)</f>
+        <v>2</v>
+      </c>
+      <c r="G103" t="str">
+        <f>VLOOKUP($F103,Table1[],2,TRUE)</f>
+        <v>Loading Screen</v>
+      </c>
+      <c r="H103" t="str">
+        <f>VLOOKUP($F103,Table1[],3,TRUE)</f>
+        <v>Assets</v>
+      </c>
+      <c r="I103" t="str">
+        <f>VLOOKUP($F103,Table1[],4,TRUE)</f>
+        <v>Loading text/background</v>
+      </c>
+      <c r="J103" t="str">
+        <f>VLOOKUP($F103,Table1[],5,TRUE)</f>
+        <v>Loading screen has a background and loading screen text</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>69</v>
+      </c>
+      <c r="B104" t="str">
+        <f>VLOOKUP($A104,Table35[#All],2,TRUE)</f>
+        <v>*/</v>
+      </c>
+      <c r="C104">
+        <f>VLOOKUP($A104,Table35[#All],3,TRUE)</f>
+        <v>2</v>
+      </c>
+      <c r="D104">
+        <f>VLOOKUP($A104,Table35[#All],4,TRUE)</f>
+        <v>3</v>
+      </c>
+      <c r="E104" t="str">
+        <f>VLOOKUP($A104,Table35[#All],5,TRUE)</f>
+        <v>Find a different sprite sheet/ remove hands from current sprite sheet</v>
+      </c>
+      <c r="F104">
+        <f>VLOOKUP($A104,Table35[#All],6,TRUE)</f>
+        <v>7</v>
+      </c>
+      <c r="G104" t="str">
+        <f>VLOOKUP($F104,Table1[],2,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="H104" t="str">
+        <f>VLOOKUP($F104,Table1[],3,TRUE)</f>
+        <v>Weapons</v>
+      </c>
+      <c r="I104" t="str">
+        <f>VLOOKUP($F104,Table1[],4,TRUE)</f>
+        <v>Weapons</v>
+      </c>
+      <c r="J104" t="str">
+        <f>VLOOKUP($F104,Table1[],5,TRUE)</f>
+        <v>Weapons may be data driven with Weapon visual, VFX, and SFX</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>75</v>
+      </c>
+      <c r="B105" t="str">
+        <f>VLOOKUP($A105,Table35[#All],2,TRUE)</f>
+        <v>*/</v>
+      </c>
+      <c r="C105">
+        <f>VLOOKUP($A105,Table35[#All],3,TRUE)</f>
+        <v>6</v>
+      </c>
+      <c r="D105">
+        <f>VLOOKUP($A105,Table35[#All],4,TRUE)</f>
+        <v>3</v>
+      </c>
+      <c r="E105" t="str">
+        <f>VLOOKUP($A105,Table35[#All],5,TRUE)</f>
+        <v>Work with Dhi to implement art assets</v>
+      </c>
+      <c r="F105">
+        <f>VLOOKUP($A105,Table35[#All],6,TRUE)</f>
+        <v>36</v>
+      </c>
+      <c r="G105" t="str">
+        <f>VLOOKUP($F105,Table1[],2,TRUE)</f>
+        <v>Polish</v>
+      </c>
+      <c r="H105" t="str">
+        <f>VLOOKUP($F105,Table1[],3,TRUE)</f>
+        <v>Polish</v>
+      </c>
+      <c r="I105" t="str">
+        <f>VLOOKUP($F105,Table1[],4,TRUE)</f>
+        <v>Polish</v>
+      </c>
+      <c r="J105" t="str">
+        <f>VLOOKUP($F105,Table1[],5,TRUE)</f>
+        <v>Polish</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C106">
         <f>SUM(Table35678[Estimate])</f>
-        <v>0</v>
-      </c>
-      <c r="D84">
+        <v>40</v>
+      </c>
+      <c r="D106">
         <f>SUM(Table35678[Actual])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>96</v>
       </c>
-      <c r="B86" s="2">
+      <c r="B108" s="2">
         <v>44033</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>119</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B109" t="s">
         <v>121</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C109" t="s">
         <v>122</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D109" t="s">
         <v>123</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E109" t="s">
         <v>120</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F109" t="s">
         <v>92</v>
       </c>
-      <c r="G87" t="s">
+      <c r="G109" t="s">
         <v>14</v>
       </c>
-      <c r="H87" t="s">
+      <c r="H109" t="s">
         <v>6</v>
       </c>
-      <c r="I87" t="s">
+      <c r="I109" t="s">
         <v>15</v>
       </c>
-      <c r="J87" t="s">
+      <c r="J109" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C89">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C111">
         <f>SUM(Table356789[Estimate])</f>
         <v>0</v>
       </c>
-      <c r="D89">
+      <c r="D111">
         <f>SUM(Table356789[Actual])</f>
         <v>0</v>
       </c>
@@ -8300,10 +9454,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734CCCA4-3ECC-40E0-914B-329F4B230DBE}">
-  <dimension ref="A2:K50"/>
+  <dimension ref="A2:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9745,7 +10899,7 @@
         <v>2</v>
       </c>
       <c r="F42" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G42" t="s">
         <v>181</v>
@@ -9899,7 +11053,7 @@
         <v>44003</v>
       </c>
       <c r="B46">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C46" t="str">
         <f>VLOOKUP($B46,Table35[#All],2,TRUE)</f>
@@ -9911,15 +11065,15 @@
       </c>
       <c r="E46">
         <f>VLOOKUP($B46,Table35[#All],4,TRUE)</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F46" t="str">
         <f>VLOOKUP($B46,Table35[#All],5,TRUE)</f>
-        <v>Find/implement first 2 weapon assets (pistol/shotgun)</v>
+        <v>Add changing weapons to controller class</v>
       </c>
       <c r="G46">
         <f>VLOOKUP($B46,Table35[#All],6,TRUE)</f>
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="H46" t="str">
         <f>VLOOKUP($B46,Table35[#All],7,TRUE)</f>
@@ -9927,15 +11081,15 @@
       </c>
       <c r="I46" t="str">
         <f>VLOOKUP($B46,Table35[#All],8,TRUE)</f>
-        <v>Weapons</v>
+        <v>Player Controller</v>
       </c>
       <c r="J46" t="str">
         <f>VLOOKUP($B46,Table35[#All],9,TRUE)</f>
-        <v>Weapons</v>
+        <v>Changing weapons</v>
       </c>
       <c r="K46" t="str">
         <f>VLOOKUP($B46,Table35[#All],10,TRUE)</f>
-        <v>Weapons may be data driven with Weapon visual, VFX, and SFX</v>
+        <v>Player can change weapons with Q/E keys or controller Y button</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -9943,7 +11097,7 @@
         <v>44003</v>
       </c>
       <c r="B47">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C47" t="str">
         <f>VLOOKUP($B47,Table35[#All],2,TRUE)</f>
@@ -9951,19 +11105,19 @@
       </c>
       <c r="D47">
         <f>VLOOKUP($B47,Table35[#All],3,TRUE)</f>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="E47">
         <f>VLOOKUP($B47,Table35[#All],4,TRUE)</f>
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="F47" t="str">
         <f>VLOOKUP($B47,Table35[#All],5,TRUE)</f>
-        <v>Create Bullet Definition</v>
+        <v>Find/implement first 2 weapon assets (pistol/shotgun)</v>
       </c>
       <c r="G47">
         <f>VLOOKUP($B47,Table35[#All],6,TRUE)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H47" t="str">
         <f>VLOOKUP($B47,Table35[#All],7,TRUE)</f>
@@ -9975,11 +11129,11 @@
       </c>
       <c r="J47" t="str">
         <f>VLOOKUP($B47,Table35[#All],9,TRUE)</f>
-        <v>Bullets</v>
+        <v>Weapons</v>
       </c>
       <c r="K47" t="str">
         <f>VLOOKUP($B47,Table35[#All],10,TRUE)</f>
-        <v>Bullets may be data driven with damage, visuals, VFX, and SFX</v>
+        <v>Weapons may be data driven with Weapon visual, VFX, and SFX</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -9987,7 +11141,7 @@
         <v>44003</v>
       </c>
       <c r="B48">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C48" t="str">
         <f>VLOOKUP($B48,Table35[#All],2,TRUE)</f>
@@ -9995,19 +11149,19 @@
       </c>
       <c r="D48">
         <f>VLOOKUP($B48,Table35[#All],3,TRUE)</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E48">
         <f>VLOOKUP($B48,Table35[#All],4,TRUE)</f>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="F48" t="str">
         <f>VLOOKUP($B48,Table35[#All],5,TRUE)</f>
-        <v>Find/implement laser gun</v>
+        <v>Create Bullet Definition</v>
       </c>
       <c r="G48">
         <f>VLOOKUP($B48,Table35[#All],6,TRUE)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H48" t="str">
         <f>VLOOKUP($B48,Table35[#All],7,TRUE)</f>
@@ -10019,19 +11173,19 @@
       </c>
       <c r="J48" t="str">
         <f>VLOOKUP($B48,Table35[#All],9,TRUE)</f>
-        <v>Weapons</v>
+        <v>Bullets</v>
       </c>
       <c r="K48" t="str">
         <f>VLOOKUP($B48,Table35[#All],10,TRUE)</f>
-        <v>Weapons may be data driven with Weapon visual, VFX, and SFX</v>
+        <v>Bullets may be data driven with damage, visuals, VFX, and SFX</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>44004</v>
+        <v>44003</v>
       </c>
       <c r="B49">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C49" t="str">
         <f>VLOOKUP($B49,Table35[#All],2,TRUE)</f>
@@ -10039,7 +11193,7 @@
       </c>
       <c r="D49">
         <f>VLOOKUP($B49,Table35[#All],3,TRUE)</f>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="E49">
         <f>VLOOKUP($B49,Table35[#All],4,TRUE)</f>
@@ -10047,7 +11201,7 @@
       </c>
       <c r="F49" t="str">
         <f>VLOOKUP($B49,Table35[#All],5,TRUE)</f>
-        <v>Find/implement machine gun and flamethrower</v>
+        <v>Find/implement laser gun</v>
       </c>
       <c r="G49">
         <f>VLOOKUP($B49,Table35[#All],6,TRUE)</f>
@@ -10075,7 +11229,7 @@
         <v>44004</v>
       </c>
       <c r="B50">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C50" t="str">
         <f>VLOOKUP($B50,Table35[#All],2,TRUE)</f>
@@ -10083,7 +11237,7 @@
       </c>
       <c r="D50">
         <f>VLOOKUP($B50,Table35[#All],3,TRUE)</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E50">
         <f>VLOOKUP($B50,Table35[#All],4,TRUE)</f>
@@ -10091,7 +11245,7 @@
       </c>
       <c r="F50" t="str">
         <f>VLOOKUP($B50,Table35[#All],5,TRUE)</f>
-        <v>Find/implement rocket launcher</v>
+        <v>Find/implement machine gun and flamethrower</v>
       </c>
       <c r="G50">
         <f>VLOOKUP($B50,Table35[#All],6,TRUE)</f>
@@ -10112,6 +11266,578 @@
       <c r="K50" t="str">
         <f>VLOOKUP($B50,Table35[#All],10,TRUE)</f>
         <v>Weapons may be data driven with Weapon visual, VFX, and SFX</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>44004</v>
+      </c>
+      <c r="B51">
+        <v>16</v>
+      </c>
+      <c r="C51" t="str">
+        <f>VLOOKUP($B51,Table35[#All],2,TRUE)</f>
+        <v>X</v>
+      </c>
+      <c r="D51">
+        <f>VLOOKUP($B51,Table35[#All],3,TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <f>VLOOKUP($B51,Table35[#All],4,TRUE)</f>
+        <v>0.5</v>
+      </c>
+      <c r="F51" t="str">
+        <f>VLOOKUP($B51,Table35[#All],5,TRUE)</f>
+        <v>Find/implement rocket launcher</v>
+      </c>
+      <c r="G51">
+        <f>VLOOKUP($B51,Table35[#All],6,TRUE)</f>
+        <v>7</v>
+      </c>
+      <c r="H51" t="str">
+        <f>VLOOKUP($B51,Table35[#All],7,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="I51" t="str">
+        <f>VLOOKUP($B51,Table35[#All],8,TRUE)</f>
+        <v>Weapons</v>
+      </c>
+      <c r="J51" t="str">
+        <f>VLOOKUP($B51,Table35[#All],9,TRUE)</f>
+        <v>Weapons</v>
+      </c>
+      <c r="K51" t="str">
+        <f>VLOOKUP($B51,Table35[#All],10,TRUE)</f>
+        <v>Weapons may be data driven with Weapon visual, VFX, and SFX</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>44005</v>
+      </c>
+      <c r="B52">
+        <v>23</v>
+      </c>
+      <c r="C52" t="str">
+        <f>VLOOKUP($B52,Table35[#All],2,TRUE)</f>
+        <v>X</v>
+      </c>
+      <c r="D52">
+        <f>VLOOKUP($B52,Table35[#All],3,TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <f>VLOOKUP($B52,Table35[#All],4,TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="F52" t="str">
+        <f>VLOOKUP($B52,Table35[#All],5,TRUE)</f>
+        <v>Implement screen shake</v>
+      </c>
+      <c r="G52">
+        <f>VLOOKUP($B52,Table35[#All],6,TRUE)</f>
+        <v>10</v>
+      </c>
+      <c r="H52" t="str">
+        <f>VLOOKUP($B52,Table35[#All],7,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="I52" t="str">
+        <f>VLOOKUP($B52,Table35[#All],8,TRUE)</f>
+        <v>Camera</v>
+      </c>
+      <c r="J52" t="str">
+        <f>VLOOKUP($B52,Table35[#All],9,TRUE)</f>
+        <v>Screen shake</v>
+      </c>
+      <c r="K52" t="str">
+        <f>VLOOKUP($B52,Table35[#All],10,TRUE)</f>
+        <v>Camera has screen shaking for for big damage taken</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>44005</v>
+      </c>
+      <c r="B53">
+        <v>68</v>
+      </c>
+      <c r="C53" t="str">
+        <f>VLOOKUP($B53,Table35[#All],2,TRUE)</f>
+        <v>*X</v>
+      </c>
+      <c r="D53">
+        <f>VLOOKUP($B53,Table35[#All],3,TRUE)</f>
+        <v>2</v>
+      </c>
+      <c r="E53">
+        <f>VLOOKUP($B53,Table35[#All],4,TRUE)</f>
+        <v>4</v>
+      </c>
+      <c r="F53" t="str">
+        <f>VLOOKUP($B53,Table35[#All],5,TRUE)</f>
+        <v>Clean up weapon rendering</v>
+      </c>
+      <c r="G53">
+        <f>VLOOKUP($B53,Table35[#All],6,TRUE)</f>
+        <v>7</v>
+      </c>
+      <c r="H53" t="str">
+        <f>VLOOKUP($B53,Table35[#All],7,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="I53" t="str">
+        <f>VLOOKUP($B53,Table35[#All],8,TRUE)</f>
+        <v>Weapons</v>
+      </c>
+      <c r="J53" t="str">
+        <f>VLOOKUP($B53,Table35[#All],9,TRUE)</f>
+        <v>Weapons</v>
+      </c>
+      <c r="K53" t="str">
+        <f>VLOOKUP($B53,Table35[#All],10,TRUE)</f>
+        <v>Weapons may be data driven with Weapon visual, VFX, and SFX</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>44005</v>
+      </c>
+      <c r="B54">
+        <v>69</v>
+      </c>
+      <c r="C54" t="str">
+        <f>VLOOKUP($B54,Table35[#All],2,TRUE)</f>
+        <v>*/</v>
+      </c>
+      <c r="D54">
+        <f>VLOOKUP($B54,Table35[#All],3,TRUE)</f>
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <f>VLOOKUP($B54,Table35[#All],4,TRUE)</f>
+        <v>3</v>
+      </c>
+      <c r="F54" t="str">
+        <f>VLOOKUP($B54,Table35[#All],5,TRUE)</f>
+        <v>Find a different sprite sheet/ remove hands from current sprite sheet</v>
+      </c>
+      <c r="G54">
+        <f>VLOOKUP($B54,Table35[#All],6,TRUE)</f>
+        <v>7</v>
+      </c>
+      <c r="H54" t="str">
+        <f>VLOOKUP($B54,Table35[#All],7,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="I54" t="str">
+        <f>VLOOKUP($B54,Table35[#All],8,TRUE)</f>
+        <v>Weapons</v>
+      </c>
+      <c r="J54" t="str">
+        <f>VLOOKUP($B54,Table35[#All],9,TRUE)</f>
+        <v>Weapons</v>
+      </c>
+      <c r="K54" t="str">
+        <f>VLOOKUP($B54,Table35[#All],10,TRUE)</f>
+        <v>Weapons may be data driven with Weapon visual, VFX, and SFX</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>44009</v>
+      </c>
+      <c r="B55">
+        <v>40</v>
+      </c>
+      <c r="C55" t="str">
+        <f>VLOOKUP($B55,Table35[#All],2,TRUE)</f>
+        <v>X</v>
+      </c>
+      <c r="D55">
+        <f>VLOOKUP($B55,Table35[#All],3,TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <f>VLOOKUP($B55,Table35[#All],4,TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="F55" t="str">
+        <f>VLOOKUP($B55,Table35[#All],5,TRUE)</f>
+        <v>Add dodging to controller class</v>
+      </c>
+      <c r="G55">
+        <f>VLOOKUP($B55,Table35[#All],6,TRUE)</f>
+        <v>24</v>
+      </c>
+      <c r="H55" t="str">
+        <f>VLOOKUP($B55,Table35[#All],7,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="I55" t="str">
+        <f>VLOOKUP($B55,Table35[#All],8,TRUE)</f>
+        <v>Player Controller</v>
+      </c>
+      <c r="J55" t="str">
+        <f>VLOOKUP($B55,Table35[#All],9,TRUE)</f>
+        <v>Dodging</v>
+      </c>
+      <c r="K55" t="str">
+        <f>VLOOKUP($B55,Table35[#All],10,TRUE)</f>
+        <v>Player can dodge with space key or controller B button</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>44009</v>
+      </c>
+      <c r="B56">
+        <v>50</v>
+      </c>
+      <c r="C56" t="str">
+        <f>VLOOKUP($B56,Table35[#All],2,TRUE)</f>
+        <v>X</v>
+      </c>
+      <c r="D56">
+        <f>VLOOKUP($B56,Table35[#All],3,TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <f>VLOOKUP($B56,Table35[#All],4,TRUE)</f>
+        <v>0.5</v>
+      </c>
+      <c r="F56" t="str">
+        <f>VLOOKUP($B56,Table35[#All],5,TRUE)</f>
+        <v>Build Datadriven map from image file</v>
+      </c>
+      <c r="G56">
+        <f>VLOOKUP($B56,Table35[#All],6,TRUE)</f>
+        <v>31</v>
+      </c>
+      <c r="H56" t="str">
+        <f>VLOOKUP($B56,Table35[#All],7,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="I56" t="str">
+        <f>VLOOKUP($B56,Table35[#All],8,TRUE)</f>
+        <v>Map</v>
+      </c>
+      <c r="J56" t="str">
+        <f>VLOOKUP($B56,Table35[#All],9,TRUE)</f>
+        <v>Map editor</v>
+      </c>
+      <c r="K56" t="str">
+        <f>VLOOKUP($B56,Table35[#All],10,TRUE)</f>
+        <v>Maps are data driven and use an image with pixels determining what's on the terrain</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>44009</v>
+      </c>
+      <c r="B57">
+        <v>42</v>
+      </c>
+      <c r="C57" t="str">
+        <f>VLOOKUP($B57,Table35[#All],2,TRUE)</f>
+        <v>X</v>
+      </c>
+      <c r="D57">
+        <f>VLOOKUP($B57,Table35[#All],3,TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <f>VLOOKUP($B57,Table35[#All],4,TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="F57" t="str">
+        <f>VLOOKUP($B57,Table35[#All],5,TRUE)</f>
+        <v>Add interacting/picking up loot to controller</v>
+      </c>
+      <c r="G57">
+        <f>VLOOKUP($B57,Table35[#All],6,TRUE)</f>
+        <v>26</v>
+      </c>
+      <c r="H57" t="str">
+        <f>VLOOKUP($B57,Table35[#All],7,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="I57" t="str">
+        <f>VLOOKUP($B57,Table35[#All],8,TRUE)</f>
+        <v>Player Controller</v>
+      </c>
+      <c r="J57" t="str">
+        <f>VLOOKUP($B57,Table35[#All],9,TRUE)</f>
+        <v>Interact/pick up loot</v>
+      </c>
+      <c r="K57" t="str">
+        <f>VLOOKUP($B57,Table35[#All],10,TRUE)</f>
+        <v>Player can pick up weapons/interact with F key or controller A button</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>44009</v>
+      </c>
+      <c r="B58">
+        <v>51</v>
+      </c>
+      <c r="C58" t="str">
+        <f>VLOOKUP($B58,Table35[#All],2,TRUE)</f>
+        <v>X</v>
+      </c>
+      <c r="D58">
+        <f>VLOOKUP($B58,Table35[#All],3,TRUE)</f>
+        <v>2</v>
+      </c>
+      <c r="E58">
+        <f>VLOOKUP($B58,Table35[#All],4,TRUE)</f>
+        <v>2</v>
+      </c>
+      <c r="F58" t="str">
+        <f>VLOOKUP($B58,Table35[#All],5,TRUE)</f>
+        <v>Implement enemy spawning</v>
+      </c>
+      <c r="G58">
+        <f>VLOOKUP($B58,Table35[#All],6,TRUE)</f>
+        <v>32</v>
+      </c>
+      <c r="H58" t="str">
+        <f>VLOOKUP($B58,Table35[#All],7,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="I58" t="str">
+        <f>VLOOKUP($B58,Table35[#All],8,TRUE)</f>
+        <v>Map</v>
+      </c>
+      <c r="J58" t="str">
+        <f>VLOOKUP($B58,Table35[#All],9,TRUE)</f>
+        <v>Map generation</v>
+      </c>
+      <c r="K58" t="str">
+        <f>VLOOKUP($B58,Table35[#All],10,TRUE)</f>
+        <v>Maps are room based and lock all doors on player entry until enemies are cleares</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>44009</v>
+      </c>
+      <c r="B59">
+        <v>49</v>
+      </c>
+      <c r="C59" t="str">
+        <f>VLOOKUP($B59,Table35[#All],2,TRUE)</f>
+        <v>X</v>
+      </c>
+      <c r="D59">
+        <f>VLOOKUP($B59,Table35[#All],3,TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <f>VLOOKUP($B59,Table35[#All],4,TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="F59" t="str">
+        <f>VLOOKUP($B59,Table35[#All],5,TRUE)</f>
+        <v>Create loot capabilities in Actor definition</v>
+      </c>
+      <c r="G59">
+        <f>VLOOKUP($B59,Table35[#All],6,TRUE)</f>
+        <v>30</v>
+      </c>
+      <c r="H59" t="str">
+        <f>VLOOKUP($B59,Table35[#All],7,TRUE)</f>
+        <v xml:space="preserve">Game </v>
+      </c>
+      <c r="I59" t="str">
+        <f>VLOOKUP($B59,Table35[#All],8,TRUE)</f>
+        <v>Actors</v>
+      </c>
+      <c r="J59" t="str">
+        <f>VLOOKUP($B59,Table35[#All],9,TRUE)</f>
+        <v>Loot</v>
+      </c>
+      <c r="K59" t="str">
+        <f>VLOOKUP($B59,Table35[#All],10,TRUE)</f>
+        <v>Loot can be dropped from enemies for example weapons, and can be picked up</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>44009</v>
+      </c>
+      <c r="B60">
+        <v>69</v>
+      </c>
+      <c r="C60" t="str">
+        <f>VLOOKUP($B60,Table35[#All],2,TRUE)</f>
+        <v>*/</v>
+      </c>
+      <c r="D60">
+        <f>VLOOKUP($B60,Table35[#All],3,TRUE)</f>
+        <v>2</v>
+      </c>
+      <c r="E60">
+        <f>VLOOKUP($B60,Table35[#All],4,TRUE)</f>
+        <v>3</v>
+      </c>
+      <c r="F60" t="str">
+        <f>VLOOKUP($B60,Table35[#All],5,TRUE)</f>
+        <v>Find a different sprite sheet/ remove hands from current sprite sheet</v>
+      </c>
+      <c r="G60">
+        <f>VLOOKUP($B60,Table35[#All],6,TRUE)</f>
+        <v>7</v>
+      </c>
+      <c r="H60" t="str">
+        <f>VLOOKUP($B60,Table35[#All],7,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="I60" t="str">
+        <f>VLOOKUP($B60,Table35[#All],8,TRUE)</f>
+        <v>Weapons</v>
+      </c>
+      <c r="J60" t="str">
+        <f>VLOOKUP($B60,Table35[#All],9,TRUE)</f>
+        <v>Weapons</v>
+      </c>
+      <c r="K60" t="str">
+        <f>VLOOKUP($B60,Table35[#All],10,TRUE)</f>
+        <v>Weapons may be data driven with Weapon visual, VFX, and SFX</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>44009</v>
+      </c>
+      <c r="B61">
+        <v>75</v>
+      </c>
+      <c r="C61" t="str">
+        <f>VLOOKUP($B61,Table35[#All],2,TRUE)</f>
+        <v>*/</v>
+      </c>
+      <c r="D61">
+        <f>VLOOKUP($B61,Table35[#All],3,TRUE)</f>
+        <v>6</v>
+      </c>
+      <c r="E61">
+        <f>VLOOKUP($B61,Table35[#All],4,TRUE)</f>
+        <v>3</v>
+      </c>
+      <c r="F61" t="str">
+        <f>VLOOKUP($B61,Table35[#All],5,TRUE)</f>
+        <v>Work with Dhi to implement art assets</v>
+      </c>
+      <c r="G61">
+        <f>VLOOKUP($B61,Table35[#All],6,TRUE)</f>
+        <v>36</v>
+      </c>
+      <c r="H61" t="str">
+        <f>VLOOKUP($B61,Table35[#All],7,TRUE)</f>
+        <v>Polish</v>
+      </c>
+      <c r="I61" t="str">
+        <f>VLOOKUP($B61,Table35[#All],8,TRUE)</f>
+        <v>Polish</v>
+      </c>
+      <c r="J61" t="str">
+        <f>VLOOKUP($B61,Table35[#All],9,TRUE)</f>
+        <v>Polish</v>
+      </c>
+      <c r="K61" t="str">
+        <f>VLOOKUP($B61,Table35[#All],10,TRUE)</f>
+        <v>Polish</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>44010</v>
+      </c>
+      <c r="B62">
+        <v>46</v>
+      </c>
+      <c r="C62" t="str">
+        <f>VLOOKUP($B62,Table35[#All],2,TRUE)</f>
+        <v>X</v>
+      </c>
+      <c r="D62">
+        <f>VLOOKUP($B62,Table35[#All],3,TRUE)</f>
+        <v>3</v>
+      </c>
+      <c r="E62">
+        <f>VLOOKUP($B62,Table35[#All],4,TRUE)</f>
+        <v>3.5</v>
+      </c>
+      <c r="F62" t="str">
+        <f>VLOOKUP($B62,Table35[#All],5,TRUE)</f>
+        <v>Create first boss using enemies as a base. They will be enemies with bigger hitbox and multiple attacks</v>
+      </c>
+      <c r="G62">
+        <f>VLOOKUP($B62,Table35[#All],6,TRUE)</f>
+        <v>29</v>
+      </c>
+      <c r="H62" t="str">
+        <f>VLOOKUP($B62,Table35[#All],7,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="I62" t="str">
+        <f>VLOOKUP($B62,Table35[#All],8,TRUE)</f>
+        <v>Enemy</v>
+      </c>
+      <c r="J62" t="str">
+        <f>VLOOKUP($B62,Table35[#All],9,TRUE)</f>
+        <v>Boss</v>
+      </c>
+      <c r="K62" t="str">
+        <f>VLOOKUP($B62,Table35[#All],10,TRUE)</f>
+        <v>Bosses are enemies with a heavier data driven controller for larger attack animations and on hit effects</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>44010</v>
+      </c>
+      <c r="B63">
+        <v>26</v>
+      </c>
+      <c r="C63" t="str">
+        <f>VLOOKUP($B63,Table35[#All],2,TRUE)</f>
+        <v>/</v>
+      </c>
+      <c r="D63">
+        <f>VLOOKUP($B63,Table35[#All],3,TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <f>VLOOKUP($B63,Table35[#All],4,TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="F63" t="str">
+        <f>VLOOKUP($B63,Table35[#All],5,TRUE)</f>
+        <v>Implement a HUD that shows health, ammo, and current weapon</v>
+      </c>
+      <c r="G63">
+        <f>VLOOKUP($B63,Table35[#All],6,TRUE)</f>
+        <v>13</v>
+      </c>
+      <c r="H63" t="str">
+        <f>VLOOKUP($B63,Table35[#All],7,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="I63" t="str">
+        <f>VLOOKUP($B63,Table35[#All],8,TRUE)</f>
+        <v>UI</v>
+      </c>
+      <c r="J63" t="str">
+        <f>VLOOKUP($B63,Table35[#All],9,TRUE)</f>
+        <v>HUD</v>
+      </c>
+      <c r="K63" t="str">
+        <f>VLOOKUP($B63,Table35[#All],10,TRUE)</f>
+        <v>There is a HUD that shows health, ammo, and current weapon</v>
       </c>
     </row>
   </sheetData>
